--- a/new_scripts_WFO_main_source/naming/plants_gbif_matched_plus_wfo.xlsx
+++ b/new_scripts_WFO_main_source/naming/plants_gbif_matched_plus_wfo.xlsx
@@ -546,32 +546,32 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>wfo_query_used</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>wfo_match_wfo_id</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>wfo_match_full_name</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wfo_accepted_name</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>wfo_synonyms</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>wfo_synonym_count</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>wfo_method</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -673,35 +673,35 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>Vachellia collinsii</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>wfo-0001277422</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Vachellia collinsii (Saff.) Seigler &amp; Ebinger</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Vachellia collinsii (Saff.) Seigler &amp; Ebinger</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Acacia collinsii Saff. | Myrmecodendron collinsii (Saff.) Britton &amp; Rose | Myrmecodendron costaricense (Schenck) Britton &amp; Rose | Acacia nelsonii Saff. | Acacia panamensis Schenck | Acacia penonomensis Saff. | Acacia yucatanensis Schenck | Acacia costaricensis Schenck | Acacia glutea Ram.Goyena | Acacia penomensis Saff.</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>10</v>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Vachellia collinsii (Saff.) Seigler &amp; Ebinger", "wfo_id": "wfo-0001277422", "full_name_plain": "Vachellia collinsii (Saff.) Seigler &amp; Ebinger", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Vachellia'", "Word is found in index and so is part of name: 'collinsii'.", "Word is lowercase. Subsequent words must start with lowercase: 'collinsii'.", "Word contains non alpha chars and so is start of author string: '(Saff.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'collinsii'", "Authors string looks like this: '(Saff.) Seigler &amp; Ebinger'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Vachellia collinsii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Vachellia collinsii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001277422", "full_name_plain": "Vachellia collinsii (Saff.) Seigler &amp; Ebinger", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 10}}</t>
         </is>
       </c>
     </row>
@@ -800,21 +800,37 @@
           <t>Acalypha hispida Burm.f.</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Acalypha hispida</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>wfo-0000950668</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Acalypha hispida Burm.f.</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Acalypha hispida Burm.f.</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Acalypha sanderi N.E.Br. | Acalypha sanderi K.Schum. | Ricinocarpus hispidus (Burm.f.) Kuntze | Ricinocarpus spiciflorus (L.) Kuntze | Caturus spiciflorus L. | Acalypha densiflora Blume | Acalypha hispida var. sanderi (N.E.Br.) J.J.Sm. | Acalypha sanderi unranked alba Sander</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>8</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Acalypha hispida Burm.f.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Acalypha'", "Word is found in index and so is part of name: 'hispida'.", "Word is lowercase. Subsequent words must start with lowercase: 'hispida'.", "Word contains non alpha chars and so is start of author string: 'Burm.f.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'hispida'", "Authors string looks like this: 'Burm.f.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Acalypha hispida' and found 4 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 4 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Acalypha hispida", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000950668", "full_name_plain": "Acalypha hispida Burm.f.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 8}}</t>
         </is>
       </c>
     </row>
@@ -915,35 +931,35 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>Acorus gramineus</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>wfo-0000352676</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Acorus gramineus Aiton</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Acorus gramineus Aiton</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Acorus gramineus var. japonica M.Hotta | Acorus gramineus var. macrospadiceus Yamam. | Acorus gramineus var. pusillus (Siebold ex Miq.) Engl. | Acorus humilis Salisb. | Acorus macrospadiceus (Yamam.) F.N.Wei &amp; Y.K.Li | Acorus pusillus Siebold ex Miq. | Acorus xiangyeus Z.Y.Zhu | Acorus gramineus var. japonicus M.Hotta</t>
         </is>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>8</v>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Acorus gramineus Aiton", "wfo_id": "wfo-0000352676", "full_name_plain": "Acorus gramineus Aiton", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Acorus'", "Word is found in index and so is part of name: 'gramineus'.", "Word is lowercase. Subsequent words must start with lowercase: 'gramineus'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Aiton'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'gramineus'", "Authors string looks like this: 'Aiton'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Acorus gramineus' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Acorus gramineus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000352676", "full_name_plain": "Acorus gramineus Aiton", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 8}}</t>
         </is>
       </c>
     </row>
@@ -1042,21 +1058,37 @@
           <t>Adenanthera microsperma Teijsm. &amp; Binn.</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Adenanthera microsperma</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>wfo-0000187373</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Adenanthera microsperma Teijsm. &amp; Binn.</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Adenanthera microsperma Teijsm. &amp; Binn.</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Adenanthera tamarindifolia Pierre | Adenanthera pavonina var. microsperma (Teijsm. &amp; Binn.) I.C.Nielsen</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>2</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Adenanthera microsperma Teijsm. &amp; Binn.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Adenanthera'", "Word is found in index and so is part of name: 'microsperma'.", "Word is lowercase. Subsequent words must start with lowercase: 'microsperma'.", "Word contains non alpha chars and so is start of author string: 'Teijsm.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'microsperma'", "Authors string looks like this: 'Teijsm. &amp; Binn.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Adenanthera microsperma' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Adenanthera microsperma", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000187373", "full_name_plain": "Adenanthera microsperma Teijsm. &amp; Binn.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -1157,35 +1189,35 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>Aglaonema costatum</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>wfo-0000917172</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Aglaonema costatum N.E.Br.</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Aglaonema costatum N.E.Br.</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>Aglaonema costatum f. costatum | Aglaonema costatum var. foxii Engl. | Aglaonema costatum f. foxii (Engl.) Jervis | Aglaonema costatum var. immaculatum Ridl. | Aglaonema costatum f. immaculatum (Ridl.) Nicolson | Aglaonema costatum var. lineatum Engl. | Aglaonema costatum var. maculatum Engl. | Aglaonema costatum var. virescens Ridl. ex Engl. | Aglaonema costatum f. virescens (Ridl. ex Engl.) Nicolson | Aglaonema costatum f. concolor Nicolson</t>
         </is>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>10</v>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aglaonema costatum N.E.Br.", "wfo_id": "wfo-0000917172", "full_name_plain": "Aglaonema costatum N.E.Br.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aglaonema'", "Word is found in index and so is part of name: 'costatum'.", "Word is lowercase. Subsequent words must start with lowercase: 'costatum'.", "Word contains non alpha chars and so is start of author string: 'N.E.Br.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'costatum'", "Authors string looks like this: 'N.E.Br.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aglaonema costatum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aglaonema costatum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000917172", "full_name_plain": "Aglaonema costatum N.E.Br.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 10}}</t>
         </is>
       </c>
     </row>
@@ -1286,35 +1318,35 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>Aglaonema modestum</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>wfo-0000921877</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Aglaonema modestum Schott ex Engl.</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Aglaonema modestum Schott ex Engl.</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Aglaonema acutispathum N.E.Br. | Aglaonema costatum var. viride Engl. | Aglaonema laoticum Gagnep.</t>
         </is>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>3</v>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aglaonema modestum Schott ex Engl.", "wfo_id": "wfo-0000921877", "full_name_plain": "Aglaonema modestum Schott ex Engl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aglaonema'", "Word is found in index and so is part of name: 'modestum'.", "Word is lowercase. Subsequent words must start with lowercase: 'modestum'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Schott'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'modestum'", "Authors string looks like this: 'Schott ex Engl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aglaonema modestum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aglaonema modestum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000921877", "full_name_plain": "Aglaonema modestum Schott ex Engl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -1415,35 +1447,35 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
+          <t>Aglaonema nitidum</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>wfo-0000922580</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Aglaonema nitidum (Jack) Kunth</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Aglaonema nitidum (Jack) Kunth</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>Arum integrifolium Link | Calla nitida Jack | Aglaonema helferi Hook.f. | Aglaonema integrifolium (Link) Schott | Aglaonema nitidum f. cinereum Jervis | Aglaonema nitidum f. curtisii (N.E.Br.) Nicolson | Aglaonema nitidum var. helferi (Hook.f.) Nicolson | Aglaonema nitidum var. nitidum | Aglaonema oblanceolatum Alderw. | Aglaonema oblanceolatum f. maximum Alderw. | Aglaonema oblongifolium Schott | Aglaonema oblongifolium var. curtisii N.E.Br. | Aglaonema princeps Kunth</t>
         </is>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>13</v>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aglaonema nitidum (Jack) Kunth", "wfo_id": "wfo-0000922580", "full_name_plain": "Aglaonema nitidum (Jack) Kunth", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aglaonema'", "Word is found in index and so is part of name: 'nitidum'.", "Word is lowercase. Subsequent words must start with lowercase: 'nitidum'.", "Word contains non alpha chars and so is start of author string: '(Jack)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'nitidum'", "Authors string looks like this: '(Jack) Kunth'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aglaonema nitidum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aglaonema nitidum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000922580", "full_name_plain": "Aglaonema nitidum (Jack) Kunth", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 13}}</t>
         </is>
       </c>
     </row>
@@ -1542,21 +1574,37 @@
           <t>Allamanda schottii Pohl</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Allamanda schottii</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>wfo-0000943350</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Allamanda schottii Hook.</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Allamanda</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Allamanda cathartica L.</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Allamanda schottii Pohl", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Allamanda'", "Word is found in index and so is part of name: 'schottii'.", "Word is lowercase. Subsequent words must start with lowercase: 'schottii'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Pohl'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'schottii'", "Authors string looks like this: 'Pohl'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Allamanda schottii' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Allamanda schottii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000943350", "full_name_plain": "Allamanda schottii Hook.", "attempts_count": 2, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -1657,35 +1705,35 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
+          <t>Alpinia purpurata</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>wfo-0000338713</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Alpinia purpurata (Vieill.) K.Schum.</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>Alpinia purpurata (Vieill.) K.Schum.</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>Alpinia grandis K.Schum. | Alpinia purpurata var. albobracteata K.Schum. | Alpinia purpurata var. anomala Gagnep. | Alpinia purpurata var. grandis (K.Schum.) K.Schum. | Guillainia novoebudica F.Muell. | Guillainia purpurata Vieill. | Languas purpurata (Vieill.) Kaneh.</t>
         </is>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>7</v>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Alpinia purpurata (Vieill.) K.Schum.", "wfo_id": "wfo-0000338713", "full_name_plain": "Alpinia purpurata (Vieill.) K.Schum.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Alpinia'", "Word is found in index and so is part of name: 'purpurata'.", "Word is lowercase. Subsequent words must start with lowercase: 'purpurata'.", "Word contains non alpha chars and so is start of author string: '(Vieill.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'purpurata'", "Authors string looks like this: '(Vieill.) K.Schum.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Alpinia purpurata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Alpinia purpurata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000338713", "full_name_plain": "Alpinia purpurata (Vieill.) K.Schum.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 7}}</t>
         </is>
       </c>
     </row>
@@ -1786,35 +1834,35 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>Alpinia vittata</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
           <t>wfo-0000338842</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>Alpinia vittata W.Bull</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>Alpinia vittata W.Bull</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>Alpinia sanderae Sander | Alpinia tricolor Sander | Guillainia vittata (W.Bull) W.Bull</t>
         </is>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>3</v>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Alpinia vittata W.Bull", "wfo_id": "wfo-0000338842", "full_name_plain": "Alpinia vittata W.Bull", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Alpinia'", "Word is found in index and so is part of name: 'vittata'.", "Word is lowercase. Subsequent words must start with lowercase: 'vittata'.", "Word contains non alpha chars and so is start of author string: 'W.Bull'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'vittata'", "Authors string looks like this: 'W.Bull'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Alpinia vittata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Alpinia vittata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000338842", "full_name_plain": "Alpinia vittata W.Bull", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -1915,35 +1963,35 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>Alpinia zerumbet</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>wfo-0000338850</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>Alpinia fimbriata Gagnep. | Alpinia fluvitialis Hayata | Alpinia schumanniana Valeton | Alpinia speciosa (J.C.Wendl.) K.Schum. | Alpinia nutans var. longiramosa Gagnep. | Amomum nutans (Andrews) Schult. | Catimbium nutans (Andrews) T.Lestib. | Catimbium speciosum (J.C.Wendl.) Holttum | Costus zerumbet Pers. | Languas schumanniana (Valeton) Sasaki | Languas speciosa (J.C.Wendl.) Small | Renealmia nutans Andrews | Renealmia spectabilis Rusby | Zerumbet speciosum J.C.Wendl. | Alpinia speciosa var. longiramosa Gagnep.</t>
         </is>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>15</v>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.", "wfo_id": "wfo-0000338850", "full_name_plain": "Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Alpinia'", "Word is found in index and so is part of name: 'zerumbet'.", "Word is lowercase. Subsequent words must start with lowercase: 'zerumbet'.", "Word contains non alpha chars and so is start of author string: '(Pers.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'zerumbet'", "Authors string looks like this: '(Pers.) B.L.Burtt &amp; R.M.Sm.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Alpinia zerumbet' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Alpinia zerumbet", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000338850", "full_name_plain": "Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 15}}</t>
         </is>
       </c>
     </row>
@@ -2044,35 +2092,35 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
+          <t>Alpinia zerumbet</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>wfo-0000338850</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>Alpinia fimbriata Gagnep. | Alpinia fluvitialis Hayata | Alpinia schumanniana Valeton | Alpinia speciosa (J.C.Wendl.) K.Schum. | Alpinia nutans var. longiramosa Gagnep. | Amomum nutans (Andrews) Schult. | Catimbium nutans (Andrews) T.Lestib. | Catimbium speciosum (J.C.Wendl.) Holttum | Costus zerumbet Pers. | Languas schumanniana (Valeton) Sasaki | Languas speciosa (J.C.Wendl.) Small | Renealmia nutans Andrews | Renealmia spectabilis Rusby | Zerumbet speciosum J.C.Wendl. | Alpinia speciosa var. longiramosa Gagnep.</t>
         </is>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>15</v>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.", "wfo_id": "wfo-0000338850", "full_name_plain": "Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Alpinia'", "Word is found in index and so is part of name: 'zerumbet'.", "Word is lowercase. Subsequent words must start with lowercase: 'zerumbet'.", "Word contains non alpha chars and so is start of author string: '(Pers.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'zerumbet'", "Authors string looks like this: '(Pers.) B.L.Burtt &amp; R.M.Sm.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Alpinia zerumbet' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Alpinia zerumbet", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000338850", "full_name_plain": "Alpinia zerumbet (Pers.) B.L.Burtt &amp; R.M.Sm.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 15}}</t>
         </is>
       </c>
     </row>
@@ -2173,35 +2221,35 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
+          <t>Ananas comosus</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
           <t>wfo-0000339432</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>Ananas comosus (L.) Merr.</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Ananas comosus (L.) Merr.</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Ananas comosus var. bracteatus (Lindl.) Coppens &amp; F.Leal | Ananas comosus var. comosus | Ananas comosus var. erectifolius (L.B.Sm.) Coppens &amp; F.Leal | Ananas comosus var. microstachys (Mez) L.B.Sm. | Ananas comosus var. parguazensis (Camargo &amp; L.B.Sm.) Coppens &amp; F.Leal | Ananas bracteatus Baker | Ananas coccineus Descourt. | Ananas sativus var. variegatus Lowe | Ananassa sativa Lindl. | Bromelia comosa L. | Bromelia rubra hort. ex Schult.f. | Ananas sativa Lindl. | Ananas acostae C.Commelijn</t>
-        </is>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Ananas bracteatus Baker | Ananas coccineus Descourt. | Ananas sativus var. variegatus Lowe | Ananassa sativa Lindl. | Bromelia comosa L. | Bromelia rubra hort. ex Schult.f. | Ananas sativa Lindl. | Ananas acostae C.Commelijn</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>8</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ananas comosus (L.) Merr.", "wfo_id": "wfo-0000339432", "full_name_plain": "Ananas comosus (L.) Merr.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ananas'", "Word is found in index and so is part of name: 'comosus'.", "Word is lowercase. Subsequent words must start with lowercase: 'comosus'.", "Word contains non alpha chars and so is start of author string: '(L.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'comosus'", "Authors string looks like this: '(L.) Merr.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ananas comosus' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ananas comosus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000339432", "full_name_plain": "Ananas comosus (L.) Merr.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 8}}</t>
         </is>
       </c>
     </row>
@@ -2294,35 +2342,35 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>Angraecum eburneum</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
           <t>wfo-0000976619</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Angraecum eburneum Bory</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Angraecum eburneum Bory</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Angraecum eburneum subsp. eburneum | Angraecum eburneum subsp. giryamae (Rendle) Senghas &amp; P.J.Cribb | Angraecum eburneum subsp. superbum (Thouars) H.Perrier | Angraecum eburneum subsp. xerophilum H.Perrier | Limodorum eburneum (Bory) Willd. | Angorchis eburnea (Bory) Kuntze | Angorkis eburnangis Thouars</t>
-        </is>
-      </c>
-      <c r="AA15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Limodorum eburneum (Bory) Willd. | Angorchis eburnea (Bory) Kuntze | Angorkis eburnangis Thouars</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>3</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Angraecum eburneum Bory", "wfo_id": "wfo-0000976619", "full_name_plain": "Angraecum eburneum Bory", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Angraecum'", "Word is found in index and so is part of name: 'eburneum'.", "Word is lowercase. Subsequent words must start with lowercase: 'eburneum'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Bory'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'eburneum'", "Authors string looks like this: 'Bory'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Angraecum eburneum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Angraecum eburneum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000976619", "full_name_plain": "Angraecum eburneum Bory", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -2415,35 +2463,35 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
+          <t>Anthurium digitatum</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
           <t>wfo-0000224360</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>Anthurium digitatum (Jacq.) Schott</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>Anthurium digitatum (Jacq.) Schott</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>Anthurium pentaphyllum var. digitatum (Jacq.) Madison | Pothos digitata Jacq. | Anthurium digitatum var. connatum Engl.</t>
         </is>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>3</v>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Anthurium digitatum (Jacq.) Schott", "wfo_id": "wfo-0000224360", "full_name_plain": "Anthurium digitatum (Jacq.) Schott", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Anthurium'", "Word is found in index and so is part of name: 'digitatum'.", "Word is lowercase. Subsequent words must start with lowercase: 'digitatum'.", "Word contains non alpha chars and so is start of author string: '(Jacq.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'digitatum'", "Authors string looks like this: '(Jacq.) Schott'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Anthurium digitatum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Anthurium digitatum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000224360", "full_name_plain": "Anthurium digitatum (Jacq.) Schott", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -2544,35 +2592,35 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
+          <t>Anthurium schlechtendalii</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
           <t>wfo-0000232488</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>Anthurium schlechtendalii Kunth</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Anthurium schlechtendalii Kunth</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Anthurium schlechtendalii subsp. jimenezii (Matuda) Croat | Anthurium schlechtendalii subsp. schlechtendalii | Pothos schlechtendalii (Kunth) M.Martens &amp; Galeotti</t>
-        </is>
-      </c>
-      <c r="AA17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Pothos schlechtendalii (Kunth) M.Martens &amp; Galeotti</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>1</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Anthurium schlechtendalii Kunth", "wfo_id": "wfo-0000232488", "full_name_plain": "Anthurium schlechtendalii Kunth", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Anthurium'", "Word is found in index and so is part of name: 'schlechtendalii'.", "Word is lowercase. Subsequent words must start with lowercase: 'schlechtendalii'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Kunth'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'schlechtendalii'", "Authors string looks like this: 'Kunth'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Anthurium schlechtendalii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Anthurium schlechtendalii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000232488", "full_name_plain": "Anthurium schlechtendalii Kunth", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -2665,31 +2713,31 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
+          <t>Anthurium vittariifolium</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
           <t>wfo-0000234460</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>Anthurium vittariifolium Engl.</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Anthurium vittariifolium Engl.</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="n">
         <v>0</v>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Anthurium vittariifolium Engl.", "wfo_id": "wfo-0000234460", "full_name_plain": "Anthurium vittariifolium Engl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Anthurium'", "Word is found in index and so is part of name: 'vittariifolium'.", "Word is lowercase. Subsequent words must start with lowercase: 'vittariifolium'.", "Word contains non alpha chars and so is start of author string: 'Engl.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'vittariifolium'", "Authors string looks like this: 'Engl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Anthurium vittariifolium' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Anthurium vittariifolium", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000234460", "full_name_plain": "Anthurium vittariifolium Engl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -2782,35 +2830,35 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
+          <t>Aristolochia fimbriata</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
           <t>wfo-0000547788</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>Aristolochia fimbriata Cham.</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>Aristolochia fimbriata Cham.</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>Aristolochia bonplandii Ten. | Aristolochia ciliata Hook. | Aristolochia ciliosa Benth. | Aristolochia insignis Verschaff. | Howardia fimbriata Klotzsch</t>
         </is>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>5</v>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aristolochia fimbriata Cham.", "wfo_id": "wfo-0000547788", "full_name_plain": "Aristolochia fimbriata Cham.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aristolochia'", "Word is found in index and so is part of name: 'fimbriata'.", "Word is lowercase. Subsequent words must start with lowercase: 'fimbriata'.", "Word contains non alpha chars and so is start of author string: 'Cham.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'fimbriata'", "Authors string looks like this: 'Cham.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aristolochia fimbriata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aristolochia fimbriata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000547788", "full_name_plain": "Aristolochia fimbriata Cham.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 5}}</t>
         </is>
       </c>
     </row>
@@ -2909,21 +2957,37 @@
           <t>Aristolochia gigantea Mart. &amp; Zucc.</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Aristolochia gigantea</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>wfo-0000547827</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Aristolochia gigantea Mart.</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Aristolochia</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Aristolochia gigantea Mart. &amp; Zucc.</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>1</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aristolochia gigantea Mart. &amp; Zucc.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aristolochia'", "Word is found in index and so is part of name: 'gigantea'.", "Word is lowercase. Subsequent words must start with lowercase: 'gigantea'.", "Word contains non alpha chars and so is start of author string: 'Mart.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'gigantea'", "Authors string looks like this: 'Mart. &amp; Zucc.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aristolochia gigantea' and found 3 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 3 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aristolochia gigantea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000547827", "full_name_plain": "Aristolochia gigantea Mart.", "attempts_count": 2, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -3022,21 +3086,37 @@
           <t>Aristolochia grandiflora Sw.</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Aristolochia grandiflora</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>wfo-0000745363</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Aristolochia grandiflora Arruda</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Aristolochia</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Aristolochia ringens Vahl</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>1</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aristolochia grandiflora Sw.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aristolochia'", "Word is found in index and so is part of name: 'grandiflora'.", "Word is lowercase. Subsequent words must start with lowercase: 'grandiflora'.", "Word contains non alpha chars and so is start of author string: 'Sw.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'grandiflora'", "Authors string looks like this: 'Sw.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aristolochia grandiflora' and found 4 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 4 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aristolochia grandiflora", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000745363", "full_name_plain": "Aristolochia grandiflora Arruda", "attempts_count": 2, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -3137,35 +3217,35 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
+          <t>Aristolochia labiata</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
           <t>wfo-0000547955</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>Aristolochia labiata Willd.</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>Aristolochia labiata Willd.</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
         <is>
           <t>Aristolochia brasiliensis Mart. | Aristolochia brasiliensis var. galeata (Mart.) Hoehne | Aristolochia brasiliensis var. macrophylla Duch. | Aristolochia brasiliensis var. parviflora Duch. | Aristolochia galeata Mart. | Aristolochia macrorrhyncha Hoehne | Aristolochia ornithocephala Hook. | Aristolochia ringens Link &amp; Otto</t>
         </is>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>8</v>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aristolochia labiata Willd.", "wfo_id": "wfo-0000547955", "full_name_plain": "Aristolochia labiata Willd.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aristolochia'", "Word is found in index and so is part of name: 'labiata'.", "Word is lowercase. Subsequent words must start with lowercase: 'labiata'.", "Word contains non alpha chars and so is start of author string: 'Willd.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'labiata'", "Authors string looks like this: 'Willd.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aristolochia labiata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aristolochia labiata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000547955", "full_name_plain": "Aristolochia labiata Willd.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 8}}</t>
         </is>
       </c>
     </row>
@@ -3264,21 +3344,37 @@
           <t>Aristolochia maxima Jacq.</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Aristolochia maxima</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>wfo-0000548053</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Aristolochia maxima Jacq.</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Aristolochia maxima Jacq.</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Aristolochia biflora Willd. ex Duch. | Aristolochia dammeriana Mast. | Aristolochia geminiflora Kunth | Aristolochia maxima var. angustifolia Duch. | Aristolochia maxima var. geminiflora (Kunth) Duch. | Aristolochia mexicana D.Dietr. | Aristolochia oblongifolia Brandegee | Aristolochia reticulata Holton ex Duch. | Aristolochia wageneriana Schltdl. | Howardia geminiflora (Kunth) Klotzsch | Howardia golmeri Klotzsch | Howardia hoffmannii Klotzsch | Howardia maxima (Jacq.) Klotzsch | Aristolochia maxima var. maxima | Howardia gollmeri Klotzsch</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>15</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aristolochia maxima Jacq.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aristolochia'", "Word is found in index and so is part of name: 'maxima'.", "Word is lowercase. Subsequent words must start with lowercase: 'maxima'.", "Word contains non alpha chars and so is start of author string: 'Jacq.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'maxima'", "Authors string looks like this: 'Jacq.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aristolochia maxima' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aristolochia maxima", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000548053", "full_name_plain": "Aristolochia maxima Jacq.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 15}}</t>
         </is>
       </c>
     </row>
@@ -3377,21 +3473,37 @@
           <t>Aristolochia ringens Vahl</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Aristolochia ringens</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>wfo-0000548271</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Aristolochia ringens Vahl</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Aristolochia ringens Vahl</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Aristolochia globiflora Mutis | Aristolochia turbacensis Kunth | Howardia ringens (Vahl) Klotzsch | Aristolochia grandiflora Arruda | Howardia galeata Klotzsch | Howardia cymbifera Klotzsch | Aristolochia grandiflora Vahl</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>7</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aristolochia ringens Vahl", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aristolochia'", "Word is found in index and so is part of name: 'ringens'.", "Word is lowercase. Subsequent words must start with lowercase: 'ringens'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Vahl'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'ringens'", "Authors string looks like this: 'Vahl'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aristolochia ringens' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aristolochia ringens", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000548271", "full_name_plain": "Aristolochia ringens Vahl", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 7}}</t>
         </is>
       </c>
     </row>
@@ -3490,21 +3602,37 @@
           <t>Aristolochia trilobata L.</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Aristolochia trilobata</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>wfo-0000548425</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Aristolochia trilobata L.</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Aristolochia trilobata L.</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Passiflora caloneura Kurz | Aristolochia appendiculata Vell. | Aristolochia caracasana Spreng. | Aristolochia trifida Lam. | Aristolochia triloba Salisb. | Howardia trilobata (L.) Klotzsch | Howardia trifida Klotzsch</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>7</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aristolochia trilobata L.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aristolochia'", "Word is found in index and so is part of name: 'trilobata'.", "Word is lowercase. Subsequent words must start with lowercase: 'trilobata'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'trilobata'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aristolochia trilobata' and found 3 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 3 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aristolochia trilobata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000548425", "full_name_plain": "Aristolochia trilobata L.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 7}}</t>
         </is>
       </c>
     </row>
@@ -3597,35 +3725,35 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
+          <t>Aristolochia zollingeriana</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
           <t>wfo-0000548485</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>Aristolochia zollingeriana Miq.</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>Aristolochia zollingeriana Miq.</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>Aristolochia hastata Klotzsch | Aristolochia kankauensis Sasaki | Aristolochia ramosii Merr. | Aristolochia tagala var. kankaoensis (Sasaki) T.Yamaz. | Aristolochia roxburghiana subsp. kankauensis (Sasaki) Kitam. | Hocquartia kankauensis (Sasaki) Nakai ex Masam.</t>
         </is>
       </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="n">
         <v>6</v>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Aristolochia zollingeriana Miq.", "wfo_id": "wfo-0000548485", "full_name_plain": "Aristolochia zollingeriana Miq.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Aristolochia'", "Word is found in index and so is part of name: 'zollingeriana'.", "Word is lowercase. Subsequent words must start with lowercase: 'zollingeriana'.", "Word contains non alpha chars and so is start of author string: 'Miq.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'zollingeriana'", "Authors string looks like this: 'Miq.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Aristolochia zollingeriana' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Aristolochia zollingeriana", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000548485", "full_name_plain": "Aristolochia zollingeriana Miq.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -3724,21 +3852,37 @@
           <t>Asplenium nidus L.</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Asplenium nidus</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>wfo-0001108020</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Asplenium nidus L.</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Asplenium nidus L.</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Asplenium ellipticum (Fée) Copel. | Neottopteris elliptica Fée | Neottopteris ovata J.Sm.; Fee | Neottopteris stenocarpa Fée | Neottopteris vulgaris J.Sm. | Thamnopteris nidus (L.) C.Presl | Neottopteris nidus J.Sm. | Neottopteris rigida Fée | Asplenium ficifolium Goldm. | Asplenium nidus var. nidus | Tarachia simplex (Mett.) C.Presl | Polypodium giganteum Noronha | Asplenium simplex Mett. | Asplenium scolopendrium Lour. | Neottopteris nidus (L.) J.Sm. ex Hook. | Asplenium nidus var. plicatum Alderw.</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>16</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Asplenium nidus L.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Asplenium'", "Word is found in index and so is part of name: 'nidus'.", "Word is lowercase. Subsequent words must start with lowercase: 'nidus'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'nidus'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Asplenium nidus' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Asplenium nidus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0001108020", "full_name_plain": "Asplenium nidus L.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 16}}</t>
         </is>
       </c>
     </row>
@@ -3839,35 +3983,35 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
+          <t>Averrhoa carambola</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
           <t>wfo-0000557405</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>Averrhoa carambola L.</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Z28" t="inlineStr">
         <is>
           <t>Averrhoa carambola L.</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>Averrhoa acutangula Stokes | Averrhoa pentandra Blanco | Connaropsis philippica Fern.-Vill. | Sarcotheca philippica (Fern.-Vill.) Hallier f.</t>
         </is>
       </c>
-      <c r="AA28" t="n">
+      <c r="AB28" t="n">
         <v>4</v>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Averrhoa carambola L.", "wfo_id": "wfo-0000557405", "full_name_plain": "Averrhoa carambola L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Averrhoa'", "Word is found in index and so is part of name: 'carambola'.", "Word is lowercase. Subsequent words must start with lowercase: 'carambola'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'carambola'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Averrhoa carambola' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Averrhoa carambola", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000557405", "full_name_plain": "Averrhoa carambola L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -3968,35 +4112,35 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
+          <t>Averrhoa carambola</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
           <t>wfo-0000557405</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>Averrhoa carambola L.</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>Averrhoa carambola L.</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>Averrhoa acutangula Stokes | Averrhoa pentandra Blanco | Connaropsis philippica Fern.-Vill. | Sarcotheca philippica (Fern.-Vill.) Hallier f.</t>
         </is>
       </c>
-      <c r="AA29" t="n">
+      <c r="AB29" t="n">
         <v>4</v>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Averrhoa carambola L.", "wfo_id": "wfo-0000557405", "full_name_plain": "Averrhoa carambola L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Averrhoa'", "Word is found in index and so is part of name: 'carambola'.", "Word is lowercase. Subsequent words must start with lowercase: 'carambola'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'carambola'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Averrhoa carambola' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Averrhoa carambola", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000557405", "full_name_plain": "Averrhoa carambola L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -4097,35 +4241,35 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
+          <t>Averrhoa carambola</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
           <t>wfo-0000557405</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="Y30" t="inlineStr">
         <is>
           <t>Averrhoa carambola L.</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>Averrhoa carambola L.</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>Averrhoa acutangula Stokes | Averrhoa pentandra Blanco | Connaropsis philippica Fern.-Vill. | Sarcotheca philippica (Fern.-Vill.) Hallier f.</t>
         </is>
       </c>
-      <c r="AA30" t="n">
+      <c r="AB30" t="n">
         <v>4</v>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Averrhoa carambola L.", "wfo_id": "wfo-0000557405", "full_name_plain": "Averrhoa carambola L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Averrhoa'", "Word is found in index and so is part of name: 'carambola'.", "Word is lowercase. Subsequent words must start with lowercase: 'carambola'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'carambola'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Averrhoa carambola' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Averrhoa carambola", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000557405", "full_name_plain": "Averrhoa carambola L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -4216,21 +4360,37 @@
           <t>Begonia listada L.B.Sm. &amp; Wassh.</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Begonia listada</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>wfo-0000824596</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Begonia listada L.B.Sm. &amp; Wassh.</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Begonia listada L.B.Sm. &amp; Wassh.</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Begonia listada hort.</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>1</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Begonia listada L.B.Sm. &amp; Wassh.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Begonia'", "Word is found in index and so is part of name: 'listada'.", "Word is lowercase. Subsequent words must start with lowercase: 'listada'.", "Word contains non alpha chars and so is start of author string: 'L.B.Sm.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'listada'", "Authors string looks like this: 'L.B.Sm. &amp; Wassh.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Begonia listada' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Begonia listada", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000824596", "full_name_plain": "Begonia listada L.B.Sm. &amp; Wassh.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -4321,21 +4481,33 @@
           <t>Begonia solimutata L.B.Sm. &amp; Wassh.</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="n">
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Begonia solimutata</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>wfo-0000825560</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Begonia soli-mutata L.B.Sm. &amp; Wassh.</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Begonia soli-mutata L.B.Sm. &amp; Wassh.</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="n">
         <v>0</v>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Begonia solimutata L.B.Sm. &amp; Wassh.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Begonia'", "Word is found in index and so is part of name: 'solimutata'.", "Word is lowercase. Subsequent words must start with lowercase: 'solimutata'.", "Word contains non alpha chars and so is start of author string: 'L.B.Sm.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'solimutata'", "Authors string looks like this: 'L.B.Sm. &amp; Wassh.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Begonia solimutata' and found 0 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "No candidates found so moving to enhanced search (single candidates not accepted as matches)", "Found no names for 'Begonia solimutata'", "Found no names for 'Begonia solimutat'", "Found no names for 'Begonia solimuta'", "Found no names for 'Begonia solimut'", "Found no names for 'Begonia solimu'", "Found no names for 'Begonia solim'", "Found 2 names for 'Begonia soli'", "Found 5 names for 'Begonia sol'", "Found 24 names for 'Begonia so'", "Found 50 names for 'Begonia s'", "Got  50 candidates so stopping search."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Begonia solimutata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000825560", "full_name_plain": "Begonia soli-mutata L.B.Sm. &amp; Wassh.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -4428,35 +4600,35 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
+          <t>Hedychium horsfieldii</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
           <t>wfo-0000436106</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>Hedychium horsfieldii Wall.</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>Hedychium horsfieldii Wall.</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>Brachychilum horsfieldii (Wall.) Petersen | Hedychium microchilum Ridl.</t>
         </is>
       </c>
-      <c r="AA33" t="n">
+      <c r="AB33" t="n">
         <v>2</v>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Hedychium horsfieldii R.Br. ex Wall.", "wfo_id": "wfo-0000436106", "full_name_plain": "Hedychium horsfieldii Wall.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Hedychium'", "Word is found in index and so is part of name: 'horsfieldii'.", "Word is lowercase. Subsequent words must start with lowercase: 'horsfieldii'.", "Word contains non alpha chars and so is start of author string: 'R.Br.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'horsfieldii'", "Authors string looks like this: 'R.Br. ex Wall.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Hedychium horsfieldii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Hedychium horsfieldii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000436106", "full_name_plain": "Hedychium horsfieldii Wall.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -4557,35 +4729,35 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
+          <t>Breynia disticha</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
           <t>wfo-0000412108</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>Breynia disticha J.R.Forst. &amp; G.Forst.</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>Breynia disticha J.R.Forst. &amp; G.Forst.</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>Melanthesa neocaledonica Baill. | Melanthesa neocaledonica var. forsteri Müll.Arg. | Phyllanthus nivosus W.Bull | Phyllanthus sandwicensis var. hypoglaucus H.Lév. | Breynia axillaris Spreng. | Breynia disticha var. neocaledonica (Baill.) Müll.Arg. | Breynia disticha f. nivosa (W.Bull) Croizat ex Radcl.-Sm. | Breynia nivosa (W.Bull) Small | Breynia nivosa var. roseopicta (Regel) F.Br. | Breynia disticha var. nivosa (W.Bull) Croizat | Phyllanthus nivosus W.G.Sm. | Phyllanthus roseopictus B. | Phyllanthus roseus-pictus Hovey | Breynia disticha var. genuina Müll.Arg. | Phyllanthus atropurpureus Van Geert | Phyllanthus nivosus unranked roseopictus (Burb.) Regel</t>
         </is>
       </c>
-      <c r="AA34" t="n">
+      <c r="AB34" t="n">
         <v>16</v>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Breynia disticha J.R.Forst. &amp; G.Forst.", "wfo_id": "wfo-0000412108", "full_name_plain": "Breynia disticha J.R.Forst. &amp; G.Forst.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Breynia'", "Word is found in index and so is part of name: 'disticha'.", "Word is lowercase. Subsequent words must start with lowercase: 'disticha'.", "Word contains non alpha chars and so is start of author string: 'J.R.Forst.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'disticha'", "Authors string looks like this: 'J.R.Forst. &amp; G.Forst.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Breynia disticha' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Breynia disticha", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000412108", "full_name_plain": "Breynia disticha J.R.Forst. &amp; G.Forst.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 16}}</t>
         </is>
       </c>
     </row>
@@ -4674,35 +4846,35 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
+          <t>Brownea coccinea capitella</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
           <t>wfo-0000184964</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>Brownea coccinea subsp. capitella (Jacq.) D.Velázquez &amp; G.Agostini</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Z35" t="inlineStr">
         <is>
           <t>Brownea coccinea subsp. capitella (Jacq.) D.Velázquez &amp; G.Agostini</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>Brownea capitella Jacq. | Brownea racemosa Jacq. | Hermesias racemosa Kuntze | Hermesias capitella (Jacq.) Kuntze | Hermesias latifolia Kuntze | Brownea latifolia Jacq. | Hermesias capitellata (Jacq.) Kuntze | Brownea guianensis Klotzsch</t>
         </is>
       </c>
-      <c r="AA35" t="n">
+      <c r="AB35" t="n">
         <v>8</v>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Brownea coccinea subsp. capitella (Jacq.) D.Velázquez &amp; G.Agostini", "wfo_id": "wfo-0000184964", "full_name_plain": "Brownea coccinea subsp. capitella (Jacq.) D.Velázquez &amp; G.Agostini", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Brownea'", "Word is found in index and so is part of name: 'coccinea'.", "Word is lowercase. Subsequent words must start with lowercase: 'coccinea'.", "Rank estimated as 'subspecies' based on 'subsp.'.", "Word following rank is always name part: 'capitella'.", "Authors string looks like this: '(Jacq.) D.Velázquez &amp; G.Agostini'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Brownea coccinea capitella' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Brownea coccinea capitella", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000184964", "full_name_plain": "Brownea coccinea subsp. capitella (Jacq.) D.Velázquez &amp; G.Agostini", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 8}}</t>
         </is>
       </c>
     </row>
@@ -4803,35 +4975,35 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
+          <t>Caladium bicolor</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
           <t>wfo-0000739079</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>Caladium bicolor (Aiton) Vent.</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>Caladium bicolor (Aiton) Vent.</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>Arum bicolor Aiton | Arum pellucidum Fulchir ex Kunth | Arum pulchrum Salisb. | Arum vermitoxicum Vell. | Xanthosoma sylvestre Bello | Caladium albopunctatissimum Jacob-Makoy ex H.Karst. | Caladium amabile Verschaff. | Caladium amoenum Engl. | Caladium appunianum Engl. | Caladium argyrospilum Lem. | Caladium barilletii Anon. | Caladium barraquinii Hérincq | Caladium bicolor var. albomaculatum Engl. | Caladium bicolor var. argyrospilum (Lem.) Engl. | Caladium bicolor var. barraquinii (Hérincq) Engl. | Caladium bicolor var. bohemicum Engl. | Caladium bicolor var. brongniartii (Lem.) Engl. | Caladium bicolor var. chantinii (Lem.) Engl. | Caladium bicolor var. curwadlii Engl. | Caladium bicolor var. devosianum (Lem.) Engl. | Caladium bicolor var. duchartrei Engl. | Caladium bicolor var. eckhartii Engl. | Caladium bicolor var. enkeanum (K.Koch) Engl. | Caladium bicolor var. hendersonii Engl. | Caladium bicolor var. houbyanym Engl. | Caladium bicolor var. houlletii (Lem.) Engl. | Caladium bicolor var. ketteleri Engl. | Caladium bicolor var. kochii Engl. | Caladium bicolor var. kramerianum Engl. | Caladium bicolor var. laucheanum (K.Koch) Engl. | Caladium bicolor var. leopoldii Engl. | Caladium bicolor var. lindenii Engl. | Caladium bicolor var. macrophyllum (Lem.) Engl. | Caladium bicolor var. marginatum (K.Koch &amp; C.D.Bouché) Engl. | Caladium bicolor var. mirabile (Lem.) Engl. | Caladium bicolor var. neumannii (Lem.) Engl. | Caladium bicolor var. pellucidum (DC.) Kunth | Caladium bicolor var. perrieri (Lem.) Engl. | Caladium bicolor var. pictum (DC.) Kunth | Caladium bicolor var. regale (Lem.) Engl. | Caladium bicolor var. roseo-maculatum Engl. | Caladium bicolor var. rubellum (K.Koch &amp; Fintelm.) Engl. | Caladium bicolor var. rubicundum Engl. | Caladium bicolor var. rubrivenium Engl. | Caladium bicolor var. sieboldii Engl. | Caladium bicolor var. splendens (K.Koch &amp; Fintelm.) Engl. | Caladium bicolor var. stangeanum (K.Koch) Engl. | Caladium bicolor var. surinamense (Miq.) Engl. | Caladium bicolor var. transparens Engl. | Caladium bicolor var. vellozoanum (Schott) Engl. | Caladium bicolor var. verschaffeltii (Lem.) Engl. | Caladium bicolor var. wightii (Lem.) Engl. | Caladium brongniartii Lem. | Caladium chantinii Lem. | Caladium concolor K.Koch | Caladium connaertii Jacob-Makoy | Caladium curwadlii Engl. | Caladium devosianum Lem. | Caladium discolor Bosse | Caladium duchartrei Engl. | Caladium dussii Sieber &amp; Voss | Caladium eckhartii Lem. ex Engl. | Caladium enkeanum K.Koch | Caladium firmulum Schott | Caladium gaerdtii K.Koch &amp; Fintelm. | Caladium griseo-argenteum Engl. | Caladium haageanum K.Koch | Caladium bicolor var. haematostigma Kunth | Caladium hendersonii Engl. | Caladium hortulanum Bridsey | Caladium houbyanum Engl. | Caladium houlletii Lem. | Caladium ketteleri Engl. | Caladium kochii K.Koch | Caladium kramerianum K.Koch ex Stange | Caladium laucheanum K.Koch | Caladium leopoldii Engl. | Caladium lilliputiense Rodigas | Caladium lindenii Stange | Caladium macrophyllum Lem. | Caladium marginatum K.Koch &amp; C.D.Bouché | Caladium marmoratum L.Mathieu ex Bosse | Caladium martersteigianum K.Koch ex Stange | Caladium medioradiatum L.Linden &amp; Rodigas | Caladium mirabile Lem. | Caladium mooreanum Engl. | Caladium neumannii Lem. | Caladium ottonis Stange | Caladium pallidinervium Engl. | Caladium pallidum K.Koch &amp; C.D.Bouché | Caladium pellucidum DC. | Caladium perrieri Lem. | Caladium pictum DC. | Caladium punctatissimum Stange | Caladium purdieanum Schott | Caladium pusillum K.Koch | Caladium regale Lem. | Caladium reichenbachianum Stange | Caladium rougieri Verschaff. | Caladium rubellum K.Koch &amp; Fintelm. | Caladium rubricaule Lem. | Caladium rubrovenium hort. ex Engl. | Caladium sagittifolium Sieber ex Engl. | Caladium sieboldii Engl. | Caladium sororium Schott | Caladium splendens K.Koch &amp; Fintelm. | Caladium spruceanum Schott | Caladium stangeanum K.Koch | Caladium surinamense Miq. | Caladium thelemanni Verschaff. | Caladium thripedestum Lem. | Caladium vellozoanum Schott | Caladium verschaffeltii Lem. | Caladium wagneri Engl. | Caladium wightii Lem. | Caladium bicolor f. argyrospilum (Lem.) Engl. | Caladium bicolor f. barraquinii (Hérincq) Engl. | Caladium bicolor f. brongniartii (Lem.) Engl. | Caladium bicolor f. chantinii (Lem.) Engl. | Caladium bicolor f. devosianum (Lem.) Engl. | Caladium bicolor f. haematostigma (Kunth) Engl. | Caladium bicolor f. macrophyllum (Lem.) Engl. | Caladium bicolor f. mirabile (Lem.) Engl. | Caladium bicolor f. neumannii (Lem.) Engl. | Caladium bicolor f. perrieri (Lem.) Engl. | Caladium bicolor f. regale (Lem.) Engl. | Caladium bicolor f. robustum Jonker | Caladium bicolor f. splendens (K.Koch &amp; Fintelm.) Engl. | Caladium bicolor f. vellozoanum (Schott) Engl. | Caladium bicolor var. vermitoxicum (Vell.) Stellfeld | Caladium bicolor f. verschaffeltii (Lem.) Engl. | Caladium bicolor f. wightii (Lem.) Engl. | Caladium jacquinii Ten. | Cyrtospadix bicolor (Aiton) Britton &amp; P.Wilson | Alocasia rex N.E.Br. | Alocasia roezlii N.E.Br. | Caladium baraquini Hérincq | Caladium haematostigma Kunth | Caladium hortulanum Birdsey | Caladium bicolor f. argyrospilum (Lem.) Vent. | Caladium bicolor f. brongniartii (Lem.) Vent. | Caladium bicolor f. chantinii (Lem.) Vent. | Caladium bicolor f. devosianum (Lem.) Vent. | Caladium bicolor f. macrophyllum (Lem.) Vent. | Caladium bicolor f. mirabile (Lem.) Vent. | Caladium bicolor f. neumannii (Lem.) Vent. | Caladium bicolor f. perrieri (Lem.) Vent. | Caladium bicolor f. regale (Lem.) Vent. | Caladium bicolor f. verschaffeltii (Lem.) Vent. | Caladium barraquinii Lem. | Caladium bicolor f. surinamense (Miq.) Stehlé | Caladium bicolor f. rubicundum Stehlé | Arum vermitoxicum Vell. ex Kunth | Caladium bicolor var. pellucidum (DC.) Engl. | Caladium bicolor subvar. rosaceum Engl. | Caladium formosum Verschaff. | Caladium sanguinolentum Van Geert | Caladium hardii W.Bull ex J.Dix | Caladium punctatum F.Dietr. | Caladium splendidens Veitch ex J.Dix | Caladium chelsonii Van Geert | Caladium schaelleri W.Bull ex J.Dix | Caladium camoensii Van Geert | Caladium vandenheckei Verschaff. | Caladium cannaertii Verschaff. | Caladium baraquinii W.Bull ex J.Dix | Caladium roseum Stange | Caladium strangeanum K.Koch ex Stange | Caladium albicans Stange | Caladium wallisii Stange | Caladium bicolor f. punctatissumum Stange | Caladium bicolor subvar. donizettii Engl. | Caladium bicolor var. vellozianum (Schott) Engl. | Caladium rubrovenium Verschaff. | Caladium lilliputianum André | Caladium bicolor unranked splendens (K.Koch &amp; Fintelm.) E.J.Lowe &amp; W.Howard | Caladium auritum Jacob-Makoy | Caladium haematostigma (Kunth) Stange</t>
         </is>
       </c>
-      <c r="AA36" t="n">
+      <c r="AB36" t="n">
         <v>178</v>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Caladium bicolor (Aiton) Vent.", "wfo_id": "wfo-0000739079", "full_name_plain": "Caladium bicolor (Aiton) Vent.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Caladium'", "Word is found in index and so is part of name: 'bicolor'.", "Word is lowercase. Subsequent words must start with lowercase: 'bicolor'.", "Word contains non alpha chars and so is start of author string: '(Aiton)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'bicolor'", "Authors string looks like this: '(Aiton) Vent.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Caladium bicolor' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Caladium bicolor", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000739079", "full_name_plain": "Caladium bicolor (Aiton) Vent.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 178}}</t>
         </is>
       </c>
     </row>
@@ -4928,35 +5100,35 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
+          <t>Goeppertia zebrina</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
           <t>wfo-0000430828</t>
         </is>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>Goeppertia zebrina (Sims) Nees</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>Goeppertia zebrina (Sims) Nees</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>Calathea binoti hort. ex Gentil | Calathea pulchella (Linden ex K.Koch) Körn. | Calathea zebrina Lindl. | Calathea zebrina var. humilior Körn. | Endocodon zebrina (Sims) Raf. | Maranta bicolor Vell. | Maranta pulchella Linden ex K.Koch | Maranta zebrina Sims | Phrynium bicolor K.Koch | Phrynium pulchellum Linden ex K.Koch | Phrynium zebrinum Roscoe | Phyllodes pulchella (Linden ex K.Koch) Kuntze | Phyllodes zebrina Kuntze | Maranta binotii Pynaert | Maranta tigrina W.Bull | Calathea zebrina var. binotii L.H.Bailey &amp; Raffill</t>
         </is>
       </c>
-      <c r="AA37" t="n">
+      <c r="AB37" t="n">
         <v>16</v>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Goeppertia zebrina (Sims) Nees", "wfo_id": "wfo-0000430828", "full_name_plain": "Goeppertia zebrina (Sims) Nees", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Goeppertia'", "Word is found in index and so is part of name: 'zebrina'.", "Word is lowercase. Subsequent words must start with lowercase: 'zebrina'.", "Word contains non alpha chars and so is start of author string: '(Sims)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'zebrina'", "Authors string looks like this: '(Sims) Nees'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Goeppertia zebrina' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Goeppertia zebrina", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000430828", "full_name_plain": "Goeppertia zebrina (Sims) Nees", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 16}}</t>
         </is>
       </c>
     </row>
@@ -5057,35 +5229,35 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
+          <t>Canna glauca</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
           <t>wfo-0000343792</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>Canna glauca L.</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>Canna glauca L.</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>Canna angustifolia L. | Canna annaei André | Canna fintelmannii Bouché | Canna glauca var. angusta J.W.Richardson | Canna glauca var. rubro-lutea Hook. | Canna glauca var. rufa Sims | Canna glauca var. siamensis (Kraenzl.) Nob.Tanaka | Canna hassleriana Kraenzl. | Canna jacobiniflora T.Koyama &amp; Nob.Tanaka | Canna lanceolata Lodd. ex G.Don | Canna liturata Link ex A.Dietr. | Canna longifolia Bouché | Canna mexicana A.Dietr. | Canna pedicellata C.Presl | Canna schlechtendaliana Bouché | Canna siamensis Kraenzl. | Canna stenantha Nob.Tanaka | Canna stolonifera D.Dietr. | Canna stricta Bouché | Xyphostylis angustifolia (L.) Raf. | Canna glauca var. annaei Petersen | Canna schlechtendaliana var. annaei (André) Kraenzl. | Canna lancifolia Schrank | Canna mexicana Bouché | Canna stolonifera hort. ex Bouché | Canna liturata Link ex Dietr. | Canna schlechtendaliana Bouche | Canna rufa (Sims) Chaté | Canna rubrolutea (Hook.) Chaté | Canna glauca var. annaei (André) Regel | Canna annaei subvar. superba Année ex André | Canna annaei unranked nana André</t>
         </is>
       </c>
-      <c r="AA38" t="n">
+      <c r="AB38" t="n">
         <v>32</v>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Canna glauca L.", "wfo_id": "wfo-0000343792", "full_name_plain": "Canna glauca L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Canna'", "Word is found in index and so is part of name: 'glauca'.", "Word is lowercase. Subsequent words must start with lowercase: 'glauca'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'glauca'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Canna glauca' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Canna glauca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000343792", "full_name_plain": "Canna glauca L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 32}}</t>
         </is>
       </c>
     </row>
@@ -5186,35 +5358,35 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
+          <t>Carica papaya</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
           <t>wfo-0000588009</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>Papaya pyriformis (Willd.) Baill. | Papaya papaya (L.) H.Karst. | Papaya posoposa (L.) DC. | Carica citriformis J.Jacq. ex Spreng. | Carica cubensis Solms | Carica hermaphrodita Blanco | Carica jamaicensis Urb. | Carica jimenezii Bertoni | Carica mamaya Vell. | Carica papaya var. bady Aké Assi | Carica papaya f. correae Solms | Carica papaya f. ernstii Solms | Carica papaya var. jimenezii Bertoni | Carica papaya f. mamaya (Vell.) Stellfeld | Carica papaya f. portoricensis (Urb.) Solms | Carica peltata Hook. &amp; Arn. | Carica pinnatifida Heilborn | Carica portoricensis Urb. | Carica posoposa L. | Carica pyriformis Willd. | Carica rochefortii Solms | Carica sativa Tussac | Vasconcellea peltata (Hook. &amp; Arn.) A.DC. | Papaya cucumerina Noronha | Papaya communis Noronha | Carica citriformis Jacq. | Papaya hermaphrodita Blanco | Papaya citriformis (J.Jacq. ex Spreng.) A.DC. | Papaya cubensis (Solms) Kuntze | Papaya rochefortii (Solms) Kuntze | Papaya cimarrona Sint. ex Kuntze | Papaya peltata (Hook. &amp; Arn.) Kuntze | Papaya sativa Tuss. | Papaya vulgaris DC. | Papaya carica Gaertn. | Papaya edulis Bojer | Papaya edulis var. macrocarpa Bojer | Papaya edulis var. pyriformis Bojer | Carica citriformis Hook.f.</t>
         </is>
       </c>
-      <c r="AA39" t="n">
+      <c r="AB39" t="n">
         <v>39</v>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Carica papaya L.", "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Carica'", "Word is found in index and so is part of name: 'papaya'.", "Word is lowercase. Subsequent words must start with lowercase: 'papaya'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'papaya'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Carica papaya' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Carica papaya", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 39}}</t>
         </is>
       </c>
     </row>
@@ -5315,35 +5487,35 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
+          <t>Carica papaya</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
           <t>wfo-0000588009</t>
         </is>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>Papaya pyriformis (Willd.) Baill. | Papaya papaya (L.) H.Karst. | Papaya posoposa (L.) DC. | Carica citriformis J.Jacq. ex Spreng. | Carica cubensis Solms | Carica hermaphrodita Blanco | Carica jamaicensis Urb. | Carica jimenezii Bertoni | Carica mamaya Vell. | Carica papaya var. bady Aké Assi | Carica papaya f. correae Solms | Carica papaya f. ernstii Solms | Carica papaya var. jimenezii Bertoni | Carica papaya f. mamaya (Vell.) Stellfeld | Carica papaya f. portoricensis (Urb.) Solms | Carica peltata Hook. &amp; Arn. | Carica pinnatifida Heilborn | Carica portoricensis Urb. | Carica posoposa L. | Carica pyriformis Willd. | Carica rochefortii Solms | Carica sativa Tussac | Vasconcellea peltata (Hook. &amp; Arn.) A.DC. | Papaya cucumerina Noronha | Papaya communis Noronha | Carica citriformis Jacq. | Papaya hermaphrodita Blanco | Papaya citriformis (J.Jacq. ex Spreng.) A.DC. | Papaya cubensis (Solms) Kuntze | Papaya rochefortii (Solms) Kuntze | Papaya cimarrona Sint. ex Kuntze | Papaya peltata (Hook. &amp; Arn.) Kuntze | Papaya sativa Tuss. | Papaya vulgaris DC. | Papaya carica Gaertn. | Papaya edulis Bojer | Papaya edulis var. macrocarpa Bojer | Papaya edulis var. pyriformis Bojer | Carica citriformis Hook.f.</t>
         </is>
       </c>
-      <c r="AA40" t="n">
+      <c r="AB40" t="n">
         <v>39</v>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Carica papaya L.", "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Carica'", "Word is found in index and so is part of name: 'papaya'.", "Word is lowercase. Subsequent words must start with lowercase: 'papaya'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'papaya'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Carica papaya' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Carica papaya", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 39}}</t>
         </is>
       </c>
     </row>
@@ -5444,35 +5616,35 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
+          <t>Carica papaya</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
           <t>wfo-0000588009</t>
         </is>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>Papaya pyriformis (Willd.) Baill. | Papaya papaya (L.) H.Karst. | Papaya posoposa (L.) DC. | Carica citriformis J.Jacq. ex Spreng. | Carica cubensis Solms | Carica hermaphrodita Blanco | Carica jamaicensis Urb. | Carica jimenezii Bertoni | Carica mamaya Vell. | Carica papaya var. bady Aké Assi | Carica papaya f. correae Solms | Carica papaya f. ernstii Solms | Carica papaya var. jimenezii Bertoni | Carica papaya f. mamaya (Vell.) Stellfeld | Carica papaya f. portoricensis (Urb.) Solms | Carica peltata Hook. &amp; Arn. | Carica pinnatifida Heilborn | Carica portoricensis Urb. | Carica posoposa L. | Carica pyriformis Willd. | Carica rochefortii Solms | Carica sativa Tussac | Vasconcellea peltata (Hook. &amp; Arn.) A.DC. | Papaya cucumerina Noronha | Papaya communis Noronha | Carica citriformis Jacq. | Papaya hermaphrodita Blanco | Papaya citriformis (J.Jacq. ex Spreng.) A.DC. | Papaya cubensis (Solms) Kuntze | Papaya rochefortii (Solms) Kuntze | Papaya cimarrona Sint. ex Kuntze | Papaya peltata (Hook. &amp; Arn.) Kuntze | Papaya sativa Tuss. | Papaya vulgaris DC. | Papaya carica Gaertn. | Papaya edulis Bojer | Papaya edulis var. macrocarpa Bojer | Papaya edulis var. pyriformis Bojer | Carica citriformis Hook.f.</t>
         </is>
       </c>
-      <c r="AA41" t="n">
+      <c r="AB41" t="n">
         <v>39</v>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Carica papaya L.", "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Carica'", "Word is found in index and so is part of name: 'papaya'.", "Word is lowercase. Subsequent words must start with lowercase: 'papaya'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'papaya'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Carica papaya' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Carica papaya", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 39}}</t>
         </is>
       </c>
     </row>
@@ -5573,35 +5745,35 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
+          <t>Carica papaya</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
           <t>wfo-0000588009</t>
         </is>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>Papaya pyriformis (Willd.) Baill. | Papaya papaya (L.) H.Karst. | Papaya posoposa (L.) DC. | Carica citriformis J.Jacq. ex Spreng. | Carica cubensis Solms | Carica hermaphrodita Blanco | Carica jamaicensis Urb. | Carica jimenezii Bertoni | Carica mamaya Vell. | Carica papaya var. bady Aké Assi | Carica papaya f. correae Solms | Carica papaya f. ernstii Solms | Carica papaya var. jimenezii Bertoni | Carica papaya f. mamaya (Vell.) Stellfeld | Carica papaya f. portoricensis (Urb.) Solms | Carica peltata Hook. &amp; Arn. | Carica pinnatifida Heilborn | Carica portoricensis Urb. | Carica posoposa L. | Carica pyriformis Willd. | Carica rochefortii Solms | Carica sativa Tussac | Vasconcellea peltata (Hook. &amp; Arn.) A.DC. | Papaya cucumerina Noronha | Papaya communis Noronha | Carica citriformis Jacq. | Papaya hermaphrodita Blanco | Papaya citriformis (J.Jacq. ex Spreng.) A.DC. | Papaya cubensis (Solms) Kuntze | Papaya rochefortii (Solms) Kuntze | Papaya cimarrona Sint. ex Kuntze | Papaya peltata (Hook. &amp; Arn.) Kuntze | Papaya sativa Tuss. | Papaya vulgaris DC. | Papaya carica Gaertn. | Papaya edulis Bojer | Papaya edulis var. macrocarpa Bojer | Papaya edulis var. pyriformis Bojer | Carica citriformis Hook.f.</t>
         </is>
       </c>
-      <c r="AA42" t="n">
+      <c r="AB42" t="n">
         <v>39</v>
       </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Carica papaya L.", "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Carica'", "Word is found in index and so is part of name: 'papaya'.", "Word is lowercase. Subsequent words must start with lowercase: 'papaya'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'papaya'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Carica papaya' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Carica papaya", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 39}}</t>
         </is>
       </c>
     </row>
@@ -5702,35 +5874,35 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
+          <t>Carica papaya</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
           <t>wfo-0000588009</t>
         </is>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>Papaya pyriformis (Willd.) Baill. | Papaya papaya (L.) H.Karst. | Papaya posoposa (L.) DC. | Carica citriformis J.Jacq. ex Spreng. | Carica cubensis Solms | Carica hermaphrodita Blanco | Carica jamaicensis Urb. | Carica jimenezii Bertoni | Carica mamaya Vell. | Carica papaya var. bady Aké Assi | Carica papaya f. correae Solms | Carica papaya f. ernstii Solms | Carica papaya var. jimenezii Bertoni | Carica papaya f. mamaya (Vell.) Stellfeld | Carica papaya f. portoricensis (Urb.) Solms | Carica peltata Hook. &amp; Arn. | Carica pinnatifida Heilborn | Carica portoricensis Urb. | Carica posoposa L. | Carica pyriformis Willd. | Carica rochefortii Solms | Carica sativa Tussac | Vasconcellea peltata (Hook. &amp; Arn.) A.DC. | Papaya cucumerina Noronha | Papaya communis Noronha | Carica citriformis Jacq. | Papaya hermaphrodita Blanco | Papaya citriformis (J.Jacq. ex Spreng.) A.DC. | Papaya cubensis (Solms) Kuntze | Papaya rochefortii (Solms) Kuntze | Papaya cimarrona Sint. ex Kuntze | Papaya peltata (Hook. &amp; Arn.) Kuntze | Papaya sativa Tuss. | Papaya vulgaris DC. | Papaya carica Gaertn. | Papaya edulis Bojer | Papaya edulis var. macrocarpa Bojer | Papaya edulis var. pyriformis Bojer | Carica citriformis Hook.f.</t>
         </is>
       </c>
-      <c r="AA43" t="n">
+      <c r="AB43" t="n">
         <v>39</v>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Carica papaya L.", "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Carica'", "Word is found in index and so is part of name: 'papaya'.", "Word is lowercase. Subsequent words must start with lowercase: 'papaya'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'papaya'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Carica papaya' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Carica papaya", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 39}}</t>
         </is>
       </c>
     </row>
@@ -5831,35 +6003,35 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
+          <t>Carica papaya</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
           <t>wfo-0000588009</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="Z44" t="inlineStr">
         <is>
           <t>Carica papaya L.</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>Papaya pyriformis (Willd.) Baill. | Papaya papaya (L.) H.Karst. | Papaya posoposa (L.) DC. | Carica citriformis J.Jacq. ex Spreng. | Carica cubensis Solms | Carica hermaphrodita Blanco | Carica jamaicensis Urb. | Carica jimenezii Bertoni | Carica mamaya Vell. | Carica papaya var. bady Aké Assi | Carica papaya f. correae Solms | Carica papaya f. ernstii Solms | Carica papaya var. jimenezii Bertoni | Carica papaya f. mamaya (Vell.) Stellfeld | Carica papaya f. portoricensis (Urb.) Solms | Carica peltata Hook. &amp; Arn. | Carica pinnatifida Heilborn | Carica portoricensis Urb. | Carica posoposa L. | Carica pyriformis Willd. | Carica rochefortii Solms | Carica sativa Tussac | Vasconcellea peltata (Hook. &amp; Arn.) A.DC. | Papaya cucumerina Noronha | Papaya communis Noronha | Carica citriformis Jacq. | Papaya hermaphrodita Blanco | Papaya citriformis (J.Jacq. ex Spreng.) A.DC. | Papaya cubensis (Solms) Kuntze | Papaya rochefortii (Solms) Kuntze | Papaya cimarrona Sint. ex Kuntze | Papaya peltata (Hook. &amp; Arn.) Kuntze | Papaya sativa Tuss. | Papaya vulgaris DC. | Papaya carica Gaertn. | Papaya edulis Bojer | Papaya edulis var. macrocarpa Bojer | Papaya edulis var. pyriformis Bojer | Carica citriformis Hook.f.</t>
         </is>
       </c>
-      <c r="AA44" t="n">
+      <c r="AB44" t="n">
         <v>39</v>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Carica papaya L.", "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Carica'", "Word is found in index and so is part of name: 'papaya'.", "Word is lowercase. Subsequent words must start with lowercase: 'papaya'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'papaya'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Carica papaya' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Carica papaya", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000588009", "full_name_plain": "Carica papaya L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 39}}</t>
         </is>
       </c>
     </row>
@@ -5958,21 +6130,33 @@
           <t>Castanospermum australe A.Cunn. ex Mudie</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="n">
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Castanospermum australe</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>wfo-0000212067</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Castanospermum australe A.Cunn. &amp; C.Fraser</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Castanospermum australe A.Cunn. &amp; C.Fraser</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="n">
         <v>0</v>
       </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Castanospermum australe A.Cunn. ex Mudie", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Castanospermum'", "Word is found in index and so is part of name: 'australe'.", "Word is lowercase. Subsequent words must start with lowercase: 'australe'.", "Word contains non alpha chars and so is start of author string: 'A.Cunn.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'australe'", "Authors string looks like this: 'A.Cunn. ex Mudie'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Castanospermum australe' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Castanospermum australe", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000212067", "full_name_plain": "Castanospermum australe A.Cunn. &amp; C.Fraser", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -6073,35 +6257,35 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
+          <t>Cinnamomum parthenoxylon</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
           <t>wfo-0000605312</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>Cinnamomum parthenoxylon (Jack) Meisn.</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>Cinnamomum parthenoxylon (Jack) Meisn.</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>Laurus porrecta Roxb. | Laurus pruinosa Reinw. ex Blume | Laurus parthenoxylon Jack | Litsea pruinosa Nees | Tetranthera camphoracea Wall. ex Meisn. | Parthenoxylon pruinosum Blume | Parthenoxylon porrectum (Roxb.) Blume | Sassafras loureiroi Kostel. | Sassafras parthenoxylon (Jack) Nees | Cinnamomum purpureaum H.G.Ye &amp; F.G.Wang | Camphora chinensis Nees | Camphora inodora Blume ex Miq. | Camphora inuncta Nees | Camphora parthenoxylon (Jack) Nees | Camphora porrecta (Roxb.) Voigt | Camphora pseudosassafras Miq. | Cinnamomum barbato-axillatum N.Chao | Cinnamomum inodorum (Blume ex Miq.) Meisn. | Cinnamomum inunctum (Nees) Meisn. | Cinnamomum malaccense Meisn. | Cinnamomum neesianum Meisn. | Cinnamomum penninervium Kosterm. | Cinnamomum porrectum (Roxb.) Kosterm. | Cinnamomum pseudosassafras Meisn. | Phoebe latifolia Champ. ex Benth. | Persea pseudosassafras Zoll. &amp; Moritzi | Laurus chinensis Nees | Parthenoxylon pseudosassafras Blume | Laurus pseudosassafras Blume | Laurus glandulifera Meisn. | Laurus sassafras Lour.</t>
         </is>
       </c>
-      <c r="AA46" t="n">
+      <c r="AB46" t="n">
         <v>31</v>
       </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Cinnamomum parthenoxylon (Jack) Meisn.", "wfo_id": "wfo-0000605312", "full_name_plain": "Cinnamomum parthenoxylon (Jack) Meisn.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Cinnamomum'", "Word is found in index and so is part of name: 'parthenoxylon'.", "Word is lowercase. Subsequent words must start with lowercase: 'parthenoxylon'.", "Word contains non alpha chars and so is start of author string: '(Jack)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'parthenoxylon'", "Authors string looks like this: '(Jack) Meisn.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Cinnamomum parthenoxylon' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Cinnamomum parthenoxylon", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000605312", "full_name_plain": "Cinnamomum parthenoxylon (Jack) Meisn.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 31}}</t>
         </is>
       </c>
     </row>
@@ -6194,35 +6378,35 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
+          <t>Clerodendrum splendens</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
           <t>wfo-0000886685</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>Clerodendrum splendens G.Don</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>Clerodendrum splendens G.Don</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>Clerodendrum splendens var. pubescens Moldenke | Clerodendrum splendens var. splendens | Siphonanthus splendens (G.Don) Hiern</t>
-        </is>
-      </c>
-      <c r="AA47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Siphonanthus splendens (G.Don) Hiern</t>
+        </is>
+      </c>
+      <c r="AB47" t="n">
+        <v>1</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Clerodendrum splendens G.Don", "wfo_id": "wfo-0000886685", "full_name_plain": "Clerodendrum splendens G.Don", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Clerodendrum'", "Word is found in index and so is part of name: 'splendens'.", "Word is lowercase. Subsequent words must start with lowercase: 'splendens'.", "Word contains non alpha chars and so is start of author string: 'G.Don'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'splendens'", "Authors string looks like this: 'G.Don'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Clerodendrum splendens' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Clerodendrum splendens", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000886685", "full_name_plain": "Clerodendrum splendens G.Don", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -6323,35 +6507,35 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
+          <t>Clerodendrum thomsoniae</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
           <t>wfo-0000887105</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>Clerodendrum thomsoniae Balf.</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>Clerodendrum thomsoniae Balf.</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>Clerodendrum balfourii (B.D.Jacks. ex Dombrain) Dombrain | Clerodendrum thomsoniae var. balfourii B.D.Jacks. ex Dombrain | Clerodendrum delectum Pynaert</t>
         </is>
       </c>
-      <c r="AA48" t="n">
+      <c r="AB48" t="n">
         <v>3</v>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Clerodendrum thomsoniae Balf.f.", "wfo_id": "wfo-0000887105", "full_name_plain": "Clerodendrum thomsoniae Balf.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Clerodendrum'", "Word is found in index and so is part of name: 'thomsoniae'.", "Word is lowercase. Subsequent words must start with lowercase: 'thomsoniae'.", "Word contains non alpha chars and so is start of author string: 'Balf.f.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'thomsoniae'", "Authors string looks like this: 'Balf.f.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Clerodendrum thomsoniae' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Clerodendrum thomsoniae", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000887105", "full_name_plain": "Clerodendrum thomsoniae Balf.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -6450,21 +6634,37 @@
           <t>Clusia rosea Jacq.</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Clusia rosea</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>wfo-0000612436</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>Clusia rosea Jacq.</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Clusia rosea Jacq.</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Clusia retusa Poir. | Clusia silvicola Britton | Elwertia retusa Raf. | Firkea rosea (Jacq.) Raf.</t>
+        </is>
+      </c>
+      <c r="AB49" t="n">
+        <v>4</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Clusia rosea Jacq.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Clusia'", "Word is found in index and so is part of name: 'rosea'.", "Word is lowercase. Subsequent words must start with lowercase: 'rosea'.", "Word contains non alpha chars and so is start of author string: 'Jacq.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'rosea'", "Authors string looks like this: 'Jacq.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Clusia rosea' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Clusia rosea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000612436", "full_name_plain": "Clusia rosea Jacq.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -6565,31 +6765,31 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
+          <t>Coccothrinax readii</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
           <t>wfo-0000901549</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>Coccothrinax readii H.J.Quero</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>Coccothrinax readii H.J.Quero</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="n">
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="n">
         <v>0</v>
       </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Coccothrinax readii H.J.Quero", "wfo_id": "wfo-0000901549", "full_name_plain": "Coccothrinax readii H.J.Quero", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Coccothrinax'", "Word is found in index and so is part of name: 'readii'.", "Word is lowercase. Subsequent words must start with lowercase: 'readii'.", "Word contains non alpha chars and so is start of author string: 'H.J.Quero'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'readii'", "Authors string looks like this: 'H.J.Quero'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Coccothrinax readii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Coccothrinax readii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000901549", "full_name_plain": "Coccothrinax readii H.J.Quero", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -6690,35 +6890,35 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
+          <t>Cocos nucifera</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
           <t>wfo-0000903570</t>
         </is>
       </c>
-      <c r="X51" t="inlineStr">
+      <c r="Y51" t="inlineStr">
         <is>
           <t>Cocos nucifera L.</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="Z51" t="inlineStr">
         <is>
           <t>Cocos nucifera L.</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
+      <c r="AA51" t="inlineStr">
         <is>
           <t>Palma cocos Mill. | Calappa nucifera (L.) Kuntze | Cocos nucifera var. synphyllica Becc. | Cocos indica Royle | Cocos mamillaris Blanco | Cocos nana Griff. | Diplothemium henryanum F.Br. | Cocos nucifera var. microcarpa Hassk. ex F.W.T.Hunger | Cocos nucifera var. javanica G.V.Narayana | Cocos nucifera var. alangan Blume | Cocos nucifera var. alba Blume | Cocos nucifera var. angustifolia Hassk. | Cocos nucifera var. aurea Anon. | Cocos nucifera var. austera Blume | Cocos nucifera var. bego Blume | Cocos nucifera var. buri Blume | Cocos nucifera var. calimbahin Blume | Cocos nucifera var. capuliformis Blume | Cocos nucifera var. cistiformis Blume | Cocos nucifera var. como Blume | Cocos nucifera var. crassissima Blume | Cocos nucifera var. delicata Blume | Cocos nucifera var. eburnea Blume | Cocos nucifera var. edulis Blume | Cocos nucifera var. elongata Blume | Cocos nucifera var. fibrosa Blume | Cocos nucifera var. fragilis Blume | Cocos nucifera var. humilis Blume | Cocos nucifera var. iners Blume | Cocos nucifera var. laetevirens Blume | Cocos nucifera var. lansiformis Blume | Cocos nucifera var. lolog Blume | Cocos nucifera var. machaeroides Blume | Cocos nucifera var. macrocarpa Blume | Cocos nucifera var. maldivica Blume | Cocos nucifera var. mamillaris (Blanco) Blume | Cocos nucifera var. nana (Griff.) G.V.Narayana | Cocos nucifera var. ossea Blume | Cocos nucifera var. pinang Blume | Cocos nucifera var. pretiosa Blume | Cocos nucifera var. pruniformis Blume | Cocos nucifera var. pumila Hassk. | Cocos nucifera var. regia Blume | Cocos nucifera var. rubescens Hassk. | Cocos nucifera var. rutila Blume | Cocos nucifera var. saccharina Blume | Cocos nucifera var. sapida Blume | Cocos nucifera var. spicata K.C.Jacob | Cocos nucifera var. stupposa Blume | Cocos nucifera var. suavis Blume | Cocos nucifera var. subamara Blume | Cocos nucifera var. subcandida Blume | Cocos nucifera var. tabogog Blume | Cocos nucifera var. tamisan Blume | Cocos nucifera var. tenuissima Blume | Cocos nucifera var. viridis Hassk. | Cocos nucifera f. palmyrensis Becc. | Cocos nucifera var. palmyrensis (Becc.) Becc.</t>
         </is>
       </c>
-      <c r="AA51" t="n">
+      <c r="AB51" t="n">
         <v>58</v>
       </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Cocos nucifera L.", "wfo_id": "wfo-0000903570", "full_name_plain": "Cocos nucifera L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Cocos'", "Word is found in index and so is part of name: 'nucifera'.", "Word is lowercase. Subsequent words must start with lowercase: 'nucifera'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'nucifera'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Cocos nucifera' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Cocos nucifera", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000903570", "full_name_plain": "Cocos nucifera L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 58}}</t>
         </is>
       </c>
     </row>
@@ -6819,35 +7019,35 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
+          <t>Cocos nucifera</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
           <t>wfo-0000903570</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
+      <c r="Y52" t="inlineStr">
         <is>
           <t>Cocos nucifera L.</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="Z52" t="inlineStr">
         <is>
           <t>Cocos nucifera L.</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="AA52" t="inlineStr">
         <is>
           <t>Palma cocos Mill. | Calappa nucifera (L.) Kuntze | Cocos nucifera var. synphyllica Becc. | Cocos indica Royle | Cocos mamillaris Blanco | Cocos nana Griff. | Diplothemium henryanum F.Br. | Cocos nucifera var. microcarpa Hassk. ex F.W.T.Hunger | Cocos nucifera var. javanica G.V.Narayana | Cocos nucifera var. alangan Blume | Cocos nucifera var. alba Blume | Cocos nucifera var. angustifolia Hassk. | Cocos nucifera var. aurea Anon. | Cocos nucifera var. austera Blume | Cocos nucifera var. bego Blume | Cocos nucifera var. buri Blume | Cocos nucifera var. calimbahin Blume | Cocos nucifera var. capuliformis Blume | Cocos nucifera var. cistiformis Blume | Cocos nucifera var. como Blume | Cocos nucifera var. crassissima Blume | Cocos nucifera var. delicata Blume | Cocos nucifera var. eburnea Blume | Cocos nucifera var. edulis Blume | Cocos nucifera var. elongata Blume | Cocos nucifera var. fibrosa Blume | Cocos nucifera var. fragilis Blume | Cocos nucifera var. humilis Blume | Cocos nucifera var. iners Blume | Cocos nucifera var. laetevirens Blume | Cocos nucifera var. lansiformis Blume | Cocos nucifera var. lolog Blume | Cocos nucifera var. machaeroides Blume | Cocos nucifera var. macrocarpa Blume | Cocos nucifera var. maldivica Blume | Cocos nucifera var. mamillaris (Blanco) Blume | Cocos nucifera var. nana (Griff.) G.V.Narayana | Cocos nucifera var. ossea Blume | Cocos nucifera var. pinang Blume | Cocos nucifera var. pretiosa Blume | Cocos nucifera var. pruniformis Blume | Cocos nucifera var. pumila Hassk. | Cocos nucifera var. regia Blume | Cocos nucifera var. rubescens Hassk. | Cocos nucifera var. rutila Blume | Cocos nucifera var. saccharina Blume | Cocos nucifera var. sapida Blume | Cocos nucifera var. spicata K.C.Jacob | Cocos nucifera var. stupposa Blume | Cocos nucifera var. suavis Blume | Cocos nucifera var. subamara Blume | Cocos nucifera var. subcandida Blume | Cocos nucifera var. tabogog Blume | Cocos nucifera var. tamisan Blume | Cocos nucifera var. tenuissima Blume | Cocos nucifera var. viridis Hassk. | Cocos nucifera f. palmyrensis Becc. | Cocos nucifera var. palmyrensis (Becc.) Becc.</t>
         </is>
       </c>
-      <c r="AA52" t="n">
+      <c r="AB52" t="n">
         <v>58</v>
       </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Cocos nucifera L.", "wfo_id": "wfo-0000903570", "full_name_plain": "Cocos nucifera L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Cocos'", "Word is found in index and so is part of name: 'nucifera'.", "Word is lowercase. Subsequent words must start with lowercase: 'nucifera'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'nucifera'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Cocos nucifera' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Cocos nucifera", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000903570", "full_name_plain": "Cocos nucifera L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 58}}</t>
         </is>
       </c>
     </row>
@@ -6948,35 +7148,35 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
+          <t>Cocos nucifera</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
           <t>wfo-0000903570</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr">
+      <c r="Y53" t="inlineStr">
         <is>
           <t>Cocos nucifera L.</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="Z53" t="inlineStr">
         <is>
           <t>Cocos nucifera L.</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>Palma cocos Mill. | Calappa nucifera (L.) Kuntze | Cocos nucifera var. synphyllica Becc. | Cocos indica Royle | Cocos mamillaris Blanco | Cocos nana Griff. | Diplothemium henryanum F.Br. | Cocos nucifera var. microcarpa Hassk. ex F.W.T.Hunger | Cocos nucifera var. javanica G.V.Narayana | Cocos nucifera var. alangan Blume | Cocos nucifera var. alba Blume | Cocos nucifera var. angustifolia Hassk. | Cocos nucifera var. aurea Anon. | Cocos nucifera var. austera Blume | Cocos nucifera var. bego Blume | Cocos nucifera var. buri Blume | Cocos nucifera var. calimbahin Blume | Cocos nucifera var. capuliformis Blume | Cocos nucifera var. cistiformis Blume | Cocos nucifera var. como Blume | Cocos nucifera var. crassissima Blume | Cocos nucifera var. delicata Blume | Cocos nucifera var. eburnea Blume | Cocos nucifera var. edulis Blume | Cocos nucifera var. elongata Blume | Cocos nucifera var. fibrosa Blume | Cocos nucifera var. fragilis Blume | Cocos nucifera var. humilis Blume | Cocos nucifera var. iners Blume | Cocos nucifera var. laetevirens Blume | Cocos nucifera var. lansiformis Blume | Cocos nucifera var. lolog Blume | Cocos nucifera var. machaeroides Blume | Cocos nucifera var. macrocarpa Blume | Cocos nucifera var. maldivica Blume | Cocos nucifera var. mamillaris (Blanco) Blume | Cocos nucifera var. nana (Griff.) G.V.Narayana | Cocos nucifera var. ossea Blume | Cocos nucifera var. pinang Blume | Cocos nucifera var. pretiosa Blume | Cocos nucifera var. pruniformis Blume | Cocos nucifera var. pumila Hassk. | Cocos nucifera var. regia Blume | Cocos nucifera var. rubescens Hassk. | Cocos nucifera var. rutila Blume | Cocos nucifera var. saccharina Blume | Cocos nucifera var. sapida Blume | Cocos nucifera var. spicata K.C.Jacob | Cocos nucifera var. stupposa Blume | Cocos nucifera var. suavis Blume | Cocos nucifera var. subamara Blume | Cocos nucifera var. subcandida Blume | Cocos nucifera var. tabogog Blume | Cocos nucifera var. tamisan Blume | Cocos nucifera var. tenuissima Blume | Cocos nucifera var. viridis Hassk. | Cocos nucifera f. palmyrensis Becc. | Cocos nucifera var. palmyrensis (Becc.) Becc.</t>
         </is>
       </c>
-      <c r="AA53" t="n">
+      <c r="AB53" t="n">
         <v>58</v>
       </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Cocos nucifera L.", "wfo_id": "wfo-0000903570", "full_name_plain": "Cocos nucifera L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Cocos'", "Word is found in index and so is part of name: 'nucifera'.", "Word is lowercase. Subsequent words must start with lowercase: 'nucifera'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'nucifera'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Cocos nucifera' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Cocos nucifera", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000903570", "full_name_plain": "Cocos nucifera L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 58}}</t>
         </is>
       </c>
     </row>
@@ -7077,35 +7277,35 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
+          <t>Coffea arabica</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
           <t>wfo-0000910097</t>
         </is>
       </c>
-      <c r="X54" t="inlineStr">
+      <c r="Y54" t="inlineStr">
         <is>
           <t>Coffea arabica L.</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="Z54" t="inlineStr">
         <is>
           <t>Coffea arabica L.</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AA54" t="inlineStr">
         <is>
           <t>Coffea arabica var. murta Lalière | Coffea arabica var. amarella A.Froehner | Coffea arabica var. angustifolia Cramer | Coffea arabica var. bourbon Rodr. ex Choussy | Coffea arabica var. brevistipulata Cif. | Coffea arabica var. bullata Cramer | Coffea arabica var. columnaris Ottol. ex Cramer | Coffea arabica var. erecta Ottol. ex Cramer | Coffea arabica var. longistipulata Cif. | Coffea arabica var. maragogype A.Froehner | Coffea arabica var. mokka Cramer | Coffea arabica var. monosperma Ottol. &amp; Cramer | Coffea arabica var. pendula Cramer | Coffea arabica var. polysperma Silveira | Coffea arabica var. pubescens Cif. | Coffea arabica var. purpurascens Cramer | Coffea arabica var. rotundifolia Ottol. ex Cramer | Coffea arabica var. straminea Miq. ex A.Froehner | Coffea arabica var. sundana (Miq.) A.Chev. | Coffea arabica var. variegata Ottol. ex Cramer | Coffea bourbonica Pharm. ex Wehmer | Coffea corymbulosa Bertol. | Coffea laurifolia Salisb. | Coffea moka Heynh. | Coffea sundana Miq. | Coffea vulgaris Moench | Coffea arabica var. cultoides A.Chev. | Coffea arabica var. culta A.Chev. | Coffea arabica var. latifolia A.Chev. | Coffea arabica var. myrtifolia A.Chev. | Coffea arabica var. typica Cramer | Coffea arabica f. abyssinica A.Chev. | Coffea arabica var. polysperma Burck</t>
         </is>
       </c>
-      <c r="AA54" t="n">
+      <c r="AB54" t="n">
         <v>33</v>
       </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Coffea arabica L.", "wfo_id": "wfo-0000910097", "full_name_plain": "Coffea arabica L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Coffea'", "Word is found in index and so is part of name: 'arabica'.", "Word is lowercase. Subsequent words must start with lowercase: 'arabica'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'arabica'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Coffea arabica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Coffea arabica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000910097", "full_name_plain": "Coffea arabica L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 33}}</t>
         </is>
       </c>
     </row>
@@ -7206,35 +7406,35 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
+          <t>Coffea arabica</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
           <t>wfo-0000910097</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr">
+      <c r="Y55" t="inlineStr">
         <is>
           <t>Coffea arabica L.</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>Coffea arabica L.</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AA55" t="inlineStr">
         <is>
           <t>Coffea arabica var. murta Lalière | Coffea arabica var. amarella A.Froehner | Coffea arabica var. angustifolia Cramer | Coffea arabica var. bourbon Rodr. ex Choussy | Coffea arabica var. brevistipulata Cif. | Coffea arabica var. bullata Cramer | Coffea arabica var. columnaris Ottol. ex Cramer | Coffea arabica var. erecta Ottol. ex Cramer | Coffea arabica var. longistipulata Cif. | Coffea arabica var. maragogype A.Froehner | Coffea arabica var. mokka Cramer | Coffea arabica var. monosperma Ottol. &amp; Cramer | Coffea arabica var. pendula Cramer | Coffea arabica var. polysperma Silveira | Coffea arabica var. pubescens Cif. | Coffea arabica var. purpurascens Cramer | Coffea arabica var. rotundifolia Ottol. ex Cramer | Coffea arabica var. straminea Miq. ex A.Froehner | Coffea arabica var. sundana (Miq.) A.Chev. | Coffea arabica var. variegata Ottol. ex Cramer | Coffea bourbonica Pharm. ex Wehmer | Coffea corymbulosa Bertol. | Coffea laurifolia Salisb. | Coffea moka Heynh. | Coffea sundana Miq. | Coffea vulgaris Moench | Coffea arabica var. cultoides A.Chev. | Coffea arabica var. culta A.Chev. | Coffea arabica var. latifolia A.Chev. | Coffea arabica var. myrtifolia A.Chev. | Coffea arabica var. typica Cramer | Coffea arabica f. abyssinica A.Chev. | Coffea arabica var. polysperma Burck</t>
         </is>
       </c>
-      <c r="AA55" t="n">
+      <c r="AB55" t="n">
         <v>33</v>
       </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Coffea arabica L.", "wfo_id": "wfo-0000910097", "full_name_plain": "Coffea arabica L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Coffea'", "Word is found in index and so is part of name: 'arabica'.", "Word is lowercase. Subsequent words must start with lowercase: 'arabica'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'arabica'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Coffea arabica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Coffea arabica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000910097", "full_name_plain": "Coffea arabica L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 33}}</t>
         </is>
       </c>
     </row>
@@ -7335,35 +7535,35 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
+          <t>Coffea arabica</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
           <t>wfo-0000910097</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr">
+      <c r="Y56" t="inlineStr">
         <is>
           <t>Coffea arabica L.</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="Z56" t="inlineStr">
         <is>
           <t>Coffea arabica L.</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AA56" t="inlineStr">
         <is>
           <t>Coffea arabica var. murta Lalière | Coffea arabica var. amarella A.Froehner | Coffea arabica var. angustifolia Cramer | Coffea arabica var. bourbon Rodr. ex Choussy | Coffea arabica var. brevistipulata Cif. | Coffea arabica var. bullata Cramer | Coffea arabica var. columnaris Ottol. ex Cramer | Coffea arabica var. erecta Ottol. ex Cramer | Coffea arabica var. longistipulata Cif. | Coffea arabica var. maragogype A.Froehner | Coffea arabica var. mokka Cramer | Coffea arabica var. monosperma Ottol. &amp; Cramer | Coffea arabica var. pendula Cramer | Coffea arabica var. polysperma Silveira | Coffea arabica var. pubescens Cif. | Coffea arabica var. purpurascens Cramer | Coffea arabica var. rotundifolia Ottol. ex Cramer | Coffea arabica var. straminea Miq. ex A.Froehner | Coffea arabica var. sundana (Miq.) A.Chev. | Coffea arabica var. variegata Ottol. ex Cramer | Coffea bourbonica Pharm. ex Wehmer | Coffea corymbulosa Bertol. | Coffea laurifolia Salisb. | Coffea moka Heynh. | Coffea sundana Miq. | Coffea vulgaris Moench | Coffea arabica var. cultoides A.Chev. | Coffea arabica var. culta A.Chev. | Coffea arabica var. latifolia A.Chev. | Coffea arabica var. myrtifolia A.Chev. | Coffea arabica var. typica Cramer | Coffea arabica f. abyssinica A.Chev. | Coffea arabica var. polysperma Burck</t>
         </is>
       </c>
-      <c r="AA56" t="n">
+      <c r="AB56" t="n">
         <v>33</v>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Coffea arabica L.", "wfo_id": "wfo-0000910097", "full_name_plain": "Coffea arabica L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Coffea'", "Word is found in index and so is part of name: 'arabica'.", "Word is lowercase. Subsequent words must start with lowercase: 'arabica'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'arabica'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Coffea arabica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Coffea arabica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000910097", "full_name_plain": "Coffea arabica L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 33}}</t>
         </is>
       </c>
     </row>
@@ -7464,35 +7664,35 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
+          <t>Coffea canephora</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
           <t>wfo-0000910571</t>
         </is>
       </c>
-      <c r="X57" t="inlineStr">
+      <c r="Y57" t="inlineStr">
         <is>
           <t>Coffea canephora Pierre ex A.Froehner</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="Z57" t="inlineStr">
         <is>
           <t>Coffea canephora Pierre ex A.Froehner</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
+      <c r="AA57" t="inlineStr">
         <is>
           <t>Coffea arabica var. stuhlmannii A.Froehner | Coffea bukobensis Zimm. | Coffea canephora var. crassifolia Laurent ex De Wild. | Coffea canephora var. gossweileri A.Chev. | Coffea canephora var. hiernii Pierre ex De Wild. | Coffea canephora var. hinaultii Pierre ex De Wild. | Coffea canephora var. kouilouensis De Wild. | Coffea canephora var. laurentii (De Wild.) A.Chev. | Coffea canephora var. maclaudii (A.Chev.) A.Chev. | Coffea canephora var. muniensis Pierre ex De Wild. | Coffea canephora var. oligoneura Pierre ex De Wild. | Coffea canephora var. opaca Pierre ex De Wild. | Coffea canephora f. sankuruensis De Wild. | Coffea canephora var. sankuruensis (De Wild.) De Wild. | Coffea canephora var. stuhlmannii (A.Froehner) A.Chev. | Coffea canephora var. trillesii De Wild. | Coffea canephora var. ugandae (Cramer) A.Chev. | Coffea canephora var. welwitschii (Pierre ex De Wild.) A.Chev. | Coffea canephora var. wildemanii Pierre ex De Wild. | Coffea laurentii De Wild. | Coffea maclaudi A.Chev. | Coffea quillon Wester | Coffea robusta L.Linden | Coffea ugandae Cramer | Coffea welwitschii Pierre ex De Wild. | Coffea canephora var. robusta (L.Linden) A.Chev. | Coffea canephora var. oka A.Chev. | Coffea canephora var. nganda Haarer</t>
         </is>
       </c>
-      <c r="AA57" t="n">
+      <c r="AB57" t="n">
         <v>28</v>
       </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Coffea canephora Pierre ex A.Froehner", "wfo_id": "wfo-0000910571", "full_name_plain": "Coffea canephora Pierre ex A.Froehner", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Coffea'", "Word is found in index and so is part of name: 'canephora'.", "Word is lowercase. Subsequent words must start with lowercase: 'canephora'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Pierre'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'canephora'", "Authors string looks like this: 'Pierre ex A.Froehner'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Coffea canephora' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Coffea canephora", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000910571", "full_name_plain": "Coffea canephora Pierre ex A.Froehner", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 28}}</t>
         </is>
       </c>
     </row>
@@ -7593,35 +7793,35 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
+          <t>Colocasia esculenta</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
           <t>wfo-0000917419</t>
         </is>
       </c>
-      <c r="X58" t="inlineStr">
+      <c r="Y58" t="inlineStr">
         <is>
           <t>Colocasia esculenta (L.) Schott</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="Z58" t="inlineStr">
         <is>
           <t>Colocasia esculenta (L.) Schott</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
+      <c r="AA58" t="inlineStr">
         <is>
           <t>Leucocasia esculenta (L.) Nakai | Aron colocasium (L.) St.-Lag. | Arum chinense L. | Arum colocasia L. | Arum colocasioides Desf. | Arum esculentum L. | Arum lividum Salisb. | Arum nymphaeifolium (Vent.) Roxb. | Arum peltatum Lam. | Colocasia antiquorum f. acuatica Makino | Colocasia antiquorum f. eguimo Makino | Colocasia antiquorum f. oyasetage Makino | Colocasia antiquorum f. purpurea Makino | Colocasia antiquorum f. yamamotoi Makino | Colocasia antiquorum var. multifolia Makino | Caladium acre R.Br. | Caladium colocasia (L.) W.Wight | Caladium colocasioides (Desf.) Brongn. | Caladium esculentum (L.) Vent. | Caladium glycyrrhizum Fraser | Caladium nymphaeifolium Vent. | Caladium violaceum Desf. | Caladium violaceum Engl. | Calla gaby Blanco | Colocasia antiquorum var. patens Makino | Colocasia antiquorum var. rosea Makino | Colocasia esculenta f. ebiimo Makino | Colocasia esculenta f. rotundifolia Makino | Colocasia antiquorum var. acris (R.Br.) Schott | Colocasia antiquorum var. esculenta (L.) Schott | Colocasia antiquorum var. euchlora (K.Koch &amp; Linden) Schott | Colocasia antiquorum var. illustris (W.Bull) Engl. | Colocasia antiquorum var. nymphaeifolia (Vent.) Engl. | Colocasia esculenta var. acris (R.Br.) A.F.Hill | Colocasia esculenta var. euchlora (K.Koch &amp; Linden) A.F.Hill | Colocasia esculenta var. globulifera (Engl. &amp; K.Krause) R.A.Young | Colocasia esculenta var. illustris (W.Bull) A.F.Hill | Colocasia esculenta var. nymphaeifolia (Vent.) A.F.Hill | Colocasia antiquorum var. globulifera Engl. &amp; K.Krause | Colocasia acris (R.Br.) Schott | Colocasia aegyptiaca Samp. | Colocasia antiquorum Schott | Colocasia antiquorum var. rupicola Haines | Colocasia antiquorum var. stolonifera Haines | Colocasia colocasia (L.) Huth | Colocasia esculenta var. antiquorum (Schott) F.T.Hubb. &amp; Rehder | Colocasia esculenta var. aquatilis Hassk. | Colocasia esculenta var. rupicola (Haines) H.B.Naithani | Colocasia esculenta var. stolonifera (Haines) H.B.Naithani | Colocasia euchlora K.Koch &amp; Linden | Colocasia formosana Hayata | Colocasia gracilis Engl. | Colocasia himalensis Royle | Colocasia konishii Hayata | Colocasia neocaledonica Van Houtte | Colocasia nymphaeifolia (Vent.) Kunth | Colocasia peltata (Lam.) Samp. | Colocasia tonoimo Nakai | Colocasia vera Hassk. | Colocasia violacea (Desf.) Anon. | Colocasia vulgaris Raf. | Alocasia dussii Dammer | Alocasia illustris W.Bull | Colocasia antiquorum var. aquatilis (Hassk.) Engl. &amp; K.Krause | Caladium nigrescens André | Caladium atrovirens André | Caladium divaricatum André | Caladium parimaense André | Caladium violaceum var. alboviolaceum André | Colocasia antiquorum var. typica Engl. | Colocasia esculenta var. typica A.F.Hill | Caladium esculentum unranked bataviensis Hovey | Caladium antiquorum (Schott) André</t>
         </is>
       </c>
-      <c r="AA58" t="n">
+      <c r="AB58" t="n">
         <v>73</v>
       </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Colocasia esculenta (L.) Schott", "wfo_id": "wfo-0000917419", "full_name_plain": "Colocasia esculenta (L.) Schott", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Colocasia'", "Word is found in index and so is part of name: 'esculenta'.", "Word is lowercase. Subsequent words must start with lowercase: 'esculenta'.", "Word contains non alpha chars and so is start of author string: '(L.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'esculenta'", "Authors string looks like this: '(L.) Schott'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Colocasia esculenta' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Colocasia esculenta", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000917419", "full_name_plain": "Colocasia esculenta (L.) Schott", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 73}}</t>
         </is>
       </c>
     </row>
@@ -7714,31 +7914,31 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
+          <t>Colvillea racemosa</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
           <t>wfo-0000186694</t>
         </is>
       </c>
-      <c r="X59" t="inlineStr">
+      <c r="Y59" t="inlineStr">
         <is>
           <t>Colvillea racemosa Bojer</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="Z59" t="inlineStr">
         <is>
           <t>Colvillea racemosa Bojer</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="n">
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="n">
         <v>0</v>
       </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Colvillea racemosa Bojer ex Hook.", "wfo_id": "wfo-0000186694", "full_name_plain": "Colvillea racemosa Bojer", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Colvillea'", "Word is found in index and so is part of name: 'racemosa'.", "Word is lowercase. Subsequent words must start with lowercase: 'racemosa'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Bojer'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'racemosa'", "Authors string looks like this: 'Bojer ex Hook.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Colvillea racemosa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Colvillea racemosa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000186694", "full_name_plain": "Colvillea racemosa Bojer", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -7837,21 +8037,37 @@
           <t>Cordia myxa L.</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Cordia myxa</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>wfo-0000620765</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>Cordia myxa L.</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Cordia myxa L.</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>Argyreia arborea Lour. | Vitex gomphophylla Baker | Lithocardium myxa Kuntze | Quarena indica Raf. | Sebestena myxa (L.) J.Presl | Sebestena officinalis Gaertn. | Bourreria glabra (Roth) G.Don | Cordia latifolia Wall. ex G.Don | Cordia officinalis Lam. | Cordia paniculata Roth | Cordia petta-pelioporet B.Heyne ex Roth | Cordia scabrifolia Griseb. | Cordia sebestena Forssk. | Ehretia glabra Roth ex Roem. &amp; Schult. | Gerascanthus myxus (L.) Borhidi | Ehretia glabra Roth</t>
+        </is>
+      </c>
+      <c r="AB60" t="n">
+        <v>16</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Cordia myxa L.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Cordia'", "Word is found in index and so is part of name: 'myxa'.", "Word is lowercase. Subsequent words must start with lowercase: 'myxa'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'myxa'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Cordia myxa' and found 3 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 3 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Cordia myxa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000620765", "full_name_plain": "Cordia myxa L.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 16}}</t>
         </is>
       </c>
     </row>
@@ -7952,35 +8168,35 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
+          <t>Couroupita guianensis</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
           <t>wfo-0000775148</t>
         </is>
       </c>
-      <c r="X61" t="inlineStr">
+      <c r="Y61" t="inlineStr">
         <is>
           <t>Couroupita guianensis Aubl.</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Z61" t="inlineStr">
         <is>
           <t>Couroupita guianensis Aubl.</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
+      <c r="AA61" t="inlineStr">
         <is>
           <t>Couroupita guianensis var. surinamensis (Mart. ex Berg) Eyma | Lecythis bracteata Willd. | Couroupita saintcroixiana R.Knuth | Pekea couroupita Juss. ex DC. | Couratari pedicellaris Rizzini | Couroupita acreensis R.Knuth | Couroupita antillana Miers | Couroupita froesii R.Knuth | Couroupita idolica Dwyer | Couroupita membranacea Miers | Couroupita peruviana O.Berg | Couroupita surinamensis Mart. ex O.Berg | Couroupita venezuelensis R.Knuth</t>
         </is>
       </c>
-      <c r="AA61" t="n">
+      <c r="AB61" t="n">
         <v>13</v>
       </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Couroupita guianensis Aubl.", "wfo_id": "wfo-0000775148", "full_name_plain": "Couroupita guianensis Aubl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Couroupita'", "Word is found in index and so is part of name: 'guianensis'.", "Word is lowercase. Subsequent words must start with lowercase: 'guianensis'.", "Word contains non alpha chars and so is start of author string: 'Aubl.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'guianensis'", "Authors string looks like this: 'Aubl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Couroupita guianensis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Couroupita guianensis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000775148", "full_name_plain": "Couroupita guianensis Aubl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 13}}</t>
         </is>
       </c>
     </row>
@@ -8073,35 +8289,35 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
+          <t>Ctenanthe amabilis</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
           <t>wfo-0000365193</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr">
+      <c r="Y62" t="inlineStr">
         <is>
           <t>Ctenanthe amabilis (É.Morren) H.Kenn. &amp; Nicolson</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="Z62" t="inlineStr">
         <is>
           <t>Ctenanthe amabilis (É.Morren) H.Kenn. &amp; Nicolson</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
+      <c r="AA62" t="inlineStr">
         <is>
           <t>Stromanthe amabilis É.Morren</t>
         </is>
       </c>
-      <c r="AA62" t="n">
+      <c r="AB62" t="n">
         <v>1</v>
       </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ctenanthe amabilis (É.Morren) H.Kenn. &amp; Nicolson", "wfo_id": "wfo-0000365193", "full_name_plain": "Ctenanthe amabilis (É.Morren) H.Kenn. &amp; Nicolson", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ctenanthe'", "Word is found in index and so is part of name: 'amabilis'.", "Word is lowercase. Subsequent words must start with lowercase: 'amabilis'.", "Word contains non alpha chars and so is start of author string: '(É.Morren)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'amabilis'", "Authors string looks like this: '(É.Morren) H.Kenn. &amp; Nicolson'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ctenanthe amabilis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ctenanthe amabilis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000365193", "full_name_plain": "Ctenanthe amabilis (É.Morren) H.Kenn. &amp; Nicolson", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -8194,35 +8410,35 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
+          <t>Cubanola domingensis</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
           <t>wfo-0000933427</t>
         </is>
       </c>
-      <c r="X63" t="inlineStr">
+      <c r="Y63" t="inlineStr">
         <is>
           <t>Cubanola domingensis (Britton) Aiello</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>Cubanola domingensis (Britton) Aiello</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
+      <c r="AA63" t="inlineStr">
         <is>
           <t>Portlandia domingensis Britton</t>
         </is>
       </c>
-      <c r="AA63" t="n">
+      <c r="AB63" t="n">
         <v>1</v>
       </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Cubanola domingensis (Britton) Aiello", "wfo_id": "wfo-0000933427", "full_name_plain": "Cubanola domingensis (Britton) Aiello", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Cubanola'", "Word is found in index and so is part of name: 'domingensis'.", "Word is lowercase. Subsequent words must start with lowercase: 'domingensis'.", "Word contains non alpha chars and so is start of author string: '(Britton)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'domingensis'", "Authors string looks like this: '(Britton) Aiello'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Cubanola domingensis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Cubanola domingensis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000933427", "full_name_plain": "Cubanola domingensis (Britton) Aiello", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -8323,35 +8539,35 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
+          <t>Curculigo capitulata</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
           <t>wfo-0000764772</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr">
+      <c r="Y64" t="inlineStr">
         <is>
           <t>Curculigo capitulata (Lour.) Kuntze</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="Z64" t="inlineStr">
         <is>
           <t>Curculigo capitulata (Lour.) Kuntze</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>Leucojum capitulatum Lour. | Molineria capitulata (Lour.) Herb. | Molineria hortensis Britton | Molineria recurvata (W.T.Aiton) Herb. | Molineria plicata Colla | Molineria sumatrana (Roxb.) Herb. | Molineria sulcata Kurz | Tupistra esquirolii H.Lév. &amp; Vaniot | Veratrum mairei H.Lév. | Curculigo glabra Merr. | Curculigo recurvata W.T.Aiton | Curculigo strobiliformis D.Fang &amp; D.H.Qin | Curculigo sumatrana Roxb. | Curculigo fuziwarae Yamam. | Curculigo foliisvariegatis Pynaert | Curculigo recurvata var. variegatea W.Bull</t>
         </is>
       </c>
-      <c r="AA64" t="n">
+      <c r="AB64" t="n">
         <v>16</v>
       </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Curculigo capitulata (Lour.) Kuntze", "wfo_id": "wfo-0000764772", "full_name_plain": "Curculigo capitulata (Lour.) Kuntze", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Curculigo'", "Word is found in index and so is part of name: 'capitulata'.", "Word is lowercase. Subsequent words must start with lowercase: 'capitulata'.", "Word contains non alpha chars and so is start of author string: '(Lour.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'capitulata'", "Authors string looks like this: '(Lour.) Kuntze'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Curculigo capitulata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Curculigo capitulata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000764772", "full_name_plain": "Curculigo capitulata (Lour.) Kuntze", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 16}}</t>
         </is>
       </c>
     </row>
@@ -8444,35 +8660,35 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
+          <t>Cyanastrum cordifolium</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
           <t>wfo-0000764829</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr">
+      <c r="Y65" t="inlineStr">
         <is>
           <t>Cyanastrum cordifolium Oliv.</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="Z65" t="inlineStr">
         <is>
           <t>Cyanastrum cordifolium Oliv.</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
+      <c r="AA65" t="inlineStr">
         <is>
           <t>Schoenlandia gabonensis Cornu | Cyanastrum cordifolium var. compactum R.T.Clausen</t>
         </is>
       </c>
-      <c r="AA65" t="n">
+      <c r="AB65" t="n">
         <v>2</v>
       </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Cyanastrum cordifolium Oliv.", "wfo_id": "wfo-0000764829", "full_name_plain": "Cyanastrum cordifolium Oliv.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Cyanastrum'", "Word is found in index and so is part of name: 'cordifolium'.", "Word is lowercase. Subsequent words must start with lowercase: 'cordifolium'.", "Word contains non alpha chars and so is start of author string: 'Oliv.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cordifolium'", "Authors string looks like this: 'Oliv.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Cyanastrum cordifolium' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Cyanastrum cordifolium", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000764829", "full_name_plain": "Cyanastrum cordifolium Oliv.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -8571,21 +8787,37 @@
           <t>Cyperus diffusus Vahl</t>
         </is>
       </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Cyperus diffusus</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>wfo-0000371726</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>Cyperus diffusus Roxb.</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Cyperus</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Cyperus michelianus subsp. michelianus</t>
+        </is>
+      </c>
+      <c r="AB66" t="n">
+        <v>1</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Cyperus diffusus Vahl", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Cyperus'", "Word is found in index and so is part of name: 'diffusus'.", "Word is lowercase. Subsequent words must start with lowercase: 'diffusus'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Vahl'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'diffusus'", "Authors string looks like this: 'Vahl'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Cyperus diffusus' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Cyperus diffusus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000371726", "full_name_plain": "Cyperus diffusus Roxb.", "attempts_count": 2, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -8686,35 +8918,35 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
+          <t>Delonix regia</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
           <t>wfo-0000166389</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr">
+      <c r="Y67" t="inlineStr">
         <is>
           <t>Delonix regia (Bojer ex Hook.) Raf.</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr">
+      <c r="Z67" t="inlineStr">
         <is>
           <t>Delonix regia (Bojer ex Hook.) Raf.</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
+      <c r="AA67" t="inlineStr">
         <is>
           <t>Poinciana regia Bojer ex Hook. | Delonix regia var. flavida Stehle | Delonix regia var. genuina Stehlé | Caesalpinia regia (Bojer ex Hook.) D.Dietr. | Delonix regia var. flavida Stehlé</t>
         </is>
       </c>
-      <c r="AA67" t="n">
+      <c r="AB67" t="n">
         <v>5</v>
       </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Delonix regia (Bojer ex Hook.) Raf.", "wfo_id": "wfo-0000166389", "full_name_plain": "Delonix regia (Bojer ex Hook.) Raf.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Delonix'", "Word is found in index and so is part of name: 'regia'.", "Word is lowercase. Subsequent words must start with lowercase: 'regia'.", "Word contains non alpha chars and so is start of author string: '(Bojer'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'regia'", "Authors string looks like this: '(Bojer ex Hook.) Raf.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Delonix regia' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Delonix regia", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000166389", "full_name_plain": "Delonix regia (Bojer ex Hook.) Raf.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 5}}</t>
         </is>
       </c>
     </row>
@@ -8807,35 +9039,35 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
+          <t>Dendrocnide excelsa</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
           <t>wfo-0000641019</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr">
+      <c r="Y68" t="inlineStr">
         <is>
           <t>Dendrocnide excelsa (Wedd.) Chew</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr">
+      <c r="Z68" t="inlineStr">
         <is>
           <t>Dendrocnide excelsa (Wedd.) Chew</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
+      <c r="AA68" t="inlineStr">
         <is>
           <t>Urera rotundifolia Wedd. | Urtica gigas A.Cunn. ex Wedd. | Urera excelsa Wedd. | Laportea gigas Wedd. | Urticastrum gigas (Wedd.) Kuntze</t>
         </is>
       </c>
-      <c r="AA68" t="n">
+      <c r="AB68" t="n">
         <v>5</v>
       </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dendrocnide excelsa (Wedd.) Chew", "wfo_id": "wfo-0000641019", "full_name_plain": "Dendrocnide excelsa (Wedd.) Chew", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dendrocnide'", "Word is found in index and so is part of name: 'excelsa'.", "Word is lowercase. Subsequent words must start with lowercase: 'excelsa'.", "Word contains non alpha chars and so is start of author string: '(Wedd.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'excelsa'", "Authors string looks like this: '(Wedd.) Chew'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dendrocnide excelsa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dendrocnide excelsa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000641019", "full_name_plain": "Dendrocnide excelsa (Wedd.) Chew", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 5}}</t>
         </is>
       </c>
     </row>
@@ -8934,21 +9166,37 @@
           <t>Dichrostachys cinerea (L.) Wight &amp; Arn.</t>
         </is>
       </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Dichrostachys cinerea</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>wfo-0000195972</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>Dichrostachys cinerea R.Vig.</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>Alantsilodendron</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>Alantsilodendron pilosum Villiers</t>
+        </is>
+      </c>
+      <c r="AB69" t="n">
+        <v>1</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dichrostachys cinerea (L.) Wight &amp; Arn.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dichrostachys'", "Word is found in index and so is part of name: 'cinerea'.", "Word is lowercase. Subsequent words must start with lowercase: 'cinerea'.", "Word contains non alpha chars and so is start of author string: '(L.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cinerea'", "Authors string looks like this: '(L.) Wight &amp; Arn.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dichrostachys cinerea' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dichrostachys cinerea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000195972", "full_name_plain": "Dichrostachys cinerea R.Vig.", "attempts_count": 2, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -9049,35 +9297,35 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
+          <t>Dioscorea alata</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
           <t>wfo-0000388864</t>
         </is>
       </c>
-      <c r="X70" t="inlineStr">
+      <c r="Y70" t="inlineStr">
         <is>
           <t>Dioscorea alata L.</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr">
+      <c r="Z70" t="inlineStr">
         <is>
           <t>Dioscorea alata L.</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="AA70" t="inlineStr">
         <is>
           <t>Dioscorea alata var. tarri Prain &amp; Burkill | Dioscorea alata var. vera Prain &amp; Burkill | Dioscorea atropurpurea Roxb. | Dioscorea colocasiifolia Pax | Dioscorea eburina Lour. | Dioscorea eburnea Lour. | Dioscorea globosa Roxb. | Dioscorea javanica Queva | Dioscorea purpurea Roxb. | Dioscorea rubella Roxb. | Dioscorea sapinii De Wild. | Dioscorea vulgaris Miq. | Elephantodon eburneus (Lour.) Salisb. | Polynome alata (L.) Salisb. | Dioscorea alata var. globosa (Roxb.) Prain | Dioscorea alata var. purpurea (Roxb.) A.Pouchet | Dioscorea sapinii De Wildemann</t>
         </is>
       </c>
-      <c r="AA70" t="n">
+      <c r="AB70" t="n">
         <v>17</v>
       </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dioscorea alata L.", "wfo_id": "wfo-0000388864", "full_name_plain": "Dioscorea alata L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dioscorea'", "Word is found in index and so is part of name: 'alata'.", "Word is lowercase. Subsequent words must start with lowercase: 'alata'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'alata'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dioscorea alata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dioscorea alata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000388864", "full_name_plain": "Dioscorea alata L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 17}}</t>
         </is>
       </c>
     </row>
@@ -9178,35 +9426,35 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
+          <t>Dioscorea oppositifolia</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
           <t>wfo-0000393046</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr">
+      <c r="Y71" t="inlineStr">
         <is>
           <t>Dioscorea oppositifolia L.</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr">
+      <c r="Z71" t="inlineStr">
         <is>
           <t>Dioscorea oppositifolia L.</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
+      <c r="AA71" t="inlineStr">
         <is>
           <t>Dioscorea opposita Thunb. | Dioscorea oppositifolia var. dukhunensis Prain &amp; Burkill | Dioscorea oppositifolia var. linnaei Prain &amp; Burkill | Dioscorea oppositifolia var. thwaitesii Prain &amp; Burkill</t>
         </is>
       </c>
-      <c r="AA71" t="n">
+      <c r="AB71" t="n">
         <v>4</v>
       </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dioscorea oppositifolia L.", "wfo_id": "wfo-0000393046", "full_name_plain": "Dioscorea oppositifolia L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dioscorea'", "Word is found in index and so is part of name: 'oppositifolia'.", "Word is lowercase. Subsequent words must start with lowercase: 'oppositifolia'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'oppositifolia'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dioscorea oppositifolia' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dioscorea oppositifolia", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000393046", "full_name_plain": "Dioscorea oppositifolia L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -9307,35 +9555,35 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
+          <t>Dioscorea polystachya</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
           <t>wfo-0000393961</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr">
+      <c r="Y72" t="inlineStr">
         <is>
           <t>Dioscorea polystachya Turcz.</t>
         </is>
       </c>
-      <c r="Y72" t="inlineStr">
+      <c r="Z72" t="inlineStr">
         <is>
           <t>Dioscorea polystachya Turcz.</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
+      <c r="AA72" t="inlineStr">
         <is>
           <t>Dioscorea batatas Decne. | Dioscorea cayenensis var. pseudobatatas Hauman | Dioscorea decaisneana Carrière | Dioscorea doryphora Hance | Dioscorea potaninii Prain &amp; Burkill | Dioscorea pseudobatatas (Hauman) Herter | Dioscorea rosthornii Diels | Dioscorea swinhoei Rolfe | Dioscorea batatas f. clavata Makino | Dioscorea batatas f. daikok Makino | Dioscorea batatas f. flabellata Makino | Dioscorea batatas f. rakuda Makino | Dioscorea batatas f. tsukune Makino | Dioscorea polystachya f. elongata Nakai | Dioscorea polystachya f. tsukune Nakai</t>
         </is>
       </c>
-      <c r="AA72" t="n">
+      <c r="AB72" t="n">
         <v>15</v>
       </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dioscorea polystachya Turcz.", "wfo_id": "wfo-0000393961", "full_name_plain": "Dioscorea polystachya Turcz.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dioscorea'", "Word is found in index and so is part of name: 'polystachya'.", "Word is lowercase. Subsequent words must start with lowercase: 'polystachya'.", "Word contains non alpha chars and so is start of author string: 'Turcz.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'polystachya'", "Authors string looks like this: 'Turcz.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dioscorea polystachya' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dioscorea polystachya", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000393961", "full_name_plain": "Dioscorea polystachya Turcz.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 15}}</t>
         </is>
       </c>
     </row>
@@ -9428,35 +9676,35 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
+          <t>Dischidia bengalensis</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
           <t>wfo-0000651616</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr">
+      <c r="Y73" t="inlineStr">
         <is>
           <t>Dischidia bengalensis Colebr.</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="Z73" t="inlineStr">
         <is>
           <t>Dischidia bengalensis Colebr.</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="AA73" t="inlineStr">
         <is>
           <t>Dischidia cuneifolia Wall. | Dischidia loeseneriana Schltr. | Dischidia pseudobenghalensis Costantin | Dischidia spatulata Blume | Dischidia bengalensis var. cuneifolia (Wall.) Kuntze | Dischidia bengalensis var. spathulata (Blume) Kuntze</t>
         </is>
       </c>
-      <c r="AA73" t="n">
+      <c r="AB73" t="n">
         <v>6</v>
       </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dischidia bengalensis Colebr.", "wfo_id": "wfo-0000651616", "full_name_plain": "Dischidia bengalensis Colebr.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dischidia'", "Word is found in index and so is part of name: 'bengalensis'.", "Word is lowercase. Subsequent words must start with lowercase: 'bengalensis'.", "Word contains non alpha chars and so is start of author string: 'Colebr.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'bengalensis'", "Authors string looks like this: 'Colebr.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dischidia bengalensis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dischidia bengalensis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000651616", "full_name_plain": "Dischidia bengalensis Colebr.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -9549,31 +9797,31 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
+          <t>Dischidia platyphylla</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
           <t>wfo-0000651732</t>
         </is>
       </c>
-      <c r="X74" t="inlineStr">
+      <c r="Y74" t="inlineStr">
         <is>
           <t>Dischidia platyphylla Schltr.</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr">
+      <c r="Z74" t="inlineStr">
         <is>
           <t>Dischidia platyphylla Schltr.</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="n">
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="n">
         <v>0</v>
       </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dischidia platyphylla Schltr.", "wfo_id": "wfo-0000651732", "full_name_plain": "Dischidia platyphylla Schltr.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dischidia'", "Word is found in index and so is part of name: 'platyphylla'.", "Word is lowercase. Subsequent words must start with lowercase: 'platyphylla'.", "Word contains non alpha chars and so is start of author string: 'Schltr.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'platyphylla'", "Authors string looks like this: 'Schltr.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dischidia platyphylla' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dischidia platyphylla", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000651732", "full_name_plain": "Dischidia platyphylla Schltr.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -9666,35 +9914,35 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
+          <t>Dischidia subulata</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
           <t>wfo-0000651779</t>
         </is>
       </c>
-      <c r="X75" t="inlineStr">
+      <c r="Y75" t="inlineStr">
         <is>
           <t>Dischidia subulata Warb.</t>
         </is>
       </c>
-      <c r="Y75" t="inlineStr">
+      <c r="Z75" t="inlineStr">
         <is>
           <t>Dischidia subulata Warb.</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>Dischidia subulata subsp. angustata Rintz | Dischidia subulata subsp. subulata | Dischidia cordifolia King &amp; Gamble | Dischidia ericiflora Ridl. | Dischidia monticola King &amp; Gamble</t>
-        </is>
-      </c>
-      <c r="AA75" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Dischidia cordifolia King &amp; Gamble | Dischidia ericiflora Ridl. | Dischidia monticola King &amp; Gamble</t>
+        </is>
+      </c>
+      <c r="AB75" t="n">
+        <v>3</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dischidia subulata Warb.", "wfo_id": "wfo-0000651779", "full_name_plain": "Dischidia subulata Warb.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dischidia'", "Word is found in index and so is part of name: 'subulata'.", "Word is lowercase. Subsequent words must start with lowercase: 'subulata'.", "Word contains non alpha chars and so is start of author string: 'Warb.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'subulata'", "Authors string looks like this: 'Warb.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dischidia subulata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dischidia subulata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000651779", "full_name_plain": "Dischidia subulata Warb.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -9787,35 +10035,35 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
+          <t>Dischidia vidalii</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
           <t>wfo-0000651795</t>
         </is>
       </c>
-      <c r="X76" t="inlineStr">
+      <c r="Y76" t="inlineStr">
         <is>
           <t>Dischidia vidalii Becc.</t>
         </is>
       </c>
-      <c r="Y76" t="inlineStr">
+      <c r="Z76" t="inlineStr">
         <is>
           <t>Dischidia vidalii Becc.</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
+      <c r="AA76" t="inlineStr">
         <is>
           <t>Dischidia pectenoides H.Pearsen | Dischidia vidallii hort.</t>
         </is>
       </c>
-      <c r="AA76" t="n">
+      <c r="AB76" t="n">
         <v>2</v>
       </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Dischidia vidalii Becc.", "wfo_id": "wfo-0000651795", "full_name_plain": "Dischidia vidalii Becc.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Dischidia'", "Word is found in index and so is part of name: 'vidalii'.", "Word is lowercase. Subsequent words must start with lowercase: 'vidalii'.", "Word contains non alpha chars and so is start of author string: 'Becc.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'vidalii'", "Authors string looks like this: 'Becc.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Dischidia vidalii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Dischidia vidalii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000651795", "full_name_plain": "Dischidia vidalii Becc.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -9916,35 +10164,35 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
+          <t>Elaeis guineensis</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
           <t>wfo-0000947985</t>
         </is>
       </c>
-      <c r="X77" t="inlineStr">
+      <c r="Y77" t="inlineStr">
         <is>
           <t>Elaeis guineensis Jacq.</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr">
+      <c r="Z77" t="inlineStr">
         <is>
           <t>Elaeis guineensis Jacq.</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
+      <c r="AA77" t="inlineStr">
         <is>
           <t>Palma oleosa Mill. | Elaeis guineensis var. albescens Becc. | Elaeis guineensis f. androgyna A.Chev. | Elaeis guineensis var. angulosa Becc. | Elaeis guineensis f. caryolitica Becc. | Elaeis guineensis var. ceredia A.Chev. | Elaeis guineensis var. compressa Becc. | Elaeis guineensis f. dioica A.Chev. | Elaeis guineensis f. dura Becc. | Elaeis guineensis f. fatua Becc. | Elaeis guineensis var. gracilinux A.Chev. | Elaeis guineensis var. idolatrica A.Chev. | Elaeis guineensis var. intermedia A.Chev. | Elaeis guineensis var. leucocarpa Becc. | Elaeis guineensis var. macrocarpa A.Chev. | Elaeis guineensis var. macrocarya Becc. | Elaeis guineensis var. macrophylla A.Chev. | Elaeis guineensis subsp. nigrescens A.Chev. | Elaeis guineensis var. pisifera A.Chev. | Elaeis guineensis f. ramosa A.Chev. | Elaeis guineensis var. repanda A.Chev. | Elaeis guineensis var. rostrata Becc. | Elaeis guineensis f. semidura Becc. | Elaeis guineensis var. sempernigra A.Chev. | Elaeis guineensis var. spectabilis A.Chev. | Elaeis guineensis f. tenera Becc. | Elaeis guineensis subsp. virescens A.Chev. | Elaeis guineensis var. macrosperma Welw. | Elaeis guineensis var. microsperma Welw. | Elaeis dybowskii Hua | Elaeis guineensis var. madagascariensis Jum. &amp; H.Perrier | Elaeis macrophylla A.Chev. | Elaeis madagascariensis (Jum. &amp; H.Perrier) Becc. | Elaeis melanococca Gaertn. | Elaeis nigrescens (A.Chev.) Prain | Elaeis virescens A.Chev. | Elaeis virescens (A.Chev.) Prain | Elaeis humilis Thouin | Elaeis racemosa Thouin | Elaeis cirrhosa Thouin | Elaeis mocaya Thouin</t>
         </is>
       </c>
-      <c r="AA77" t="n">
+      <c r="AB77" t="n">
         <v>41</v>
       </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Elaeis guineensis Jacq.", "wfo_id": "wfo-0000947985", "full_name_plain": "Elaeis guineensis Jacq.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Elaeis'", "Word is found in index and so is part of name: 'guineensis'.", "Word is lowercase. Subsequent words must start with lowercase: 'guineensis'.", "Word contains non alpha chars and so is start of author string: 'Jacq.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'guineensis'", "Authors string looks like this: 'Jacq.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Elaeis guineensis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Elaeis guineensis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000947985", "full_name_plain": "Elaeis guineensis Jacq.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 41}}</t>
         </is>
       </c>
     </row>
@@ -10037,35 +10285,35 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
+          <t>Elettaria ensal</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
           <t>wfo-0000406519</t>
         </is>
       </c>
-      <c r="X78" t="inlineStr">
+      <c r="Y78" t="inlineStr">
         <is>
           <t>Elettaria ensal (Gaertn.) Abeyw.</t>
         </is>
       </c>
-      <c r="Y78" t="inlineStr">
+      <c r="Z78" t="inlineStr">
         <is>
           <t>Elettaria ensal (Gaertn.) Abeyw.</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
+      <c r="AA78" t="inlineStr">
         <is>
           <t>Amomum ensal (Gaertn.) Raeusch. | Elettaria cardamomum var. major Baker | Elettaria major Sm. | Zingiber ensal Gaertn. | Elettaria cardamomum-zeylanicum J.Pereira</t>
         </is>
       </c>
-      <c r="AA78" t="n">
+      <c r="AB78" t="n">
         <v>5</v>
       </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Elettaria ensal (Gaertn.) Abeyw.", "wfo_id": "wfo-0000406519", "full_name_plain": "Elettaria ensal (Gaertn.) Abeyw.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Elettaria'", "Word is found in index and so is part of name: 'ensal'.", "Word is lowercase. Subsequent words must start with lowercase: 'ensal'.", "Word contains non alpha chars and so is start of author string: '(Gaertn.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'ensal'", "Authors string looks like this: '(Gaertn.) Abeyw.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Elettaria ensal' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Elettaria ensal", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000406519", "full_name_plain": "Elettaria ensal (Gaertn.) Abeyw.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 5}}</t>
         </is>
       </c>
     </row>
@@ -10166,35 +10414,35 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
+          <t>Epidendrum ciliare</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
           <t>wfo-0000949799</t>
         </is>
       </c>
-      <c r="X79" t="inlineStr">
+      <c r="Y79" t="inlineStr">
         <is>
           <t>Epidendrum ciliare L.</t>
         </is>
       </c>
-      <c r="Y79" t="inlineStr">
+      <c r="Z79" t="inlineStr">
         <is>
           <t>Epidendrum ciliare L.</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
+      <c r="AA79" t="inlineStr">
         <is>
           <t>Auliza ciliaris (L.) Salisb. | Coilostylis ciliaris (L.) Withner &amp; P.A.Harding | Coilostylis cuspidata (G.Lodd.) Withner &amp; P.A.Harding | Epidendrum ciliare var. cuspidatum (G.Lodd.) Lindl. | Epidendrum ciliare var. viscidum (Lindl.) Lindl. | Epidendrum ciliare var. minor Stein | Epidendrum cuspidatum var. brachysepalum Rchb.f. | Coilostylis emarginata Raf. | Encyclia ciliaris (L.) A.Lemée | Epidendrum cuspidatum G.Lodd. | Epidendrum sanctalucianum H.G.Jones | Epidendrum viscidum Lindl. | Phaedrosanthus ciliaris (L.) Kuntze | Epidendrum luteum Planch. | Epidendrum ciliare var. typicum Stehlé</t>
         </is>
       </c>
-      <c r="AA79" t="n">
+      <c r="AB79" t="n">
         <v>15</v>
       </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Epidendrum ciliare L.", "wfo_id": "wfo-0000949799", "full_name_plain": "Epidendrum ciliare L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Epidendrum'", "Word is found in index and so is part of name: 'ciliare'.", "Word is lowercase. Subsequent words must start with lowercase: 'ciliare'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'ciliare'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Epidendrum ciliare' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Epidendrum ciliare", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000949799", "full_name_plain": "Epidendrum ciliare L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 15}}</t>
         </is>
       </c>
     </row>
@@ -10291,35 +10539,35 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
+          <t>Disocactus anguliger</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
           <t>wfo-0001430590</t>
         </is>
       </c>
-      <c r="X80" t="inlineStr">
+      <c r="Y80" t="inlineStr">
         <is>
           <t>Disocactus anguliger (Lem.) M.A.Cruz &amp; S.Arias</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr">
+      <c r="Z80" t="inlineStr">
         <is>
           <t>Disocactus anguliger (Lem.) M.A.Cruz &amp; S.Arias</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
+      <c r="AA80" t="inlineStr">
         <is>
           <t>Phyllocactus angulifer G.Don | Phyllocactus angularis Lem. ex Labour. | Phyllocactus serratus Brongn. ex Labour. | Cereus mexicanus Lem. ex C.F.Först. | Epiphyllum anguliger (Lem.) G.Don | Epiphyllum darrahii (K.Schum.) Britton &amp; Rose | Phyllocactus anguliger Lem. | Phyllocactus darrahii K.Schum. | Phyllocactus mexicanus (Lem. ex C.F.Först.) Salm-Dyck ex Labour.</t>
         </is>
       </c>
-      <c r="AA80" t="n">
+      <c r="AB80" t="n">
         <v>9</v>
       </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Disocactus anguliger (Lem.) M.Á.Cruz &amp; S.Arias", "wfo_id": "wfo-0001430590", "full_name_plain": "Disocactus anguliger (Lem.) M.A.Cruz &amp; S.Arias", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Disocactus'", "Word is found in index and so is part of name: 'anguliger'.", "Word is lowercase. Subsequent words must start with lowercase: 'anguliger'.", "Word contains non alpha chars and so is start of author string: '(Lem.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'anguliger'", "Authors string looks like this: '(Lem.) M.Á.Cruz &amp; S.Arias'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Disocactus anguliger' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Disocactus anguliger", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001430590", "full_name_plain": "Disocactus anguliger (Lem.) M.A.Cruz &amp; S.Arias", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 9}}</t>
         </is>
       </c>
     </row>
@@ -10412,35 +10660,35 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
+          <t>Epiphyllum chrysocardium</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
           <t>wfo-0000670160</t>
         </is>
       </c>
-      <c r="X81" t="inlineStr">
+      <c r="Y81" t="inlineStr">
         <is>
           <t>Epiphyllum chrysocardium Alexander</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr">
+      <c r="Z81" t="inlineStr">
         <is>
           <t>Epiphyllum chrysocardium Alexander</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
+      <c r="AA81" t="inlineStr">
         <is>
           <t>Marniera chrysocardia (Alexander) Backeb. | Chiapasophyllum chrysocardium (Alexander) Doweld | Selenicereus chrysocardium (Alexander) Kimnach | Marniera chrysocardium (Alexander) Backeb.</t>
         </is>
       </c>
-      <c r="AA81" t="n">
+      <c r="AB81" t="n">
         <v>4</v>
       </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Epiphyllum chrysocardium Alexander", "wfo_id": "wfo-0000670160", "full_name_plain": "Epiphyllum chrysocardium Alexander", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Epiphyllum'", "Word is found in index and so is part of name: 'chrysocardium'.", "Word is lowercase. Subsequent words must start with lowercase: 'chrysocardium'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Alexander'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'chrysocardium'", "Authors string looks like this: 'Alexander'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Epiphyllum chrysocardium' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Epiphyllum chrysocardium", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000670160", "full_name_plain": "Epiphyllum chrysocardium Alexander", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -10541,35 +10789,35 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
+          <t>Epiphyllum oxypetalum</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
           <t>wfo-0000670203</t>
         </is>
       </c>
-      <c r="X82" t="inlineStr">
+      <c r="Y82" t="inlineStr">
         <is>
           <t>Epiphyllum oxypetalum (DC.) Haw.</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr">
+      <c r="Z82" t="inlineStr">
         <is>
           <t>Epiphyllum oxypetalum (DC.) Haw.</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
+      <c r="AA82" t="inlineStr">
         <is>
           <t>Phyllocactus guyanensis Brongn. ex Labour. | Phyllocactus latifrons (Zucc. ex Pfeiff.) Link ex Walp. | Cactus oxypetalus Moc. &amp; Sessé ex DC. | Cereus latifrons Zucc. ex Pfeiff. | Cereus oxypetalus DC. | Epiphyllum acuminatum K.Schum. | Epiphyllum grande (Lem.) Britton &amp; Rose | Epiphyllum latifrons (Zucc. ex Pfeiff.) Pfeiff. | Epiphyllum oxypetalum var. purpusii (Weing.) Backeb. | Epiphyllum purpusii (Weing.) F.M.Knuth | Phyllocactus grandis Lem. | Phyllocactus acuminatus (K.Schum.) K.Schum. | Phyllocactus purpusii Weing. | Phyllocactus oxypetalus (DC.) Link ex Walp.</t>
         </is>
       </c>
-      <c r="AA82" t="n">
+      <c r="AB82" t="n">
         <v>14</v>
       </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Epiphyllum oxypetalum (DC.) Haw.", "wfo_id": "wfo-0000670203", "full_name_plain": "Epiphyllum oxypetalum (DC.) Haw.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Epiphyllum'", "Word is found in index and so is part of name: 'oxypetalum'.", "Word is lowercase. Subsequent words must start with lowercase: 'oxypetalum'.", "Word contains non alpha chars and so is start of author string: '(DC.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'oxypetalum'", "Authors string looks like this: '(DC.) Haw.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Epiphyllum oxypetalum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Epiphyllum oxypetalum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000670203", "full_name_plain": "Epiphyllum oxypetalum (DC.) Haw.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 14}}</t>
         </is>
       </c>
     </row>
@@ -10670,35 +10918,31 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
+          <t>Erythroxylum coca</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
           <t>wfo-0000679758</t>
         </is>
       </c>
-      <c r="X83" t="inlineStr">
+      <c r="Y83" t="inlineStr">
         <is>
           <t>Erythroxylum coca Lam.</t>
         </is>
       </c>
-      <c r="Y83" t="inlineStr">
+      <c r="Z83" t="inlineStr">
         <is>
           <t>Erythroxylum coca Lam.</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>Erythroxylum coca var. coca | Erythroxylum coca var. ipadu Plowman</t>
-        </is>
-      </c>
-      <c r="AA83" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="n">
+        <v>0</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Erythroxylum coca Lam.", "wfo_id": "wfo-0000679758", "full_name_plain": "Erythroxylum coca Lam.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Erythroxylum'", "Word is found in index and so is part of name: 'coca'.", "Word is lowercase. Subsequent words must start with lowercase: 'coca'.", "Word contains non alpha chars and so is start of author string: 'Lam.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'coca'", "Authors string looks like this: 'Lam.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Erythroxylum coca' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Erythroxylum coca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000679758", "full_name_plain": "Erythroxylum coca Lam.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -10791,35 +11035,35 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
+          <t>Euphorbia leuconeura</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
           <t>wfo-0000963021</t>
         </is>
       </c>
-      <c r="X84" t="inlineStr">
+      <c r="Y84" t="inlineStr">
         <is>
           <t>Euphorbia leuconeura Boiss.</t>
         </is>
       </c>
-      <c r="Y84" t="inlineStr">
+      <c r="Z84" t="inlineStr">
         <is>
           <t>Euphorbia leuconeura Boiss.</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
+      <c r="AA84" t="inlineStr">
         <is>
           <t>Euphorbia fournieri Rebut</t>
         </is>
       </c>
-      <c r="AA84" t="n">
+      <c r="AB84" t="n">
         <v>1</v>
       </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Euphorbia leuconeura Boiss.", "wfo_id": "wfo-0000963021", "full_name_plain": "Euphorbia leuconeura Boiss.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Euphorbia'", "Word is found in index and so is part of name: 'leuconeura'.", "Word is lowercase. Subsequent words must start with lowercase: 'leuconeura'.", "Word contains non alpha chars and so is start of author string: 'Boiss.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'leuconeura'", "Authors string looks like this: 'Boiss.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Euphorbia leuconeura' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Euphorbia leuconeura", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000963021", "full_name_plain": "Euphorbia leuconeura Boiss.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -10918,21 +11162,37 @@
           <t>Euterpe oleracea Mart.</t>
         </is>
       </c>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Euterpe oleracea</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>wfo-0000965687</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>Euterpe oleracea Mart.</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>Euterpe oleracea Mart.</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>Catis martiana O.F.Cook | Euterpe badiocarpa Barb.Rodr. | Euterpe beardii L.H.Bailey | Euterpe brasiliana Oken | Euterpe cuatrecasana Dugand | Euterpe cuatrecasasiana Dugand</t>
+        </is>
+      </c>
+      <c r="AB85" t="n">
+        <v>6</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Euterpe oleracea Mart.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Euterpe'", "Word is found in index and so is part of name: 'oleracea'.", "Word is lowercase. Subsequent words must start with lowercase: 'oleracea'.", "Word contains non alpha chars and so is start of author string: 'Mart.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'oleracea'", "Authors string looks like this: 'Mart.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Euterpe oleracea' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Euterpe oleracea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000965687", "full_name_plain": "Euterpe oleracea Mart.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -11033,35 +11293,35 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
+          <t>Ficus benghalensis</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
           <t>wfo-0000687501</t>
         </is>
       </c>
-      <c r="X86" t="inlineStr">
+      <c r="Y86" t="inlineStr">
         <is>
           <t>Ficus benghalensis L.</t>
         </is>
       </c>
-      <c r="Y86" t="inlineStr">
+      <c r="Z86" t="inlineStr">
         <is>
           <t>Ficus benghalensis L.</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr">
+      <c r="AA86" t="inlineStr">
         <is>
           <t>Perula benghalensis (L.) Raf. | Ficus banyana Oken | Ficus benghalensis var. krishnae (C.DC.) Corner | Ficus chauvieri G.Nicholson | Ficus cotoneaefolia Vahl | Ficus cotonifolia Stokes | Ficus crassinervia Kunth &amp; C.D.Bouché | Ficus indica L. | Ficus karet Baill. | Ficus karet (Miq.) King | Ficus lancifolia Moench | Ficus lasiophylla Link | Ficus procera Salisb. | Ficus pubescens B.Heyne ex Roth | Ficus umbrosa Salisb. | Ficus benghalensis var. benghalensis | Urostigma bengalense (L.) Gasp.</t>
         </is>
       </c>
-      <c r="AA86" t="n">
+      <c r="AB86" t="n">
         <v>17</v>
       </c>
-      <c r="AB86" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ficus benghalensis L.", "wfo_id": "wfo-0000687501", "full_name_plain": "Ficus benghalensis L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ficus'", "Word is found in index and so is part of name: 'benghalensis'.", "Word is lowercase. Subsequent words must start with lowercase: 'benghalensis'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'benghalensis'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ficus benghalensis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ficus benghalensis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000687501", "full_name_plain": "Ficus benghalensis L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 17}}</t>
         </is>
       </c>
     </row>
@@ -11162,35 +11422,35 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
+          <t>Ficus cyathistipula</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
           <t>wfo-0000688019</t>
         </is>
       </c>
-      <c r="X87" t="inlineStr">
+      <c r="Y87" t="inlineStr">
         <is>
           <t>Ficus cyathistipula Warb.</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr">
+      <c r="Z87" t="inlineStr">
         <is>
           <t>Ficus cyathistipula Warb.</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>Ficus cyathistipula subsp. pringsheimiana (Braun &amp; K.Schum.) C.C.Berg | Ficus callescens Hiern | Ficus nyanzensis Hutch. | Ficus rederi Hutch. | Ficus rhynchocarpa Warb. ex Mildbr. &amp; Burret</t>
-        </is>
-      </c>
-      <c r="AA87" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>Ficus callescens Hiern | Ficus nyanzensis Hutch. | Ficus rederi Hutch. | Ficus rhynchocarpa Warb. ex Mildbr. &amp; Burret</t>
+        </is>
+      </c>
+      <c r="AB87" t="n">
+        <v>4</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ficus cyathistipula Warb.", "wfo_id": "wfo-0000688019", "full_name_plain": "Ficus cyathistipula Warb.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ficus'", "Word is found in index and so is part of name: 'cyathistipula'.", "Word is lowercase. Subsequent words must start with lowercase: 'cyathistipula'.", "Word contains non alpha chars and so is start of author string: 'Warb.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cyathistipula'", "Authors string looks like this: 'Warb.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ficus cyathistipula' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ficus cyathistipula", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000688019", "full_name_plain": "Ficus cyathistipula Warb.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -11281,21 +11541,37 @@
           <t>Ficus elastica Roxb.</t>
         </is>
       </c>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Ficus elastica</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>wfo-0000688216</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>Ficus elastica Roxb. ex Hornem.</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>Ficus elastica Roxb. ex Hornem.</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>Urostigma odoratum Miq. | Urostigma karet Miq. | Urostigma circumscissum Miq. | Ficus clusiifolia Summerh. | Ficus cordata Hort.Berol. ex Kunth &amp; C.D.Bouché | Ficus elastica var. belgica L.H.Bailey &amp; E.Z.Bailey | Ficus elastica var. benghalensis Blume | Ficus elastica var. decora Guillaumin | Ficus elastica var. karet (Miq.) Miq. | Ficus elastica var. minor Miq. | Ficus elastica var. odorata (Miq.) Miq. | Ficus elastica var. rubra L.H.Bailey &amp; E.Z.Bailey | Ficus skytinodermis Summerh. | Ficus taeda Hort.Berol. ex Kunth &amp; C.D.Bouché | Macrophthalma elastica (Roxb. ex Hornem.) Gasp. | Urostigma elasticum Miq. | Visiania elastica Gasp. | Stilpnophyllum elasticum (Roxb. ex Hornem.) Drury</t>
+        </is>
+      </c>
+      <c r="AB88" t="n">
+        <v>18</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ficus elastica Roxb.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ficus'", "Word is found in index and so is part of name: 'elastica'.", "Word is lowercase. Subsequent words must start with lowercase: 'elastica'.", "Word contains non alpha chars and so is start of author string: 'Roxb.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'elastica'", "Authors string looks like this: 'Roxb.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ficus elastica' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ficus elastica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000688216", "full_name_plain": "Ficus elastica Roxb. ex Hornem.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 18}}</t>
         </is>
       </c>
     </row>
@@ -11386,21 +11662,37 @@
           <t>Ficus elastica Roxb.</t>
         </is>
       </c>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Ficus elastica</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>wfo-0000688216</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>Ficus elastica Roxb. ex Hornem.</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>Ficus elastica Roxb. ex Hornem.</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>Urostigma odoratum Miq. | Urostigma karet Miq. | Urostigma circumscissum Miq. | Ficus clusiifolia Summerh. | Ficus cordata Hort.Berol. ex Kunth &amp; C.D.Bouché | Ficus elastica var. belgica L.H.Bailey &amp; E.Z.Bailey | Ficus elastica var. benghalensis Blume | Ficus elastica var. decora Guillaumin | Ficus elastica var. karet (Miq.) Miq. | Ficus elastica var. minor Miq. | Ficus elastica var. odorata (Miq.) Miq. | Ficus elastica var. rubra L.H.Bailey &amp; E.Z.Bailey | Ficus skytinodermis Summerh. | Ficus taeda Hort.Berol. ex Kunth &amp; C.D.Bouché | Macrophthalma elastica (Roxb. ex Hornem.) Gasp. | Urostigma elasticum Miq. | Visiania elastica Gasp. | Stilpnophyllum elasticum (Roxb. ex Hornem.) Drury</t>
+        </is>
+      </c>
+      <c r="AB89" t="n">
+        <v>18</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ficus elastica Roxb.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ficus'", "Word is found in index and so is part of name: 'elastica'.", "Word is lowercase. Subsequent words must start with lowercase: 'elastica'.", "Word contains non alpha chars and so is start of author string: 'Roxb.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'elastica'", "Authors string looks like this: 'Roxb.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ficus elastica' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ficus elastica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000688216", "full_name_plain": "Ficus elastica Roxb. ex Hornem.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 18}}</t>
         </is>
       </c>
     </row>
@@ -11501,31 +11793,31 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
+          <t>Ficus lyrata</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
           <t>wfo-0001084874</t>
         </is>
       </c>
-      <c r="X90" t="inlineStr">
+      <c r="Y90" t="inlineStr">
         <is>
           <t>Ficus lyrata Warb.</t>
         </is>
       </c>
-      <c r="Y90" t="inlineStr">
+      <c r="Z90" t="inlineStr">
         <is>
           <t>Ficus lyrata Warb.</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="n">
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="n">
         <v>0</v>
       </c>
-      <c r="AB90" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ficus lyrata Warb.", "wfo_id": "wfo-0001084874", "full_name_plain": "Ficus lyrata Warb.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ficus'", "Word is found in index and so is part of name: 'lyrata'.", "Word is lowercase. Subsequent words must start with lowercase: 'lyrata'.", "Word contains non alpha chars and so is start of author string: 'Warb.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'lyrata'", "Authors string looks like this: 'Warb.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ficus lyrata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ficus lyrata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001084874", "full_name_plain": "Ficus lyrata Warb.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -11624,21 +11916,37 @@
           <t>Ficus obliqua G.Forst.</t>
         </is>
       </c>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB91" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Ficus obliqua</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>wfo-0000689487</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>Ficus obliqua G.Forst.</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>Ficus obliqua G.Forst.</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>Urostigma obliquum Miq. | Urostigma eugenioides Miq. | Urostigma backhousei Miq. | Ficus aphanoneura Warb. | Ficus backhousei (Miq.) Miq. | Ficus boothiana Miq. | Ficus eugenioides (Miq.) F.Muell. ex Miq. | Ficus graeffei Warb. | Ficus laevis Desf. | Ficus tryonii F.M.Bailey | Ficus virginea Banks &amp; Sol. ex Hiern | Ficus booshiana Miq.</t>
+        </is>
+      </c>
+      <c r="AB91" t="n">
+        <v>12</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ficus obliqua G.Forst.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ficus'", "Word is found in index and so is part of name: 'obliqua'.", "Word is lowercase. Subsequent words must start with lowercase: 'obliqua'.", "Word contains non alpha chars and so is start of author string: 'G.Forst.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'obliqua'", "Authors string looks like this: 'G.Forst.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ficus obliqua' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ficus obliqua", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000689487", "full_name_plain": "Ficus obliqua G.Forst.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 12}}</t>
         </is>
       </c>
     </row>
@@ -11739,35 +12047,35 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
+          <t>Ficus rubiginosa</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
           <t>wfo-0000690111</t>
         </is>
       </c>
-      <c r="X92" t="inlineStr">
+      <c r="Y92" t="inlineStr">
         <is>
           <t>Ficus rubiginosa Desf. ex Vent.</t>
         </is>
       </c>
-      <c r="Y92" t="inlineStr">
+      <c r="Z92" t="inlineStr">
         <is>
           <t>Ficus rubiginosa Desf. ex Vent.</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
+      <c r="AA92" t="inlineStr">
         <is>
           <t>Urostigma muelleri Miq. | Urostigma rubiginosum (Desf. ex Vent.) Gasp. | Urostigma ferrugineum Miq. | Mastosuke rubiginosa (Desf. ex Vent.) Raf. | Perula rubiginosa Raf. | Ficus australis Willd. | Ficus baileyana Domin | Ficus ferruginea Desf. | Ficus ferruginea hort. ex Miq. | Ficus fulva Hort.Berel. ex Kunth &amp; C.D.Bouché | Ficus leichhardtii (Miq.) Miq. | Ficus leichhardtii var. angustata Miq. | Ficus macrophylla var. pubescens F.M.Bailey | Ficus muelleri (Miq.) Miq. | Ficus novae-walliae Dum.Cours. | Ficus obliqua var. petiolaris (Benth.) Corner | Ficus platypoda var. leichhardtii (Miq.) R.J.F.Hend. | Ficus platypoda var. mollis Benth. | Ficus platypoda var. petiolaris Benth. | Ficus platypoda var. subacuminata Benth. | Ficus rubiginosa var. glabrescens F.M.Bailey | Ficus rubiginosa f. glabrescens (F.M.Bailey) D.J.Dixon | Ficus rubiginosa var. lucida Maiden | Ficus shirleyana Domin | Urostigma leichhardtii Miq.</t>
         </is>
       </c>
-      <c r="AA92" t="n">
+      <c r="AB92" t="n">
         <v>25</v>
       </c>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ficus rubiginosa Desf. ex Vent.", "wfo_id": "wfo-0000690111", "full_name_plain": "Ficus rubiginosa Desf. ex Vent.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ficus'", "Word is found in index and so is part of name: 'rubiginosa'.", "Word is lowercase. Subsequent words must start with lowercase: 'rubiginosa'.", "Word contains non alpha chars and so is start of author string: 'Desf.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'rubiginosa'", "Authors string looks like this: 'Desf. ex Vent.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ficus rubiginosa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ficus rubiginosa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000690111", "full_name_plain": "Ficus rubiginosa Desf. ex Vent.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 25}}</t>
         </is>
       </c>
     </row>
@@ -11868,35 +12176,35 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
+          <t>Ficus rubiginosa</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
           <t>wfo-0000690111</t>
         </is>
       </c>
-      <c r="X93" t="inlineStr">
+      <c r="Y93" t="inlineStr">
         <is>
           <t>Ficus rubiginosa Desf. ex Vent.</t>
         </is>
       </c>
-      <c r="Y93" t="inlineStr">
+      <c r="Z93" t="inlineStr">
         <is>
           <t>Ficus rubiginosa Desf. ex Vent.</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
+      <c r="AA93" t="inlineStr">
         <is>
           <t>Urostigma muelleri Miq. | Urostigma rubiginosum (Desf. ex Vent.) Gasp. | Urostigma ferrugineum Miq. | Mastosuke rubiginosa (Desf. ex Vent.) Raf. | Perula rubiginosa Raf. | Ficus australis Willd. | Ficus baileyana Domin | Ficus ferruginea Desf. | Ficus ferruginea hort. ex Miq. | Ficus fulva Hort.Berel. ex Kunth &amp; C.D.Bouché | Ficus leichhardtii (Miq.) Miq. | Ficus leichhardtii var. angustata Miq. | Ficus macrophylla var. pubescens F.M.Bailey | Ficus muelleri (Miq.) Miq. | Ficus novae-walliae Dum.Cours. | Ficus obliqua var. petiolaris (Benth.) Corner | Ficus platypoda var. leichhardtii (Miq.) R.J.F.Hend. | Ficus platypoda var. mollis Benth. | Ficus platypoda var. petiolaris Benth. | Ficus platypoda var. subacuminata Benth. | Ficus rubiginosa var. glabrescens F.M.Bailey | Ficus rubiginosa f. glabrescens (F.M.Bailey) D.J.Dixon | Ficus rubiginosa var. lucida Maiden | Ficus shirleyana Domin | Urostigma leichhardtii Miq.</t>
         </is>
       </c>
-      <c r="AA93" t="n">
+      <c r="AB93" t="n">
         <v>25</v>
       </c>
-      <c r="AB93" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ficus rubiginosa Desf. ex Vent.", "wfo_id": "wfo-0000690111", "full_name_plain": "Ficus rubiginosa Desf. ex Vent.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ficus'", "Word is found in index and so is part of name: 'rubiginosa'.", "Word is lowercase. Subsequent words must start with lowercase: 'rubiginosa'.", "Word contains non alpha chars and so is start of author string: 'Desf.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'rubiginosa'", "Authors string looks like this: 'Desf. ex Vent.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ficus rubiginosa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ficus rubiginosa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000690111", "full_name_plain": "Ficus rubiginosa Desf. ex Vent.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 25}}</t>
         </is>
       </c>
     </row>
@@ -11997,35 +12305,35 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
+          <t>Flacourtia indica</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
           <t>wfo-0000925655</t>
         </is>
       </c>
-      <c r="X94" t="inlineStr">
+      <c r="Y94" t="inlineStr">
         <is>
           <t>Flacourtia indica (Burm.f.) Merr.</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr">
+      <c r="Z94" t="inlineStr">
         <is>
           <t>Flacourtia indica (Burm.f.) Merr.</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
+      <c r="AA94" t="inlineStr">
         <is>
           <t>Myroxylon dicline Blanco | Flacourtia afra Pic.Serm. | Flacourtia balansae Gagnep. | Flacourtia elliptica (Tul.) Warb. | Flacourtia frondosa Clos | Flacourtia gambecola Clos | Flacourtia heterophylla Turcz. | Flacourtia hilsenbergii C.Presl | Flacourtia hirtiuscula Oliv. | Flacourtia indica var. innocua (Haines) H.O.Saxena &amp; Brahmam | Flacourtia kirkiana H.M.Gardner | Flacourtia lenis Craib | Flacourtia lucida Salisb. | Flacourtia obcordata Roxb. | Flacourtia parvifolia Merr. | Flacourtia perrottetiana Clos | Flacourtia ramontchi L'Hér. | Flacourtia ramontchi var. renvoizei Fosberg | Flacourtia rotundifolia Roxb. | Flacourtia rotundifolia Clos | Flacourtia sapida Roxb. | Flacourtia sepiaria Roxb. | Flacourtia thorelii Gagnep. | Gmelina indica Burm.f. | Gmelina javanica Christm. | Xylosma elliptica Tul. | Stigmarota africana Lour. | Stigmarota edulis Blanco</t>
         </is>
       </c>
-      <c r="AA94" t="n">
+      <c r="AB94" t="n">
         <v>28</v>
       </c>
-      <c r="AB94" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Flacourtia indica (Burm.fil.) Merr.", "wfo_id": "wfo-0000925655", "full_name_plain": "Flacourtia indica (Burm.f.) Merr.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Flacourtia'", "Word is found in index and so is part of name: 'indica'.", "Word is lowercase. Subsequent words must start with lowercase: 'indica'.", "Word contains non alpha chars and so is start of author string: '(Burm.fil.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'indica'", "Authors string looks like this: '(Burm.fil.) Merr.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Flacourtia indica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Flacourtia indica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000925655", "full_name_plain": "Flacourtia indica (Burm.f.) Merr.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 28}}</t>
         </is>
       </c>
     </row>
@@ -12126,35 +12434,35 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
+          <t>Globba schomburgkii</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
           <t>wfo-0000430660</t>
         </is>
       </c>
-      <c r="X95" t="inlineStr">
+      <c r="Y95" t="inlineStr">
         <is>
           <t>Globba schomburgkii Hook.f.</t>
         </is>
       </c>
-      <c r="Y95" t="inlineStr">
+      <c r="Z95" t="inlineStr">
         <is>
           <t>Globba schomburgkii Hook.f.</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>Globba schomburgkii var. angustata Gagnep. | Globba schomburgkii var. schomburgkii | Globba chinensis K.Schum. | Globba globulifera Gagnep.</t>
-        </is>
-      </c>
-      <c r="AA95" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB95" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>Globba chinensis K.Schum. | Globba globulifera Gagnep.</t>
+        </is>
+      </c>
+      <c r="AB95" t="n">
+        <v>2</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Globba schomburgkii Hook.f.", "wfo_id": "wfo-0000430660", "full_name_plain": "Globba schomburgkii Hook.f.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Globba'", "Word is found in index and so is part of name: 'schomburgkii'.", "Word is lowercase. Subsequent words must start with lowercase: 'schomburgkii'.", "Word contains non alpha chars and so is start of author string: 'Hook.f.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'schomburgkii'", "Authors string looks like this: 'Hook.f.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Globba schomburgkii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Globba schomburgkii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000430660", "full_name_plain": "Globba schomburgkii Hook.f.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -12255,35 +12563,35 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
+          <t>Harpullia arborea</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
           <t>wfo-0000715815</t>
         </is>
       </c>
-      <c r="X96" t="inlineStr">
+      <c r="Y96" t="inlineStr">
         <is>
           <t>Harpullia arborea (Blanco) Radlk.</t>
         </is>
       </c>
-      <c r="Y96" t="inlineStr">
+      <c r="Z96" t="inlineStr">
         <is>
           <t>Harpullia arborea (Blanco) Radlk.</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
+      <c r="AA96" t="inlineStr">
         <is>
           <t>Otonychium imbricatum Blume | Ptelea arborea Blanco | Harpullia blancoi Fern.-Vill. | Harpullia condorensis Pierre | Harpullia glanduligera Radlk. | Harpullia imbricata (Blume) Thwaites | Harpullia mellea Lauterb. | Harpullia sphaeroloba Radlk. | Harpullia tomentosa Ridl.</t>
         </is>
       </c>
-      <c r="AA96" t="n">
+      <c r="AB96" t="n">
         <v>9</v>
       </c>
-      <c r="AB96" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Harpullia arborea (Blanco) Radlk.", "wfo_id": "wfo-0000715815", "full_name_plain": "Harpullia arborea (Blanco) Radlk.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Harpullia'", "Word is found in index and so is part of name: 'arborea'.", "Word is lowercase. Subsequent words must start with lowercase: 'arborea'.", "Word contains non alpha chars and so is start of author string: '(Blanco)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'arborea'", "Authors string looks like this: '(Blanco) Radlk.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Harpullia arborea' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Harpullia arborea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000715815", "full_name_plain": "Harpullia arborea (Blanco) Radlk.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 9}}</t>
         </is>
       </c>
     </row>
@@ -12376,35 +12684,35 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
+          <t>Rhipsalis pentaptera</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
           <t>wfo-0001287051</t>
         </is>
       </c>
-      <c r="X97" t="inlineStr">
+      <c r="Y97" t="inlineStr">
         <is>
           <t>Rhipsalis pentaptera Pfeiff. ex A.Dietr.</t>
         </is>
       </c>
-      <c r="Y97" t="inlineStr">
+      <c r="Z97" t="inlineStr">
         <is>
           <t>Rhipsalis pentaptera Pfeiff. ex A.Dietr.</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
+      <c r="AA97" t="inlineStr">
         <is>
           <t>Rhipsalis pentagona C.F.Först. | Hariota pentaptera (Pfeiff. ex A.Dietr.) Lem. | Hariota pentaptera Lem. ex C.F.Först. | Hariota pentaptera (Pfeiff. ex A.Dietr.) Kuntze | Hylorhipsalis pentaptera (Pfeiff. ex A.Dietr.) Doweld | Hatiora pentaptera (Pfeiff. ex A.Dietr.) Lem.</t>
         </is>
       </c>
-      <c r="AA97" t="n">
+      <c r="AB97" t="n">
         <v>6</v>
       </c>
-      <c r="AB97" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Rhipsalis pentaptera Pfeiff. ex A.Dietr.", "wfo_id": "wfo-0001287051", "full_name_plain": "Rhipsalis pentaptera Pfeiff. ex A.Dietr.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Rhipsalis'", "Word is found in index and so is part of name: 'pentaptera'.", "Word is lowercase. Subsequent words must start with lowercase: 'pentaptera'.", "Word contains non alpha chars and so is start of author string: 'Pfeiff.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'pentaptera'", "Authors string looks like this: 'Pfeiff. ex A.Dietr.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Rhipsalis pentaptera' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Rhipsalis pentaptera", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001287051", "full_name_plain": "Rhipsalis pentaptera Pfeiff. ex A.Dietr.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -12505,35 +12813,35 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
+          <t>Hatiora salicornioides</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
           <t>wfo-0000716171</t>
         </is>
       </c>
-      <c r="X98" t="inlineStr">
+      <c r="Y98" t="inlineStr">
         <is>
           <t>Hatiora salicornioides (Haw.) Britton &amp; Rose</t>
         </is>
       </c>
-      <c r="Y98" t="inlineStr">
+      <c r="Z98" t="inlineStr">
         <is>
           <t>Hatiora salicornioides (Haw.) Britton &amp; Rose</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
+      <c r="AA98" t="inlineStr">
         <is>
           <t>Rhipsalis lagenaria Vöcht. | Rhipsalis villigera (K.Schum.) Orcutt | Cactus lyratus Vell. | Hariota gracihs F.A.C.Weber | Hariota salicornioides (Haw.) DC. | Hariota salicornioides (Haw.) Kuntze | Hariota salicornioides var. gracilior Gürke | Hariota salicornioides f. gracilior (Salm-Dyck ex C.F.Först.) A.Cast. | Hariota salicornioides var. strictior Gürke | Hariota salicornioides f. strictior (C.F.Först.) A.Cast. | Hariota salicornioides f. villigera (K.Schum.) A.Cast. | Hariota stricta (F.A.C.Weber) K.Schum. | Hariota villigera K.Schum. | Hatiora salicornioides f. gracilis (F.A.C.Weber) Süpplie | Hatiora salicornioides f. stricta (Cels ex F.A.C.Weber) Süpplie | Hatiora saluginoides Britton &amp; Rose | Rhipsalis gracilis F.A.C.Weber | Rhipsalis stricta Cels ex F.A.C.Weber | Rhipsalis salicornioides Haw. | Cactus salicornioides (Haw.) Link &amp; Otto | Cactus trichotomus Tenore ex Steud. | Hariota gracilis F.A.C.Weber | Hatiora salicornioides f. villigera (K.Schum.) Süpplie | Hatiora salicornioides var. stricta (Cels ex F.A.C.Weber) Backeb. | Hatiora salicornioides var. villigera (K.Schum.) Backeb. | Rhipsalis salicornioides var. gracilis F.A.C.Weber | Rhipsalis salicornioides var. stricta F.A.C.Weber | Rhipsalis salicornioides var. strictior C.F.Först. | Rhipsalis salicornioides var. villigera (K.Schum.) Loefgr. | Rhipsalis schottmuelleri Hort. ex Schelle | Hatiora salicornioides f. salicornioides | Rhipsalis salicornioides var. gracilior Salm-Dyck ex C.F.Först.</t>
         </is>
       </c>
-      <c r="AA98" t="n">
+      <c r="AB98" t="n">
         <v>32</v>
       </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Hatiora salicornioides Britton &amp; Rose", "wfo_id": "wfo-0000716171", "full_name_plain": "Hatiora salicornioides (Haw.) Britton &amp; Rose", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Hatiora'", "Word is found in index and so is part of name: 'salicornioides'.", "Word is lowercase. Subsequent words must start with lowercase: 'salicornioides'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Britton'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'salicornioides'", "Authors string looks like this: 'Britton &amp; Rose'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Hatiora salicornioides' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Hatiora salicornioides", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000716171", "full_name_plain": "Hatiora salicornioides (Haw.) Britton &amp; Rose", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 32}}</t>
         </is>
       </c>
     </row>
@@ -12634,35 +12942,35 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
+          <t>Hedychium coronarium</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
           <t>wfo-0000435787</t>
         </is>
       </c>
-      <c r="X99" t="inlineStr">
+      <c r="Y99" t="inlineStr">
         <is>
           <t>Hedychium coronarium J.Koenig</t>
         </is>
       </c>
-      <c r="Y99" t="inlineStr">
+      <c r="Z99" t="inlineStr">
         <is>
           <t>Hedychium coronarium J.Koenig</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>Hedychium coronarium var. flavum (Roxb.) Baker | Amomum filiforme W.Hunter ex Ridl. | Hedychium album Buch.-Ham. ex Wall. | Hedychium chrysoleucum Hook. | Hedychium coronarium var. chrysoleucum (Hook.) Baker | Hedychium coronarium var. maximum (Roscoe) Eichler | Hedychium gandasulium Buch.-Ham. ex Wall. | Hedychium lingulatum Hassk. | Hedychium prophetae Buch.-Ham. ex Wall. | Kaempferia hedychium Lam. | Hedychium coronarium var. baimao Z.Y.Zhu</t>
-        </is>
-      </c>
-      <c r="AA99" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>Amomum filiforme W.Hunter ex Ridl. | Hedychium album Buch.-Ham. ex Wall. | Hedychium chrysoleucum Hook. | Hedychium coronarium var. chrysoleucum (Hook.) Baker | Hedychium coronarium var. maximum (Roscoe) Eichler | Hedychium gandasulium Buch.-Ham. ex Wall. | Hedychium lingulatum Hassk. | Hedychium prophetae Buch.-Ham. ex Wall. | Kaempferia hedychium Lam. | Hedychium coronarium var. baimao Z.Y.Zhu</t>
+        </is>
+      </c>
+      <c r="AB99" t="n">
+        <v>10</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Hedychium coronarium J.Koenig", "wfo_id": "wfo-0000435787", "full_name_plain": "Hedychium coronarium J.Koenig", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Hedychium'", "Word is found in index and so is part of name: 'coronarium'.", "Word is lowercase. Subsequent words must start with lowercase: 'coronarium'.", "Word contains non alpha chars and so is start of author string: 'J.Koenig'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'coronarium'", "Authors string looks like this: 'J.Koenig'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Hedychium coronarium' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Hedychium coronarium", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000435787", "full_name_plain": "Hedychium coronarium J.Koenig", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 10}}</t>
         </is>
       </c>
     </row>
@@ -12761,21 +13069,37 @@
           <t>Hedychium gardnerianum Sheph. ex Ker Gawl.</t>
         </is>
       </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB100" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Hedychium gardnerianum</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>wfo-0000435987</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>Hedychium gardnerianum Sheph. ex Ker Gawl.</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>Hedychium gardnerianum Sheph. ex Ker Gawl.</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>Hedychium gardnerianum var. fasciatum K.Koch</t>
+        </is>
+      </c>
+      <c r="AB100" t="n">
+        <v>1</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Hedychium gardnerianum Sheph. ex Ker Gawl.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Hedychium'", "Word is found in index and so is part of name: 'gardnerianum'.", "Word is lowercase. Subsequent words must start with lowercase: 'gardnerianum'.", "Word contains non alpha chars and so is start of author string: 'Sheph.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'gardnerianum'", "Authors string looks like this: 'Sheph. ex Ker Gawl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Hedychium gardnerianum' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Hedychium gardnerianum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000435987", "full_name_plain": "Hedychium gardnerianum Sheph. ex Ker Gawl.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -12868,35 +13192,35 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
+          <t>Hedychium horsfieldii</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
           <t>wfo-0000436106</t>
         </is>
       </c>
-      <c r="X101" t="inlineStr">
+      <c r="Y101" t="inlineStr">
         <is>
           <t>Hedychium horsfieldii Wall.</t>
         </is>
       </c>
-      <c r="Y101" t="inlineStr">
+      <c r="Z101" t="inlineStr">
         <is>
           <t>Hedychium horsfieldii Wall.</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
+      <c r="AA101" t="inlineStr">
         <is>
           <t>Brachychilum horsfieldii (Wall.) Petersen | Hedychium microchilum Ridl.</t>
         </is>
       </c>
-      <c r="AA101" t="n">
+      <c r="AB101" t="n">
         <v>2</v>
       </c>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Hedychium horsfieldii R.Br. ex Wall.", "wfo_id": "wfo-0000436106", "full_name_plain": "Hedychium horsfieldii Wall.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Hedychium'", "Word is found in index and so is part of name: 'horsfieldii'.", "Word is lowercase. Subsequent words must start with lowercase: 'horsfieldii'.", "Word contains non alpha chars and so is start of author string: 'R.Br.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'horsfieldii'", "Authors string looks like this: 'R.Br. ex Wall.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Hedychium horsfieldii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Hedychium horsfieldii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000436106", "full_name_plain": "Hedychium horsfieldii Wall.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -12993,35 +13317,31 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
+          <t>Heliconia</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
           <t>wfo-4000017228</t>
         </is>
       </c>
-      <c r="X102" t="inlineStr">
+      <c r="Y102" t="inlineStr">
         <is>
           <t>Heliconia L.</t>
         </is>
       </c>
-      <c r="Y102" t="inlineStr">
+      <c r="Z102" t="inlineStr">
         <is>
           <t>Heliconia L.</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>Heliconia abaloi G.Morales | Heliconia acuminata A.Rich. | Heliconia adflexa Standl. | Heliconia aemygdiana Burle-Marx | Heliconia albicosta (G.S.Daniels &amp; F.G.Stiles) L.Andersson | Heliconia angelica Abalo &amp; G.Morales | Heliconia angusta Vell. | Heliconia apparicioi Barreiros | Heliconia arrecta W.J.Kress &amp; Betancur | Heliconia atratensis Abalo &amp; G.Morales | Heliconia atropurpurea G.S.Daniels &amp; F.G.Stiles | Heliconia aurantiaca Ghiesbr. | Heliconia aurantiaca Verschaff. | Heliconia aurea G.Rodr. | Heliconia auriculata Barreiros | Heliconia badilloi Abalo &amp; G.Morales | Heliconia barryana W.J.Kress | Heliconia beckneri R.R.Sm. | Heliconia bella W.J.Kress | Heliconia berguidoi R.Flores, C.Black &amp; A.Ibáñez | Heliconia berriziana Abalo &amp; G.Morales | Heliconia berryi Abalo &amp; G.Morales | Heliconia bihai (L.) L. | Heliconia bourgaeana Petersen | Heliconia brachyantha L.Andersson | Heliconia brenneri Abalo &amp; G.Morales | Heliconia burleana Abalo &amp; G.Morales | Heliconia calatheaphylla G.S.Daniels &amp; F.G.Stiles | Heliconia calathephylla G.S.Daniels &amp; F.G.Stiles | Heliconia caquetensis Abalo &amp; G.Morales | Heliconia carajaensis Barreiros | Heliconia caribaea Lam. | Heliconia carmelae Abalo &amp; G.Morales | Heliconia chartacea Lane ex Barreiros | Heliconia chiapensis C.Gut.Báez | Heliconia chrysocraspeda Abalo &amp; G.Morales | Heliconia clinophila R.R.Sm. | Heliconia colgantea G.S.Daniels &amp; F.G.Stiles | Heliconia collinsiana Griggs | Heliconia combinata Abalo &amp; G.Morales | Heliconia cordata L.Andersson | Heliconia crassa Griggs | Heliconia cristata Barreiros | Heliconia cucullata W.J.Kress &amp; L.Andersson | Heliconia curtispatha Petersen | Heliconia danielsiana W.J.Kress | Heliconia darienensis L.Andersson | Heliconia dasyantha K.Koch &amp; C.D.Bouché | Heliconia densiflora B.Verl. | Heliconia dielsiana Loes. | Heliconia donstonea W.J.Kress &amp; Betancur | Heliconia episcopalis Vell. | Heliconia estherae Abalo &amp; G.Morales | Heliconia estiletioides Abalo &amp; G.Morales | Heliconia excelsa L.Andersson | Heliconia farinosa Raddi | Heliconia faunorum W.J.Kress &amp; L.Andersson | Heliconia fernandezii Abalo &amp; G.Morales | Heliconia flabellata Abalo &amp; G.Morales | Heliconia foreroi Abalo &amp; G.Morales | Heliconia fragilis Abalo &amp; G.Morales | Heliconia fredberryana W.J.Kress | Heliconia fugax L.Andersson | Heliconia gaiboriana Abalo &amp; G.Morales | Heliconia gigantea W.J.Kress &amp; Betancur | Heliconia gilbertiana Abalo &amp; G.Morales | Heliconia gloriosa Abalo &amp; G.Morales | Heliconia gracilis G.S.Daniels &amp; F.G.Stiles | Heliconia griggsiana L.B.Sm. | Heliconia harlingii L.Andersson | Heliconia hirsuta L.f. | Heliconia holmquistiana Abalo &amp; G.Morales | Heliconia huilensis Abalo &amp; G.Morales | Heliconia ignescens G.S.Daniels &amp; F.G.Stiles | Heliconia imbricata Baker | Heliconia impudica Abalo &amp; G.Morales | Heliconia indica Lam. | Heliconia intermedia Abalo &amp; G.Morales | Heliconia irrasa R.R.Sm. | Heliconia juliani Barreiros | Heliconia juruana Loes. | Heliconia kautzkiana Emygdio &amp; E.Santos | Heliconia lanata (P.Green) W.J.Kress | Heliconia lankesteri Standl. | Heliconia lasiorachis L.Andersson | Heliconia latispatha Benth. | Heliconia laufao W.J.Kress | Heliconia laxa Abalo &amp; G.Morales | Heliconia lentiginosa Abalo &amp; G.Morales | Heliconia librata Griggs | Heliconia lingulata Ruiz &amp; Pav. | Heliconia litana W.J.Kress | Heliconia longa (Griggs) H.J.P.Winkl. | Heliconia longiflora R.R.Sm. | Heliconia lophocarpa G.S.Daniels &amp; F.G.Stiles | Heliconia lourteigiae Emygdio &amp; E.Santos | Heliconia lozanoi Abalo &amp; G.Morales | Heliconia luciae Barreiros | Heliconia lutea W.J.Kress | Heliconia lutheri W.J.Kress | Heliconia maculata W.J.Kress | Heliconia magnifica W.J.Kress | Heliconia × mantenensis B.R.Silva, Senna V. &amp; Emygdio | Heliconia marginata (Griggs) Pittier | Heliconia mariae Hook.f. | Heliconia markiana Abalo &amp; G.Morales | Heliconia mathiasiae G.S.Daniels &amp; F.G.Stiles | Heliconia meridensis Klotzsch | Heliconia metallica Planch. &amp; Lind. ex Hook. | Heliconia mincana Abalo &amp; G.Morales | Heliconia montana Abalo &amp; G.Morales | Heliconia monteverdensis G.S.Daniels &amp; F.G.Stiles | Heliconia mooreana R.R.Sm. | Heliconia mucilagina Abalo &amp; G.Morales | Heliconia mucronata Barreiros | Heliconia mutisiana Cuatrec. | Heliconia nariniensis Abalo &amp; G.Morales | Heliconia necrobracteata W.J.Kress | Heliconia nickeriensis Maas &amp; M.J.M.de Rooij | Heliconia nigripraefixa Dodson &amp; A.H.Gentry | Heliconia nitida Abalo &amp; G.Morales | Heliconia nubigena L.Andersson | Heliconia nutans Woodson | Heliconia obscura Dodson &amp; A.H.Gentry | Heliconia obscuroides L.Andersson | Heliconia oleosa Abalo &amp; G.Morales | Heliconia orthotricha L.Andersson | Heliconia osaensis Cufod. | Heliconia paka A.C.Sm. | Heliconia paludigena Abalo &amp; G.Morales | Heliconia papuana W.J.Kress | Heliconia pardoi Abalo &amp; G.Morales | Heliconia pastazae L.Andersson | Heliconia paulii Lane ex R.R.Sm. | Heliconia peckenpaughii Abalo &amp; G.Morales | Heliconia pendula Wawra | Heliconia penduloides Loes. | Heliconia peteriana Abalo &amp; G.Morales | Heliconia plagiotropa Abalo &amp; G.Morales | Heliconia platystachys Baker | Heliconia pogonantha Cufod. | Heliconia pruinosa Loes. | Heliconia pseudoaemygdiana Emygdio &amp; E.Santos | Heliconia psittacorum L.f. | Heliconia ramonensis G.S.Daniels &amp; F.G.Stiles | Heliconia rauliniana Barreiros | Heliconia regalis L.Andersson | Heliconia reptans Abalo &amp; G.Morales | Heliconia reticulata (Griggs) H.J.P.Winkl. | Heliconia revoluta Standl. | Heliconia rhodantha Abalo &amp; G.Morales | Heliconia richardiana Miq. | Heliconia rigida Abalo &amp; G.Morales | Heliconia riopalenquensis Dodson &amp; A.H.Gentry | Heliconia rivularis Emygdio &amp; E.Santos | Heliconia robertoi Abalo &amp; G.Morales | Heliconia robusta Pax | Heliconia rodriguensis Aristeg. | Heliconia rodriguezii F.G.Stiles | Heliconia rostrata Ruiz &amp; Pav. | Heliconia samperiana W.J.Kress &amp; Betancur | Heliconia sanctae-theresae Abalo &amp; G.Morales | Heliconia santaremensis Barreiros | Heliconia sarapiquensis G.S.Daniels &amp; F.G.Stiles | Heliconia scarlatina Abalo &amp; G.Morales | Heliconia schiedeana Klotzsch | Heliconia schumanniana Loes. | Heliconia sclerotricha Abalo &amp; G.Morales | Heliconia secunda R.R.Sm. | Heliconia sessilis W.J.Kress | Heliconia signa-hispanica Abalo &amp; G.Morales | Heliconia solomonensis W.J.Kress | Heliconia spathocircinada Aristeg. | Heliconia spathocircinata Aristeg. | Heliconia spiralis Abalo &amp; G.Morales | Heliconia spissa Griggs | Heliconia standleyi J.F.Macbr. | Heliconia stella-maris Abalo &amp; G.Morales | Heliconia stilesii W.J.Kress | Heliconia stricta Huber | Heliconia subulata Ruiz &amp; Pav. | Heliconia sucrei Barreiros | Heliconia sylvicola DC. | Heliconia tacarcunae L.Andersson | Heliconia talamancana G.S.Daniels &amp; F.G.Stiles | Heliconia tandayapensis Abalo &amp; G.Morales | Heliconia tenebrosa J.F.Macbr. | Heliconia terciopela W.J.Kress &amp; Betancur | Heliconia thomasiana W.J.Kress | Heliconia timothei L.Andersson | Heliconia titanum W.J.Kress &amp; Betancur | Heliconia tortuosa Griggs | Heliconia trichocarpa G.S.Daniels &amp; F.G.Stiles | Heliconia triflora Barreiros | Heliconia umbrophila G.S.Daniels &amp; F.G.Stiles | Heliconia uxpanapensis C.Gut.Báez | Heliconia vaginalis Benth. | Heliconia vellerigera Poepp. | Heliconia velutina L.Andersson | Heliconia venusta Abalo &amp; G.Morales | Heliconia veracruzensis C.Gut.Báez | Heliconia villosa Klotzsch | Heliconia virginalis Abalo &amp; G.Morales | Heliconia wagneriana Petersen | Heliconia willisiana Abalo &amp; G.Morales | Heliconia wilsonii G.S.Daniels &amp; F.G.Stiles | Heliconia xanthovillosa W.J.Kress | Heliconia zebrina Plowman, W.J.Kress &amp; H.Kenn. | Heliconia adeliana Emygdio &amp; E.Santos | Heliconia arabica Lam. | Heliconia biahy Vell. | Heliconia ecuadoriensis W.J.Kress | Heliconia flava Jacq. | Heliconia flexuosa C.Presl | Heliconia johanii Barreiros | Heliconia leucogramma hort. ex Horan. | Heliconia longevaginata Spruce | Heliconia longipedunculata Sepulveda, Di.Ramirez &amp; Allzate | Heliconia mariae-augustae Emygdio &amp; E.Santos | Heliconia mathiasii G.S.Daniels &amp; F.G.Stiles | Heliconia metallica Planch. &amp; Linden | Heliconia nickeriensis Maas | Heliconia pabstii Emygdio &amp; E.Santos | Heliconia rubra | Heliconia rubra Sessé &amp; Moc. | Heliconia sanguinolenta Linden | Heliconia sect. Angustae W.J.Kress | Heliconia sect. Aurantiacae W.J.Kress | Heliconia sect. Colubrosae W.J.Kress | Heliconia sect. Curvae W.J.Kress | Heliconia sect. Epiconia Z.H.Feng | Heliconia sect. Epistrobus Z.H.Feng | Heliconia sect. Griggsia (L.Andersson) W.J.Kress | Heliconia sect. Heliconiopsis (Miq.) W.J.Kress | Heliconia sect. Longae W.J.Kress | Heliconia sect. Longiflorae W.J.Kress | Heliconia sect. Pastazae W.J.Kress | Heliconia sect. Perplexae W.J.Kress | Heliconia sect. Stenochlamys (Baker) K.Schum. | Heliconia sect. Taeniostrobus (Kuntze) K.Schum. | Heliconia subg. Colubrosae W.J.Kress | Heliconia subg. Heliconiopsis (Miq.) W.J.Kress | Heliconia subg. Helitrobus Z.H.Feng | Heliconia subg. Taeniostrobus (Kuntze) Griggs</t>
-        </is>
-      </c>
-      <c r="AA102" t="n">
-        <v>244</v>
-      </c>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="n">
+        <v>0</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Heliconia L.", "wfo_id": "wfo-4000017228", "full_name_plain": "Heliconia L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Heliconia'", "Word contains non alpha chars and so is start of author string: 'L.'.", "Authors string looks like this: 'L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Heliconia' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Heliconia", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-4000017228", "full_name_plain": "Heliconia L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -13122,35 +13442,35 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
+          <t>Heliconia rostrata</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
           <t>wfo-0000438784</t>
         </is>
       </c>
-      <c r="X103" t="inlineStr">
+      <c r="Y103" t="inlineStr">
         <is>
           <t>Heliconia rostrata Ruiz &amp; Pav.</t>
         </is>
       </c>
-      <c r="Y103" t="inlineStr">
+      <c r="Z103" t="inlineStr">
         <is>
           <t>Heliconia rostrata Ruiz &amp; Pav.</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
+      <c r="AA103" t="inlineStr">
         <is>
           <t>Bihai poeppigiana (Eichler ex Petersen) Kuntze | Bihai rostrata Griggs | Heliconia poeppigiana Eichler ex Petersen</t>
         </is>
       </c>
-      <c r="AA103" t="n">
+      <c r="AB103" t="n">
         <v>3</v>
       </c>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Heliconia rostrata Ruiz &amp; Pav.", "wfo_id": "wfo-0000438784", "full_name_plain": "Heliconia rostrata Ruiz &amp; Pav.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Heliconia'", "Word is found in index and so is part of name: 'rostrata'.", "Word is lowercase. Subsequent words must start with lowercase: 'rostrata'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Ruiz'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'rostrata'", "Authors string looks like this: 'Ruiz &amp; Pav.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Heliconia rostrata' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Heliconia rostrata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000438784", "full_name_plain": "Heliconia rostrata Ruiz &amp; Pav.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -13243,35 +13563,35 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
+          <t>Hoffmannia ghiesbreghtii</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
           <t>wfo-0000982612</t>
         </is>
       </c>
-      <c r="X104" t="inlineStr">
+      <c r="Y104" t="inlineStr">
         <is>
           <t>Hoffmannia ghiesbreghtii (Lem.) Hemsl.</t>
         </is>
       </c>
-      <c r="Y104" t="inlineStr">
+      <c r="Z104" t="inlineStr">
         <is>
           <t>Hoffmannia ghiesbreghtii (Lem.) Hemsl.</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
+      <c r="AA104" t="inlineStr">
         <is>
           <t>Ohigginsia ghiesbrechtii (Lem.) Hook.f. | Campylobotrys ghiesbreghtii Lem. | Higginsia ghiesbreghtii (Lem.) Hook. | Higginsia ghiesbreghtii unranked variegata Hovey</t>
         </is>
       </c>
-      <c r="AA104" t="n">
+      <c r="AB104" t="n">
         <v>4</v>
       </c>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Hoffmannia ghiesbreghtii (Lem.) Hemsl.", "wfo_id": "wfo-0000982612", "full_name_plain": "Hoffmannia ghiesbreghtii (Lem.) Hemsl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Hoffmannia'", "Word is found in index and so is part of name: 'ghiesbreghtii'.", "Word is lowercase. Subsequent words must start with lowercase: 'ghiesbreghtii'.", "Word contains non alpha chars and so is start of author string: '(Lem.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'ghiesbreghtii'", "Authors string looks like this: '(Lem.) Hemsl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Hoffmannia ghiesbreghtii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Hoffmannia ghiesbreghtii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000982612", "full_name_plain": "Hoffmannia ghiesbreghtii (Lem.) Hemsl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -13364,35 +13684,35 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
+          <t>Hoffmannia ghiesbreghtii</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
           <t>wfo-0000982612</t>
         </is>
       </c>
-      <c r="X105" t="inlineStr">
+      <c r="Y105" t="inlineStr">
         <is>
           <t>Hoffmannia ghiesbreghtii (Lem.) Hemsl.</t>
         </is>
       </c>
-      <c r="Y105" t="inlineStr">
+      <c r="Z105" t="inlineStr">
         <is>
           <t>Hoffmannia ghiesbreghtii (Lem.) Hemsl.</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
+      <c r="AA105" t="inlineStr">
         <is>
           <t>Ohigginsia ghiesbrechtii (Lem.) Hook.f. | Campylobotrys ghiesbreghtii Lem. | Higginsia ghiesbreghtii (Lem.) Hook. | Higginsia ghiesbreghtii unranked variegata Hovey</t>
         </is>
       </c>
-      <c r="AA105" t="n">
+      <c r="AB105" t="n">
         <v>4</v>
       </c>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Hoffmannia ghiesbreghtii (Lem.) Hemsl.", "wfo_id": "wfo-0000982612", "full_name_plain": "Hoffmannia ghiesbreghtii (Lem.) Hemsl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Hoffmannia'", "Word is found in index and so is part of name: 'ghiesbreghtii'.", "Word is lowercase. Subsequent words must start with lowercase: 'ghiesbreghtii'.", "Word contains non alpha chars and so is start of author string: '(Lem.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'ghiesbreghtii'", "Authors string looks like this: '(Lem.) Hemsl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Hoffmannia ghiesbreghtii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Hoffmannia ghiesbreghtii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000982612", "full_name_plain": "Hoffmannia ghiesbreghtii (Lem.) Hemsl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -13493,35 +13813,35 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
+          <t>Hura crepitans</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
           <t>wfo-0000215711</t>
         </is>
       </c>
-      <c r="X106" t="inlineStr">
+      <c r="Y106" t="inlineStr">
         <is>
           <t>Hura crepitans L.</t>
         </is>
       </c>
-      <c r="Y106" t="inlineStr">
+      <c r="Z106" t="inlineStr">
         <is>
           <t>Hura crepitans L.</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr">
+      <c r="AA106" t="inlineStr">
         <is>
           <t>Hura brasiliensis Willd. | Hura crepitans var. membranacea Müll.Arg. | Hura crepitans f. oblongifolia Müll.Arg. | Hura crepitans f. orbicularis Müll.Arg. | Hura crepitans f. ovata Müll.Arg. | Hura crepitans var. senegalensis (Baill.) Boiss. | Hura crepitans var. strepens Müll.Arg. | Hura senegalensis Baill. | Hura strepens Willd. | Hura crepitans var. oblongifolia Müll.Arg. | Hura crepitans var. orbicularis Müll.Arg. | Hura crepitans var. ovata Müll.Arg. | Hura crepitans var. genuina Müll.Arg.</t>
         </is>
       </c>
-      <c r="AA106" t="n">
+      <c r="AB106" t="n">
         <v>13</v>
       </c>
-      <c r="AB106" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Hura crepitans L.", "wfo_id": "wfo-0000215711", "full_name_plain": "Hura crepitans L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Hura'", "Word is found in index and so is part of name: 'crepitans'.", "Word is lowercase. Subsequent words must start with lowercase: 'crepitans'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'crepitans'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Hura crepitans' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Hura crepitans", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000215711", "full_name_plain": "Hura crepitans L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 13}}</t>
         </is>
       </c>
     </row>
@@ -13610,35 +13930,35 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
+          <t>Selenicereus megalanthus</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
           <t>wfo-0001288022</t>
         </is>
       </c>
-      <c r="X107" t="inlineStr">
+      <c r="Y107" t="inlineStr">
         <is>
           <t>Selenicereus megalanthus (K.Schum. ex Vaupel) Moran</t>
         </is>
       </c>
-      <c r="Y107" t="inlineStr">
+      <c r="Z107" t="inlineStr">
         <is>
           <t>Selenicereus megalanthus (K.Schum. ex Vaupel) Moran</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr">
+      <c r="AA107" t="inlineStr">
         <is>
           <t>Cereus megalanthus K.Schum. ex Vaupel | Hylocereus megalanthus (K.Schum. ex Vaupel) Ralf Bauer | Mediocactus megalanthus (K.Schum. ex Vaupel) Britton &amp; Rose</t>
         </is>
       </c>
-      <c r="AA107" t="n">
+      <c r="AB107" t="n">
         <v>3</v>
       </c>
-      <c r="AB107" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Selenicereus megalanthus (Schum. ex Vaupel) Moran", "wfo_id": "wfo-0001288022", "full_name_plain": "Selenicereus megalanthus (K.Schum. ex Vaupel) Moran", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Selenicereus'", "Word is found in index and so is part of name: 'megalanthus'.", "Word is lowercase. Subsequent words must start with lowercase: 'megalanthus'.", "Word contains non alpha chars and so is start of author string: '(Schum.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'megalanthus'", "Authors string looks like this: '(Schum. ex Vaupel) Moran'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Selenicereus megalanthus' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Selenicereus megalanthus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001288022", "full_name_plain": "Selenicereus megalanthus (K.Schum. ex Vaupel) Moran", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -13739,35 +14059,35 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
+          <t>Selenicereus undatus</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
           <t>wfo-0001434109</t>
         </is>
       </c>
-      <c r="X108" t="inlineStr">
+      <c r="Y108" t="inlineStr">
         <is>
           <t>Selenicereus undatus (Haw.) D.R.Hunt</t>
         </is>
       </c>
-      <c r="Y108" t="inlineStr">
+      <c r="Z108" t="inlineStr">
         <is>
           <t>Selenicereus undatus (Haw.) D.R.Hunt</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr">
+      <c r="AA108" t="inlineStr">
         <is>
           <t>Cereus tricostatus Rol.-Goss. | Cereus undatus Haw. | Hylocereus undatus (Haw.) Britton &amp; Rose | Hylocereus tricostatus (Rol.-Goss.) Britton &amp; Rose | Selenicereus undatus subsp. luteocarpus (Cálix de Dios) M.H.J.van der Meer | Hylocereus undatus subsp. luteocarpus Cálix de Dios</t>
         </is>
       </c>
-      <c r="AA108" t="n">
+      <c r="AB108" t="n">
         <v>6</v>
       </c>
-      <c r="AB108" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Selenicereus undatus (Haw.) D.R.Hunt", "wfo_id": "wfo-0001434109", "full_name_plain": "Selenicereus undatus (Haw.) D.R.Hunt", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Selenicereus'", "Word is found in index and so is part of name: 'undatus'.", "Word is lowercase. Subsequent words must start with lowercase: 'undatus'.", "Word contains non alpha chars and so is start of author string: '(Haw.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'undatus'", "Authors string looks like this: '(Haw.) D.R.Hunt'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Selenicereus undatus' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Selenicereus undatus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001434109", "full_name_plain": "Selenicereus undatus (Haw.) D.R.Hunt", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -13868,35 +14188,35 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
+          <t>Isolepis cernua</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
           <t>wfo-0000448337</t>
         </is>
       </c>
-      <c r="X109" t="inlineStr">
+      <c r="Y109" t="inlineStr">
         <is>
           <t>Isolepis cernua (Vahl) Roem. &amp; Schult.</t>
         </is>
       </c>
-      <c r="Y109" t="inlineStr">
+      <c r="Z109" t="inlineStr">
         <is>
           <t>Isolepis cernua (Vahl) Roem. &amp; Schult.</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>Isolepis cernua var. andina Muasya | Isolepis cernua var. cernua | Isolepis cernua var. meruensis (R.W.Haines &amp; Lye) Muasya | Isolepis cernua var. platycarpa (S.T.Blake) Muasya | Isolepis cernua var. setiformis (Benth.) Muasya | Eleogiton cernua (Vahl) A.Dietr. | Schoenoplectus cernuus (Vahl) Hayek | Scirpus cernuus Vahl | Cyperus pumilio Steud. | Scirpus setaceus var. pygmaeus (Kunth) Boeck. | Schoenus nitens Poir.</t>
-        </is>
-      </c>
-      <c r="AA109" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB109" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>Eleogiton cernua (Vahl) A.Dietr. | Schoenoplectus cernuus (Vahl) Hayek | Scirpus cernuus Vahl | Cyperus pumilio Steud. | Scirpus setaceus var. pygmaeus (Kunth) Boeck. | Schoenus nitens Poir.</t>
+        </is>
+      </c>
+      <c r="AB109" t="n">
+        <v>6</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Isolepis cernua (Vahl) Roem. &amp; Schult.", "wfo_id": "wfo-0000448337", "full_name_plain": "Isolepis cernua (Vahl) Roem. &amp; Schult.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Isolepis'", "Word is found in index and so is part of name: 'cernua'.", "Word is lowercase. Subsequent words must start with lowercase: 'cernua'.", "Word contains non alpha chars and so is start of author string: '(Vahl)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cernua'", "Authors string looks like this: '(Vahl) Roem. &amp; Schult.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Isolepis cernua' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Isolepis cernua", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000448337", "full_name_plain": "Isolepis cernua (Vahl) Roem. &amp; Schult.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -13997,35 +14317,35 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
+          <t>Justicia brandegeeana</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
           <t>wfo-0000354190</t>
         </is>
       </c>
-      <c r="X110" t="inlineStr">
+      <c r="Y110" t="inlineStr">
         <is>
           <t>Justicia brandegeeana Wassh. &amp; L.B.Sm.</t>
         </is>
       </c>
-      <c r="Y110" t="inlineStr">
+      <c r="Z110" t="inlineStr">
         <is>
           <t>Justicia brandegeeana Wassh. &amp; L.B.Sm.</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
+      <c r="AA110" t="inlineStr">
         <is>
           <t>Beloperone guttata Brandegee | Calliaspidia guttata (Brandegee) Bremek. | Drejerella guttata (Brandegee) Bremek.</t>
         </is>
       </c>
-      <c r="AA110" t="n">
+      <c r="AB110" t="n">
         <v>3</v>
       </c>
-      <c r="AB110" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Justicia brandegeeana Wassh. &amp; L.B.Sm.", "wfo_id": "wfo-0000354190", "full_name_plain": "Justicia brandegeeana Wassh. &amp; L.B.Sm.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Justicia'", "Word is found in index and so is part of name: 'brandegeeana'.", "Word is lowercase. Subsequent words must start with lowercase: 'brandegeeana'.", "Word contains non alpha chars and so is start of author string: 'Wassh.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'brandegeeana'", "Authors string looks like this: 'Wassh. &amp; L.B.Sm.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Justicia brandegeeana' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Justicia brandegeeana", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000354190", "full_name_plain": "Justicia brandegeeana Wassh. &amp; L.B.Sm.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -14124,21 +14444,37 @@
           <t>Justicia carnea Lindl.</t>
         </is>
       </c>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Justicia carnea</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>wfo-0000354735</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>Justicia carnea Lindl.</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>Justicia carnea Lindl.</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>Justicia longiflora Vis. | Justicia magnifica Pohl ex Nees | Jacobinia splendens Voss | Jacobinia carnea (Lindl.) G.Nicholson | Orthotactus pohlianus Nees | Orthotactus ciliatus Nees | Porphyrocoma pohliana (Nees) Lindau | Porphyrocoma longifolia Voss | Amphiscopia pohliana Nees | Amphiscopia pohliana var. angustifolia Nees | Cyrtanthera carnea (Lindl.) Bremek. | Cyrtanthera longiflora (Vis.) Nees | Cyrtanthera magnifica Nees | Cyrtanthera magnifica var. minor Nees | Cyrtanthera pohliana Nees | Cyrtanthera pohliana var. obtusior Nees | Dianthera pohliana (Nees) G.Nicholson | Ecbolium pohlianun (Nees) Kuntze | Ecbolium sellinii Kuntze | Ethesia carnea Raf. | Jacobinia magnifica (Nees) Lindau | Jacobinia pohliana var. velutina Nees | Jacobinia pohliana (Nees) Voss | Jacobinia obtusior L.H.Bailey | Orthotactus pohlianus var. angustifolius Nees | Jacobinia magnifica var. carnea (Lindl.) L.H.Bailey | Cyrtanthera pohliana var. velutina Nees | Dianthera pohliana f. angustifolia Voss | Jacobinia pohliana f. velutina (Nees) Voss | Jacobinia pohliana (Nees) Benth. &amp; Hook.f. ex B.D.Jacks. | Amphiscopia ciliata (Nees) Nees | Justicia velutina Brongn. ex Lem.</t>
+        </is>
+      </c>
+      <c r="AB111" t="n">
+        <v>32</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Justicia carnea Lindl.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Justicia'", "Word is found in index and so is part of name: 'carnea'.", "Word is lowercase. Subsequent words must start with lowercase: 'carnea'.", "Word contains non alpha chars and so is start of author string: 'Lindl.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'carnea'", "Authors string looks like this: 'Lindl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Justicia carnea' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Justicia carnea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000354735", "full_name_plain": "Justicia carnea Lindl.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 32}}</t>
         </is>
       </c>
     </row>
@@ -14237,21 +14573,37 @@
           <t>Khaya grandifoliola C.DC.</t>
         </is>
       </c>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Khaya grandifoliola</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>wfo-0000357001</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>Khaya grandifoliola C.DC.</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>Khaya grandifoliola C.DC.</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>Khaya kerstingii Harms | Khaya dawei Stapf ex Broun &amp; R.E.Massey</t>
+        </is>
+      </c>
+      <c r="AB112" t="n">
+        <v>2</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Khaya grandifoliola C.DC.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Khaya'", "Word is found in index and so is part of name: 'grandifoliola'.", "Word is lowercase. Subsequent words must start with lowercase: 'grandifoliola'.", "Word contains non alpha chars and so is start of author string: 'C.DC.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'grandifoliola'", "Authors string looks like this: 'C.DC.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Khaya grandifoliola' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Khaya grandifoliola", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000357001", "full_name_plain": "Khaya grandifoliola C.DC.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -14344,35 +14696,35 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
+          <t>Kigelia africana africana</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
           <t>wfo-0000919059</t>
         </is>
       </c>
-      <c r="X113" t="inlineStr">
+      <c r="Y113" t="inlineStr">
         <is>
           <t>Kigelia africana subsp. africana</t>
         </is>
       </c>
-      <c r="Y113" t="inlineStr">
+      <c r="Z113" t="inlineStr">
         <is>
           <t>Kigelia africana subsp. africana</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
+      <c r="AA113" t="inlineStr">
         <is>
           <t>Kigelia ikbaliae De Wild. | Kigelia erytraeae Mattei | Kigelia aethiopica Decne. | Kigelia aethiopum (Fenzl) Dandy | Kigelia abyssinica A.Rich. | Kigelia pinnata (Jacq.) DC. | Kigelia talbotii Hutch. &amp; Dalziel | Kigelia somalensis Mattei | Sotor aethiopum Fenzl | Tanaecium pinnatum (Jacq.) Willd. | Kigelia aethiopica var. bornuensis Sprague | Kigelia aethiopica var. abyssinica (A.Rich.) Sprague | Kigelia africana var. aethiopica (Sprague) Aubrév. ex Sillans | Kigelia aethiopica var. usambarica Sprague | Kigelia pinnata var. tomentella Sprague | Crescentia pinnata Jacq.</t>
         </is>
       </c>
-      <c r="AA113" t="n">
+      <c r="AB113" t="n">
         <v>16</v>
       </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Kigelia africana subsp. africana", "wfo_id": "wfo-0000919059", "full_name_plain": "Kigelia africana subsp. africana", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Kigelia'", "Word is found in index and so is part of name: 'africana'.", "Word is lowercase. Subsequent words must start with lowercase: 'africana'.", "Rank estimated as 'subspecies' based on 'subsp.'.", "Word following rank is always name part: 'africana'.", "No authors string provided. Will match all authors strings.", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Kigelia africana africana' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Only one candidate found (wfo-0000919059) and no author string supplied so name becomes match.", "Only one candidate found (wfo-0000919059) it is an autonym and so is the supplied name.", "The ranks are the same so making it a match regardless of any author string."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Kigelia africana africana", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000919059", "full_name_plain": "Kigelia africana subsp. africana", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 16}}</t>
         </is>
       </c>
     </row>
@@ -14465,35 +14817,35 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
+          <t>Kohleria hirsuta</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
           <t>wfo-0000357724</t>
         </is>
       </c>
-      <c r="X114" t="inlineStr">
+      <c r="Y114" t="inlineStr">
         <is>
           <t>Kohleria hirsuta (Kunth) Regel</t>
         </is>
       </c>
-      <c r="Y114" t="inlineStr">
+      <c r="Z114" t="inlineStr">
         <is>
           <t>Kohleria hirsuta (Kunth) Regel</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>Kohleria hirsuta var. longipes (Benth.) L.P.Kvist &amp; L.E.Skog | Kohleria moritziana (C.D.Bouché &amp; Hanst.) Hanst. | Kohleria mollis (Kunth) Hanst. | Kohleria rubricaulis (Kunth &amp; C.D.Bouché) Hassk. | Kohleria pycnosuzygia (Donn.Sm.) V.M.Badillo | Kohleria rhodomallon (Hanst.) Hanst. | Brachyloma erianthum (Benth.) Hanst. | Brachyloma hirsutum (Kunth) Hanst. | Brachyloma leucomallon Hanst. | Brachyloma longiflorum (Kunth) Hanst. | Brachyloma molle (Kunth) Hanst. | Brachyloma moritzianum C.D.Bouché &amp; Hanst. | Brachyloma rhodomallon Hanst. | Brachyloma rubricaule (Kunth &amp; C.D.Bouché) Hanst. | Brachyloma ventricosum Hanst. | Brachyloma vestitum (Benth.) Hanst. | Gesneria eriantha Benth. | Gesneria hirsuta Kunth | Gesneria longiflora Kunth | Gesneria rubricaulis Kunth &amp; C.D.Bouché | Gesneria ventricosa Hort.Berol. ex Hanst. | Gesneria vestita Benth. | Isoloma hirsutum (Kunth) Regel | Isoloma molle (Kunth) Decne. | Isoloma pycnosuzygium Donn.Sm. | Isoloma rubricaule (Kunth &amp; C.D.Bouché) Regel | Kohleria brachycalyx Fritsch | Kohleria hirsuta var. hirsuta | Isoloma erianthum (Benth.) Decne. | Isoloma vestitum (Benth.) Decne. | Isoloma longiflorum (Kunth) Regel | Isoloma longipedunculatum Hort. ex Hanst. | Kohleria eriantha (Benth.) Hanst. | Kohleria lanigera Fritsch | Kohleria leucomallos (Hanst.) Hanst. | Kohleria longiflora (Kunth) Hanst. | Kohleria longipedunculata Hanst. | Kohleria straussiana Fritsch | Kohleria ventricosa (Hanst.) Hanst. | Kohleria vestita (Benth.) Hanst. | Isoloma molle (Kunth) G.Nicholson | Gesneria mollis Kunth | Gesneria oblongata Paxton</t>
-        </is>
-      </c>
-      <c r="AA114" t="n">
-        <v>43</v>
-      </c>
-      <c r="AB114" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>Kohleria moritziana (C.D.Bouché &amp; Hanst.) Hanst. | Kohleria mollis (Kunth) Hanst. | Kohleria rubricaulis (Kunth &amp; C.D.Bouché) Hassk. | Kohleria pycnosuzygia (Donn.Sm.) V.M.Badillo | Kohleria rhodomallon (Hanst.) Hanst. | Brachyloma erianthum (Benth.) Hanst. | Brachyloma hirsutum (Kunth) Hanst. | Brachyloma leucomallon Hanst. | Brachyloma longiflorum (Kunth) Hanst. | Brachyloma molle (Kunth) Hanst. | Brachyloma moritzianum C.D.Bouché &amp; Hanst. | Brachyloma rhodomallon Hanst. | Brachyloma rubricaule (Kunth &amp; C.D.Bouché) Hanst. | Brachyloma ventricosum Hanst. | Brachyloma vestitum (Benth.) Hanst. | Gesneria eriantha Benth. | Gesneria hirsuta Kunth | Gesneria longiflora Kunth | Gesneria rubricaulis Kunth &amp; C.D.Bouché | Gesneria ventricosa Hort.Berol. ex Hanst. | Gesneria vestita Benth. | Isoloma hirsutum (Kunth) Regel | Isoloma molle (Kunth) Decne. | Isoloma pycnosuzygium Donn.Sm. | Isoloma rubricaule (Kunth &amp; C.D.Bouché) Regel | Kohleria brachycalyx Fritsch | Kohleria hirsuta var. hirsuta | Isoloma erianthum (Benth.) Decne. | Isoloma vestitum (Benth.) Decne. | Isoloma longiflorum (Kunth) Regel | Isoloma longipedunculatum Hort. ex Hanst. | Kohleria eriantha (Benth.) Hanst. | Kohleria lanigera Fritsch | Kohleria leucomallos (Hanst.) Hanst. | Kohleria longiflora (Kunth) Hanst. | Kohleria longipedunculata Hanst. | Kohleria straussiana Fritsch | Kohleria ventricosa (Hanst.) Hanst. | Kohleria vestita (Benth.) Hanst. | Isoloma molle (Kunth) G.Nicholson | Gesneria mollis Kunth | Gesneria oblongata Paxton</t>
+        </is>
+      </c>
+      <c r="AB114" t="n">
+        <v>42</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Kohleria hirsuta (Kunth) Regel", "wfo_id": "wfo-0000357724", "full_name_plain": "Kohleria hirsuta (Kunth) Regel", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Kohleria'", "Word is found in index and so is part of name: 'hirsuta'.", "Word is lowercase. Subsequent words must start with lowercase: 'hirsuta'.", "Word contains non alpha chars and so is start of author string: '(Kunth)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'hirsuta'", "Authors string looks like this: '(Kunth) Regel'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Kohleria hirsuta' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Kohleria hirsuta", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000357724", "full_name_plain": "Kohleria hirsuta (Kunth) Regel", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 42}}</t>
         </is>
       </c>
     </row>
@@ -14592,21 +14944,37 @@
           <t>Lagerstroemia speciosa (L.) Pers.</t>
         </is>
       </c>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Lagerstroemia speciosa</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>wfo-0000366693</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>Lagerstroemia speciosa (L.) Pers.</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>Lagerstroemia speciosa (L.) Pers.</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>Munchausia speciosa L. | Murtughas speciosa (L.) Kuntze | Lagerstroemia munchhausia L. ex Forsyth f.</t>
+        </is>
+      </c>
+      <c r="AB115" t="n">
+        <v>3</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Lagerstroemia speciosa (L.) Pers.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Lagerstroemia'", "Word is found in index and so is part of name: 'speciosa'.", "Word is lowercase. Subsequent words must start with lowercase: 'speciosa'.", "Word contains non alpha chars and so is start of author string: '(L.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'speciosa'", "Authors string looks like this: '(L.) Pers.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Lagerstroemia speciosa' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Lagerstroemia speciosa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000366693", "full_name_plain": "Lagerstroemia speciosa (L.) Pers.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -14707,35 +15075,35 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
+          <t>Mangifera indica</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr">
+        <is>
           <t>wfo-0000371248</t>
         </is>
       </c>
-      <c r="X116" t="inlineStr">
+      <c r="Y116" t="inlineStr">
         <is>
           <t>Mangifera indica L.</t>
         </is>
       </c>
-      <c r="Y116" t="inlineStr">
+      <c r="Z116" t="inlineStr">
         <is>
           <t>Mangifera indica L.</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr">
+      <c r="AA116" t="inlineStr">
         <is>
           <t>Mangifera montana Heybe ex Wight &amp; Arn. | Mangifera racemosa Bojer | Mangifera oryza Gen ex Crevost &amp; Lemarié | Mangifera gladiata Bojer | Mangifera domestica Gaertn. | Mangifera equina Gen. ex Crevost &amp; Lemarié | Mangifera maritima Lechaume | Mangifera mekongensis auct. | Mangifera kukula Blume | Mangifera laxiflora Desr. | Mangifera linnaei Korth. ex Hassk. | Mangifera cambodiana auct. | Mangifera anisodora Blanco | Mangifera balba Gen ex Crevost &amp; Lemarié | Mangifera austroyunnanensis Hu | Mangifera viridis Bojer | Mangifera amba Forssk. | Mangifera rostrata Blanco | Mangifera rubra Bojer | Mangifera sativa Roem. &amp; Schult. | Mangifera siamensis Warb. ex Craib | Mangifera indica var. domestica (Gaertn.) Blume | Mangifera indica var. compressa Blume | Mangifera indica var. kalapa Blume | Mangifera indica var. bapang Blume | Mangifera indica var. dodol Blume | Mangifera indica var. gratissima Blume | Mangifera indica var. kidang Blume | Mangifera indica var. kaijer Blume | Mangifera laurina var. deropong Blume | Mangifera indica var. mekongensis Pierre | Mangifera indica var. cambodiana Pierre</t>
         </is>
       </c>
-      <c r="AA116" t="n">
+      <c r="AB116" t="n">
         <v>32</v>
       </c>
-      <c r="AB116" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Mangifera indica L.", "wfo_id": "wfo-0000371248", "full_name_plain": "Mangifera indica L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Mangifera'", "Word is found in index and so is part of name: 'indica'.", "Word is lowercase. Subsequent words must start with lowercase: 'indica'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'indica'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Mangifera indica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Mangifera indica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000371248", "full_name_plain": "Mangifera indica L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 32}}</t>
         </is>
       </c>
     </row>
@@ -14836,35 +15204,35 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
+          <t>Mangifera indica</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
           <t>wfo-0000371248</t>
         </is>
       </c>
-      <c r="X117" t="inlineStr">
+      <c r="Y117" t="inlineStr">
         <is>
           <t>Mangifera indica L.</t>
         </is>
       </c>
-      <c r="Y117" t="inlineStr">
+      <c r="Z117" t="inlineStr">
         <is>
           <t>Mangifera indica L.</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
+      <c r="AA117" t="inlineStr">
         <is>
           <t>Mangifera montana Heybe ex Wight &amp; Arn. | Mangifera racemosa Bojer | Mangifera oryza Gen ex Crevost &amp; Lemarié | Mangifera gladiata Bojer | Mangifera domestica Gaertn. | Mangifera equina Gen. ex Crevost &amp; Lemarié | Mangifera maritima Lechaume | Mangifera mekongensis auct. | Mangifera kukula Blume | Mangifera laxiflora Desr. | Mangifera linnaei Korth. ex Hassk. | Mangifera cambodiana auct. | Mangifera anisodora Blanco | Mangifera balba Gen ex Crevost &amp; Lemarié | Mangifera austroyunnanensis Hu | Mangifera viridis Bojer | Mangifera amba Forssk. | Mangifera rostrata Blanco | Mangifera rubra Bojer | Mangifera sativa Roem. &amp; Schult. | Mangifera siamensis Warb. ex Craib | Mangifera indica var. domestica (Gaertn.) Blume | Mangifera indica var. compressa Blume | Mangifera indica var. kalapa Blume | Mangifera indica var. bapang Blume | Mangifera indica var. dodol Blume | Mangifera indica var. gratissima Blume | Mangifera indica var. kidang Blume | Mangifera indica var. kaijer Blume | Mangifera laurina var. deropong Blume | Mangifera indica var. mekongensis Pierre | Mangifera indica var. cambodiana Pierre</t>
         </is>
       </c>
-      <c r="AA117" t="n">
+      <c r="AB117" t="n">
         <v>32</v>
       </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC117" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Mangifera indica L.", "wfo_id": "wfo-0000371248", "full_name_plain": "Mangifera indica L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Mangifera'", "Word is found in index and so is part of name: 'indica'.", "Word is lowercase. Subsequent words must start with lowercase: 'indica'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'indica'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Mangifera indica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Mangifera indica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000371248", "full_name_plain": "Mangifera indica L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 32}}</t>
         </is>
       </c>
     </row>
@@ -14965,35 +15333,35 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
+          <t>Mangifera indica</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
           <t>wfo-0000371248</t>
         </is>
       </c>
-      <c r="X118" t="inlineStr">
+      <c r="Y118" t="inlineStr">
         <is>
           <t>Mangifera indica L.</t>
         </is>
       </c>
-      <c r="Y118" t="inlineStr">
+      <c r="Z118" t="inlineStr">
         <is>
           <t>Mangifera indica L.</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
+      <c r="AA118" t="inlineStr">
         <is>
           <t>Mangifera montana Heybe ex Wight &amp; Arn. | Mangifera racemosa Bojer | Mangifera oryza Gen ex Crevost &amp; Lemarié | Mangifera gladiata Bojer | Mangifera domestica Gaertn. | Mangifera equina Gen. ex Crevost &amp; Lemarié | Mangifera maritima Lechaume | Mangifera mekongensis auct. | Mangifera kukula Blume | Mangifera laxiflora Desr. | Mangifera linnaei Korth. ex Hassk. | Mangifera cambodiana auct. | Mangifera anisodora Blanco | Mangifera balba Gen ex Crevost &amp; Lemarié | Mangifera austroyunnanensis Hu | Mangifera viridis Bojer | Mangifera amba Forssk. | Mangifera rostrata Blanco | Mangifera rubra Bojer | Mangifera sativa Roem. &amp; Schult. | Mangifera siamensis Warb. ex Craib | Mangifera indica var. domestica (Gaertn.) Blume | Mangifera indica var. compressa Blume | Mangifera indica var. kalapa Blume | Mangifera indica var. bapang Blume | Mangifera indica var. dodol Blume | Mangifera indica var. gratissima Blume | Mangifera indica var. kidang Blume | Mangifera indica var. kaijer Blume | Mangifera laurina var. deropong Blume | Mangifera indica var. mekongensis Pierre | Mangifera indica var. cambodiana Pierre</t>
         </is>
       </c>
-      <c r="AA118" t="n">
+      <c r="AB118" t="n">
         <v>32</v>
       </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC118" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Mangifera indica L.", "wfo_id": "wfo-0000371248", "full_name_plain": "Mangifera indica L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Mangifera'", "Word is found in index and so is part of name: 'indica'.", "Word is lowercase. Subsequent words must start with lowercase: 'indica'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'indica'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Mangifera indica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Mangifera indica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000371248", "full_name_plain": "Mangifera indica L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 32}}</t>
         </is>
       </c>
     </row>
@@ -15094,35 +15462,35 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
+          <t>Medinilla magnifica</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
           <t>wfo-0001082446</t>
         </is>
       </c>
-      <c r="X119" t="inlineStr">
+      <c r="Y119" t="inlineStr">
         <is>
           <t>Medinilla magnifica Lindl.</t>
         </is>
       </c>
-      <c r="Y119" t="inlineStr">
+      <c r="Z119" t="inlineStr">
         <is>
           <t>Medinilla magnifica Lindl.</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
+      <c r="AA119" t="inlineStr">
         <is>
           <t>Dactyliota bracteata Blume | Medinilla superba Teijsm. &amp; Binn. ex Triana | Medinilla bracteata Veitch</t>
         </is>
       </c>
-      <c r="AA119" t="n">
+      <c r="AB119" t="n">
         <v>3</v>
       </c>
-      <c r="AB119" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Medinilla magnifica Lindl.", "wfo_id": "wfo-0001082446", "full_name_plain": "Medinilla magnifica Lindl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Medinilla'", "Word is found in index and so is part of name: 'magnifica'.", "Word is lowercase. Subsequent words must start with lowercase: 'magnifica'.", "Word contains non alpha chars and so is start of author string: 'Lindl.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'magnifica'", "Authors string looks like this: 'Lindl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Medinilla magnifica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Medinilla magnifica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001082446", "full_name_plain": "Medinilla magnifica Lindl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -15223,35 +15591,35 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
+          <t>Nephelium lappaceum</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
           <t>wfo-0000381268</t>
         </is>
       </c>
-      <c r="X120" t="inlineStr">
+      <c r="Y120" t="inlineStr">
         <is>
           <t>Nephelium lappaceum L.</t>
         </is>
       </c>
-      <c r="Y120" t="inlineStr">
+      <c r="Z120" t="inlineStr">
         <is>
           <t>Nephelium lappaceum L.</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>Nephelium lappaceum var. pallens (Hiern) Leenh. | Nephelium lappaceum var. xanthioides (Radlk.) Leenh. | Nephelium sufferugineum Radlk. | Nephelium rambutan Schnizl. | Nephelium variabile Wall. ex Voigt | Nephelium maculatum Radlk. | Nephelium obovatum Ridl. | Nephelium pallens Radlk. | Nephelium glabrum (Blume) Cambess. | Scytalia crinita (Lour.) Raeusch. | Scytalia rimosa Roxb. | Dimocarpus crinitus Lour. | Euphoria crinita (Lour.) Poir. | Euphoria glabra Blume | Euphoria nephelium Poir. | Euphoria nephelium DC. | Euphoria ramb-outan Labill.</t>
-        </is>
-      </c>
-      <c r="AA120" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB120" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>Nephelium sufferugineum Radlk. | Nephelium rambutan Schnizl. | Nephelium variabile Wall. ex Voigt | Nephelium maculatum Radlk. | Nephelium obovatum Ridl. | Nephelium pallens Radlk. | Nephelium glabrum (Blume) Cambess. | Scytalia crinita (Lour.) Raeusch. | Scytalia rimosa Roxb. | Dimocarpus crinitus Lour. | Euphoria crinita (Lour.) Poir. | Euphoria glabra Blume | Euphoria nephelium Poir. | Euphoria nephelium DC. | Euphoria ramb-outan Labill.</t>
+        </is>
+      </c>
+      <c r="AB120" t="n">
+        <v>15</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Nephelium lappaceum L.", "wfo_id": "wfo-0000381268", "full_name_plain": "Nephelium lappaceum L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Nephelium'", "Word is found in index and so is part of name: 'lappaceum'.", "Word is lowercase. Subsequent words must start with lowercase: 'lappaceum'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'lappaceum'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Nephelium lappaceum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Nephelium lappaceum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000381268", "full_name_plain": "Nephelium lappaceum L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 15}}</t>
         </is>
       </c>
     </row>
@@ -15352,35 +15720,35 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
+          <t>Mimosa aculeaticarpa</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
           <t>wfo-0000169632</t>
         </is>
       </c>
-      <c r="X121" t="inlineStr">
+      <c r="Y121" t="inlineStr">
         <is>
           <t>Mimosa aculeaticarpa Ortega</t>
         </is>
       </c>
-      <c r="Y121" t="inlineStr">
+      <c r="Z121" t="inlineStr">
         <is>
           <t>Mimosa aculeaticarpa Ortega</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
+      <c r="AA121" t="inlineStr">
         <is>
           <t>Mimosa moreliensis (Britton) Bullock | Mimosa acanthocarpa (Willd.) Poir. | Acacia acanthocarpa Willd. | Mimosa brachyacantha Poir. | Mimosopsis orizabensis Britton | Acacia acanthophora Steud. | Acacia brachyacantha Humb. &amp; Bonpl. ex Willd. | Acacia acanthocarpa var. uncinella (Poir.) DC. | Mimosa acanthocarpa var. desmanthocarpa B.L.Rob. | Mimosa uncinella Poir. | Mimosopsis aculeaticarpa (Ortega) Britton &amp; Rose | Mimosopsis desmanthocarpa (B.L.Rob.) Britton &amp; Rose | Mimosopsis moreliensis Britton | Acacia aculeaticarpa Lag. | Mimosa arida Benth. | Mimosa aculeaticarpa var. desmanthocarpa (B.L.Rob.) J.F.Macbr. | Acacia uncinella Desf.</t>
         </is>
       </c>
-      <c r="AA121" t="n">
+      <c r="AB121" t="n">
         <v>17</v>
       </c>
-      <c r="AB121" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Mimosa aculeaticarpa Ortega", "wfo_id": "wfo-0000169632", "full_name_plain": "Mimosa aculeaticarpa Ortega", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Mimosa'", "Word is found in index and so is part of name: 'aculeaticarpa'.", "Word is lowercase. Subsequent words must start with lowercase: 'aculeaticarpa'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Ortega'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'aculeaticarpa'", "Authors string looks like this: 'Ortega'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Mimosa aculeaticarpa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Mimosa aculeaticarpa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000169632", "full_name_plain": "Mimosa aculeaticarpa Ortega", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 17}}</t>
         </is>
       </c>
     </row>
@@ -15473,35 +15841,35 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
+          <t>Mimosa polycarpa spegazzinii</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
           <t>wfo-0000169804</t>
         </is>
       </c>
-      <c r="X122" t="inlineStr">
+      <c r="Y122" t="inlineStr">
         <is>
           <t>Mimosa polycarpa var. spegazzinii (Pirotta) Burkart</t>
         </is>
       </c>
-      <c r="Y122" t="inlineStr">
+      <c r="Z122" t="inlineStr">
         <is>
           <t>Mimosa polycarpa var. spegazzinii (Pirotta) Burkart</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr">
+      <c r="AA122" t="inlineStr">
         <is>
           <t>Mimosa pachecensis S.Moore | Mimosa polychaeta Malme | Mimosa spegazzinii Pirotta | Mimosa polycarpa var. subglabrata Hoehne</t>
         </is>
       </c>
-      <c r="AA122" t="n">
+      <c r="AB122" t="n">
         <v>4</v>
       </c>
-      <c r="AB122" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Mimosa polycarpa var. spegazzinii (Pirotta) Burkart", "wfo_id": "wfo-0000169804", "full_name_plain": "Mimosa polycarpa var. spegazzinii (Pirotta) Burkart", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Mimosa'", "Word is found in index and so is part of name: 'polycarpa'.", "Word is lowercase. Subsequent words must start with lowercase: 'polycarpa'.", "Rank estimated as 'variety' based on 'var.'.", "Word following rank is always name part: 'spegazzinii'.", "Authors string looks like this: '(Pirotta) Burkart'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Mimosa polycarpa spegazzinii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Mimosa polycarpa spegazzinii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000169804", "full_name_plain": "Mimosa polycarpa var. spegazzinii (Pirotta) Burkart", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -15590,35 +15958,31 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
+          <t>Morinda</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
           <t>wfo-4000024850</t>
         </is>
       </c>
-      <c r="X123" t="inlineStr">
+      <c r="Y123" t="inlineStr">
         <is>
           <t>Morinda L.</t>
         </is>
       </c>
-      <c r="Y123" t="inlineStr">
+      <c r="Z123" t="inlineStr">
         <is>
           <t>Morinda L.</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>Morinda angolensis (R.D.Good) F.White | Morinda angustifolia Roxb. | Morinda asteroscepa K.Schum. | Morinda bracteata Roxb. | Morinda buchii Urb. | Morinda carnosa Venturina, E.E.L.Suarez &amp; Alejandro | Morinda chrysorhiza (Thonn.) DC. | Morinda citrifolia L. | Morinda coreia Buch.-Ham. | Morinda corneri K.M.Wong | Morinda elliptica (Hook.f.) Ridl. | Morinda fasciculata Benth. | Morinda hoffmannioides Standl. | Morinda hypotephra F.Muell. | Morinda latibractea Valeton | Morinda leiantha Kurz | Morinda longiflora G.Don | Morinda longipetiolata Steyerm. | Morinda longissima Y.Z.Ruan | Morinda lucida Benth. | Morinda mefou Cheek | Morinda moaensis Alain | Morinda morindoides (Baker) Milne-Redh. | Morinda nana Craib | Morinda pacifica (Reinecke) Razafim. &amp; B.Bremer | Morinda panamensis Seem. | Morinda pedunculata Valeton | Morinda persicifolia Buch.-Ham. | Morinda piperiformis Miq. | Morinda ramosa (Lauterb.) Razafim. &amp; B.Bremer | Morinda rosiflora Y.Z.Ruan | Morinda royoc L. | Morinda scabrida Craib | Morinda schultzei Valeton | Morinda sessiliflora Bertol. | Morinda talmyi (Pit.) Chantar. | Morinda titanophylla E.M.A.Petit | Morinda tomentosa B.Heyne ex Roth | Morinda turbacensis Kunth | Morinda undulata Y.Z.Ruan | Morinda angustifolia var. angustifolia | Morinda bracteata Link | Morinda brevipes var. brevipes | Morinda capitellata Wall. ex Foxw. | Morinda citrifolia var. typica Domin | Morinda citrina var. citrina | Morinda lastelliana Baill. | Morinda laxa Bartl. ex DC. | Morinda leichhardtii F.Muell. | Morinda lucida A.Gray | Morinda nanlingensis var. nanlingensis | Morinda officinalis var. officinalis | Morinda padavara Juss. ex Schult. | Morinda pubescens var. stenophylla (Spreng.) Kumari | Morinda reticulata Valeton | Morinda salomonensis Engl. | Morinda ternifolia Royle | Morinda umbellata subsp. umbellata | Morinda vestita Pierre ex Pit.</t>
-        </is>
-      </c>
-      <c r="AA123" t="n">
-        <v>59</v>
-      </c>
-      <c r="AB123" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="n">
+        <v>0</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Morinda L.", "wfo_id": "wfo-4000024850", "full_name_plain": "Morinda L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Morinda'", "Word contains non alpha chars and so is start of author string: 'L.'.", "Authors string looks like this: 'L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Morinda' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Morinda", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-4000024850", "full_name_plain": "Morinda L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -15709,21 +16073,37 @@
           <t>Murraya paniculata (L.) Jacq.</t>
         </is>
       </c>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB124" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>Murraya paniculata</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>wfo-0000453279</t>
+        </is>
+      </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>Murraya paniculata (L.) Jack</t>
+        </is>
+      </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>Murraya paniculata (L.) Jack</t>
+        </is>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>Limonia malliculensis Forst. ex Steud. | Murraya brevifolia Thwaites | Murraya amoena Salisb. | Murraya scandens Hassk. | Murraya japonensis (Lour.) Raeusch. | Murraya exotica L. | Marsana buxifolia Sonn. | Camunium exoticum Kuntze | Chalcas exotica Millsp. | Chalcas japanensis Lour. | Chalcas paniculata L. | Connarus foetens Blanco | Connarus santaloides Blanco | Chalcas paniculata var. omphalocarpa Yu.Tanaka | Murraya paniculata var. exotica (L.) M.R.Almeida | Murraya paniculata var. omphalocarpa (Hayata) Tanaka | Chalcas camuneng Burm.f. | Camunium exoticum var. pubescens Kuntze</t>
+        </is>
+      </c>
+      <c r="AB124" t="n">
+        <v>18</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Murraya paniculata (L.) Jacq.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Murraya'", "Word is found in index and so is part of name: 'paniculata'.", "Word is lowercase. Subsequent words must start with lowercase: 'paniculata'.", "Word contains non alpha chars and so is start of author string: '(L.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'paniculata'", "Authors string looks like this: '(L.) Jacq.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Murraya paniculata' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Murraya paniculata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000453279", "full_name_plain": "Murraya paniculata (L.) Jack", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 18}}</t>
         </is>
       </c>
     </row>
@@ -15824,35 +16204,35 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
+          <t>Musa coccinea</t>
+        </is>
+      </c>
+      <c r="X125" t="inlineStr">
+        <is>
           <t>wfo-0000474224</t>
         </is>
       </c>
-      <c r="X125" t="inlineStr">
+      <c r="Y125" t="inlineStr">
         <is>
           <t>Musa coccinea Andrews</t>
         </is>
       </c>
-      <c r="Y125" t="inlineStr">
+      <c r="Z125" t="inlineStr">
         <is>
           <t>Musa coccinea Andrews</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr">
+      <c r="AA125" t="inlineStr">
         <is>
           <t>Quesnelia lamarckii Baker</t>
         </is>
       </c>
-      <c r="AA125" t="n">
+      <c r="AB125" t="n">
         <v>1</v>
       </c>
-      <c r="AB125" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa coccinea Andrews", "wfo_id": "wfo-0000474224", "full_name_plain": "Musa coccinea Andrews", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word is found in index and so is part of name: 'coccinea'.", "Word is lowercase. Subsequent words must start with lowercase: 'coccinea'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Andrews'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'coccinea'", "Authors string looks like this: 'Andrews'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Musa coccinea' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa coccinea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474224", "full_name_plain": "Musa coccinea Andrews", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -15953,35 +16333,35 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
+          <t>Musa velutina</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
           <t>wfo-0000475207</t>
         </is>
       </c>
-      <c r="X126" t="inlineStr">
+      <c r="Y126" t="inlineStr">
         <is>
           <t>Musa velutina H.Wendl. &amp; Drude</t>
         </is>
       </c>
-      <c r="Y126" t="inlineStr">
+      <c r="Z126" t="inlineStr">
         <is>
           <t>Musa velutina H.Wendl. &amp; Drude</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr">
+      <c r="AA126" t="inlineStr">
         <is>
           <t>Musa dasycarpa Kurz | Musa velutina var. variegata A.Joe, M.Sabu &amp; Sreejith</t>
         </is>
       </c>
-      <c r="AA126" t="n">
+      <c r="AB126" t="n">
         <v>2</v>
       </c>
-      <c r="AB126" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa velutina H.Wendl. &amp; Drude", "wfo_id": "wfo-0000475207", "full_name_plain": "Musa velutina H.Wendl. &amp; Drude", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word is found in index and so is part of name: 'velutina'.", "Word is lowercase. Subsequent words must start with lowercase: 'velutina'.", "Word contains non alpha chars and so is start of author string: 'H.Wendl.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'velutina'", "Authors string looks like this: 'H.Wendl. &amp; Drude'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Musa velutina' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa velutina", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000475207", "full_name_plain": "Musa velutina H.Wendl. &amp; Drude", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -16074,31 +16454,31 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
+          <t>Musa nana</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
           <t>wfo-0000474616</t>
         </is>
       </c>
-      <c r="X127" t="inlineStr">
+      <c r="Y127" t="inlineStr">
         <is>
           <t>Musa nana Lour.</t>
         </is>
       </c>
-      <c r="Y127" t="inlineStr">
+      <c r="Z127" t="inlineStr">
         <is>
           <t>Musa nana Lour.</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="n">
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="n">
         <v>0</v>
       </c>
-      <c r="AB127" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa nana Lour.", "wfo_id": "wfo-0000474616", "full_name_plain": "Musa nana Lour.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word is found in index and so is part of name: 'nana'.", "Word is lowercase. Subsequent words must start with lowercase: 'nana'.", "Word contains non alpha chars and so is start of author string: 'Lour.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'nana'", "Authors string looks like this: 'Lour.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Musa nana' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa nana", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474616", "full_name_plain": "Musa nana Lour.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -16199,35 +16579,35 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>wfo-4000025011</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>wfo-0000474656</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>Musa × paradisiaca L.</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>Musa acuminata Colla | Musa × alinsanaya R.V.Valmayor | Musa arfakiana Argent | Musa argentii Gogoi &amp; Borah | Musa arunachalensis A.Joe, Sreejith &amp; M.Sabu | Musa aurantiaca G.Mann ex Baker | Musa azizii Häkkinen | Musa balbisiana Colla | Musa banksii F.Muell. | Musa barioensis Häkkinen | Musa basjoo Siebold &amp; Zucc. ex Iinuma | Musa bauensis Häkkinen &amp; Meekiong | Musa beccarii N.W.Simmonds | Musa boman Argent | Musa borneensis Becc. | Musa bukensis Argent | Musa campestris Becc. | Musa celebica Warb. ex K.Schum. | Musa cheesmanii N.W.Simmonds | Musa chunii Häkkinen | Musa coccinea Andrews | Musa corneri Holttum | Musa cylindrica A.Joe, Sreejith &amp; M.Sabu | Musa exotica R.V.Valmayor | Musa fitzalanii F.Muell. | Musa flaviflora N.W.Simmonds | Musa × formobisiana H.L.Chiu, C.T.Shii &amp; T.Y.A.Yang | Musa gracilis Holttum | Musa griersonii Noltie | Musa haekkinenii N.S.Lý &amp; Haev. | Musa hirta Becc. | Musa ingens N.W.Simmonds | Musa insularimontana Hayata | Musa itinerans Cheesman | Musa jackeyi W.Hill | Musa johnsii Argent | Musa juwiniana Meekiong, Ipor &amp; Tawan | Musa kamengensis Gogoi &amp; Häkkinen | Musa kattuvazhana K.C.Jacob | Musa lanceolata Warb. ex K.Schum. | Musa lawitiensis Nasution &amp; Supard. | Musa lokok Geri &amp; Ng | Musa lolodensis Cheesman | Musa lutea R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa maclayi F.Muell. | Musa mannii H.Wendl. ex Baker | Musa markkuana (M.Sabu, A.Joe &amp; Sreejith) Hareesh, A.Joe &amp; M.Sabu | Musa markkui Gogoi &amp; Borah | Musa monticola M.Hotta ex Argent | Musa muluensis M.Hotta | Musa nagalandiana S.Dey &amp; Gogoi | Musa nagensium Prain | Musa nanensis Swangpol &amp; Traiperm | Musa ochracea K.Sheph. | Musa ornata Roxb. | Musa paracoccinea A.Z.Liu &amp; D.Z.Li | Musa × paradisiaca L. | Musa × parahaekkinenii Smisha &amp; M.Sabu | Musa peekelii Lauterb. | Musa puspanjaliae Gogoi &amp; Häkkinen | Musa rosea Baker | Musa rubida Holttum | Musa rubinea Häkkinen &amp; C.H.Teo | Musa rubra Wall. ex Kurz | Musa ruiliensis W.N.Chen, Häkkinen &amp; X.J.Ge | Musa sabuana K.Prasad, A.Joe, Bheem. &amp; B.R.P.Rao | Musa sakaiana Meekiong, Ipor &amp; Tawan | Musa salaccensis Zoll. | Musa sanguinea Hook.f. | Musa schizocarpa N.W.Simmonds | Musa serpentina Swangpol &amp; Somana | Musa shankarii Subba Rao &amp; Kumari | Musa siamensis Häkkinen &amp; Rich.H.Wallace | Musa sikkimensis Kurz | Musa splendida A.Chev. | Musa textilis Née | Musa thomsonii King ex A.M.Cowan &amp; Cowan | Musa tonkinensis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa troglodytarum L. | Musa tuberculata M.Hotta | Musa velutina H.Wendl. &amp; Drude | Musa violascens Ridl. | Musa viridis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa voonii Häkkinen | Musa yamiensis C.L.Yeh &amp; J.H.Chen | Musa yunnanensis Häkkinen &amp; H.Wang | Musa zaifui Häkkinen &amp; H.Wang | Musa acicularis G.Forst. | Musa balbisiana var. bhutanensis P.Gyeltshen | Musa basjoo Siebold ex Miq. | Musa berdiri (C.K.Lim &amp; Meekiong) C.K.Lim &amp; Meekiong | Musa bracteata S.S.Singh, Gajurel &amp; Taid | Musa cinerea hort. ex Gentil | Musa coarctata G.Forst. | Musa coriacea G.Forst. | Musa corniculata G.Forst. | Musa corniculata Kurz | Musa dorsata G.Forst. | Musa exsucca G.Forst. | Musa fatua G.Forst. | Musa granulosa G.Forst. | Musa lacatan hort. ex Gentil | Musa lunaris G.Forst. | Musa martreti A.Chev. | Musa mensaria G.Forst. | Musa nana Lour. | Musa papillosa G.Forst. | Musa paradisiaca subsp. sapientum (L.) Kuntze ex K.Schum. | Musa paradisiaca subsp. seminifera (Lour.) Baker | Musa paradisiaca subsp. seminifera (Lour.) K.Schum. | Musa paradisiaca var. regia (Baker) K.Schum. | Musa pradhanii A.Joe &amp; M.Sabu | Musa pumila G.Forst. | Musa punctata G.Forst. | Musa purpurascens G.Forst. | Musa putei-gentu Meekiong &amp; Anis Sabrina | Musa regia G.Forst. | Musa rhodochlamys hort. ex Gentil | Musa riperti A.Chev. | Musa riperti A.Chev., Hutch. &amp; Dalziel | Musa sapientum subsp. seminifera (Lour.) Baker | Musa sect. Mulimusa Z.H.Feng | Musa sect. Myriocarpae Nakai | Musa sect. Paradisiacae Nakai | Musa sect. Salaccenses Nakai | Musa seminifera Lour. | Musa siangensis Taid, S.S.Singh &amp; Gajurel | Musa simiarum var. sylvestris Kurz | Musa sinensis Sweet ex Duch. | Musa subg. Columnomusa Nakai | Musa subg. Corniculata Nakai | Musa subg. Episeptalia Nakai | Musa subg. Fibrimusa Nakai | Musa subg. Pallidimusa Nakai | Musa subg. Pictochlamys Nakai | Musa subg. Platyplacentaria Nakai | Musa subg. Spermomusa Nakai | Musa subsect. Euparadisiacae Nakai | Musa subsect. Megalocarpae Nakai | Musa subsect. Microcarpae Nakai | Musa subsect. Mirabiles Nakai | Musa subsect. Nanae Nakai | Musa swarnaphalya Uma, Saraswathi &amp; Durai | Musa tetragona G.Forst.</t>
-        </is>
-      </c>
-      <c r="AA128" t="n">
-        <v>144</v>
-      </c>
-      <c r="AB128" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+          <t>Musa × paradisiaca L.</t>
+        </is>
+      </c>
+      <c r="AA128" t="inlineStr">
+        <is>
+          <t>Karkandela malabarica Raf. | Musa acutibracteata M.Hotta | Musa alphurica Miq. | Musa aphurica Rumph. ex Sagot | Musa bacoba Rottb. | Musa berteroi Colla | Musa bidigitalis De Wild. | Musa carolinae Sterler | Musa chapara Perr. | Musa chiliocarpa Backer ex K.Heyne | Musa consociata Nakai | Musa corbieri A.Chev. | Musa corniculata Lour. | Musa dacca Horan. | Musa decrescens De Briey ex De Wild. | Musa dulcissima Nakai | Musa emasculata De Briey ex De Wild. | Musa humilis Perr. | Musa ingrata Nakai | Musa jaheri Nakai | Musa maculata Jacq. | Musa megalocarpa Nakai | Musa mensaria Moench | Musa mirabilis Nakai | Musa nigra Perr. | Musa odorata Lour. | Musa oleracea Vieill. | Musa pallida Nakai | Musa paradisiaca var. champa (Baker) K.Schum. | Musa paradisiaca var. cinerea Blanco | Musa paradisiaca var. compressa Blanco | Musa paradisiaca var. dacca (Horan.) K.Schum. | Musa paradisiaca var. glaberrima Blanco | Musa paradisiaca var. glauca Blanco | Musa paradisiaca var. lacatan Blanco | Musa paradisiaca var. longa Blanco | Musa paradisiaca var. magna Blanco | Musa paradisiaca var. martabarica (Baker) K.Schum. | Musa paradisiaca var. maxima Blanco | Musa paradisiaca var. mensaria (Baker) K.Schum. | Musa paradisiaca subsp. normalis Kuntze | Musa paradisiaca var. odorata (Lour.) K.Schum. | Musa paradisiaca var. oleracea (Vieill.) K.Schum. | Musa paradisiaca var. rubra (Firminger ex Baker) K.Schum. | Musa paradisiaca var. sanguinea (Welw. ex Baker) K.Schum. | Musa paradisiaca subsp. sapientum (L.) Kuntze | Musa paradisiaca var. suaveolens Blanco | Musa paradisiaca var. subrubea Blanco | Musa paradisiaca var. ternatensis Blanco | Musa paradisiaca var. tombak Blanco | Musa paradisiaca var. ulnaris Blanco | Musa paradisiaca var. violacea (Baker) K.Schum. | Musa paradisiaca var. vittata (W.Ackm. ex Rodigas) K.Schum. | Musa polycarpa Nakai | Musa prematura Nakai | Musa protractorachis De Wild. | Musa purpureotomentosa De Wild. | Musa sapidisiaca K.C.Jacob | Musa sapientum L. | Musa sapientum var. americana N.G.Teodoro | Musa sapientum var. angao Quisumb. | Musa sapientum var. baca Quisumb. | Musa sapientum var. binutig N.G.Teodoro | Musa sapientum var. canara N.G.Teodoro | Musa sapientum var. canaya Quisumb. | Musa sapientum var. champa Baker | Musa sapientum var. cinerea (Blanco) N.G.Teodoro | Musa sapientum var. compressa (Blanco) N.G.Teodoro | Musa sapientum var. cubensis N.G.Teodoro | Musa sapientum var. dacca (Horan.) Baker | Musa sapientum var. daryao N.G.Teodoro | Musa sapientum var. dinalaga Quisumb. | Musa sapientum var. dool Quisumb. | Musa sapientum var. eda Quisumb. | Musa sapientum var. flabellata Quisumb. | Musa sapientum var. galatayan Quisumb. | Musa sapientum var. garangao N.G.Teodoro | Musa sapientum var. glaberrima (Blanco) N.G.Teodoro | Musa sapientum var. glauca (Blanco) N.G.Teodoro | Musa sapientum var. grandis N.G.Teodoro | Musa sapientum var. humilis Merr. | Musa sapientum var. inarnibal N.G.Teodoro | Musa sapientum var. kinamay Quisumb. | Musa sapientum var. lacatan (Blanco) N.G.Teodoro | Musa sapientum var. longa (Blanco) N.G.Teodoro | Musa sapientum var. martabarica Baker | Musa sapientum var. mensaria Baker | Musa sapientum var. odorata (Lour.) Baker | Musa sapientum var. padilat Quisumb. | Musa sapientum var. pamotion Quisumb. | Musa sapientum var. pelipia Quisumb. | Musa sapientum var. principe Quisumb. | Musa sapientum var. putian Quisumb. | Musa sapientum var. raines Quisumb. | Musa sapientum var. regia Baker | Musa sapientum var. rubra Firminger ex Baker | Musa sapientum var. sanguinea Welw. ex Baker | Musa sapientum var. sarocsoc Quisumb. | Musa sapientum var. sision Quisumb. | Musa sapientum var. suaveolens (Blanco) N.G.Teodoro | Musa sapientum var. ternatensis (Blanco) N.G.Teodoro | Musa sapientum var. tombak (Blanco) N.G.Teodoro | Musa sapientum var. tudlong N.G.Teodoro | Musa sapientum var. tuldoc N.G.Teodoro | Musa sapientum var. violacea (Blanco) N.G.Teodoro | Musa sapientum var. vittata Hook. | Musa trichocarpa Nakai | Musa vittata G.W.Ackermann ex Rodigas | Musa arakanensis F.W.Ripley ex Blechynden | Musa champa Baker | Musa decrescens var. pembuki De Briey ex De Wild. | Musa decrescens var. viridis De Briey ex De Wild. | Musa decrescens var. rubromaculata De Briey ex De Wild. | Musa emasculata var. kiala De Briey ex De Wild. | Musa emasculata var. kimbende De Briey ex De Wild. | Musa emasculata var. lomba De Briey ex De Wild. | Musa emasculata var. zengani De Briey ex De Wild. | Musa paradisiaca var. bende De Briey ex De Wild. | Musa paradisiaca var. bilul De Briey ex De Wild. | Musa paradisiaca var. kitebbe De Briey ex De Wild. | Musa paradisiaca f. seluka De Briey ex De Wild. | Musa paradisiaca f. funu-nua De Briey ex De Wild. | Musa paradisiaca f. kilola De Briey ex De Wild. | Musa paradisiaca f. dongila De Briey ex De Wild. | Musa paradisiaca f. tuba De Briey ex De Wild. | Musa paradisiaca var. viridis De Briey ex De Wild. | Musa sapientum var. fieleto De Briey ex De Wild. | Musa sapientum var. satama De Briey ex De Wild. | Musa sapientum f. dubia King | Musa sapientum var. dubia (King) A.M.Cowan &amp; Cowan | Musa paradisiaca var. corniculata G.Forst. | Musa paradisiaca var. exsicca G.Forst. | Musa paradisiaca var. tetragona G.Forst. | Musa paradisiaca var. acicularis G.Forst. | Musa paradisiaca var. coriacea G.Forst. | Musa paradisiaca var. mensaria G.Forst. | Musa paradisiaca var. regia G.Forst. | Musa paradisiaca var. purpurascens G.Forst. | Musa paradisiaca var. punctata G.Forst. | Musa paradisiaca var. fatua G.Forst. | Musa paradisiaca var. coarctata G.Forst. | Musa paradisiaca var. papillosa G.Forst. | Musa paradisiaca var. lunaris G.Forst. | Musa discolor Planch. | Musa balbisiana var. vittata (Hook.) M.R.Almeida | Musa paradisiaca var. sapientum (L.) Kuntze | Musa sapientum subsp. paradisiaca (L.) Baker | Musa sapientum var. oleracea (Vieill.) Baker | Musa sapientum var. paradisiaca (L.) Baker</t>
+        </is>
+      </c>
+      <c r="AB128" t="n">
+        <v>149</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa ×paradisiaca L.", "wfo_id": "wfo-4000025011", "full_name_plain": "Musa L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word contains non alpha chars and so is start of author string: '×paradisiaca'.", "Authors string looks like this: '×paradisiaca L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Musa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa paradisiaca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474656", "full_name_plain": "Musa × paradisiaca L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 149}}</t>
         </is>
       </c>
     </row>
@@ -16328,35 +16708,35 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>wfo-4000025011</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>wfo-0000474656</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>Musa × paradisiaca L.</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>Musa acuminata Colla | Musa × alinsanaya R.V.Valmayor | Musa arfakiana Argent | Musa argentii Gogoi &amp; Borah | Musa arunachalensis A.Joe, Sreejith &amp; M.Sabu | Musa aurantiaca G.Mann ex Baker | Musa azizii Häkkinen | Musa balbisiana Colla | Musa banksii F.Muell. | Musa barioensis Häkkinen | Musa basjoo Siebold &amp; Zucc. ex Iinuma | Musa bauensis Häkkinen &amp; Meekiong | Musa beccarii N.W.Simmonds | Musa boman Argent | Musa borneensis Becc. | Musa bukensis Argent | Musa campestris Becc. | Musa celebica Warb. ex K.Schum. | Musa cheesmanii N.W.Simmonds | Musa chunii Häkkinen | Musa coccinea Andrews | Musa corneri Holttum | Musa cylindrica A.Joe, Sreejith &amp; M.Sabu | Musa exotica R.V.Valmayor | Musa fitzalanii F.Muell. | Musa flaviflora N.W.Simmonds | Musa × formobisiana H.L.Chiu, C.T.Shii &amp; T.Y.A.Yang | Musa gracilis Holttum | Musa griersonii Noltie | Musa haekkinenii N.S.Lý &amp; Haev. | Musa hirta Becc. | Musa ingens N.W.Simmonds | Musa insularimontana Hayata | Musa itinerans Cheesman | Musa jackeyi W.Hill | Musa johnsii Argent | Musa juwiniana Meekiong, Ipor &amp; Tawan | Musa kamengensis Gogoi &amp; Häkkinen | Musa kattuvazhana K.C.Jacob | Musa lanceolata Warb. ex K.Schum. | Musa lawitiensis Nasution &amp; Supard. | Musa lokok Geri &amp; Ng | Musa lolodensis Cheesman | Musa lutea R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa maclayi F.Muell. | Musa mannii H.Wendl. ex Baker | Musa markkuana (M.Sabu, A.Joe &amp; Sreejith) Hareesh, A.Joe &amp; M.Sabu | Musa markkui Gogoi &amp; Borah | Musa monticola M.Hotta ex Argent | Musa muluensis M.Hotta | Musa nagalandiana S.Dey &amp; Gogoi | Musa nagensium Prain | Musa nanensis Swangpol &amp; Traiperm | Musa ochracea K.Sheph. | Musa ornata Roxb. | Musa paracoccinea A.Z.Liu &amp; D.Z.Li | Musa × paradisiaca L. | Musa × parahaekkinenii Smisha &amp; M.Sabu | Musa peekelii Lauterb. | Musa puspanjaliae Gogoi &amp; Häkkinen | Musa rosea Baker | Musa rubida Holttum | Musa rubinea Häkkinen &amp; C.H.Teo | Musa rubra Wall. ex Kurz | Musa ruiliensis W.N.Chen, Häkkinen &amp; X.J.Ge | Musa sabuana K.Prasad, A.Joe, Bheem. &amp; B.R.P.Rao | Musa sakaiana Meekiong, Ipor &amp; Tawan | Musa salaccensis Zoll. | Musa sanguinea Hook.f. | Musa schizocarpa N.W.Simmonds | Musa serpentina Swangpol &amp; Somana | Musa shankarii Subba Rao &amp; Kumari | Musa siamensis Häkkinen &amp; Rich.H.Wallace | Musa sikkimensis Kurz | Musa splendida A.Chev. | Musa textilis Née | Musa thomsonii King ex A.M.Cowan &amp; Cowan | Musa tonkinensis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa troglodytarum L. | Musa tuberculata M.Hotta | Musa velutina H.Wendl. &amp; Drude | Musa violascens Ridl. | Musa viridis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa voonii Häkkinen | Musa yamiensis C.L.Yeh &amp; J.H.Chen | Musa yunnanensis Häkkinen &amp; H.Wang | Musa zaifui Häkkinen &amp; H.Wang | Musa acicularis G.Forst. | Musa balbisiana var. bhutanensis P.Gyeltshen | Musa basjoo Siebold ex Miq. | Musa berdiri (C.K.Lim &amp; Meekiong) C.K.Lim &amp; Meekiong | Musa bracteata S.S.Singh, Gajurel &amp; Taid | Musa cinerea hort. ex Gentil | Musa coarctata G.Forst. | Musa coriacea G.Forst. | Musa corniculata G.Forst. | Musa corniculata Kurz | Musa dorsata G.Forst. | Musa exsucca G.Forst. | Musa fatua G.Forst. | Musa granulosa G.Forst. | Musa lacatan hort. ex Gentil | Musa lunaris G.Forst. | Musa martreti A.Chev. | Musa mensaria G.Forst. | Musa nana Lour. | Musa papillosa G.Forst. | Musa paradisiaca subsp. sapientum (L.) Kuntze ex K.Schum. | Musa paradisiaca subsp. seminifera (Lour.) Baker | Musa paradisiaca subsp. seminifera (Lour.) K.Schum. | Musa paradisiaca var. regia (Baker) K.Schum. | Musa pradhanii A.Joe &amp; M.Sabu | Musa pumila G.Forst. | Musa punctata G.Forst. | Musa purpurascens G.Forst. | Musa putei-gentu Meekiong &amp; Anis Sabrina | Musa regia G.Forst. | Musa rhodochlamys hort. ex Gentil | Musa riperti A.Chev. | Musa riperti A.Chev., Hutch. &amp; Dalziel | Musa sapientum subsp. seminifera (Lour.) Baker | Musa sect. Mulimusa Z.H.Feng | Musa sect. Myriocarpae Nakai | Musa sect. Paradisiacae Nakai | Musa sect. Salaccenses Nakai | Musa seminifera Lour. | Musa siangensis Taid, S.S.Singh &amp; Gajurel | Musa simiarum var. sylvestris Kurz | Musa sinensis Sweet ex Duch. | Musa subg. Columnomusa Nakai | Musa subg. Corniculata Nakai | Musa subg. Episeptalia Nakai | Musa subg. Fibrimusa Nakai | Musa subg. Pallidimusa Nakai | Musa subg. Pictochlamys Nakai | Musa subg. Platyplacentaria Nakai | Musa subg. Spermomusa Nakai | Musa subsect. Euparadisiacae Nakai | Musa subsect. Megalocarpae Nakai | Musa subsect. Microcarpae Nakai | Musa subsect. Mirabiles Nakai | Musa subsect. Nanae Nakai | Musa swarnaphalya Uma, Saraswathi &amp; Durai | Musa tetragona G.Forst.</t>
-        </is>
-      </c>
-      <c r="AA129" t="n">
-        <v>144</v>
-      </c>
-      <c r="AB129" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+          <t>Musa × paradisiaca L.</t>
+        </is>
+      </c>
+      <c r="AA129" t="inlineStr">
+        <is>
+          <t>Karkandela malabarica Raf. | Musa acutibracteata M.Hotta | Musa alphurica Miq. | Musa aphurica Rumph. ex Sagot | Musa bacoba Rottb. | Musa berteroi Colla | Musa bidigitalis De Wild. | Musa carolinae Sterler | Musa chapara Perr. | Musa chiliocarpa Backer ex K.Heyne | Musa consociata Nakai | Musa corbieri A.Chev. | Musa corniculata Lour. | Musa dacca Horan. | Musa decrescens De Briey ex De Wild. | Musa dulcissima Nakai | Musa emasculata De Briey ex De Wild. | Musa humilis Perr. | Musa ingrata Nakai | Musa jaheri Nakai | Musa maculata Jacq. | Musa megalocarpa Nakai | Musa mensaria Moench | Musa mirabilis Nakai | Musa nigra Perr. | Musa odorata Lour. | Musa oleracea Vieill. | Musa pallida Nakai | Musa paradisiaca var. champa (Baker) K.Schum. | Musa paradisiaca var. cinerea Blanco | Musa paradisiaca var. compressa Blanco | Musa paradisiaca var. dacca (Horan.) K.Schum. | Musa paradisiaca var. glaberrima Blanco | Musa paradisiaca var. glauca Blanco | Musa paradisiaca var. lacatan Blanco | Musa paradisiaca var. longa Blanco | Musa paradisiaca var. magna Blanco | Musa paradisiaca var. martabarica (Baker) K.Schum. | Musa paradisiaca var. maxima Blanco | Musa paradisiaca var. mensaria (Baker) K.Schum. | Musa paradisiaca subsp. normalis Kuntze | Musa paradisiaca var. odorata (Lour.) K.Schum. | Musa paradisiaca var. oleracea (Vieill.) K.Schum. | Musa paradisiaca var. rubra (Firminger ex Baker) K.Schum. | Musa paradisiaca var. sanguinea (Welw. ex Baker) K.Schum. | Musa paradisiaca subsp. sapientum (L.) Kuntze | Musa paradisiaca var. suaveolens Blanco | Musa paradisiaca var. subrubea Blanco | Musa paradisiaca var. ternatensis Blanco | Musa paradisiaca var. tombak Blanco | Musa paradisiaca var. ulnaris Blanco | Musa paradisiaca var. violacea (Baker) K.Schum. | Musa paradisiaca var. vittata (W.Ackm. ex Rodigas) K.Schum. | Musa polycarpa Nakai | Musa prematura Nakai | Musa protractorachis De Wild. | Musa purpureotomentosa De Wild. | Musa sapidisiaca K.C.Jacob | Musa sapientum L. | Musa sapientum var. americana N.G.Teodoro | Musa sapientum var. angao Quisumb. | Musa sapientum var. baca Quisumb. | Musa sapientum var. binutig N.G.Teodoro | Musa sapientum var. canara N.G.Teodoro | Musa sapientum var. canaya Quisumb. | Musa sapientum var. champa Baker | Musa sapientum var. cinerea (Blanco) N.G.Teodoro | Musa sapientum var. compressa (Blanco) N.G.Teodoro | Musa sapientum var. cubensis N.G.Teodoro | Musa sapientum var. dacca (Horan.) Baker | Musa sapientum var. daryao N.G.Teodoro | Musa sapientum var. dinalaga Quisumb. | Musa sapientum var. dool Quisumb. | Musa sapientum var. eda Quisumb. | Musa sapientum var. flabellata Quisumb. | Musa sapientum var. galatayan Quisumb. | Musa sapientum var. garangao N.G.Teodoro | Musa sapientum var. glaberrima (Blanco) N.G.Teodoro | Musa sapientum var. glauca (Blanco) N.G.Teodoro | Musa sapientum var. grandis N.G.Teodoro | Musa sapientum var. humilis Merr. | Musa sapientum var. inarnibal N.G.Teodoro | Musa sapientum var. kinamay Quisumb. | Musa sapientum var. lacatan (Blanco) N.G.Teodoro | Musa sapientum var. longa (Blanco) N.G.Teodoro | Musa sapientum var. martabarica Baker | Musa sapientum var. mensaria Baker | Musa sapientum var. odorata (Lour.) Baker | Musa sapientum var. padilat Quisumb. | Musa sapientum var. pamotion Quisumb. | Musa sapientum var. pelipia Quisumb. | Musa sapientum var. principe Quisumb. | Musa sapientum var. putian Quisumb. | Musa sapientum var. raines Quisumb. | Musa sapientum var. regia Baker | Musa sapientum var. rubra Firminger ex Baker | Musa sapientum var. sanguinea Welw. ex Baker | Musa sapientum var. sarocsoc Quisumb. | Musa sapientum var. sision Quisumb. | Musa sapientum var. suaveolens (Blanco) N.G.Teodoro | Musa sapientum var. ternatensis (Blanco) N.G.Teodoro | Musa sapientum var. tombak (Blanco) N.G.Teodoro | Musa sapientum var. tudlong N.G.Teodoro | Musa sapientum var. tuldoc N.G.Teodoro | Musa sapientum var. violacea (Blanco) N.G.Teodoro | Musa sapientum var. vittata Hook. | Musa trichocarpa Nakai | Musa vittata G.W.Ackermann ex Rodigas | Musa arakanensis F.W.Ripley ex Blechynden | Musa champa Baker | Musa decrescens var. pembuki De Briey ex De Wild. | Musa decrescens var. viridis De Briey ex De Wild. | Musa decrescens var. rubromaculata De Briey ex De Wild. | Musa emasculata var. kiala De Briey ex De Wild. | Musa emasculata var. kimbende De Briey ex De Wild. | Musa emasculata var. lomba De Briey ex De Wild. | Musa emasculata var. zengani De Briey ex De Wild. | Musa paradisiaca var. bende De Briey ex De Wild. | Musa paradisiaca var. bilul De Briey ex De Wild. | Musa paradisiaca var. kitebbe De Briey ex De Wild. | Musa paradisiaca f. seluka De Briey ex De Wild. | Musa paradisiaca f. funu-nua De Briey ex De Wild. | Musa paradisiaca f. kilola De Briey ex De Wild. | Musa paradisiaca f. dongila De Briey ex De Wild. | Musa paradisiaca f. tuba De Briey ex De Wild. | Musa paradisiaca var. viridis De Briey ex De Wild. | Musa sapientum var. fieleto De Briey ex De Wild. | Musa sapientum var. satama De Briey ex De Wild. | Musa sapientum f. dubia King | Musa sapientum var. dubia (King) A.M.Cowan &amp; Cowan | Musa paradisiaca var. corniculata G.Forst. | Musa paradisiaca var. exsicca G.Forst. | Musa paradisiaca var. tetragona G.Forst. | Musa paradisiaca var. acicularis G.Forst. | Musa paradisiaca var. coriacea G.Forst. | Musa paradisiaca var. mensaria G.Forst. | Musa paradisiaca var. regia G.Forst. | Musa paradisiaca var. purpurascens G.Forst. | Musa paradisiaca var. punctata G.Forst. | Musa paradisiaca var. fatua G.Forst. | Musa paradisiaca var. coarctata G.Forst. | Musa paradisiaca var. papillosa G.Forst. | Musa paradisiaca var. lunaris G.Forst. | Musa discolor Planch. | Musa balbisiana var. vittata (Hook.) M.R.Almeida | Musa paradisiaca var. sapientum (L.) Kuntze | Musa sapientum subsp. paradisiaca (L.) Baker | Musa sapientum var. oleracea (Vieill.) Baker | Musa sapientum var. paradisiaca (L.) Baker</t>
+        </is>
+      </c>
+      <c r="AB129" t="n">
+        <v>149</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa ×paradisiaca L.", "wfo_id": "wfo-4000025011", "full_name_plain": "Musa L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word contains non alpha chars and so is start of author string: '×paradisiaca'.", "Authors string looks like this: '×paradisiaca L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Musa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa paradisiaca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474656", "full_name_plain": "Musa × paradisiaca L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 149}}</t>
         </is>
       </c>
     </row>
@@ -16457,35 +16837,35 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>wfo-4000025011</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>wfo-0000474656</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>Musa × paradisiaca L.</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>Musa acuminata Colla | Musa × alinsanaya R.V.Valmayor | Musa arfakiana Argent | Musa argentii Gogoi &amp; Borah | Musa arunachalensis A.Joe, Sreejith &amp; M.Sabu | Musa aurantiaca G.Mann ex Baker | Musa azizii Häkkinen | Musa balbisiana Colla | Musa banksii F.Muell. | Musa barioensis Häkkinen | Musa basjoo Siebold &amp; Zucc. ex Iinuma | Musa bauensis Häkkinen &amp; Meekiong | Musa beccarii N.W.Simmonds | Musa boman Argent | Musa borneensis Becc. | Musa bukensis Argent | Musa campestris Becc. | Musa celebica Warb. ex K.Schum. | Musa cheesmanii N.W.Simmonds | Musa chunii Häkkinen | Musa coccinea Andrews | Musa corneri Holttum | Musa cylindrica A.Joe, Sreejith &amp; M.Sabu | Musa exotica R.V.Valmayor | Musa fitzalanii F.Muell. | Musa flaviflora N.W.Simmonds | Musa × formobisiana H.L.Chiu, C.T.Shii &amp; T.Y.A.Yang | Musa gracilis Holttum | Musa griersonii Noltie | Musa haekkinenii N.S.Lý &amp; Haev. | Musa hirta Becc. | Musa ingens N.W.Simmonds | Musa insularimontana Hayata | Musa itinerans Cheesman | Musa jackeyi W.Hill | Musa johnsii Argent | Musa juwiniana Meekiong, Ipor &amp; Tawan | Musa kamengensis Gogoi &amp; Häkkinen | Musa kattuvazhana K.C.Jacob | Musa lanceolata Warb. ex K.Schum. | Musa lawitiensis Nasution &amp; Supard. | Musa lokok Geri &amp; Ng | Musa lolodensis Cheesman | Musa lutea R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa maclayi F.Muell. | Musa mannii H.Wendl. ex Baker | Musa markkuana (M.Sabu, A.Joe &amp; Sreejith) Hareesh, A.Joe &amp; M.Sabu | Musa markkui Gogoi &amp; Borah | Musa monticola M.Hotta ex Argent | Musa muluensis M.Hotta | Musa nagalandiana S.Dey &amp; Gogoi | Musa nagensium Prain | Musa nanensis Swangpol &amp; Traiperm | Musa ochracea K.Sheph. | Musa ornata Roxb. | Musa paracoccinea A.Z.Liu &amp; D.Z.Li | Musa × paradisiaca L. | Musa × parahaekkinenii Smisha &amp; M.Sabu | Musa peekelii Lauterb. | Musa puspanjaliae Gogoi &amp; Häkkinen | Musa rosea Baker | Musa rubida Holttum | Musa rubinea Häkkinen &amp; C.H.Teo | Musa rubra Wall. ex Kurz | Musa ruiliensis W.N.Chen, Häkkinen &amp; X.J.Ge | Musa sabuana K.Prasad, A.Joe, Bheem. &amp; B.R.P.Rao | Musa sakaiana Meekiong, Ipor &amp; Tawan | Musa salaccensis Zoll. | Musa sanguinea Hook.f. | Musa schizocarpa N.W.Simmonds | Musa serpentina Swangpol &amp; Somana | Musa shankarii Subba Rao &amp; Kumari | Musa siamensis Häkkinen &amp; Rich.H.Wallace | Musa sikkimensis Kurz | Musa splendida A.Chev. | Musa textilis Née | Musa thomsonii King ex A.M.Cowan &amp; Cowan | Musa tonkinensis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa troglodytarum L. | Musa tuberculata M.Hotta | Musa velutina H.Wendl. &amp; Drude | Musa violascens Ridl. | Musa viridis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa voonii Häkkinen | Musa yamiensis C.L.Yeh &amp; J.H.Chen | Musa yunnanensis Häkkinen &amp; H.Wang | Musa zaifui Häkkinen &amp; H.Wang | Musa acicularis G.Forst. | Musa balbisiana var. bhutanensis P.Gyeltshen | Musa basjoo Siebold ex Miq. | Musa berdiri (C.K.Lim &amp; Meekiong) C.K.Lim &amp; Meekiong | Musa bracteata S.S.Singh, Gajurel &amp; Taid | Musa cinerea hort. ex Gentil | Musa coarctata G.Forst. | Musa coriacea G.Forst. | Musa corniculata G.Forst. | Musa corniculata Kurz | Musa dorsata G.Forst. | Musa exsucca G.Forst. | Musa fatua G.Forst. | Musa granulosa G.Forst. | Musa lacatan hort. ex Gentil | Musa lunaris G.Forst. | Musa martreti A.Chev. | Musa mensaria G.Forst. | Musa nana Lour. | Musa papillosa G.Forst. | Musa paradisiaca subsp. sapientum (L.) Kuntze ex K.Schum. | Musa paradisiaca subsp. seminifera (Lour.) Baker | Musa paradisiaca subsp. seminifera (Lour.) K.Schum. | Musa paradisiaca var. regia (Baker) K.Schum. | Musa pradhanii A.Joe &amp; M.Sabu | Musa pumila G.Forst. | Musa punctata G.Forst. | Musa purpurascens G.Forst. | Musa putei-gentu Meekiong &amp; Anis Sabrina | Musa regia G.Forst. | Musa rhodochlamys hort. ex Gentil | Musa riperti A.Chev. | Musa riperti A.Chev., Hutch. &amp; Dalziel | Musa sapientum subsp. seminifera (Lour.) Baker | Musa sect. Mulimusa Z.H.Feng | Musa sect. Myriocarpae Nakai | Musa sect. Paradisiacae Nakai | Musa sect. Salaccenses Nakai | Musa seminifera Lour. | Musa siangensis Taid, S.S.Singh &amp; Gajurel | Musa simiarum var. sylvestris Kurz | Musa sinensis Sweet ex Duch. | Musa subg. Columnomusa Nakai | Musa subg. Corniculata Nakai | Musa subg. Episeptalia Nakai | Musa subg. Fibrimusa Nakai | Musa subg. Pallidimusa Nakai | Musa subg. Pictochlamys Nakai | Musa subg. Platyplacentaria Nakai | Musa subg. Spermomusa Nakai | Musa subsect. Euparadisiacae Nakai | Musa subsect. Megalocarpae Nakai | Musa subsect. Microcarpae Nakai | Musa subsect. Mirabiles Nakai | Musa subsect. Nanae Nakai | Musa swarnaphalya Uma, Saraswathi &amp; Durai | Musa tetragona G.Forst.</t>
-        </is>
-      </c>
-      <c r="AA130" t="n">
-        <v>144</v>
-      </c>
-      <c r="AB130" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+          <t>Musa × paradisiaca L.</t>
+        </is>
+      </c>
+      <c r="AA130" t="inlineStr">
+        <is>
+          <t>Karkandela malabarica Raf. | Musa acutibracteata M.Hotta | Musa alphurica Miq. | Musa aphurica Rumph. ex Sagot | Musa bacoba Rottb. | Musa berteroi Colla | Musa bidigitalis De Wild. | Musa carolinae Sterler | Musa chapara Perr. | Musa chiliocarpa Backer ex K.Heyne | Musa consociata Nakai | Musa corbieri A.Chev. | Musa corniculata Lour. | Musa dacca Horan. | Musa decrescens De Briey ex De Wild. | Musa dulcissima Nakai | Musa emasculata De Briey ex De Wild. | Musa humilis Perr. | Musa ingrata Nakai | Musa jaheri Nakai | Musa maculata Jacq. | Musa megalocarpa Nakai | Musa mensaria Moench | Musa mirabilis Nakai | Musa nigra Perr. | Musa odorata Lour. | Musa oleracea Vieill. | Musa pallida Nakai | Musa paradisiaca var. champa (Baker) K.Schum. | Musa paradisiaca var. cinerea Blanco | Musa paradisiaca var. compressa Blanco | Musa paradisiaca var. dacca (Horan.) K.Schum. | Musa paradisiaca var. glaberrima Blanco | Musa paradisiaca var. glauca Blanco | Musa paradisiaca var. lacatan Blanco | Musa paradisiaca var. longa Blanco | Musa paradisiaca var. magna Blanco | Musa paradisiaca var. martabarica (Baker) K.Schum. | Musa paradisiaca var. maxima Blanco | Musa paradisiaca var. mensaria (Baker) K.Schum. | Musa paradisiaca subsp. normalis Kuntze | Musa paradisiaca var. odorata (Lour.) K.Schum. | Musa paradisiaca var. oleracea (Vieill.) K.Schum. | Musa paradisiaca var. rubra (Firminger ex Baker) K.Schum. | Musa paradisiaca var. sanguinea (Welw. ex Baker) K.Schum. | Musa paradisiaca subsp. sapientum (L.) Kuntze | Musa paradisiaca var. suaveolens Blanco | Musa paradisiaca var. subrubea Blanco | Musa paradisiaca var. ternatensis Blanco | Musa paradisiaca var. tombak Blanco | Musa paradisiaca var. ulnaris Blanco | Musa paradisiaca var. violacea (Baker) K.Schum. | Musa paradisiaca var. vittata (W.Ackm. ex Rodigas) K.Schum. | Musa polycarpa Nakai | Musa prematura Nakai | Musa protractorachis De Wild. | Musa purpureotomentosa De Wild. | Musa sapidisiaca K.C.Jacob | Musa sapientum L. | Musa sapientum var. americana N.G.Teodoro | Musa sapientum var. angao Quisumb. | Musa sapientum var. baca Quisumb. | Musa sapientum var. binutig N.G.Teodoro | Musa sapientum var. canara N.G.Teodoro | Musa sapientum var. canaya Quisumb. | Musa sapientum var. champa Baker | Musa sapientum var. cinerea (Blanco) N.G.Teodoro | Musa sapientum var. compressa (Blanco) N.G.Teodoro | Musa sapientum var. cubensis N.G.Teodoro | Musa sapientum var. dacca (Horan.) Baker | Musa sapientum var. daryao N.G.Teodoro | Musa sapientum var. dinalaga Quisumb. | Musa sapientum var. dool Quisumb. | Musa sapientum var. eda Quisumb. | Musa sapientum var. flabellata Quisumb. | Musa sapientum var. galatayan Quisumb. | Musa sapientum var. garangao N.G.Teodoro | Musa sapientum var. glaberrima (Blanco) N.G.Teodoro | Musa sapientum var. glauca (Blanco) N.G.Teodoro | Musa sapientum var. grandis N.G.Teodoro | Musa sapientum var. humilis Merr. | Musa sapientum var. inarnibal N.G.Teodoro | Musa sapientum var. kinamay Quisumb. | Musa sapientum var. lacatan (Blanco) N.G.Teodoro | Musa sapientum var. longa (Blanco) N.G.Teodoro | Musa sapientum var. martabarica Baker | Musa sapientum var. mensaria Baker | Musa sapientum var. odorata (Lour.) Baker | Musa sapientum var. padilat Quisumb. | Musa sapientum var. pamotion Quisumb. | Musa sapientum var. pelipia Quisumb. | Musa sapientum var. principe Quisumb. | Musa sapientum var. putian Quisumb. | Musa sapientum var. raines Quisumb. | Musa sapientum var. regia Baker | Musa sapientum var. rubra Firminger ex Baker | Musa sapientum var. sanguinea Welw. ex Baker | Musa sapientum var. sarocsoc Quisumb. | Musa sapientum var. sision Quisumb. | Musa sapientum var. suaveolens (Blanco) N.G.Teodoro | Musa sapientum var. ternatensis (Blanco) N.G.Teodoro | Musa sapientum var. tombak (Blanco) N.G.Teodoro | Musa sapientum var. tudlong N.G.Teodoro | Musa sapientum var. tuldoc N.G.Teodoro | Musa sapientum var. violacea (Blanco) N.G.Teodoro | Musa sapientum var. vittata Hook. | Musa trichocarpa Nakai | Musa vittata G.W.Ackermann ex Rodigas | Musa arakanensis F.W.Ripley ex Blechynden | Musa champa Baker | Musa decrescens var. pembuki De Briey ex De Wild. | Musa decrescens var. viridis De Briey ex De Wild. | Musa decrescens var. rubromaculata De Briey ex De Wild. | Musa emasculata var. kiala De Briey ex De Wild. | Musa emasculata var. kimbende De Briey ex De Wild. | Musa emasculata var. lomba De Briey ex De Wild. | Musa emasculata var. zengani De Briey ex De Wild. | Musa paradisiaca var. bende De Briey ex De Wild. | Musa paradisiaca var. bilul De Briey ex De Wild. | Musa paradisiaca var. kitebbe De Briey ex De Wild. | Musa paradisiaca f. seluka De Briey ex De Wild. | Musa paradisiaca f. funu-nua De Briey ex De Wild. | Musa paradisiaca f. kilola De Briey ex De Wild. | Musa paradisiaca f. dongila De Briey ex De Wild. | Musa paradisiaca f. tuba De Briey ex De Wild. | Musa paradisiaca var. viridis De Briey ex De Wild. | Musa sapientum var. fieleto De Briey ex De Wild. | Musa sapientum var. satama De Briey ex De Wild. | Musa sapientum f. dubia King | Musa sapientum var. dubia (King) A.M.Cowan &amp; Cowan | Musa paradisiaca var. corniculata G.Forst. | Musa paradisiaca var. exsicca G.Forst. | Musa paradisiaca var. tetragona G.Forst. | Musa paradisiaca var. acicularis G.Forst. | Musa paradisiaca var. coriacea G.Forst. | Musa paradisiaca var. mensaria G.Forst. | Musa paradisiaca var. regia G.Forst. | Musa paradisiaca var. purpurascens G.Forst. | Musa paradisiaca var. punctata G.Forst. | Musa paradisiaca var. fatua G.Forst. | Musa paradisiaca var. coarctata G.Forst. | Musa paradisiaca var. papillosa G.Forst. | Musa paradisiaca var. lunaris G.Forst. | Musa discolor Planch. | Musa balbisiana var. vittata (Hook.) M.R.Almeida | Musa paradisiaca var. sapientum (L.) Kuntze | Musa sapientum subsp. paradisiaca (L.) Baker | Musa sapientum var. oleracea (Vieill.) Baker | Musa sapientum var. paradisiaca (L.) Baker</t>
+        </is>
+      </c>
+      <c r="AB130" t="n">
+        <v>149</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa ×paradisiaca L.", "wfo_id": "wfo-4000025011", "full_name_plain": "Musa L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word contains non alpha chars and so is start of author string: '×paradisiaca'.", "Authors string looks like this: '×paradisiaca L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Musa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa paradisiaca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474656", "full_name_plain": "Musa × paradisiaca L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 149}}</t>
         </is>
       </c>
     </row>
@@ -16586,35 +16966,35 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>wfo-4000025011</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>wfo-0000474656</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>Musa × paradisiaca L.</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>Musa acuminata Colla | Musa × alinsanaya R.V.Valmayor | Musa arfakiana Argent | Musa argentii Gogoi &amp; Borah | Musa arunachalensis A.Joe, Sreejith &amp; M.Sabu | Musa aurantiaca G.Mann ex Baker | Musa azizii Häkkinen | Musa balbisiana Colla | Musa banksii F.Muell. | Musa barioensis Häkkinen | Musa basjoo Siebold &amp; Zucc. ex Iinuma | Musa bauensis Häkkinen &amp; Meekiong | Musa beccarii N.W.Simmonds | Musa boman Argent | Musa borneensis Becc. | Musa bukensis Argent | Musa campestris Becc. | Musa celebica Warb. ex K.Schum. | Musa cheesmanii N.W.Simmonds | Musa chunii Häkkinen | Musa coccinea Andrews | Musa corneri Holttum | Musa cylindrica A.Joe, Sreejith &amp; M.Sabu | Musa exotica R.V.Valmayor | Musa fitzalanii F.Muell. | Musa flaviflora N.W.Simmonds | Musa × formobisiana H.L.Chiu, C.T.Shii &amp; T.Y.A.Yang | Musa gracilis Holttum | Musa griersonii Noltie | Musa haekkinenii N.S.Lý &amp; Haev. | Musa hirta Becc. | Musa ingens N.W.Simmonds | Musa insularimontana Hayata | Musa itinerans Cheesman | Musa jackeyi W.Hill | Musa johnsii Argent | Musa juwiniana Meekiong, Ipor &amp; Tawan | Musa kamengensis Gogoi &amp; Häkkinen | Musa kattuvazhana K.C.Jacob | Musa lanceolata Warb. ex K.Schum. | Musa lawitiensis Nasution &amp; Supard. | Musa lokok Geri &amp; Ng | Musa lolodensis Cheesman | Musa lutea R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa maclayi F.Muell. | Musa mannii H.Wendl. ex Baker | Musa markkuana (M.Sabu, A.Joe &amp; Sreejith) Hareesh, A.Joe &amp; M.Sabu | Musa markkui Gogoi &amp; Borah | Musa monticola M.Hotta ex Argent | Musa muluensis M.Hotta | Musa nagalandiana S.Dey &amp; Gogoi | Musa nagensium Prain | Musa nanensis Swangpol &amp; Traiperm | Musa ochracea K.Sheph. | Musa ornata Roxb. | Musa paracoccinea A.Z.Liu &amp; D.Z.Li | Musa × paradisiaca L. | Musa × parahaekkinenii Smisha &amp; M.Sabu | Musa peekelii Lauterb. | Musa puspanjaliae Gogoi &amp; Häkkinen | Musa rosea Baker | Musa rubida Holttum | Musa rubinea Häkkinen &amp; C.H.Teo | Musa rubra Wall. ex Kurz | Musa ruiliensis W.N.Chen, Häkkinen &amp; X.J.Ge | Musa sabuana K.Prasad, A.Joe, Bheem. &amp; B.R.P.Rao | Musa sakaiana Meekiong, Ipor &amp; Tawan | Musa salaccensis Zoll. | Musa sanguinea Hook.f. | Musa schizocarpa N.W.Simmonds | Musa serpentina Swangpol &amp; Somana | Musa shankarii Subba Rao &amp; Kumari | Musa siamensis Häkkinen &amp; Rich.H.Wallace | Musa sikkimensis Kurz | Musa splendida A.Chev. | Musa textilis Née | Musa thomsonii King ex A.M.Cowan &amp; Cowan | Musa tonkinensis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa troglodytarum L. | Musa tuberculata M.Hotta | Musa velutina H.Wendl. &amp; Drude | Musa violascens Ridl. | Musa viridis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa voonii Häkkinen | Musa yamiensis C.L.Yeh &amp; J.H.Chen | Musa yunnanensis Häkkinen &amp; H.Wang | Musa zaifui Häkkinen &amp; H.Wang | Musa acicularis G.Forst. | Musa balbisiana var. bhutanensis P.Gyeltshen | Musa basjoo Siebold ex Miq. | Musa berdiri (C.K.Lim &amp; Meekiong) C.K.Lim &amp; Meekiong | Musa bracteata S.S.Singh, Gajurel &amp; Taid | Musa cinerea hort. ex Gentil | Musa coarctata G.Forst. | Musa coriacea G.Forst. | Musa corniculata G.Forst. | Musa corniculata Kurz | Musa dorsata G.Forst. | Musa exsucca G.Forst. | Musa fatua G.Forst. | Musa granulosa G.Forst. | Musa lacatan hort. ex Gentil | Musa lunaris G.Forst. | Musa martreti A.Chev. | Musa mensaria G.Forst. | Musa nana Lour. | Musa papillosa G.Forst. | Musa paradisiaca subsp. sapientum (L.) Kuntze ex K.Schum. | Musa paradisiaca subsp. seminifera (Lour.) Baker | Musa paradisiaca subsp. seminifera (Lour.) K.Schum. | Musa paradisiaca var. regia (Baker) K.Schum. | Musa pradhanii A.Joe &amp; M.Sabu | Musa pumila G.Forst. | Musa punctata G.Forst. | Musa purpurascens G.Forst. | Musa putei-gentu Meekiong &amp; Anis Sabrina | Musa regia G.Forst. | Musa rhodochlamys hort. ex Gentil | Musa riperti A.Chev. | Musa riperti A.Chev., Hutch. &amp; Dalziel | Musa sapientum subsp. seminifera (Lour.) Baker | Musa sect. Mulimusa Z.H.Feng | Musa sect. Myriocarpae Nakai | Musa sect. Paradisiacae Nakai | Musa sect. Salaccenses Nakai | Musa seminifera Lour. | Musa siangensis Taid, S.S.Singh &amp; Gajurel | Musa simiarum var. sylvestris Kurz | Musa sinensis Sweet ex Duch. | Musa subg. Columnomusa Nakai | Musa subg. Corniculata Nakai | Musa subg. Episeptalia Nakai | Musa subg. Fibrimusa Nakai | Musa subg. Pallidimusa Nakai | Musa subg. Pictochlamys Nakai | Musa subg. Platyplacentaria Nakai | Musa subg. Spermomusa Nakai | Musa subsect. Euparadisiacae Nakai | Musa subsect. Megalocarpae Nakai | Musa subsect. Microcarpae Nakai | Musa subsect. Mirabiles Nakai | Musa subsect. Nanae Nakai | Musa swarnaphalya Uma, Saraswathi &amp; Durai | Musa tetragona G.Forst.</t>
-        </is>
-      </c>
-      <c r="AA131" t="n">
-        <v>144</v>
-      </c>
-      <c r="AB131" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+          <t>Musa × paradisiaca L.</t>
+        </is>
+      </c>
+      <c r="AA131" t="inlineStr">
+        <is>
+          <t>Karkandela malabarica Raf. | Musa acutibracteata M.Hotta | Musa alphurica Miq. | Musa aphurica Rumph. ex Sagot | Musa bacoba Rottb. | Musa berteroi Colla | Musa bidigitalis De Wild. | Musa carolinae Sterler | Musa chapara Perr. | Musa chiliocarpa Backer ex K.Heyne | Musa consociata Nakai | Musa corbieri A.Chev. | Musa corniculata Lour. | Musa dacca Horan. | Musa decrescens De Briey ex De Wild. | Musa dulcissima Nakai | Musa emasculata De Briey ex De Wild. | Musa humilis Perr. | Musa ingrata Nakai | Musa jaheri Nakai | Musa maculata Jacq. | Musa megalocarpa Nakai | Musa mensaria Moench | Musa mirabilis Nakai | Musa nigra Perr. | Musa odorata Lour. | Musa oleracea Vieill. | Musa pallida Nakai | Musa paradisiaca var. champa (Baker) K.Schum. | Musa paradisiaca var. cinerea Blanco | Musa paradisiaca var. compressa Blanco | Musa paradisiaca var. dacca (Horan.) K.Schum. | Musa paradisiaca var. glaberrima Blanco | Musa paradisiaca var. glauca Blanco | Musa paradisiaca var. lacatan Blanco | Musa paradisiaca var. longa Blanco | Musa paradisiaca var. magna Blanco | Musa paradisiaca var. martabarica (Baker) K.Schum. | Musa paradisiaca var. maxima Blanco | Musa paradisiaca var. mensaria (Baker) K.Schum. | Musa paradisiaca subsp. normalis Kuntze | Musa paradisiaca var. odorata (Lour.) K.Schum. | Musa paradisiaca var. oleracea (Vieill.) K.Schum. | Musa paradisiaca var. rubra (Firminger ex Baker) K.Schum. | Musa paradisiaca var. sanguinea (Welw. ex Baker) K.Schum. | Musa paradisiaca subsp. sapientum (L.) Kuntze | Musa paradisiaca var. suaveolens Blanco | Musa paradisiaca var. subrubea Blanco | Musa paradisiaca var. ternatensis Blanco | Musa paradisiaca var. tombak Blanco | Musa paradisiaca var. ulnaris Blanco | Musa paradisiaca var. violacea (Baker) K.Schum. | Musa paradisiaca var. vittata (W.Ackm. ex Rodigas) K.Schum. | Musa polycarpa Nakai | Musa prematura Nakai | Musa protractorachis De Wild. | Musa purpureotomentosa De Wild. | Musa sapidisiaca K.C.Jacob | Musa sapientum L. | Musa sapientum var. americana N.G.Teodoro | Musa sapientum var. angao Quisumb. | Musa sapientum var. baca Quisumb. | Musa sapientum var. binutig N.G.Teodoro | Musa sapientum var. canara N.G.Teodoro | Musa sapientum var. canaya Quisumb. | Musa sapientum var. champa Baker | Musa sapientum var. cinerea (Blanco) N.G.Teodoro | Musa sapientum var. compressa (Blanco) N.G.Teodoro | Musa sapientum var. cubensis N.G.Teodoro | Musa sapientum var. dacca (Horan.) Baker | Musa sapientum var. daryao N.G.Teodoro | Musa sapientum var. dinalaga Quisumb. | Musa sapientum var. dool Quisumb. | Musa sapientum var. eda Quisumb. | Musa sapientum var. flabellata Quisumb. | Musa sapientum var. galatayan Quisumb. | Musa sapientum var. garangao N.G.Teodoro | Musa sapientum var. glaberrima (Blanco) N.G.Teodoro | Musa sapientum var. glauca (Blanco) N.G.Teodoro | Musa sapientum var. grandis N.G.Teodoro | Musa sapientum var. humilis Merr. | Musa sapientum var. inarnibal N.G.Teodoro | Musa sapientum var. kinamay Quisumb. | Musa sapientum var. lacatan (Blanco) N.G.Teodoro | Musa sapientum var. longa (Blanco) N.G.Teodoro | Musa sapientum var. martabarica Baker | Musa sapientum var. mensaria Baker | Musa sapientum var. odorata (Lour.) Baker | Musa sapientum var. padilat Quisumb. | Musa sapientum var. pamotion Quisumb. | Musa sapientum var. pelipia Quisumb. | Musa sapientum var. principe Quisumb. | Musa sapientum var. putian Quisumb. | Musa sapientum var. raines Quisumb. | Musa sapientum var. regia Baker | Musa sapientum var. rubra Firminger ex Baker | Musa sapientum var. sanguinea Welw. ex Baker | Musa sapientum var. sarocsoc Quisumb. | Musa sapientum var. sision Quisumb. | Musa sapientum var. suaveolens (Blanco) N.G.Teodoro | Musa sapientum var. ternatensis (Blanco) N.G.Teodoro | Musa sapientum var. tombak (Blanco) N.G.Teodoro | Musa sapientum var. tudlong N.G.Teodoro | Musa sapientum var. tuldoc N.G.Teodoro | Musa sapientum var. violacea (Blanco) N.G.Teodoro | Musa sapientum var. vittata Hook. | Musa trichocarpa Nakai | Musa vittata G.W.Ackermann ex Rodigas | Musa arakanensis F.W.Ripley ex Blechynden | Musa champa Baker | Musa decrescens var. pembuki De Briey ex De Wild. | Musa decrescens var. viridis De Briey ex De Wild. | Musa decrescens var. rubromaculata De Briey ex De Wild. | Musa emasculata var. kiala De Briey ex De Wild. | Musa emasculata var. kimbende De Briey ex De Wild. | Musa emasculata var. lomba De Briey ex De Wild. | Musa emasculata var. zengani De Briey ex De Wild. | Musa paradisiaca var. bende De Briey ex De Wild. | Musa paradisiaca var. bilul De Briey ex De Wild. | Musa paradisiaca var. kitebbe De Briey ex De Wild. | Musa paradisiaca f. seluka De Briey ex De Wild. | Musa paradisiaca f. funu-nua De Briey ex De Wild. | Musa paradisiaca f. kilola De Briey ex De Wild. | Musa paradisiaca f. dongila De Briey ex De Wild. | Musa paradisiaca f. tuba De Briey ex De Wild. | Musa paradisiaca var. viridis De Briey ex De Wild. | Musa sapientum var. fieleto De Briey ex De Wild. | Musa sapientum var. satama De Briey ex De Wild. | Musa sapientum f. dubia King | Musa sapientum var. dubia (King) A.M.Cowan &amp; Cowan | Musa paradisiaca var. corniculata G.Forst. | Musa paradisiaca var. exsicca G.Forst. | Musa paradisiaca var. tetragona G.Forst. | Musa paradisiaca var. acicularis G.Forst. | Musa paradisiaca var. coriacea G.Forst. | Musa paradisiaca var. mensaria G.Forst. | Musa paradisiaca var. regia G.Forst. | Musa paradisiaca var. purpurascens G.Forst. | Musa paradisiaca var. punctata G.Forst. | Musa paradisiaca var. fatua G.Forst. | Musa paradisiaca var. coarctata G.Forst. | Musa paradisiaca var. papillosa G.Forst. | Musa paradisiaca var. lunaris G.Forst. | Musa discolor Planch. | Musa balbisiana var. vittata (Hook.) M.R.Almeida | Musa paradisiaca var. sapientum (L.) Kuntze | Musa sapientum subsp. paradisiaca (L.) Baker | Musa sapientum var. oleracea (Vieill.) Baker | Musa sapientum var. paradisiaca (L.) Baker</t>
+        </is>
+      </c>
+      <c r="AB131" t="n">
+        <v>149</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa ×paradisiaca L.", "wfo_id": "wfo-4000025011", "full_name_plain": "Musa L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word contains non alpha chars and so is start of author string: '×paradisiaca'.", "Authors string looks like this: '×paradisiaca L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Musa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa paradisiaca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474656", "full_name_plain": "Musa × paradisiaca L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 149}}</t>
         </is>
       </c>
     </row>
@@ -16715,35 +17095,35 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>wfo-4000025011</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>wfo-0000474656</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>Musa × paradisiaca L.</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>Musa acuminata Colla | Musa × alinsanaya R.V.Valmayor | Musa arfakiana Argent | Musa argentii Gogoi &amp; Borah | Musa arunachalensis A.Joe, Sreejith &amp; M.Sabu | Musa aurantiaca G.Mann ex Baker | Musa azizii Häkkinen | Musa balbisiana Colla | Musa banksii F.Muell. | Musa barioensis Häkkinen | Musa basjoo Siebold &amp; Zucc. ex Iinuma | Musa bauensis Häkkinen &amp; Meekiong | Musa beccarii N.W.Simmonds | Musa boman Argent | Musa borneensis Becc. | Musa bukensis Argent | Musa campestris Becc. | Musa celebica Warb. ex K.Schum. | Musa cheesmanii N.W.Simmonds | Musa chunii Häkkinen | Musa coccinea Andrews | Musa corneri Holttum | Musa cylindrica A.Joe, Sreejith &amp; M.Sabu | Musa exotica R.V.Valmayor | Musa fitzalanii F.Muell. | Musa flaviflora N.W.Simmonds | Musa × formobisiana H.L.Chiu, C.T.Shii &amp; T.Y.A.Yang | Musa gracilis Holttum | Musa griersonii Noltie | Musa haekkinenii N.S.Lý &amp; Haev. | Musa hirta Becc. | Musa ingens N.W.Simmonds | Musa insularimontana Hayata | Musa itinerans Cheesman | Musa jackeyi W.Hill | Musa johnsii Argent | Musa juwiniana Meekiong, Ipor &amp; Tawan | Musa kamengensis Gogoi &amp; Häkkinen | Musa kattuvazhana K.C.Jacob | Musa lanceolata Warb. ex K.Schum. | Musa lawitiensis Nasution &amp; Supard. | Musa lokok Geri &amp; Ng | Musa lolodensis Cheesman | Musa lutea R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa maclayi F.Muell. | Musa mannii H.Wendl. ex Baker | Musa markkuana (M.Sabu, A.Joe &amp; Sreejith) Hareesh, A.Joe &amp; M.Sabu | Musa markkui Gogoi &amp; Borah | Musa monticola M.Hotta ex Argent | Musa muluensis M.Hotta | Musa nagalandiana S.Dey &amp; Gogoi | Musa nagensium Prain | Musa nanensis Swangpol &amp; Traiperm | Musa ochracea K.Sheph. | Musa ornata Roxb. | Musa paracoccinea A.Z.Liu &amp; D.Z.Li | Musa × paradisiaca L. | Musa × parahaekkinenii Smisha &amp; M.Sabu | Musa peekelii Lauterb. | Musa puspanjaliae Gogoi &amp; Häkkinen | Musa rosea Baker | Musa rubida Holttum | Musa rubinea Häkkinen &amp; C.H.Teo | Musa rubra Wall. ex Kurz | Musa ruiliensis W.N.Chen, Häkkinen &amp; X.J.Ge | Musa sabuana K.Prasad, A.Joe, Bheem. &amp; B.R.P.Rao | Musa sakaiana Meekiong, Ipor &amp; Tawan | Musa salaccensis Zoll. | Musa sanguinea Hook.f. | Musa schizocarpa N.W.Simmonds | Musa serpentina Swangpol &amp; Somana | Musa shankarii Subba Rao &amp; Kumari | Musa siamensis Häkkinen &amp; Rich.H.Wallace | Musa sikkimensis Kurz | Musa splendida A.Chev. | Musa textilis Née | Musa thomsonii King ex A.M.Cowan &amp; Cowan | Musa tonkinensis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa troglodytarum L. | Musa tuberculata M.Hotta | Musa velutina H.Wendl. &amp; Drude | Musa violascens Ridl. | Musa viridis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa voonii Häkkinen | Musa yamiensis C.L.Yeh &amp; J.H.Chen | Musa yunnanensis Häkkinen &amp; H.Wang | Musa zaifui Häkkinen &amp; H.Wang | Musa acicularis G.Forst. | Musa balbisiana var. bhutanensis P.Gyeltshen | Musa basjoo Siebold ex Miq. | Musa berdiri (C.K.Lim &amp; Meekiong) C.K.Lim &amp; Meekiong | Musa bracteata S.S.Singh, Gajurel &amp; Taid | Musa cinerea hort. ex Gentil | Musa coarctata G.Forst. | Musa coriacea G.Forst. | Musa corniculata G.Forst. | Musa corniculata Kurz | Musa dorsata G.Forst. | Musa exsucca G.Forst. | Musa fatua G.Forst. | Musa granulosa G.Forst. | Musa lacatan hort. ex Gentil | Musa lunaris G.Forst. | Musa martreti A.Chev. | Musa mensaria G.Forst. | Musa nana Lour. | Musa papillosa G.Forst. | Musa paradisiaca subsp. sapientum (L.) Kuntze ex K.Schum. | Musa paradisiaca subsp. seminifera (Lour.) Baker | Musa paradisiaca subsp. seminifera (Lour.) K.Schum. | Musa paradisiaca var. regia (Baker) K.Schum. | Musa pradhanii A.Joe &amp; M.Sabu | Musa pumila G.Forst. | Musa punctata G.Forst. | Musa purpurascens G.Forst. | Musa putei-gentu Meekiong &amp; Anis Sabrina | Musa regia G.Forst. | Musa rhodochlamys hort. ex Gentil | Musa riperti A.Chev. | Musa riperti A.Chev., Hutch. &amp; Dalziel | Musa sapientum subsp. seminifera (Lour.) Baker | Musa sect. Mulimusa Z.H.Feng | Musa sect. Myriocarpae Nakai | Musa sect. Paradisiacae Nakai | Musa sect. Salaccenses Nakai | Musa seminifera Lour. | Musa siangensis Taid, S.S.Singh &amp; Gajurel | Musa simiarum var. sylvestris Kurz | Musa sinensis Sweet ex Duch. | Musa subg. Columnomusa Nakai | Musa subg. Corniculata Nakai | Musa subg. Episeptalia Nakai | Musa subg. Fibrimusa Nakai | Musa subg. Pallidimusa Nakai | Musa subg. Pictochlamys Nakai | Musa subg. Platyplacentaria Nakai | Musa subg. Spermomusa Nakai | Musa subsect. Euparadisiacae Nakai | Musa subsect. Megalocarpae Nakai | Musa subsect. Microcarpae Nakai | Musa subsect. Mirabiles Nakai | Musa subsect. Nanae Nakai | Musa swarnaphalya Uma, Saraswathi &amp; Durai | Musa tetragona G.Forst.</t>
-        </is>
-      </c>
-      <c r="AA132" t="n">
-        <v>144</v>
-      </c>
-      <c r="AB132" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+          <t>Musa × paradisiaca L.</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>Karkandela malabarica Raf. | Musa acutibracteata M.Hotta | Musa alphurica Miq. | Musa aphurica Rumph. ex Sagot | Musa bacoba Rottb. | Musa berteroi Colla | Musa bidigitalis De Wild. | Musa carolinae Sterler | Musa chapara Perr. | Musa chiliocarpa Backer ex K.Heyne | Musa consociata Nakai | Musa corbieri A.Chev. | Musa corniculata Lour. | Musa dacca Horan. | Musa decrescens De Briey ex De Wild. | Musa dulcissima Nakai | Musa emasculata De Briey ex De Wild. | Musa humilis Perr. | Musa ingrata Nakai | Musa jaheri Nakai | Musa maculata Jacq. | Musa megalocarpa Nakai | Musa mensaria Moench | Musa mirabilis Nakai | Musa nigra Perr. | Musa odorata Lour. | Musa oleracea Vieill. | Musa pallida Nakai | Musa paradisiaca var. champa (Baker) K.Schum. | Musa paradisiaca var. cinerea Blanco | Musa paradisiaca var. compressa Blanco | Musa paradisiaca var. dacca (Horan.) K.Schum. | Musa paradisiaca var. glaberrima Blanco | Musa paradisiaca var. glauca Blanco | Musa paradisiaca var. lacatan Blanco | Musa paradisiaca var. longa Blanco | Musa paradisiaca var. magna Blanco | Musa paradisiaca var. martabarica (Baker) K.Schum. | Musa paradisiaca var. maxima Blanco | Musa paradisiaca var. mensaria (Baker) K.Schum. | Musa paradisiaca subsp. normalis Kuntze | Musa paradisiaca var. odorata (Lour.) K.Schum. | Musa paradisiaca var. oleracea (Vieill.) K.Schum. | Musa paradisiaca var. rubra (Firminger ex Baker) K.Schum. | Musa paradisiaca var. sanguinea (Welw. ex Baker) K.Schum. | Musa paradisiaca subsp. sapientum (L.) Kuntze | Musa paradisiaca var. suaveolens Blanco | Musa paradisiaca var. subrubea Blanco | Musa paradisiaca var. ternatensis Blanco | Musa paradisiaca var. tombak Blanco | Musa paradisiaca var. ulnaris Blanco | Musa paradisiaca var. violacea (Baker) K.Schum. | Musa paradisiaca var. vittata (W.Ackm. ex Rodigas) K.Schum. | Musa polycarpa Nakai | Musa prematura Nakai | Musa protractorachis De Wild. | Musa purpureotomentosa De Wild. | Musa sapidisiaca K.C.Jacob | Musa sapientum L. | Musa sapientum var. americana N.G.Teodoro | Musa sapientum var. angao Quisumb. | Musa sapientum var. baca Quisumb. | Musa sapientum var. binutig N.G.Teodoro | Musa sapientum var. canara N.G.Teodoro | Musa sapientum var. canaya Quisumb. | Musa sapientum var. champa Baker | Musa sapientum var. cinerea (Blanco) N.G.Teodoro | Musa sapientum var. compressa (Blanco) N.G.Teodoro | Musa sapientum var. cubensis N.G.Teodoro | Musa sapientum var. dacca (Horan.) Baker | Musa sapientum var. daryao N.G.Teodoro | Musa sapientum var. dinalaga Quisumb. | Musa sapientum var. dool Quisumb. | Musa sapientum var. eda Quisumb. | Musa sapientum var. flabellata Quisumb. | Musa sapientum var. galatayan Quisumb. | Musa sapientum var. garangao N.G.Teodoro | Musa sapientum var. glaberrima (Blanco) N.G.Teodoro | Musa sapientum var. glauca (Blanco) N.G.Teodoro | Musa sapientum var. grandis N.G.Teodoro | Musa sapientum var. humilis Merr. | Musa sapientum var. inarnibal N.G.Teodoro | Musa sapientum var. kinamay Quisumb. | Musa sapientum var. lacatan (Blanco) N.G.Teodoro | Musa sapientum var. longa (Blanco) N.G.Teodoro | Musa sapientum var. martabarica Baker | Musa sapientum var. mensaria Baker | Musa sapientum var. odorata (Lour.) Baker | Musa sapientum var. padilat Quisumb. | Musa sapientum var. pamotion Quisumb. | Musa sapientum var. pelipia Quisumb. | Musa sapientum var. principe Quisumb. | Musa sapientum var. putian Quisumb. | Musa sapientum var. raines Quisumb. | Musa sapientum var. regia Baker | Musa sapientum var. rubra Firminger ex Baker | Musa sapientum var. sanguinea Welw. ex Baker | Musa sapientum var. sarocsoc Quisumb. | Musa sapientum var. sision Quisumb. | Musa sapientum var. suaveolens (Blanco) N.G.Teodoro | Musa sapientum var. ternatensis (Blanco) N.G.Teodoro | Musa sapientum var. tombak (Blanco) N.G.Teodoro | Musa sapientum var. tudlong N.G.Teodoro | Musa sapientum var. tuldoc N.G.Teodoro | Musa sapientum var. violacea (Blanco) N.G.Teodoro | Musa sapientum var. vittata Hook. | Musa trichocarpa Nakai | Musa vittata G.W.Ackermann ex Rodigas | Musa arakanensis F.W.Ripley ex Blechynden | Musa champa Baker | Musa decrescens var. pembuki De Briey ex De Wild. | Musa decrescens var. viridis De Briey ex De Wild. | Musa decrescens var. rubromaculata De Briey ex De Wild. | Musa emasculata var. kiala De Briey ex De Wild. | Musa emasculata var. kimbende De Briey ex De Wild. | Musa emasculata var. lomba De Briey ex De Wild. | Musa emasculata var. zengani De Briey ex De Wild. | Musa paradisiaca var. bende De Briey ex De Wild. | Musa paradisiaca var. bilul De Briey ex De Wild. | Musa paradisiaca var. kitebbe De Briey ex De Wild. | Musa paradisiaca f. seluka De Briey ex De Wild. | Musa paradisiaca f. funu-nua De Briey ex De Wild. | Musa paradisiaca f. kilola De Briey ex De Wild. | Musa paradisiaca f. dongila De Briey ex De Wild. | Musa paradisiaca f. tuba De Briey ex De Wild. | Musa paradisiaca var. viridis De Briey ex De Wild. | Musa sapientum var. fieleto De Briey ex De Wild. | Musa sapientum var. satama De Briey ex De Wild. | Musa sapientum f. dubia King | Musa sapientum var. dubia (King) A.M.Cowan &amp; Cowan | Musa paradisiaca var. corniculata G.Forst. | Musa paradisiaca var. exsicca G.Forst. | Musa paradisiaca var. tetragona G.Forst. | Musa paradisiaca var. acicularis G.Forst. | Musa paradisiaca var. coriacea G.Forst. | Musa paradisiaca var. mensaria G.Forst. | Musa paradisiaca var. regia G.Forst. | Musa paradisiaca var. purpurascens G.Forst. | Musa paradisiaca var. punctata G.Forst. | Musa paradisiaca var. fatua G.Forst. | Musa paradisiaca var. coarctata G.Forst. | Musa paradisiaca var. papillosa G.Forst. | Musa paradisiaca var. lunaris G.Forst. | Musa discolor Planch. | Musa balbisiana var. vittata (Hook.) M.R.Almeida | Musa paradisiaca var. sapientum (L.) Kuntze | Musa sapientum subsp. paradisiaca (L.) Baker | Musa sapientum var. oleracea (Vieill.) Baker | Musa sapientum var. paradisiaca (L.) Baker</t>
+        </is>
+      </c>
+      <c r="AB132" t="n">
+        <v>149</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa ×paradisiaca L.", "wfo_id": "wfo-4000025011", "full_name_plain": "Musa L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word contains non alpha chars and so is start of author string: '×paradisiaca'.", "Authors string looks like this: '×paradisiaca L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Musa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa paradisiaca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474656", "full_name_plain": "Musa × paradisiaca L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 149}}</t>
         </is>
       </c>
     </row>
@@ -16844,35 +17224,35 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>wfo-4000025011</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>wfo-0000474656</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>Musa × paradisiaca L.</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>Musa acuminata Colla | Musa × alinsanaya R.V.Valmayor | Musa arfakiana Argent | Musa argentii Gogoi &amp; Borah | Musa arunachalensis A.Joe, Sreejith &amp; M.Sabu | Musa aurantiaca G.Mann ex Baker | Musa azizii Häkkinen | Musa balbisiana Colla | Musa banksii F.Muell. | Musa barioensis Häkkinen | Musa basjoo Siebold &amp; Zucc. ex Iinuma | Musa bauensis Häkkinen &amp; Meekiong | Musa beccarii N.W.Simmonds | Musa boman Argent | Musa borneensis Becc. | Musa bukensis Argent | Musa campestris Becc. | Musa celebica Warb. ex K.Schum. | Musa cheesmanii N.W.Simmonds | Musa chunii Häkkinen | Musa coccinea Andrews | Musa corneri Holttum | Musa cylindrica A.Joe, Sreejith &amp; M.Sabu | Musa exotica R.V.Valmayor | Musa fitzalanii F.Muell. | Musa flaviflora N.W.Simmonds | Musa × formobisiana H.L.Chiu, C.T.Shii &amp; T.Y.A.Yang | Musa gracilis Holttum | Musa griersonii Noltie | Musa haekkinenii N.S.Lý &amp; Haev. | Musa hirta Becc. | Musa ingens N.W.Simmonds | Musa insularimontana Hayata | Musa itinerans Cheesman | Musa jackeyi W.Hill | Musa johnsii Argent | Musa juwiniana Meekiong, Ipor &amp; Tawan | Musa kamengensis Gogoi &amp; Häkkinen | Musa kattuvazhana K.C.Jacob | Musa lanceolata Warb. ex K.Schum. | Musa lawitiensis Nasution &amp; Supard. | Musa lokok Geri &amp; Ng | Musa lolodensis Cheesman | Musa lutea R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa maclayi F.Muell. | Musa mannii H.Wendl. ex Baker | Musa markkuana (M.Sabu, A.Joe &amp; Sreejith) Hareesh, A.Joe &amp; M.Sabu | Musa markkui Gogoi &amp; Borah | Musa monticola M.Hotta ex Argent | Musa muluensis M.Hotta | Musa nagalandiana S.Dey &amp; Gogoi | Musa nagensium Prain | Musa nanensis Swangpol &amp; Traiperm | Musa ochracea K.Sheph. | Musa ornata Roxb. | Musa paracoccinea A.Z.Liu &amp; D.Z.Li | Musa × paradisiaca L. | Musa × parahaekkinenii Smisha &amp; M.Sabu | Musa peekelii Lauterb. | Musa puspanjaliae Gogoi &amp; Häkkinen | Musa rosea Baker | Musa rubida Holttum | Musa rubinea Häkkinen &amp; C.H.Teo | Musa rubra Wall. ex Kurz | Musa ruiliensis W.N.Chen, Häkkinen &amp; X.J.Ge | Musa sabuana K.Prasad, A.Joe, Bheem. &amp; B.R.P.Rao | Musa sakaiana Meekiong, Ipor &amp; Tawan | Musa salaccensis Zoll. | Musa sanguinea Hook.f. | Musa schizocarpa N.W.Simmonds | Musa serpentina Swangpol &amp; Somana | Musa shankarii Subba Rao &amp; Kumari | Musa siamensis Häkkinen &amp; Rich.H.Wallace | Musa sikkimensis Kurz | Musa splendida A.Chev. | Musa textilis Née | Musa thomsonii King ex A.M.Cowan &amp; Cowan | Musa tonkinensis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa troglodytarum L. | Musa tuberculata M.Hotta | Musa velutina H.Wendl. &amp; Drude | Musa violascens Ridl. | Musa viridis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa voonii Häkkinen | Musa yamiensis C.L.Yeh &amp; J.H.Chen | Musa yunnanensis Häkkinen &amp; H.Wang | Musa zaifui Häkkinen &amp; H.Wang | Musa acicularis G.Forst. | Musa balbisiana var. bhutanensis P.Gyeltshen | Musa basjoo Siebold ex Miq. | Musa berdiri (C.K.Lim &amp; Meekiong) C.K.Lim &amp; Meekiong | Musa bracteata S.S.Singh, Gajurel &amp; Taid | Musa cinerea hort. ex Gentil | Musa coarctata G.Forst. | Musa coriacea G.Forst. | Musa corniculata G.Forst. | Musa corniculata Kurz | Musa dorsata G.Forst. | Musa exsucca G.Forst. | Musa fatua G.Forst. | Musa granulosa G.Forst. | Musa lacatan hort. ex Gentil | Musa lunaris G.Forst. | Musa martreti A.Chev. | Musa mensaria G.Forst. | Musa nana Lour. | Musa papillosa G.Forst. | Musa paradisiaca subsp. sapientum (L.) Kuntze ex K.Schum. | Musa paradisiaca subsp. seminifera (Lour.) Baker | Musa paradisiaca subsp. seminifera (Lour.) K.Schum. | Musa paradisiaca var. regia (Baker) K.Schum. | Musa pradhanii A.Joe &amp; M.Sabu | Musa pumila G.Forst. | Musa punctata G.Forst. | Musa purpurascens G.Forst. | Musa putei-gentu Meekiong &amp; Anis Sabrina | Musa regia G.Forst. | Musa rhodochlamys hort. ex Gentil | Musa riperti A.Chev. | Musa riperti A.Chev., Hutch. &amp; Dalziel | Musa sapientum subsp. seminifera (Lour.) Baker | Musa sect. Mulimusa Z.H.Feng | Musa sect. Myriocarpae Nakai | Musa sect. Paradisiacae Nakai | Musa sect. Salaccenses Nakai | Musa seminifera Lour. | Musa siangensis Taid, S.S.Singh &amp; Gajurel | Musa simiarum var. sylvestris Kurz | Musa sinensis Sweet ex Duch. | Musa subg. Columnomusa Nakai | Musa subg. Corniculata Nakai | Musa subg. Episeptalia Nakai | Musa subg. Fibrimusa Nakai | Musa subg. Pallidimusa Nakai | Musa subg. Pictochlamys Nakai | Musa subg. Platyplacentaria Nakai | Musa subg. Spermomusa Nakai | Musa subsect. Euparadisiacae Nakai | Musa subsect. Megalocarpae Nakai | Musa subsect. Microcarpae Nakai | Musa subsect. Mirabiles Nakai | Musa subsect. Nanae Nakai | Musa swarnaphalya Uma, Saraswathi &amp; Durai | Musa tetragona G.Forst.</t>
-        </is>
-      </c>
-      <c r="AA133" t="n">
-        <v>144</v>
-      </c>
-      <c r="AB133" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+          <t>Musa × paradisiaca L.</t>
+        </is>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>Karkandela malabarica Raf. | Musa acutibracteata M.Hotta | Musa alphurica Miq. | Musa aphurica Rumph. ex Sagot | Musa bacoba Rottb. | Musa berteroi Colla | Musa bidigitalis De Wild. | Musa carolinae Sterler | Musa chapara Perr. | Musa chiliocarpa Backer ex K.Heyne | Musa consociata Nakai | Musa corbieri A.Chev. | Musa corniculata Lour. | Musa dacca Horan. | Musa decrescens De Briey ex De Wild. | Musa dulcissima Nakai | Musa emasculata De Briey ex De Wild. | Musa humilis Perr. | Musa ingrata Nakai | Musa jaheri Nakai | Musa maculata Jacq. | Musa megalocarpa Nakai | Musa mensaria Moench | Musa mirabilis Nakai | Musa nigra Perr. | Musa odorata Lour. | Musa oleracea Vieill. | Musa pallida Nakai | Musa paradisiaca var. champa (Baker) K.Schum. | Musa paradisiaca var. cinerea Blanco | Musa paradisiaca var. compressa Blanco | Musa paradisiaca var. dacca (Horan.) K.Schum. | Musa paradisiaca var. glaberrima Blanco | Musa paradisiaca var. glauca Blanco | Musa paradisiaca var. lacatan Blanco | Musa paradisiaca var. longa Blanco | Musa paradisiaca var. magna Blanco | Musa paradisiaca var. martabarica (Baker) K.Schum. | Musa paradisiaca var. maxima Blanco | Musa paradisiaca var. mensaria (Baker) K.Schum. | Musa paradisiaca subsp. normalis Kuntze | Musa paradisiaca var. odorata (Lour.) K.Schum. | Musa paradisiaca var. oleracea (Vieill.) K.Schum. | Musa paradisiaca var. rubra (Firminger ex Baker) K.Schum. | Musa paradisiaca var. sanguinea (Welw. ex Baker) K.Schum. | Musa paradisiaca subsp. sapientum (L.) Kuntze | Musa paradisiaca var. suaveolens Blanco | Musa paradisiaca var. subrubea Blanco | Musa paradisiaca var. ternatensis Blanco | Musa paradisiaca var. tombak Blanco | Musa paradisiaca var. ulnaris Blanco | Musa paradisiaca var. violacea (Baker) K.Schum. | Musa paradisiaca var. vittata (W.Ackm. ex Rodigas) K.Schum. | Musa polycarpa Nakai | Musa prematura Nakai | Musa protractorachis De Wild. | Musa purpureotomentosa De Wild. | Musa sapidisiaca K.C.Jacob | Musa sapientum L. | Musa sapientum var. americana N.G.Teodoro | Musa sapientum var. angao Quisumb. | Musa sapientum var. baca Quisumb. | Musa sapientum var. binutig N.G.Teodoro | Musa sapientum var. canara N.G.Teodoro | Musa sapientum var. canaya Quisumb. | Musa sapientum var. champa Baker | Musa sapientum var. cinerea (Blanco) N.G.Teodoro | Musa sapientum var. compressa (Blanco) N.G.Teodoro | Musa sapientum var. cubensis N.G.Teodoro | Musa sapientum var. dacca (Horan.) Baker | Musa sapientum var. daryao N.G.Teodoro | Musa sapientum var. dinalaga Quisumb. | Musa sapientum var. dool Quisumb. | Musa sapientum var. eda Quisumb. | Musa sapientum var. flabellata Quisumb. | Musa sapientum var. galatayan Quisumb. | Musa sapientum var. garangao N.G.Teodoro | Musa sapientum var. glaberrima (Blanco) N.G.Teodoro | Musa sapientum var. glauca (Blanco) N.G.Teodoro | Musa sapientum var. grandis N.G.Teodoro | Musa sapientum var. humilis Merr. | Musa sapientum var. inarnibal N.G.Teodoro | Musa sapientum var. kinamay Quisumb. | Musa sapientum var. lacatan (Blanco) N.G.Teodoro | Musa sapientum var. longa (Blanco) N.G.Teodoro | Musa sapientum var. martabarica Baker | Musa sapientum var. mensaria Baker | Musa sapientum var. odorata (Lour.) Baker | Musa sapientum var. padilat Quisumb. | Musa sapientum var. pamotion Quisumb. | Musa sapientum var. pelipia Quisumb. | Musa sapientum var. principe Quisumb. | Musa sapientum var. putian Quisumb. | Musa sapientum var. raines Quisumb. | Musa sapientum var. regia Baker | Musa sapientum var. rubra Firminger ex Baker | Musa sapientum var. sanguinea Welw. ex Baker | Musa sapientum var. sarocsoc Quisumb. | Musa sapientum var. sision Quisumb. | Musa sapientum var. suaveolens (Blanco) N.G.Teodoro | Musa sapientum var. ternatensis (Blanco) N.G.Teodoro | Musa sapientum var. tombak (Blanco) N.G.Teodoro | Musa sapientum var. tudlong N.G.Teodoro | Musa sapientum var. tuldoc N.G.Teodoro | Musa sapientum var. violacea (Blanco) N.G.Teodoro | Musa sapientum var. vittata Hook. | Musa trichocarpa Nakai | Musa vittata G.W.Ackermann ex Rodigas | Musa arakanensis F.W.Ripley ex Blechynden | Musa champa Baker | Musa decrescens var. pembuki De Briey ex De Wild. | Musa decrescens var. viridis De Briey ex De Wild. | Musa decrescens var. rubromaculata De Briey ex De Wild. | Musa emasculata var. kiala De Briey ex De Wild. | Musa emasculata var. kimbende De Briey ex De Wild. | Musa emasculata var. lomba De Briey ex De Wild. | Musa emasculata var. zengani De Briey ex De Wild. | Musa paradisiaca var. bende De Briey ex De Wild. | Musa paradisiaca var. bilul De Briey ex De Wild. | Musa paradisiaca var. kitebbe De Briey ex De Wild. | Musa paradisiaca f. seluka De Briey ex De Wild. | Musa paradisiaca f. funu-nua De Briey ex De Wild. | Musa paradisiaca f. kilola De Briey ex De Wild. | Musa paradisiaca f. dongila De Briey ex De Wild. | Musa paradisiaca f. tuba De Briey ex De Wild. | Musa paradisiaca var. viridis De Briey ex De Wild. | Musa sapientum var. fieleto De Briey ex De Wild. | Musa sapientum var. satama De Briey ex De Wild. | Musa sapientum f. dubia King | Musa sapientum var. dubia (King) A.M.Cowan &amp; Cowan | Musa paradisiaca var. corniculata G.Forst. | Musa paradisiaca var. exsicca G.Forst. | Musa paradisiaca var. tetragona G.Forst. | Musa paradisiaca var. acicularis G.Forst. | Musa paradisiaca var. coriacea G.Forst. | Musa paradisiaca var. mensaria G.Forst. | Musa paradisiaca var. regia G.Forst. | Musa paradisiaca var. purpurascens G.Forst. | Musa paradisiaca var. punctata G.Forst. | Musa paradisiaca var. fatua G.Forst. | Musa paradisiaca var. coarctata G.Forst. | Musa paradisiaca var. papillosa G.Forst. | Musa paradisiaca var. lunaris G.Forst. | Musa discolor Planch. | Musa balbisiana var. vittata (Hook.) M.R.Almeida | Musa paradisiaca var. sapientum (L.) Kuntze | Musa sapientum subsp. paradisiaca (L.) Baker | Musa sapientum var. oleracea (Vieill.) Baker | Musa sapientum var. paradisiaca (L.) Baker</t>
+        </is>
+      </c>
+      <c r="AB133" t="n">
+        <v>149</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa ×paradisiaca L.", "wfo_id": "wfo-4000025011", "full_name_plain": "Musa L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word contains non alpha chars and so is start of author string: '×paradisiaca'.", "Authors string looks like this: '×paradisiaca L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Musa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa paradisiaca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474656", "full_name_plain": "Musa × paradisiaca L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 149}}</t>
         </is>
       </c>
     </row>
@@ -16961,31 +17341,31 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
+          <t>Musa seminifera</t>
+        </is>
+      </c>
+      <c r="X134" t="inlineStr">
+        <is>
           <t>wfo-0000475069</t>
         </is>
       </c>
-      <c r="X134" t="inlineStr">
+      <c r="Y134" t="inlineStr">
         <is>
           <t>Musa seminifera Lour.</t>
         </is>
       </c>
-      <c r="Y134" t="inlineStr">
+      <c r="Z134" t="inlineStr">
         <is>
           <t>Musa seminifera Lour.</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr"/>
-      <c r="AA134" t="n">
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="n">
         <v>0</v>
       </c>
-      <c r="AB134" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC134" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa seminifera Lour.", "wfo_id": "wfo-0000475069", "full_name_plain": "Musa seminifera Lour.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word is found in index and so is part of name: 'seminifera'.", "Word is lowercase. Subsequent words must start with lowercase: 'seminifera'.", "Word contains non alpha chars and so is start of author string: 'Lour.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'seminifera'", "Authors string looks like this: 'Lour.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Musa seminifera' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa seminifera", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000475069", "full_name_plain": "Musa seminifera Lour.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -17086,35 +17466,35 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>wfo-4000025011</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>wfo-0000474656</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>Musa L.</t>
+          <t>Musa × paradisiaca L.</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>Musa acuminata Colla | Musa × alinsanaya R.V.Valmayor | Musa arfakiana Argent | Musa argentii Gogoi &amp; Borah | Musa arunachalensis A.Joe, Sreejith &amp; M.Sabu | Musa aurantiaca G.Mann ex Baker | Musa azizii Häkkinen | Musa balbisiana Colla | Musa banksii F.Muell. | Musa barioensis Häkkinen | Musa basjoo Siebold &amp; Zucc. ex Iinuma | Musa bauensis Häkkinen &amp; Meekiong | Musa beccarii N.W.Simmonds | Musa boman Argent | Musa borneensis Becc. | Musa bukensis Argent | Musa campestris Becc. | Musa celebica Warb. ex K.Schum. | Musa cheesmanii N.W.Simmonds | Musa chunii Häkkinen | Musa coccinea Andrews | Musa corneri Holttum | Musa cylindrica A.Joe, Sreejith &amp; M.Sabu | Musa exotica R.V.Valmayor | Musa fitzalanii F.Muell. | Musa flaviflora N.W.Simmonds | Musa × formobisiana H.L.Chiu, C.T.Shii &amp; T.Y.A.Yang | Musa gracilis Holttum | Musa griersonii Noltie | Musa haekkinenii N.S.Lý &amp; Haev. | Musa hirta Becc. | Musa ingens N.W.Simmonds | Musa insularimontana Hayata | Musa itinerans Cheesman | Musa jackeyi W.Hill | Musa johnsii Argent | Musa juwiniana Meekiong, Ipor &amp; Tawan | Musa kamengensis Gogoi &amp; Häkkinen | Musa kattuvazhana K.C.Jacob | Musa lanceolata Warb. ex K.Schum. | Musa lawitiensis Nasution &amp; Supard. | Musa lokok Geri &amp; Ng | Musa lolodensis Cheesman | Musa lutea R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa maclayi F.Muell. | Musa mannii H.Wendl. ex Baker | Musa markkuana (M.Sabu, A.Joe &amp; Sreejith) Hareesh, A.Joe &amp; M.Sabu | Musa markkui Gogoi &amp; Borah | Musa monticola M.Hotta ex Argent | Musa muluensis M.Hotta | Musa nagalandiana S.Dey &amp; Gogoi | Musa nagensium Prain | Musa nanensis Swangpol &amp; Traiperm | Musa ochracea K.Sheph. | Musa ornata Roxb. | Musa paracoccinea A.Z.Liu &amp; D.Z.Li | Musa × paradisiaca L. | Musa × parahaekkinenii Smisha &amp; M.Sabu | Musa peekelii Lauterb. | Musa puspanjaliae Gogoi &amp; Häkkinen | Musa rosea Baker | Musa rubida Holttum | Musa rubinea Häkkinen &amp; C.H.Teo | Musa rubra Wall. ex Kurz | Musa ruiliensis W.N.Chen, Häkkinen &amp; X.J.Ge | Musa sabuana K.Prasad, A.Joe, Bheem. &amp; B.R.P.Rao | Musa sakaiana Meekiong, Ipor &amp; Tawan | Musa salaccensis Zoll. | Musa sanguinea Hook.f. | Musa schizocarpa N.W.Simmonds | Musa serpentina Swangpol &amp; Somana | Musa shankarii Subba Rao &amp; Kumari | Musa siamensis Häkkinen &amp; Rich.H.Wallace | Musa sikkimensis Kurz | Musa splendida A.Chev. | Musa textilis Née | Musa thomsonii King ex A.M.Cowan &amp; Cowan | Musa tonkinensis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa troglodytarum L. | Musa tuberculata M.Hotta | Musa velutina H.Wendl. &amp; Drude | Musa violascens Ridl. | Musa viridis R.V.Valmayor, L.D.Danh &amp; Häkkinen | Musa voonii Häkkinen | Musa yamiensis C.L.Yeh &amp; J.H.Chen | Musa yunnanensis Häkkinen &amp; H.Wang | Musa zaifui Häkkinen &amp; H.Wang | Musa acicularis G.Forst. | Musa balbisiana var. bhutanensis P.Gyeltshen | Musa basjoo Siebold ex Miq. | Musa berdiri (C.K.Lim &amp; Meekiong) C.K.Lim &amp; Meekiong | Musa bracteata S.S.Singh, Gajurel &amp; Taid | Musa cinerea hort. ex Gentil | Musa coarctata G.Forst. | Musa coriacea G.Forst. | Musa corniculata G.Forst. | Musa corniculata Kurz | Musa dorsata G.Forst. | Musa exsucca G.Forst. | Musa fatua G.Forst. | Musa granulosa G.Forst. | Musa lacatan hort. ex Gentil | Musa lunaris G.Forst. | Musa martreti A.Chev. | Musa mensaria G.Forst. | Musa nana Lour. | Musa papillosa G.Forst. | Musa paradisiaca subsp. sapientum (L.) Kuntze ex K.Schum. | Musa paradisiaca subsp. seminifera (Lour.) Baker | Musa paradisiaca subsp. seminifera (Lour.) K.Schum. | Musa paradisiaca var. regia (Baker) K.Schum. | Musa pradhanii A.Joe &amp; M.Sabu | Musa pumila G.Forst. | Musa punctata G.Forst. | Musa purpurascens G.Forst. | Musa putei-gentu Meekiong &amp; Anis Sabrina | Musa regia G.Forst. | Musa rhodochlamys hort. ex Gentil | Musa riperti A.Chev. | Musa riperti A.Chev., Hutch. &amp; Dalziel | Musa sapientum subsp. seminifera (Lour.) Baker | Musa sect. Mulimusa Z.H.Feng | Musa sect. Myriocarpae Nakai | Musa sect. Paradisiacae Nakai | Musa sect. Salaccenses Nakai | Musa seminifera Lour. | Musa siangensis Taid, S.S.Singh &amp; Gajurel | Musa simiarum var. sylvestris Kurz | Musa sinensis Sweet ex Duch. | Musa subg. Columnomusa Nakai | Musa subg. Corniculata Nakai | Musa subg. Episeptalia Nakai | Musa subg. Fibrimusa Nakai | Musa subg. Pallidimusa Nakai | Musa subg. Pictochlamys Nakai | Musa subg. Platyplacentaria Nakai | Musa subg. Spermomusa Nakai | Musa subsect. Euparadisiacae Nakai | Musa subsect. Megalocarpae Nakai | Musa subsect. Microcarpae Nakai | Musa subsect. Mirabiles Nakai | Musa subsect. Nanae Nakai | Musa swarnaphalya Uma, Saraswathi &amp; Durai | Musa tetragona G.Forst.</t>
-        </is>
-      </c>
-      <c r="AA135" t="n">
-        <v>144</v>
-      </c>
-      <c r="AB135" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+          <t>Musa × paradisiaca L.</t>
+        </is>
+      </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>Karkandela malabarica Raf. | Musa acutibracteata M.Hotta | Musa alphurica Miq. | Musa aphurica Rumph. ex Sagot | Musa bacoba Rottb. | Musa berteroi Colla | Musa bidigitalis De Wild. | Musa carolinae Sterler | Musa chapara Perr. | Musa chiliocarpa Backer ex K.Heyne | Musa consociata Nakai | Musa corbieri A.Chev. | Musa corniculata Lour. | Musa dacca Horan. | Musa decrescens De Briey ex De Wild. | Musa dulcissima Nakai | Musa emasculata De Briey ex De Wild. | Musa humilis Perr. | Musa ingrata Nakai | Musa jaheri Nakai | Musa maculata Jacq. | Musa megalocarpa Nakai | Musa mensaria Moench | Musa mirabilis Nakai | Musa nigra Perr. | Musa odorata Lour. | Musa oleracea Vieill. | Musa pallida Nakai | Musa paradisiaca var. champa (Baker) K.Schum. | Musa paradisiaca var. cinerea Blanco | Musa paradisiaca var. compressa Blanco | Musa paradisiaca var. dacca (Horan.) K.Schum. | Musa paradisiaca var. glaberrima Blanco | Musa paradisiaca var. glauca Blanco | Musa paradisiaca var. lacatan Blanco | Musa paradisiaca var. longa Blanco | Musa paradisiaca var. magna Blanco | Musa paradisiaca var. martabarica (Baker) K.Schum. | Musa paradisiaca var. maxima Blanco | Musa paradisiaca var. mensaria (Baker) K.Schum. | Musa paradisiaca subsp. normalis Kuntze | Musa paradisiaca var. odorata (Lour.) K.Schum. | Musa paradisiaca var. oleracea (Vieill.) K.Schum. | Musa paradisiaca var. rubra (Firminger ex Baker) K.Schum. | Musa paradisiaca var. sanguinea (Welw. ex Baker) K.Schum. | Musa paradisiaca subsp. sapientum (L.) Kuntze | Musa paradisiaca var. suaveolens Blanco | Musa paradisiaca var. subrubea Blanco | Musa paradisiaca var. ternatensis Blanco | Musa paradisiaca var. tombak Blanco | Musa paradisiaca var. ulnaris Blanco | Musa paradisiaca var. violacea (Baker) K.Schum. | Musa paradisiaca var. vittata (W.Ackm. ex Rodigas) K.Schum. | Musa polycarpa Nakai | Musa prematura Nakai | Musa protractorachis De Wild. | Musa purpureotomentosa De Wild. | Musa sapidisiaca K.C.Jacob | Musa sapientum L. | Musa sapientum var. americana N.G.Teodoro | Musa sapientum var. angao Quisumb. | Musa sapientum var. baca Quisumb. | Musa sapientum var. binutig N.G.Teodoro | Musa sapientum var. canara N.G.Teodoro | Musa sapientum var. canaya Quisumb. | Musa sapientum var. champa Baker | Musa sapientum var. cinerea (Blanco) N.G.Teodoro | Musa sapientum var. compressa (Blanco) N.G.Teodoro | Musa sapientum var. cubensis N.G.Teodoro | Musa sapientum var. dacca (Horan.) Baker | Musa sapientum var. daryao N.G.Teodoro | Musa sapientum var. dinalaga Quisumb. | Musa sapientum var. dool Quisumb. | Musa sapientum var. eda Quisumb. | Musa sapientum var. flabellata Quisumb. | Musa sapientum var. galatayan Quisumb. | Musa sapientum var. garangao N.G.Teodoro | Musa sapientum var. glaberrima (Blanco) N.G.Teodoro | Musa sapientum var. glauca (Blanco) N.G.Teodoro | Musa sapientum var. grandis N.G.Teodoro | Musa sapientum var. humilis Merr. | Musa sapientum var. inarnibal N.G.Teodoro | Musa sapientum var. kinamay Quisumb. | Musa sapientum var. lacatan (Blanco) N.G.Teodoro | Musa sapientum var. longa (Blanco) N.G.Teodoro | Musa sapientum var. martabarica Baker | Musa sapientum var. mensaria Baker | Musa sapientum var. odorata (Lour.) Baker | Musa sapientum var. padilat Quisumb. | Musa sapientum var. pamotion Quisumb. | Musa sapientum var. pelipia Quisumb. | Musa sapientum var. principe Quisumb. | Musa sapientum var. putian Quisumb. | Musa sapientum var. raines Quisumb. | Musa sapientum var. regia Baker | Musa sapientum var. rubra Firminger ex Baker | Musa sapientum var. sanguinea Welw. ex Baker | Musa sapientum var. sarocsoc Quisumb. | Musa sapientum var. sision Quisumb. | Musa sapientum var. suaveolens (Blanco) N.G.Teodoro | Musa sapientum var. ternatensis (Blanco) N.G.Teodoro | Musa sapientum var. tombak (Blanco) N.G.Teodoro | Musa sapientum var. tudlong N.G.Teodoro | Musa sapientum var. tuldoc N.G.Teodoro | Musa sapientum var. violacea (Blanco) N.G.Teodoro | Musa sapientum var. vittata Hook. | Musa trichocarpa Nakai | Musa vittata G.W.Ackermann ex Rodigas | Musa arakanensis F.W.Ripley ex Blechynden | Musa champa Baker | Musa decrescens var. pembuki De Briey ex De Wild. | Musa decrescens var. viridis De Briey ex De Wild. | Musa decrescens var. rubromaculata De Briey ex De Wild. | Musa emasculata var. kiala De Briey ex De Wild. | Musa emasculata var. kimbende De Briey ex De Wild. | Musa emasculata var. lomba De Briey ex De Wild. | Musa emasculata var. zengani De Briey ex De Wild. | Musa paradisiaca var. bende De Briey ex De Wild. | Musa paradisiaca var. bilul De Briey ex De Wild. | Musa paradisiaca var. kitebbe De Briey ex De Wild. | Musa paradisiaca f. seluka De Briey ex De Wild. | Musa paradisiaca f. funu-nua De Briey ex De Wild. | Musa paradisiaca f. kilola De Briey ex De Wild. | Musa paradisiaca f. dongila De Briey ex De Wild. | Musa paradisiaca f. tuba De Briey ex De Wild. | Musa paradisiaca var. viridis De Briey ex De Wild. | Musa sapientum var. fieleto De Briey ex De Wild. | Musa sapientum var. satama De Briey ex De Wild. | Musa sapientum f. dubia King | Musa sapientum var. dubia (King) A.M.Cowan &amp; Cowan | Musa paradisiaca var. corniculata G.Forst. | Musa paradisiaca var. exsicca G.Forst. | Musa paradisiaca var. tetragona G.Forst. | Musa paradisiaca var. acicularis G.Forst. | Musa paradisiaca var. coriacea G.Forst. | Musa paradisiaca var. mensaria G.Forst. | Musa paradisiaca var. regia G.Forst. | Musa paradisiaca var. purpurascens G.Forst. | Musa paradisiaca var. punctata G.Forst. | Musa paradisiaca var. fatua G.Forst. | Musa paradisiaca var. coarctata G.Forst. | Musa paradisiaca var. papillosa G.Forst. | Musa paradisiaca var. lunaris G.Forst. | Musa discolor Planch. | Musa balbisiana var. vittata (Hook.) M.R.Almeida | Musa paradisiaca var. sapientum (L.) Kuntze | Musa sapientum subsp. paradisiaca (L.) Baker | Musa sapientum var. oleracea (Vieill.) Baker | Musa sapientum var. paradisiaca (L.) Baker</t>
+        </is>
+      </c>
+      <c r="AB135" t="n">
+        <v>149</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Musa ×paradisiaca L.", "wfo_id": "wfo-4000025011", "full_name_plain": "Musa L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Musa'", "Word contains non alpha chars and so is start of author string: '×paradisiaca'.", "Authors string looks like this: '×paradisiaca L.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Musa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Musa paradisiaca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000474656", "full_name_plain": "Musa × paradisiaca L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 149}}</t>
         </is>
       </c>
     </row>
@@ -17207,35 +17587,35 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
+          <t>Nautilocalyx lynchii</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
           <t>wfo-0001064811</t>
         </is>
       </c>
-      <c r="X136" t="inlineStr">
+      <c r="Y136" t="inlineStr">
         <is>
           <t>Nautilocalyx lynchii (Hook.f.) Sprague</t>
         </is>
       </c>
-      <c r="Y136" t="inlineStr">
+      <c r="Z136" t="inlineStr">
         <is>
           <t>Nautilocalyx lynchii (Hook.f.) Sprague</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr">
+      <c r="AA136" t="inlineStr">
         <is>
           <t>Alloplectus discolor Hook.f. | Alloplectus lynchei Hook.f. | Episcia lynchii (Hook.f.) Knuth | Alloplectus lynchii Hook.f.</t>
         </is>
       </c>
-      <c r="AA136" t="n">
+      <c r="AB136" t="n">
         <v>4</v>
       </c>
-      <c r="AB136" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Nautilocalyx lynchii (Hook.fil.) Sprague", "wfo_id": "wfo-0001064811", "full_name_plain": "Nautilocalyx lynchii (Hook.f.) Sprague", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Nautilocalyx'", "Word is found in index and so is part of name: 'lynchii'.", "Word is lowercase. Subsequent words must start with lowercase: 'lynchii'.", "Word contains non alpha chars and so is start of author string: '(Hook.fil.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'lynchii'", "Authors string looks like this: '(Hook.fil.) Sprague'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Nautilocalyx lynchii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Nautilocalyx lynchii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001064811", "full_name_plain": "Nautilocalyx lynchii (Hook.f.) Sprague", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -17336,35 +17716,35 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
+          <t>Neptunia plena</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
           <t>wfo-0000174148</t>
         </is>
       </c>
-      <c r="X137" t="inlineStr">
+      <c r="Y137" t="inlineStr">
         <is>
           <t>Neptunia plena (L.) Benth.</t>
         </is>
       </c>
-      <c r="Y137" t="inlineStr">
+      <c r="Z137" t="inlineStr">
         <is>
           <t>Neptunia plena (L.) Benth.</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
+      <c r="AA137" t="inlineStr">
         <is>
           <t>Acacia punctata (L.) Desf. | Mimosa punctata L. | Neptunia polyphylla (DC.) Benth. | Mimosa adenanthera Roxb. | Neptunia surinamensis Steud. | Desmanthus comosus A.Rich. | Desmanthus plenus (L.) Willd. | Desmanthus polyphyllus DC. | Desmanthus punctatus (L.) Willd. | Acacia lycopodioides (Desf. ex F.Dietr.) Desv. | Mimosa plena L. | Mimosa lycopodioides Desf. | Desmanthus adenanthera (Roxb.) Wall. | Hemidesmas diffusus Raf. | Hemidesmas plenus (L.) Raf. | Acuan arboreum Medik. | Neptunia plena f. lumbricoides Fassett | Mimosa lycopodioides Desf. ex F.Dietr.</t>
         </is>
       </c>
-      <c r="AA137" t="n">
+      <c r="AB137" t="n">
         <v>18</v>
       </c>
-      <c r="AB137" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Neptunia plena (L.) Benth.", "wfo_id": "wfo-0000174148", "full_name_plain": "Neptunia plena (L.) Benth.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Neptunia'", "Word is found in index and so is part of name: 'plena'.", "Word is lowercase. Subsequent words must start with lowercase: 'plena'.", "Word contains non alpha chars and so is start of author string: '(L.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'plena'", "Authors string looks like this: '(L.) Benth.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Neptunia plena' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Neptunia plena", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000174148", "full_name_plain": "Neptunia plena (L.) Benth.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 18}}</t>
         </is>
       </c>
     </row>
@@ -17465,35 +17845,35 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
+          <t>Oxalis triangularis</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
           <t>wfo-0001089468</t>
         </is>
       </c>
-      <c r="X138" t="inlineStr">
+      <c r="Y138" t="inlineStr">
         <is>
           <t>Oxalis triangularis A.St.-Hil.</t>
         </is>
       </c>
-      <c r="Y138" t="inlineStr">
+      <c r="Z138" t="inlineStr">
         <is>
           <t>Oxalis triangularis A.St.-Hil.</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr">
+      <c r="AA138" t="inlineStr">
         <is>
           <t>Oxalis truncata Willd. ex Zucc. | Acetosella oxyptera (Progel) Kuntze | Acetosella papilionacea (Hoffmanns. ex Zucc.) Kuntze | Acetosella regnellii (Miq.) Kuntze | Acetosella triangularis (A.St.-Hil.) Kuntze | Acetosella yapacaniensis (K.Schum.) Kuntze | Oxalis palustris A.St.-Hil. | Oxalis papilionacea Hoffmanns. ex Zucc. | Oxalis regnellii Miq. | Oxalis triangularis subsp. papilionacea (Hoffmanns. ex Zucc.) Lourteig | Oxalis delta Vell. | Oxalis oxyptera Progel | Oxalis venturiana R.Knuth | Oxalis vernalis Fredr. ex Norlind | Oxalis triangularis subsp. triangularis | Oxalis glaberrima Norlind | Oxalis tenuiscaposa R.Knuth | Oxalis yapacaniensis K.Schum. | Oxalis catharinensis N.E.Br. | Oxalis corumbaensis Hoehne | Oxalis palustris var. major A.St.-Hil. | Oxalis regnellii var. catharinensis (N.E.Br.) Norlind | Oxalis triangularis f. glabrifolia Chodat | Oxalis triangularis var. lepida Progel | Acetosella palustris (A.St.-Hil.) Kuntze | Acetosella catharinensis (N.E.Br.) Kuntze</t>
         </is>
       </c>
-      <c r="AA138" t="n">
+      <c r="AB138" t="n">
         <v>26</v>
       </c>
-      <c r="AB138" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC138" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Oxalis triangularis A.St.-Hil.", "wfo_id": "wfo-0001089468", "full_name_plain": "Oxalis triangularis A.St.-Hil.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Oxalis'", "Word is found in index and so is part of name: 'triangularis'.", "Word is lowercase. Subsequent words must start with lowercase: 'triangularis'.", "Word contains non alpha chars and so is start of author string: 'A.St.-Hil.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'triangularis'", "Authors string looks like this: 'A.St.-Hil.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Oxalis triangularis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Oxalis triangularis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001089468", "full_name_plain": "Oxalis triangularis A.St.-Hil.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 26}}</t>
         </is>
       </c>
     </row>
@@ -17586,35 +17966,35 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
+          <t>Pachira insignis</t>
+        </is>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
           <t>wfo-0000397363</t>
         </is>
       </c>
-      <c r="X139" t="inlineStr">
+      <c r="Y139" t="inlineStr">
         <is>
           <t>Pachira insignis (Sw.) Savigny</t>
         </is>
       </c>
-      <c r="Y139" t="inlineStr">
+      <c r="Z139" t="inlineStr">
         <is>
           <t>Pachira insignis (Sw.) Savigny</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
+      <c r="AA139" t="inlineStr">
         <is>
           <t>Pachira loddigesii Decne. | Pachira affinis (Mart.) Decne. | Bombax affine (Mart.) Ducke | Bombax insigne (Sw.) K.Schum. | Bombax spectabile Ulbr. | Bombax spruceanum (Decne.) Ducke | Carolinea affinis Mart. | Carolinea insignis Sw. | Pachira spruceana Decne.</t>
         </is>
       </c>
-      <c r="AA139" t="n">
+      <c r="AB139" t="n">
         <v>9</v>
       </c>
-      <c r="AB139" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC139" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Pachira insignis (Sw.) Sav.", "wfo_id": "wfo-0000397363", "full_name_plain": "Pachira insignis (Sw.) Savigny", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Pachira'", "Word is found in index and so is part of name: 'insignis'.", "Word is lowercase. Subsequent words must start with lowercase: 'insignis'.", "Word contains non alpha chars and so is start of author string: '(Sw.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'insignis'", "Authors string looks like this: '(Sw.) Sav.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Pachira insignis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Pachira insignis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000397363", "full_name_plain": "Pachira insignis (Sw.) Savigny", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 9}}</t>
         </is>
       </c>
     </row>
@@ -17715,35 +18095,35 @@
       </c>
       <c r="W140" t="inlineStr">
         <is>
+          <t>Pachira aquatica</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
           <t>wfo-0000397427</t>
         </is>
       </c>
-      <c r="X140" t="inlineStr">
+      <c r="Y140" t="inlineStr">
         <is>
           <t>Pachira aquatica Aubl.</t>
         </is>
       </c>
-      <c r="Y140" t="inlineStr">
+      <c r="Z140" t="inlineStr">
         <is>
           <t>Pachira aquatica Aubl.</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr">
+      <c r="AA140" t="inlineStr">
         <is>
           <t>Pachira villosula Pittier | Pachira longifolia Hook. | Pachira grandiflora Tussac | Pachira pustulifera Pittier | Pachira macrocarpa (Schltdl. &amp; Cham.) Walp. | Bombax aquaticum (Aubl.) K.Schum. | Bombax macrocarpum (Schltdl. &amp; Cham.) K.Schum. | Bombax rigidifolium Ducke | Carolinea grandiflora (Tussac) Spach | Carolinea macrocarpa Schltdl. &amp; Cham. | Carolinea princeps L.f. | Pachira carolinea Dum.Cours. | Pachira aquatica var. occidentalis Cuatrec. | Pachira aquatica var. surinamensis Decne. | Pachira villulosa Pittier | Sophia carolina L.</t>
         </is>
       </c>
-      <c r="AA140" t="n">
+      <c r="AB140" t="n">
         <v>16</v>
       </c>
-      <c r="AB140" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC140" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Pachira aquatica Aubl.", "wfo_id": "wfo-0000397427", "full_name_plain": "Pachira aquatica Aubl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Pachira'", "Word is found in index and so is part of name: 'aquatica'.", "Word is lowercase. Subsequent words must start with lowercase: 'aquatica'.", "Word contains non alpha chars and so is start of author string: 'Aubl.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'aquatica'", "Authors string looks like this: 'Aubl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Pachira aquatica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Pachira aquatica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000397427", "full_name_plain": "Pachira aquatica Aubl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 16}}</t>
         </is>
       </c>
     </row>
@@ -17836,31 +18216,31 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
+          <t>Palisota schweinfurthii</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
           <t>wfo-0000488837</t>
         </is>
       </c>
-      <c r="X141" t="inlineStr">
+      <c r="Y141" t="inlineStr">
         <is>
           <t>Palisota schweinfurthii C.B.Clarke</t>
         </is>
       </c>
-      <c r="Y141" t="inlineStr">
+      <c r="Z141" t="inlineStr">
         <is>
           <t>Palisota schweinfurthii C.B.Clarke</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="n">
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
         <v>0</v>
       </c>
-      <c r="AB141" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Palisota schweinfurthii C.B.Clarke", "wfo_id": "wfo-0000488837", "full_name_plain": "Palisota schweinfurthii C.B.Clarke", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Palisota'", "Word is found in index and so is part of name: 'schweinfurthii'.", "Word is lowercase. Subsequent words must start with lowercase: 'schweinfurthii'.", "Word contains non alpha chars and so is start of author string: 'C.B.Clarke'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'schweinfurthii'", "Authors string looks like this: 'C.B.Clarke'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Palisota schweinfurthii' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Palisota schweinfurthii", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000488837", "full_name_plain": "Palisota schweinfurthii C.B.Clarke", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -17953,31 +18333,31 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
+          <t>Passiflora citrina</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
           <t>wfo-0000479819</t>
         </is>
       </c>
-      <c r="X142" t="inlineStr">
+      <c r="Y142" t="inlineStr">
         <is>
           <t>Passiflora citrina J.M.MacDougal</t>
         </is>
       </c>
-      <c r="Y142" t="inlineStr">
+      <c r="Z142" t="inlineStr">
         <is>
           <t>Passiflora citrina J.M.MacDougal</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="n">
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
         <v>0</v>
       </c>
-      <c r="AB142" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC142" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Passiflora citrina J.M.Mac Dougal", "wfo_id": "wfo-0000479819", "full_name_plain": "Passiflora citrina J.M.MacDougal", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Passiflora'", "Word is found in index and so is part of name: 'citrina'.", "Word is lowercase. Subsequent words must start with lowercase: 'citrina'.", "Word contains non alpha chars and so is start of author string: 'J.M.Mac'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'citrina'", "Authors string looks like this: 'J.M.Mac Dougal'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Passiflora citrina' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Passiflora citrina", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000479819", "full_name_plain": "Passiflora citrina J.M.MacDougal", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -18076,21 +18456,37 @@
           <t>Passiflora coriacea Juss.</t>
         </is>
       </c>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB143" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>Passiflora coriacea</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>wfo-0000480045</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>Passiflora coriacea Juss.</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>Passiflora coriacea Juss.</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>Monactineirma coriacea (Juss.) Bory | Passiflora biformis hort. ex Mast. | Cieca coriacea (Juss.) M.Roem. | Cieca difformis (Kunth) M.Roem. | Passiflora clypeata Sm. | Passiflora difformis Kunth | Passiflora cheiroptera Cortés</t>
+        </is>
+      </c>
+      <c r="AB143" t="n">
+        <v>7</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Passiflora coriacea Juss.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Passiflora'", "Word is found in index and so is part of name: 'coriacea'.", "Word is lowercase. Subsequent words must start with lowercase: 'coriacea'.", "Word contains non alpha chars and so is start of author string: 'Juss.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'coriacea'", "Authors string looks like this: 'Juss.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Passiflora coriacea' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Passiflora coriacea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000480045", "full_name_plain": "Passiflora coriacea Juss.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 7}}</t>
         </is>
       </c>
     </row>
@@ -18191,35 +18587,35 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
+          <t>Passiflora edulis</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
           <t>wfo-0000479905</t>
         </is>
       </c>
-      <c r="X144" t="inlineStr">
+      <c r="Y144" t="inlineStr">
         <is>
           <t>Passiflora edulis Sims</t>
         </is>
       </c>
-      <c r="Y144" t="inlineStr">
+      <c r="Z144" t="inlineStr">
         <is>
           <t>Passiflora edulis Sims</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
+      <c r="AA144" t="inlineStr">
         <is>
           <t>Passiflora edulis f. flavicarpa O.Deg. | Passiflora edulis var. verrucifera (Lindl.) Mast. | Passiflora verrucifera Lindl. | Passiflora edulis f. edulis | Passiflora pallidiflora Bertol. | Passiflora cuneifolia Cav. | Passiflora diaden Vell. | Passiflora edulis var. pomifera (Roem.) Mast. | Passiflora pomifera M.Roem. | Passiflora edulis var. rubricaulis (Jacq.) Mast. | Passiflora rubricaulis J.Jacq. | Passiflora iodocarpa Barb.Rodr. | Passiflora middletoniana Paxton | Passiflora picroderma Barb.Rodr. | Passiflora vernicosa Barb.Rodr. | Passiflora gratissima A.St.-Hil. | Granadilla edulis (Sims) Ser. | Passiflora edulis f. albida Vanderpl. &amp; S.L.Edwards</t>
         </is>
       </c>
-      <c r="AA144" t="n">
+      <c r="AB144" t="n">
         <v>18</v>
       </c>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC144" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Passiflora edulis Sims", "wfo_id": "wfo-0000479905", "full_name_plain": "Passiflora edulis Sims", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Passiflora'", "Word is found in index and so is part of name: 'edulis'.", "Word is lowercase. Subsequent words must start with lowercase: 'edulis'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Sims'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'edulis'", "Authors string looks like this: 'Sims'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Passiflora edulis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Passiflora edulis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000479905", "full_name_plain": "Passiflora edulis Sims", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 18}}</t>
         </is>
       </c>
     </row>
@@ -18318,21 +18714,37 @@
           <t>Passiflora foetida L.</t>
         </is>
       </c>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB145" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>Passiflora foetida</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>wfo-0000479879</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>Passiflora foetida L.</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>Passiflora foetida L.</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>Tripsilina fetida Raf. | Dysosmia foetida (L.) M.Roem. | Granadilla foetida (L.) Gaertn. | Passiflora balansae Chodat | Passiflora hibiscifolia var. velutina Fenzl ex Jacq.</t>
+        </is>
+      </c>
+      <c r="AB145" t="n">
+        <v>5</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Passiflora foetida L.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Passiflora'", "Word is found in index and so is part of name: 'foetida'.", "Word is lowercase. Subsequent words must start with lowercase: 'foetida'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'foetida'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Passiflora foetida' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Passiflora foetida", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000479879", "full_name_plain": "Passiflora foetida L.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 5}}</t>
         </is>
       </c>
     </row>
@@ -18431,21 +18843,37 @@
           <t>Passiflora incarnata L.</t>
         </is>
       </c>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
-      <c r="AA146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB146" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>Passiflora incarnata</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>wfo-0001090757</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>Passiflora incarnata L.</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>Passiflora incarnata L.</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>Granadilla incarnata (L.) Medik. | Passiflora rigidula J.Jacq. | Passiflora edulis var. kerii (Spreng.) Mast. | Passiflora kerii Spreng. | Passiflora incarnata f. alba Waterf. | Passiflora incarnata var. integriloba DC.</t>
+        </is>
+      </c>
+      <c r="AB146" t="n">
+        <v>6</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Passiflora incarnata L.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Passiflora'", "Word is found in index and so is part of name: 'incarnata'.", "Word is lowercase. Subsequent words must start with lowercase: 'incarnata'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'incarnata'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Passiflora incarnata' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Passiflora incarnata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0001090757", "full_name_plain": "Passiflora incarnata L.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -18544,21 +18972,37 @@
           <t>Passiflora quadrangularis L.</t>
         </is>
       </c>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB147" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>Passiflora quadrangularis</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>wfo-0000480101</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>Passiflora quadrangularis L.</t>
+        </is>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>Passiflora quadrangularis L.</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>Passiflora grandiflora Salisb. | Passiflora hexangularis Raeusch. | Passiflora hulletti hort. ex Mast. | Passiflora macrocarpa Mast. | Granadilla quadrangularis (L.) Medik. | Passiflora macroceps Mast. | Passiflora tetragona M.Roem. | Passiflora quadrangularis var. sulcata (Jacq.) DC. | Passiflora sulcata Jacq. | Passiflora macrocarpa W.Thomps.</t>
+        </is>
+      </c>
+      <c r="AB147" t="n">
+        <v>10</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Passiflora quadrangularis L.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Passiflora'", "Word is found in index and so is part of name: 'quadrangularis'.", "Word is lowercase. Subsequent words must start with lowercase: 'quadrangularis'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'quadrangularis'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Passiflora quadrangularis' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Passiflora quadrangularis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000480101", "full_name_plain": "Passiflora quadrangularis L.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 10}}</t>
         </is>
       </c>
     </row>
@@ -18655,35 +19099,31 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>wfo-4000028296</t>
+          <t>Passiflora violacea</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>Passiflora L.</t>
+          <t>wfo-0000745854</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>Passiflora L.</t>
+          <t>Passiflora violacea Loisel.</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>Passiflora acreana Mezzonato &amp; Marc.Silveira | Passiflora actinia Hook. | Passiflora acuminata DC. | Passiflora adenopoda DC. | Passiflora adulterina L.f. | Passiflora affinis Engelm. | Passiflora aimae Annonay &amp; Feuillet | Passiflora alata Curtis | Passiflora allantophylla Mast. ex Donn.Sm. | Passiflora × allardii Lynch | Passiflora alnifolia Kunth | Passiflora altebilobata Hemsl. | Passiflora amalocarpa Barb.Rodr. | Passiflora amazonica L.K.Escobar | Passiflora ambigua Hemsl. | Passiflora amethystina J.C.Mikan | Passiflora amicorum Wurdack | Passiflora amoena L.K.Escobar | Passiflora ampullacea (Mast.) Harms | Passiflora anadenia Urb. | Passiflora anastomosans Killip | Passiflora andersonii DC. | Passiflora andicola Esquerre | Passiflora andina Killip | Passiflora andreana Mast. | Passiflora anfracta Mast. &amp; André | Passiflora angusta Feuillet &amp; J.M.MacDougal | Passiflora antioquiensis H.Karst. | Passiflora apetala Killip | Passiflora apoda Harms | Passiflora araguensis L.K.Escobar | Passiflora araujoi Sacco | Passiflora arbelaezii L.Uribe | Passiflora arida (Mast. &amp; Rose) Killip | Passiflora aristulata Mast. | Passiflora arizonica (Killip) D.H.Goldman | Passiflora arta Feuillet | Passiflora ascidia Feuillet | Passiflora aurantia G.Forst. | Passiflora aurantioides (K.Schum.) Krosnick | Passiflora auriculata Kunth | Passiflora azeroana L.Uribe | Passiflora bacabensis Mezzonato, E.O.Silva &amp; E.A.Oliveira | Passiflora bahamensis Britton | Passiflora bahiensis Klotzsch | Passiflora balbis Feuillet | Passiflora barclayi (Seem.) Mast. | Passiflora baueri (Lindl.) Mast. | Passiflora × belotii Pépin | Passiflora bernaccii Mezzonato | Passiflora berteroana Balb. ex DC. | Passiflora bicornis Mill. | Passiflora bicrura Urb. | Passiflora bicuspidata (H.Karst.) Mast. | Passiflora biflora Lam. | Passiflora bilobata Juss. | Passiflora boenderi J.M.MacDougal | Passiflora bogotensis Benth. | Passiflora boticarioana Cervi | Passiflora brachyantha L.K.Escobar | Passiflora bracteosa Planch. &amp; Linden ex Triana &amp; Planch. | Passiflora brauliensis Kuethe, Rodr.-Barboza &amp; L.Álvarez | Passiflora brevifila Killip | Passiflora bryonioides Kunth | Passiflora bucaramangensis Killip | Passiflora buchtienii Killip | Passiflora cacao Bernacci &amp; M.M.Souza | Passiflora caerulea L. | Passiflora calcicola Proctor | Passiflora calicicalyx T.Boza &amp; J.M.MacDougal | Passiflora callacallensis Skrabal &amp; Weigend | Passiflora callistemma L.K.Escobar | Passiflora calypilosa Kuethe &amp; H.Bernal | Passiflora campanulata Mast. | Passiflora candida (Poepp. &amp; Endl.) Mast. | Passiflora candollei Triana &amp; Planch. | Passiflora caparaoensis Magro-Moraes, M.A.M.Azevedo &amp; Gelli de Faria | Passiflora capparidifolia Killip | Passiflora capsularis L. | Passiflora carajasensis A.K.Koch &amp; Ilk.-Borg. | Passiflora cardonae Killip | Passiflora carnosisepala P.Jørg. | Passiflora carrascoensis P.Jørg. &amp; R.Vásquez | Passiflora castellanosii Sacco | Passiflora catharinensis Sacco | Passiflora cauliflora Harms | Passiflora cerasina Annonay &amp; Feuillet | Passiflora ceratocarpa F.Silveira | Passiflora cerradensis Sacco | Passiflora cervii M.A.M.Azevedo | Passiflora chaparensis R.Vásquez | Passiflora chelidonea Mast. | Passiflora chimuensis A.Estrada, G.Rivera &amp; J.Solano | Passiflora chlorina L.K.Escobar | Passiflora chocoensis G.Gerlach &amp; Ulmer | Passiflora chrysophylla Chodat | Passiflora chrysosepala Schwerdtf. | Passiflora ciliata Aiton | Passiflora cincinnata Mast. | Passiflora cinnabarina Lindl. | Passiflora cirrhiflora Juss. | Passiflora cirrhipes Killip | Passiflora cisnana Harms | Passiflora cissampeloides J.M.MacDougal | Passiflora citrina J.M.MacDougal | Passiflora clathrata Mast. | Passiflora clypeophylla Mast. | Passiflora coactilis (Mast.) Killip | Passiflora cobanensis Killip | Passiflora coccinea Aubl. | Passiflora cochinchinensis Spreng. | Passiflora coelestis Parteka &amp; A.Silvério | Passiflora colimensis Mast. &amp; Rose | Passiflora colinvauxii Wiggins | Passiflora colombiana L.K.Escobar | Passiflora coloranigra Kuethe &amp; Meerman | Passiflora compar Feuillet | Passiflora complanata J.M.MacDougal | Passiflora condorita P.Jørg. | Passiflora contracta Vitta | Passiflora conzattiana Killip | Passiflora cordistipula Cervi | Passiflora coriacea Juss. | Passiflora costaricensis Killip | Passiflora costata Mast. | Passiflora crassifolia Killip | Passiflora cremastantha Harms | Passiflora creuci-caetanoae M.Bonilla | Passiflora crispolanata L.Uribe | Passiflora cristalina Vanderpl. &amp; Zappi | Passiflora cuatrecasasii Killip | Passiflora cubensis Urb. | Passiflora cumbalensis (H.Karst.) Harms | Passiflora cuneata Willd. | Passiflora cupiformis Mast. | Passiflora cupraea L. | Passiflora curva Feuillet | Passiflora cuspidifolia Harms | Passiflora cuzcoensis Killip | Passiflora cyanea Mast. | Passiflora dalechampioides Killip | Passiflora danielii Killip | Passiflora dasyadenia Urb. | Passiflora davidii Feuillet | Passiflora dawei Killip | Passiflora deidamioides Harms | Passiflora deltoifolia Holm-Niels. &amp; Lawesson | Passiflora dictamo DC. | Passiflora dioscoreifolia Killip | Passiflora discophora P.Jørg. &amp; Lawesson | Passiflora dispar Killip | Passiflora dolichocarpa Killip | Passiflora dorisiae Esquerre | Passiflora eberhardtii Gagnep. | Passiflora echinasteris A.K.Koch, A.Cardoso &amp; Ilk.-Borg. | Passiflora edmundoi Sacco | Passiflora edulis Sims | Passiflora eggersii Harms | Passiflora eglandulosa J.M.MacDougal | Passiflora eichleriana Mast. | Passiflora ekmanii Killip &amp; Urb. | Passiflora elegans Mast. | Passiflora elliptica Gardner | Passiflora emarginata Bonpl. | Passiflora engleriana Harms | Passiflora ernestii Harms | Passiflora erythrophylla Mast. | Passiflora escobariana J.M.MacDougal | Passiflora eueidipabulum S.Knapp &amp; Mallet | Passiflora exoperculata Mast. | Passiflora exsudans Zucc. | Passiflora exura Feuillet | Passiflora faleiroi Imig | Passiflora fanchonae Feuillet | Passiflora farneyi Pessoa &amp; Cervi | Passiflora faroana Harms | Passiflora ferruginea Mast. | Passiflora filamentosa Cav. | Passiflora filipes Benth. | Passiflora fimbriatistipula Harms | Passiflora fissurosa M.A.D.Souza | Passiflora flexipes Triana &amp; Planch. | Passiflora foetida L. | Passiflora formosa Ulmer | Passiflora franciscoi C.Aguirre &amp; M.Bonilla | Passiflora frutescens Ruiz &amp; Pav. ex Killip | Passiflora fruticosa Killip | Passiflora fuchsiiflora Hemsl. | Passiflora gabrielliana Vanderpl. | Passiflora garckei Mast. | Passiflora gardneri Mast. | Passiflora gibertii N.E.Br. | Passiflora gilbertiana J.M.MacDougal | Passiflora gironensis C.Aguirre, M.Bonilla &amp; A.Rojas | Passiflora glaberrima (Juss.) Triana &amp; Planch. | Passiflora glandulosa Cav. | Passiflora goniosperma Killip | Passiflora gracilens Harms | Passiflora gracilis J.Jacq. ex Link | Passiflora gracillima Killip | Passiflora grandis Killip | Passiflora gritensis H.Karst. | Passiflora guatemalensis S.Watson | Passiflora guayaquilensis Cornejo &amp; Kuethe | Passiflora guazumaefolia Juss. | Passiflora guazumifolia Jacq. | Passiflora guentheri Harms | Passiflora gustaviana J.Ocampo &amp; M.Molinari | Passiflora haematostigma Mart. ex Mast. | Passiflora hahnii (Fourn.) Mast. | Passiflora harlingii Holm-Niels. | Passiflora hastifolia Killip | Passiflora hatschbachii Cervi | Passiflora haughtii Killip | Passiflora helleri Peyr. | Passiflora henryi Hemsl. | Passiflora herbertiana [Ker.-Gawl.] | Passiflora herthae Harms | Passiflora heterohelix Killip | Passiflora hexagonocarpa Barb.Rodr. | Passiflora hibiscifolia Lam. | Passiflora hirtiflora P.Jørg. &amp; Holm-Niels. | Passiflora hollrungii K.Schum. | Passiflora holosericea L. | Passiflora holtii Killip | Passiflora huamachucoensis L.K.Escobar | Passiflora hyacinthiflora Planch. &amp; Linden ex Planch. &amp; Triana | Passiflora hypoglauca Harms | Passiflora igrapiunensis T.S.Nunes &amp; L.P.Queiroz | Passiflora ilamo J.M.MacDougal &amp; MacVean | Passiflora imbeana Sacco | Passiflora inca P.Jørg. | Passiflora incarnata L. | Passiflora indecora Kunth | Passiflora insignis (Mast.) Hook.f. | Passiflora insolita Vanderpl. &amp; Ochoa | Passiflora insueta Feuillet &amp; J.M.MacDougal | Passiflora intricata J.M.MacDougal &amp; J.Ochoa | Passiflora involucrata (Mast.) A.H.Gentry | Passiflora ischnoclada Harms | Passiflora ita Mezzonato, R.S.Ribeiro &amp; Gonella | Passiflora itatiaiensis Vanderpl. | Passiflora itzensis (J.M.MacDougal) Port.-Utl. | Passiflora jaenensis Esquerre | Passiflora jamesonii (Mast.) L.H.Bailey | Passiflora jardinensis L.K.Escobar | Passiflora jatunsachensis Schwerdtf. | Passiflora jianfengensis S.M.Hwang &amp; Q.Huang | Passiflora jiboiaensis M.A.M.Azevedo | Passiflora joergenseniana T.Boza | Passiflora jorgeana Mezzonato | Passiflora jorullensis Kunth | Passiflora jugorum W.W.Sm. | Passiflora juliana J.M.MacDougal | Passiflora junqueirae Imig &amp; Cervi | Passiflora jussieui Feuillet | Passiflora kalbreyeri Mast. | Passiflora kapiriensis Rome &amp; Coppens | Passiflora karwinskii Mast. | Passiflora kawensis Feuillet | Passiflora kermesina Link &amp; Otto | Passiflora ketura Tillett &amp; J.M.MacDougal | Passiflora kikiana Cervi &amp; Linsingen | Passiflora killipiana Cuatrec. | Passiflora kuethiana Esquerre | Passiflora kumandayi M.A.Buitr.A. &amp; Coca | Passiflora kuranda Krosnick &amp; A.J.Ford | Passiflora kwangtungensis Merr. | Passiflora lanata (Juss.) Poir. | Passiflora lancearia Mast. | Passiflora lanceolata Harms | Passiflora lancetillensis J.M.MacDougal &amp; Meerman | Passiflora lancifolia Ham. | Passiflora lanuginosa (Killip) H.T.Svoboda | Passiflora lauana J.M.MacDougal | Passiflora laurifolia L. | Passiflora lawessonii P.Jørg. | Passiflora × lawsoniana Mast. | Passiflora lehmannii Mast. | Passiflora lepidota Mast. | Passiflora leptoclada Harms | Passiflora leptomischa Harms | Passiflora leptopoda Harms | Passiflora leschenaultii DC. | Passiflora ligularis Juss. | Passiflora linda Panero | Passiflora lindeniana Planch. ex Triana &amp; Planch. | Passiflora linearistipula L.K.Escobar | Passiflora lobata (Killip) Hutch. ex J.M.MacDougal | Passiflora lobbii Mast. | Passiflora loefgrenii Vitta | Passiflora longicuspis Vanderpl. &amp; S.E.Vanderpl. | Passiflora longifilamentosa A.K.Koch, A.Cardoso &amp; Ilk.-Borg. | Passiflora longilobis Hoehne | Passiflora longipes Juss. | Passiflora longiracemosa Ducke | Passiflora lorenziana Mezzonato &amp; Bernacci | Passiflora loretensis Killip | Passiflora loxensis Killip &amp; Cuatrec. | Passiflora luetzelburgii Harms | Passiflora lutea L. | Passiflora luzmarina P.Jørg. | Passiflora lyra Planch. &amp; Linden ex Killip | Passiflora macdougaliana S.Knapp &amp; Mallet | Passiflora macfadyenii C.D.Adams | Passiflora macrophylla Spruce ex Mast. | Passiflora macropoda Killip | Passiflora madidiana P.Jørg., Cayola &amp; Araujo-Murak. | Passiflora maestrensis Duharte | Passiflora magdalenae Triana &amp; Planch. | Passiflora magnifica L.K.Escobar | Passiflora magnoliifolia F.Dietr. | Passiflora maguirei Killip | Passiflora malacophylla Mast. | Passiflora maliformis L. | Passiflora malletii J.M.MacDougal | Passiflora manantlanensis J.M.MacDougal | Passiflora mandonii (Mast.) Killip | Passiflora manicata (Juss.) Pers. | Passiflora mansoi (Mart.) Mast. | Passiflora mapiriensis Harms | Passiflora margaritae Sacco | Passiflora marginata Mast. | Passiflora markiana A.K.Hansen | Passiflora mathewsii (Mast.) Killip | Passiflora mayarum J.M.MacDougal | Passiflora mcvaughiana J.M.MacDougal | Passiflora mediterranea Vell. | Passiflora megacoriacea Port.-Utl. | Passiflora membranacea Benth. | Passiflora mendoncaei Harms | Passiflora menghaiensis X.D.Ma, L.C.Yan &amp; J.Y.Shen | Passiflora menispermacea Triana &amp; Planch. | Passiflora menispermifolia Kunth | Passiflora mexicana Juss. | Passiflora micropetala Mast. | Passiflora microstipula L.E.Gilbert &amp; J.M.MacDougal | Passiflora miersii Mast. | Passiflora miniata Vanderpl. | Passiflora misera Kunth | Passiflora mistratensis Kuethe &amp; Vanderpl. | Passiflora mixta L.f. | Passiflora mollis Kunth | Passiflora moluccana Reinw. | Passiflora monadelpha P.Jørg. &amp; Holm-Niels. | Passiflora mooreana Hook.f. | Passiflora morifolia Mast. | Passiflora mucronata Lam. | Passiflora mucugeana T.S.Nunes &amp; L.P.Queiroz | Passiflora multiflora L. | Passiflora multiformis Jacq. | Passiflora munchiquensis Al.Hern. | Passiflora murucuja L. | Passiflora mutisii Killip | Passiflora nana J.M.MacDougal | Passiflora napalensis Wall. | Passiflora nebulosae J.Restrepo &amp; Ocampo | Passiflora nelsonii Mast. &amp; Rose | Passiflora nephrodes Rusby | Passiflora nigradenia Rusby | Passiflora nipensis Britton | Passiflora nitida Kunth | Passiflora nubicola J.M.MacDougal | Passiflora nuriensis Steyerm. | Passiflora oaxacana (Killip) H.T.Svoboda | Passiflora oaxacensis J.M.MacDougal | Passiflora oblongata Sw. | Passiflora obovata Killip ex Standl. | Passiflora obtusifolia Sessé &amp; Moc. | Passiflora ocanensis Planch. &amp; Linden ex Triana &amp; Planch. | Passiflora oerstedii Mast. | Passiflora orbiculata Cav. | Passiflora orinocensis (Killip) H.T.Svoboda | Passiflora ornithoura Mast. | Passiflora ovalis Vell. | Passiflora ovata Jos.Martin ex DC. | Passiflora pachyantha Killip | Passiflora pacifica L.K.Escobar | Passiflora palenquensis Holm-Niels. &amp; Lawesson | Passiflora pallens Poepp. ex Mast. | Passiflora pallida L. | Passiflora palmatisecta Mast. | Passiflora palmeri Rose | Passiflora pamplonensis Planch. &amp; Linden ex Triana &amp; Planch. | Passiflora panamensis Killip | Passiflora papilio H.L.Li | Passiflora pardifolia Vanderpl. | Passiflora parritae (Mast.) L.H.Bailey | Passiflora parvifolia Harms | Passiflora parvipetala P.Jørg. | Passiflora pascoensis L.K.Escobar | Passiflora pavonis Mast. | Passiflora pectinata Griseb. | Passiflora pedata L. | Passiflora pedicellaris J.M.MacDougal | Passiflora peduncularis Cav. | Passiflora pendens J.M.MacDougal | Passiflora penduliflora Bert. ex DC. | Passiflora pennellii Killip | Passiflora pentagona Mast. | Passiflora pentaschista (Killip) H.T.Svoboda | Passiflora perakensis Hallier f. | Passiflora perfoliata L. | Passiflora pertriloba Merr. | Passiflora phaeocaula Killip | Passiflora phellos Feuillet | Passiflora phoenicea Lindl. | Passiflora picturata Ker Gawl. | Passiflora pilosa Ruiz &amp; Pav. ex DC. | Passiflora pilosicorona Sacco | Passiflora pilosissima Killip | Passiflora pinnatistipula Cav. | Passiflora pittieri Mast. | Passiflora platyloba Killip | Passiflora plumosa Feuillet &amp; Cremers | Passiflora podadenia Killip | Passiflora podlechii Skrabal &amp; Weigend | Passiflora poeppigii Mast. | Passiflora pohlii Mast. | Passiflora popayanensis Killip | Passiflora popenovii Killip | Passiflora porophylla Vell. | Passiflora porphyretica Mast. | Passiflora poslae Vanderpl. &amp; Boender | Passiflora pottiae Cervi &amp; Imig | Passiflora praemorsa T.Boza | Passiflora princeps G.Lodd. | Passiflora prolata Mast. | Passiflora pterocarpa J.M.MacDougal | Passiflora pubera Planch. &amp; Linden ex Triana &amp; Planch. | Passiflora punctata L. | Passiflora punicea Ruiz &amp; Pav. ex DC. | Passiflora purdiei Killip | Passiflora purii Mezzonato, L.M.C.Lima &amp; Gelli de Faria | Passiflora pusilla J.M.MacDougal | Passiflora putumayensis Killip | Passiflora pyrrhantha Harms | Passiflora quadrangularis L. | Passiflora quadraticordata Lozada-Pérez | Passiflora quadrifaria Vanderpl. | Passiflora quadriflora Killip | Passiflora quadriglandulosa Rodschied | Passiflora quelchii N.E.Br. | Passiflora quercetorum Killip | Passiflora quetzal J.M.MacDougal | Passiflora quimbayensis Ocampo &amp; Forero | Passiflora quindiensis Killip | Passiflora quinonesiae M.Bonilla, C.Aguirre &amp; Caetano | Passiflora quinquangularis S.Calderón ex J.M.MacDougal | Passiflora raimondii Killip | Passiflora recurva Mast. | Passiflora reflexiflora Cav. | Passiflora reitzii Sacco | Passiflora resticulata Mast. &amp; André | Passiflora retipetala Mast. | Passiflora rhamnifolia Mast. | Passiflora riparia Mart. ex Mast. | Passiflora rosacea Kuethe &amp; Justiniano | Passiflora × rosea (H.Karst.) Killip | Passiflora roseorum Killip | Passiflora rotundifolia L. | Passiflora rovirosae Killip | Passiflora rubra L. | Passiflora rubrotincta Killip | Passiflora rufa Feuillet &amp; J.M.MacDougal | Passiflora rufostipulata Feuillet | Passiflora rugosa (Mast.) Planch. &amp; Triana | Passiflora runa L.K.Escobar | Passiflora rusbyi Mast. | Passiflora saccoi Cervi | Passiflora sagasteguii Skrabal &amp; Weigend | Passiflora salpoensis S.Leiva &amp; Tantalean | Passiflora sanchezii Skrabal &amp; Weigend | Passiflora sanctae-mariae J.M.MacDougal | Passiflora sanctaebarbarae Holm-Niels. &amp; P.M.Jørg. | Passiflora sandrae J.M.MacDougal | Passiflora sanguinolenta Mast. &amp; Linden | Passiflora santosllatasii Esquerre | Passiflora saulensis Feuillet | Passiflora saxicola Gontsch. | Passiflora schlimiana Regel | Passiflora sclerophylla Harms | Passiflora securiclata Mast. | Passiflora seemannii Griseb. | Passiflora semiciliosa Triana &amp; Planch. | Passiflora serratifolia L. | Passiflora serratodigitata L. | Passiflora serrulata Jacq. | Passiflora setacea DC. | Passiflora setulosa Killip | Passiflora sexflora Juss. | Passiflora sexocellata Schltdl. | Passiflora shaferi Britton | Passiflora siamica Craib | Passiflora sicyoides Cham. &amp; Schltdl. | Passiflora sidifolia M.Roem. | Passiflora sierrae L.K.Escobar | Passiflora silvestris Vell. | Passiflora silvestris Vell.Conc. ex Masters | Passiflora skiantha Huber | Passiflora smilacifolia J.M.MacDougal | Passiflora smithii Killip | Passiflora sodiroi Harms | Passiflora soliana A.Estrada &amp; G.Rivera | Passiflora solomonii L.K.Escobar | Passiflora speciosa Gardner | Passiflora spectabilis Killip | Passiflora sphaerocarpa Triana &amp; Planch. | Passiflora spicata Mast. | Passiflora spinosa Mast. | Passiflora splendida M.Bonilla, C.Aguirre &amp; Caetano | Passiflora sprucei Mast. | Passiflora standleyi Killip | Passiflora stellata Moritz ex Killip | Passiflora stenoloba Urb. | Passiflora stenosepala Killip | Passiflora stipulata Aubl. | Passiflora suberosa L. | Passiflora subfertilis J.M.MacDougal | Passiflora subintegra (Killip) H.T.Svoboda | Passiflora sublanceolata (Killip) J.M.MacDougal | Passiflora subpeltata Ortega | Passiflora subpurpurea P.Jørg. &amp; Holm-Niels. | Passiflora subrotunda Mast. | Passiflora subulata Mast. | Passiflora sumatrana Blume | Passiflora tacanensis Port.-Utl. | Passiflora tacsonioides Griseb. | Passiflora talamancensis Killip | Passiflora tarapotina Harms | Passiflora tarminiana Coppens &amp; V.E.Barney | Passiflora tatei Killip &amp; Rusby | Passiflora tecta Feuillet | Passiflora telesiphe S.Knapp &amp; Mallet | Passiflora tenella Killip | Passiflora tenerifensis L.K.Escobar | Passiflora tenuifila Killip | Passiflora tenuiloba Engelm. | Passiflora tesserula Skrabal &amp; Weigend | Passiflora tessmannii Harms | Passiflora tetrandra Banks ex DC. | Passiflora tholozanii Sacco | Passiflora tica Gómez-Laur. &amp; L.D.Gómez | Passiflora tiliifolia L. | Passiflora timboensis T.S.Nunes &amp; L.P.Queiroz | Passiflora tina Boender &amp; Ulmer | Passiflora tonkinensis W.J.de Wilde | Passiflora transversa Mast. | Passiflora tranversalis M.A.M.Azevedo | Passiflora trialata Feuillet &amp; J.M.MacDougal | Passiflora trianae Killip | Passiflora tribolophylla Harms | Passiflora trichopoda J.M.MacDougal | Passiflora tricuspis Mast. | Passiflora tridactylites Hook.f. | Passiflora trifasciata Lem. | Passiflora trifoliata Cav. | Passiflora triloba Ruiz &amp; Pav. ex DC. | Passiflora trilobophylla Harms | Passiflora trinervia Poir. | Passiflora trinifolia Mast. | Passiflora trintae Sacco | Passiflora tripartita Breiter | Passiflora trisecta Mast. | Passiflora trisulca Mast. | Passiflora trochlearis P.Jørg. | Passiflora truncata Regel | Passiflora truxillensis Planch. &amp; Linden ex Triana &amp; Planch. | Passiflora tryphostemmatoides Harms | Passiflora tuberosa Jacq. | Passiflora tucumanensis Hook. | Passiflora tulae Urb. | Passiflora umbilicata (Griseb.) Harms | Passiflora uncinata J.M.MacDougal | Passiflora unipetala P.Jørg., Muchhala &amp; J.M.MacDougal | Passiflora urbaniana Killip | Passiflora uribei L.K.Escobar | Passiflora urnaefolia Rusby | Passiflora urnifolia Rusby | Passiflora ursina Killip &amp; Cuatrec. | Passiflora urubiciensis Cervi | Passiflora variolata Poepp. &amp; Endl. | Passiflora vellozoi Gardner | Passiflora venosa Rusby | Passiflora venusta R.Vásquez &amp; M.Delanoy | Passiflora veraguasensis J.M.MacDougal | Passiflora vescoi D.Rignon &amp; L.Rignon | Passiflora vesicaria L. | Passiflora vespertilio L. | Passiflora vestita Killip | Passiflora villosa Vell. | Passiflora viridescens L.K.Escobar | Passiflora viridiflora Cav. | Passiflora vitifolia Kunth | Passiflora watsoniana Mast. | Passiflora weberbaueri Harms | Passiflora weigendii Ulmer &amp; M.Schwerdtf. | Passiflora wilsonii Hemsl. | Passiflora wrightiana H.T.Svoboda | Passiflora xiikzodz J.M.MacDougal | Passiflora xishuangbannaensis Krosnick | Passiflora yolandae Kuethe &amp; K.Montesinos | Passiflora yucatanensis Killip ex Standl. | Passiflora zamorana Killip | Passiflora zapalinamensis Kuethe, Encina &amp; Cruz-Anaya | Passiflora acerifolia hort. | Passiflora aculeata hort. ex Mast. | Passiflora alata [Dryand.] | Passiflora alato-caerulea Lindl. | Passiflora alatocaerulea Lindl. | Passiflora alba-nigra Parpart ex Regel | Passiflora albicans hort. ex Loudon | Passiflora allardii hort. | Passiflora angulata Sweet | Passiflora apiculata Poepp. | Passiflora arc-en-ciel Rafarin | Passiflora asprantha Kuethe | Passiflora atropurpurea auct. | Passiflora aurantia Andrews | Passiflora aurantia f. aurantia | Passiflora aurantia var. aurantia | Passiflora azulitensis M.Molinari &amp; Kuethe | Passiflora bakhuisensis Vanderpl. &amp; Boender | Passiflora banksii var. banksii | Passiflora barclayi (Seem.) Drake | Passiflora belottii hort. ex Moore &amp; Ayres | Passiflora biflora Dombey ex Triana &amp; Planch. | Passiflora bilobata Vell. | Passiflora bolstadtii Dusén | Passiflora brachystephana F.Muell. ex Benth. | Passiflora brasiliensis Steud. | Passiflora brighami S.Watson | Passiflora buonapartea W.H.Baxter | Passiflora caerulea Lour. ex DC. | Passiflora campestris Barb.Rodr. | Passiflora cana J.M.MacDougal | Passiflora caponii Beckett | Passiflora capsularis Lam. | Passiflora chachapoyensis T.Boza &amp; P.Jørg. | Passiflora chaskajina Kuethe &amp; Balderrama | Passiflora chinensis Sweet | Passiflora choconiana S.Watson ex W.T.Brigham | Passiflora clibranii hort. ex Gentil | Passiflora coanensis Planch. &amp; Linden | Passiflora coccinea Sol. ex Benth. | Passiflora cocuyensis Kuethe, M.Molinari &amp; Vecchia | Passiflora coerulea Auct. | Passiflora colvillii Sweet | Passiflora coronapapillata T.Boza &amp; P.Jørg. | Passiflora cumbalensis var. sparrei (Holm-Niels.) Holm-Niels. | Passiflora cupuliformis Mast. ex Hemsl. | Passiflora decaisneana G.Nicholson | Passiflora decaisneana Planch. | Passiflora dendroidea Kuethe &amp; Cornejo | Passiflora dica Gómez-Laur. &amp; L.D.Gómez | Passiflora dolorosa A.M.L.Medeiros &amp; Mezzonato | Passiflora dulimae J.Ocampo, Lozano-Cif., Villanueva &amp; Corr.-Bravo | Passiflora elata Fisch. | Passiflora exoniensis (R.T.Veitch ex Mast.) L.H.Bailey | Passiflora fieldiana Tillett ex Vanderpl. | Passiflora fieldii G.W.Johnson | Passiflora fieldii Lindl. | Passiflora filamentosa hort. ex Spin | Passiflora fimbristipula Harms | Passiflora foetida Vell. | Passiflora foetida var. santiagana Killip | Passiflora fragrans Regel | Passiflora gossypiifolia Lindl. | Passiflora gracilis J.Jacq. | Passiflora guatemalensis S.Watson ex W.T.Brigham | Passiflora guyanensis Annonay | Passiflora herbertiana var. herbertiana | Passiflora hexadenia T.Boza &amp; J.M.MacDougal | Passiflora heyneana Wall. | Passiflora hircina Sweet | Passiflora hispida DC. | Passiflora hullitii Ed.Otto | Passiflora hybrida Nees | Passiflora incarnata Ker Gawl. | Passiflora innesii Mast. | Passiflora justinianoi Kuethe | Passiflora kewensis auct. | Passiflora kyathantha Kuethe &amp; H.Garzón | Passiflora lambertii hort. ex Mast. | Passiflora lanceolata G.Don | Passiflora lemicheziana Mast. | Passiflora lobbii subsp. abbreviata Esquerre | Passiflora lobbii subsp. charazanica Kuethe &amp; A.Fuentes | Passiflora loudoniana hort. ex Jacques &amp; Hérincq | Passiflora loudonii Atkins ex W.H.Baxter &amp; G.Don | Passiflora loudonii Loudon | Passiflora lunata Vell. | Passiflora lutea Ruiz &amp; Pav. ex Mast. | Passiflora luyensis T.Boza | Passiflora maculata Donn | Passiflora maliformis Vell. | Passiflora mamapachae Kuethe &amp; J.F.Rojas | Passiflora manora J.Scott | Passiflora mariaelvirae Cruz Aroz. &amp; García-Beltrán | Passiflora marryattae G.Nicholson | Passiflora mediterrana Vell. | Passiflora mucronata Sessé &amp; Moc. | Passiflora munroii Mast. | Passiflora muricinea Mill. | Passiflora murucuja Billb. ex Beurl. | Passiflora myriadenia Lem. | Passiflora myriadenia Van Houtte | Passiflora natalensis G.L.Silva &amp; Mezzonato | Passiflora nemorosa Rojas Acosta | Passiflora neumannii A.Cels &amp; J.F.Cels | Passiflora neumannii Paxton | Passiflora nipensis Britton &amp; Urb. | Passiflora nosferatu Wettges, Kuethe &amp; H.Garzón | Passiflora occidentalis J.M.MacDougal &amp; Hernández, Alexandra | Passiflora odontophylla Harms | Passiflora organensis var. costata Mast. | Passiflora pallida Vell. | Passiflora panguiensis Kuethe | Passiflora paranaguensis Kuethe &amp; Junqueira | Passiflora parritae Harms | Passiflora patula J.C.Wendl. | Passiflora penangiana Wall. | Passiflora pennipes M.Roem. | Passiflora pfordti Hort.Kew | Passiflora pfordtii hort. ex O.Deg. | Passiflora pilosocorona Sacco | Passiflora pilpintu T.Boza | Passiflora pinardia | Passiflora pinardia Buc'hoz | Passiflora pitalensis Arrigui-Torres, J.Ocampo &amp; Rosero-Toro | Passiflora platystyla Mast. ex Glaz. | Passiflora polymorpha L. ex B.D.Jacks. | Passiflora purusana Huber | Passiflora quadrangularis Triana &amp; Planch | Passiflora quimiana Kuethe &amp; H.Garzón | Passiflora quinquangualris S.Calderón ex Killip | Passiflora quinqueloba (Griseb.) Cruz Aroz. &amp; García-Beltrán | Passiflora quitensis Killip | Passiflora rimarachiniorum Esquerre &amp; Kuethe | Passiflora rogitamensis M.Molinari, Kuethe &amp; H.Bernal | Passiflora rubra Buc'hoz | Passiflora rubra Lam. | Passiflora salgadoi Kuethe &amp; Campos-Neto | Passiflora sanguinea Colla | Passiflora schlimiana Linden ex Bosse | Passiflora schlimiana Triana &amp; Planch. | Passiflora sect. Apodae A.Hern. ex M.A.Buitr.A. &amp; Coca | Passiflora sect. Dysosmia DC. | Passiflora sect. Dysosmioides Killip ex Kuethe &amp; Junqueira | Passiflora sect. Lobbii Kuethe &amp; Wettges | Passiflora sect. Octandranthus Harms | Passiflora semiorbicularis hort. ex Mast. | Passiflora singaporeana Wall. | Passiflora skrabaliana Kuethe &amp; Wettges | Passiflora sphaerocarpa var. sphaerocarpa | Passiflora stipulata Benth. ex Griseb. | Passiflora subg. Deidamioides (Harms) Killip | Passiflora subtriloba Mutis | Passiflora sylvestris Auct. | Passiflora timboeensis T.S.Nunes &amp; L.P.Queiroz | Passiflora triflora Macfad. | Passiflora tripartita (Juss.) Poir. | Passiflora triquetra Lam. ex Mart. | Passiflora trisecta Planch. &amp; Linden ex Triana &amp; Planch. | Passiflora ulmifolia hort. ex Mast. | Passiflora uraniae Thiéb.-Bern. | Passiflora verrucosula Steud. | Passiflora vespertilio Ker Gawl. | Passiflora vespertilio Lawrence | Passiflora vetutina G.Don | Passiflora villosa Macfad. | Passiflora violacea Loisel. | Passiflora virens Warm. | Passiflora vitacea Deginani | Passiflora vitiensis (Seem.) Benth. &amp; Hook.f. ex Drake | Passiflora vittata hort. ex Bois</t>
-        </is>
-      </c>
-      <c r="AA148" t="n">
-        <v>776</v>
-      </c>
-      <c r="AB148" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+          <t>Passiflora violacea Loisel.</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>0</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Passiflora ×violacea Loisel.", "wfo_id": "wfo-4000028296", "full_name_plain": "Passiflora L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Passiflora'", "Word contains non alpha chars and so is start of author string: '×violacea'.", "Authors string looks like this: '×violacea Loisel.'", "Parsed name complete.", "Searched index of 2025-12 for canonical form of name 'Passiflora' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Passiflora violacea", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000745854", "full_name_plain": "Passiflora violacea Loisel.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -18776,31 +19216,31 @@
       </c>
       <c r="W149" t="inlineStr">
         <is>
+          <t>Phyllanthus inflatus</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
           <t>wfo-0000271217</t>
         </is>
       </c>
-      <c r="X149" t="inlineStr">
+      <c r="Y149" t="inlineStr">
         <is>
           <t>Phyllanthus inflatus Hutch.</t>
         </is>
       </c>
-      <c r="Y149" t="inlineStr">
+      <c r="Z149" t="inlineStr">
         <is>
           <t>Phyllanthus inflatus Hutch.</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="n">
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
         <v>0</v>
       </c>
-      <c r="AB149" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC149" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Phyllanthus inflatus Hutch.", "wfo_id": "wfo-0000271217", "full_name_plain": "Phyllanthus inflatus Hutch.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Phyllanthus'", "Word is found in index and so is part of name: 'inflatus'.", "Word is lowercase. Subsequent words must start with lowercase: 'inflatus'.", "Word contains non alpha chars and so is start of author string: 'Hutch.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'inflatus'", "Authors string looks like this: 'Hutch.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Phyllanthus inflatus' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Phyllanthus inflatus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000271217", "full_name_plain": "Phyllanthus inflatus Hutch.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 0}}</t>
         </is>
       </c>
     </row>
@@ -18901,35 +19341,35 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
+          <t>Phyllanthus reticulatus</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
           <t>wfo-0000271947</t>
         </is>
       </c>
-      <c r="X150" t="inlineStr">
+      <c r="Y150" t="inlineStr">
         <is>
           <t>Phyllanthus reticulatus Poir.</t>
         </is>
       </c>
-      <c r="Y150" t="inlineStr">
+      <c r="Z150" t="inlineStr">
         <is>
           <t>Phyllanthus reticulatus Poir.</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr">
+      <c r="AA150" t="inlineStr">
         <is>
           <t>Kirganelia dubia (Blume) Baill. | Kirganelia intermedia (Decne.) Baill. | Kirganelia lineata Alston | Kirganelia multiflora Baill. | Kirganelia multiflora var. glabra (Baill.) Thwaites | Kirganelia prieuriana Baill. | Kirganelia prieuriana var. glabra (Thwaites) Baill. | Kirganelia puberula Baill. | Kirganelia reticulata (Poir.) Baill. | Kirganelia sinensis Baill. | Melanthesa oblongifolia Oken | Phyllanthus alaternoides Rchb. ex Baill. | Phyllanthus chamissonis Klotzsch | Phyllanthus dalbergioides (Müll.Arg.) Wall. ex J.J.Sm. | Phyllanthus depressus Buch.-Ham. ex Dillwyn | Phyllanthus griseus Wall. | Phyllanthus jamaicensis Griseb. | Phyllanthus multiflorus Willd. | Phyllanthus oblongifolius Pax | Phyllanthus pentandrus Roxb. ex Thwaites | Phyllanthus prieurianus (Baill.) Müll.Arg. | Phyllanthus prieurianus var. glaber (Baill.) Müll.Arg. | Phyllanthus puberulus Miq. ex Baill. | Phyllanthus reticulatus var. glaber (Thwaites) Müll.Arg. | Phyllanthus reticulatus var. reticulatus | Phyllanthus scandens Roxb. ex Dillwyn | Phyllanthus spinescens Wall. | Phyllanthus takaoensis Hayata | Kirganelia wightiana Baill. | Cicca decandra Blanco | Cicca reticulata (Poir.) Kurz | Phyllanthus microcarpus var. pallidus Müll.Arg. | Phyllanthus microcarpus var. dalbergioides Müll.Arg. | Diasperus multiflorus (Baill.) Kuntze | Diasperus reticulatus (Poir.) Kuntze | Anisonema dubium Blume | Anisonema intermedium Decne. | Anisonema jamaicense (Griseb.) Griseb. | Anisonema multiflorum (Baill.) Wight | Anisonema puberulum Baill. | Anisonema reticulatum (Poir.) A.Juss. | Anisonema wrightianum Baill. | Anisonema zollingeri Miq. | Phyllanthus pulchellus A.Juss. | Phyllanthus sinensis var. dalbergioides Müll.Arg. | Phyllanthus sinensis Müll.Arg.</t>
         </is>
       </c>
-      <c r="AA150" t="n">
+      <c r="AB150" t="n">
         <v>46</v>
       </c>
-      <c r="AB150" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC150" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Phyllanthus reticulatus Poir.", "wfo_id": "wfo-0000271947", "full_name_plain": "Phyllanthus reticulatus Poir.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Phyllanthus'", "Word is found in index and so is part of name: 'reticulatus'.", "Word is lowercase. Subsequent words must start with lowercase: 'reticulatus'.", "Word contains non alpha chars and so is start of author string: 'Poir.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'reticulatus'", "Authors string looks like this: 'Poir.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Phyllanthus reticulatus' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Phyllanthus reticulatus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000271947", "full_name_plain": "Phyllanthus reticulatus Poir.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 46}}</t>
         </is>
       </c>
     </row>
@@ -19022,35 +19462,35 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
+          <t>Pilea ovalis</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
           <t>wfo-0001260895</t>
         </is>
       </c>
-      <c r="X151" t="inlineStr">
+      <c r="Y151" t="inlineStr">
         <is>
           <t>Pilea ovalis Griseb.</t>
         </is>
       </c>
-      <c r="Y151" t="inlineStr">
+      <c r="Z151" t="inlineStr">
         <is>
           <t>Pilea ovalis Griseb.</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
+      <c r="AA151" t="inlineStr">
         <is>
           <t>Adicea ovalis (Griseb.) Kuntze</t>
         </is>
       </c>
-      <c r="AA151" t="n">
+      <c r="AB151" t="n">
         <v>1</v>
       </c>
-      <c r="AB151" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC151" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Pilea ovalis Griseb.", "wfo_id": "wfo-0001260895", "full_name_plain": "Pilea ovalis Griseb.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Pilea'", "Word is found in index and so is part of name: 'ovalis'.", "Word is lowercase. Subsequent words must start with lowercase: 'ovalis'.", "Word contains non alpha chars and so is start of author string: 'Griseb.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'ovalis'", "Authors string looks like this: 'Griseb.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Pilea ovalis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Pilea ovalis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001260895", "full_name_plain": "Pilea ovalis Griseb.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -19143,35 +19583,35 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
+          <t>Pilea ovalis</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
           <t>wfo-0001260895</t>
         </is>
       </c>
-      <c r="X152" t="inlineStr">
+      <c r="Y152" t="inlineStr">
         <is>
           <t>Pilea ovalis Griseb.</t>
         </is>
       </c>
-      <c r="Y152" t="inlineStr">
+      <c r="Z152" t="inlineStr">
         <is>
           <t>Pilea ovalis Griseb.</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
+      <c r="AA152" t="inlineStr">
         <is>
           <t>Adicea ovalis (Griseb.) Kuntze</t>
         </is>
       </c>
-      <c r="AA152" t="n">
+      <c r="AB152" t="n">
         <v>1</v>
       </c>
-      <c r="AB152" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC152" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Pilea ovalis Griseb.", "wfo_id": "wfo-0001260895", "full_name_plain": "Pilea ovalis Griseb.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Pilea'", "Word is found in index and so is part of name: 'ovalis'.", "Word is lowercase. Subsequent words must start with lowercase: 'ovalis'.", "Word contains non alpha chars and so is start of author string: 'Griseb.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'ovalis'", "Authors string looks like this: 'Griseb.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Pilea ovalis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Pilea ovalis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001260895", "full_name_plain": "Pilea ovalis Griseb.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -19272,35 +19712,35 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
+          <t>Piper betle</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
           <t>wfo-0000479518</t>
         </is>
       </c>
-      <c r="X153" t="inlineStr">
+      <c r="Y153" t="inlineStr">
         <is>
           <t>Piper betle L.</t>
         </is>
       </c>
-      <c r="Y153" t="inlineStr">
+      <c r="Z153" t="inlineStr">
         <is>
           <t>Piper betle L.</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr">
+      <c r="AA153" t="inlineStr">
         <is>
           <t>Macropiper potamogetonifolium (Opiz) Miq. | Piper carnistilum C.DC. | Piper canaliculatum Opiz | Piper fenixii C.DC. | Piper betel Blanco | Piper bathicarpum C.DC. | Piper bidentatum Stokes | Piper blancoi Merr. | Piper blumei (Miq.) Backer | Piper anisodorum Náves ex Fern.-Vill. | Piper anisodorum Blanco | Piper philippinense C.DC. | Piper pinguispicum C.DC. &amp; Koord. | Piper puberulinodum C.DC. | Piper potamogetonifolium Opiz | Piper saururus Burm. | Piper siriboa L. | Piper malamiris L. | Piper malarayatense C.DC. | Piper malamiri Blume | Piper macgregorii C.DC. | Piperi betlum (L.) St.-Lag. | Piper rubroglandulosum Chaveer. &amp; Mokkamul | Artanthe hexagyna Miq. | Betela mastica Raf. | Chavica auriculata Miq. | Chavica betle (L.) Miq. | Chavica blumei Miq. | Chavica canaliculata (Opiz) C.Presl | Chavica densa Miq. | Chavica siriboa (L.) Miq. | Cubeba melamiri Miq. | Cubeba siriboa Miq. | Piper marianum Opiz | Piper betle var. marianum (Opiz) C.DC. | Piper betle f. marianum (Opiz) Fosberg | Piper densum Blume | Piper betle var. densum (Blume) C.DC. | Piper betle f. densum (Blume) Fosberg | Piper silletianum P.K.Mukh. | Piper chawya Buch.-Ham. ex Wall. | Piper betle var. amplifolium C.DC. | Piper betle var. siriboa (L.) C.DC.</t>
         </is>
       </c>
-      <c r="AA153" t="n">
+      <c r="AB153" t="n">
         <v>43</v>
       </c>
-      <c r="AB153" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC153" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Piper betle L.", "wfo_id": "wfo-0000479518", "full_name_plain": "Piper betle L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Piper'", "Word is found in index and so is part of name: 'betle'.", "Word is lowercase. Subsequent words must start with lowercase: 'betle'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'betle'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Piper betle' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Piper betle", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000479518", "full_name_plain": "Piper betle L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 43}}</t>
         </is>
       </c>
     </row>
@@ -19401,35 +19841,35 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
+          <t>Piper kadsura</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
           <t>wfo-0000486229</t>
         </is>
       </c>
-      <c r="X154" t="inlineStr">
+      <c r="Y154" t="inlineStr">
         <is>
           <t>Piper kadsura (Choisy) Ohwi</t>
         </is>
       </c>
-      <c r="Y154" t="inlineStr">
+      <c r="Z154" t="inlineStr">
         <is>
           <t>Piper kadsura (Choisy) Ohwi</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr">
+      <c r="AA154" t="inlineStr">
         <is>
           <t>Piper futokadsura Siebold | Piper arboricola C.DC. | Piper rupigaudens C.DC. | Piper subglaucescens C.DC. | Piper taquetii C.DC. | Piper futokadsura var. macrophyllum Nakai | Piper kadsura f. macrophyllum (Nakai) M.Mizush. | Piper kadsura var. boninense M.Mizush.</t>
         </is>
       </c>
-      <c r="AA154" t="n">
+      <c r="AB154" t="n">
         <v>8</v>
       </c>
-      <c r="AB154" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC154" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Piper kadsura (Choisy) Ohwi", "wfo_id": "wfo-0000486229", "full_name_plain": "Piper kadsura (Choisy) Ohwi", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Piper'", "Word is found in index and so is part of name: 'kadsura'.", "Word is lowercase. Subsequent words must start with lowercase: 'kadsura'.", "Word contains non alpha chars and so is start of author string: '(Choisy)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'kadsura'", "Authors string looks like this: '(Choisy) Ohwi'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Piper kadsura' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Piper kadsura", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000486229", "full_name_plain": "Piper kadsura (Choisy) Ohwi", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 8}}</t>
         </is>
       </c>
     </row>
@@ -19530,35 +19970,35 @@
       </c>
       <c r="W155" t="inlineStr">
         <is>
+          <t>Piper longum</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
           <t>wfo-0000486013</t>
         </is>
       </c>
-      <c r="X155" t="inlineStr">
+      <c r="Y155" t="inlineStr">
         <is>
           <t>Piper longum L.</t>
         </is>
       </c>
-      <c r="Y155" t="inlineStr">
+      <c r="Z155" t="inlineStr">
         <is>
           <t>Piper longum L.</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr">
+      <c r="AA155" t="inlineStr">
         <is>
           <t>Piper roxburghii (Miq.) J.Presl | Piper turbinatum Noronha | Chavica longa H.Karst. | Chavica roxburghii Miq. | Piper sarmentosum Wall. | Piper latifolium W.Hunter | Chavica sarmentosa Miq.</t>
         </is>
       </c>
-      <c r="AA155" t="n">
+      <c r="AB155" t="n">
         <v>7</v>
       </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC155" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Piper longum L.", "wfo_id": "wfo-0000486013", "full_name_plain": "Piper longum L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Piper'", "Word is found in index and so is part of name: 'longum'.", "Word is lowercase. Subsequent words must start with lowercase: 'longum'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'longum'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Piper longum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Piper longum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000486013", "full_name_plain": "Piper longum L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 7}}</t>
         </is>
       </c>
     </row>
@@ -19649,21 +20089,37 @@
           <t>Piper magnificum Gentil ex Trel.</t>
         </is>
       </c>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB156" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>Piper magnificum</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>wfo-0001092849</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>Piper magnificum hort. ex Gentil</t>
+        </is>
+      </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>Piper magnificum hort. ex Gentil</t>
+        </is>
+      </c>
+      <c r="AA156" t="inlineStr">
+        <is>
+          <t>Artanthe decurrens Fourn. | Artanthe magnifica Miq. | Artanthe magnifica Linden | Piper bicolor Yunck.</t>
+        </is>
+      </c>
+      <c r="AB156" t="n">
+        <v>4</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Piper magnificum Gentil ex Trel.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Piper'", "Word is found in index and so is part of name: 'magnificum'.", "Word is lowercase. Subsequent words must start with lowercase: 'magnificum'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Gentil'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'magnificum'", "Authors string looks like this: 'Gentil ex Trel.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Piper magnificum' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Piper magnificum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0001092849", "full_name_plain": "Piper magnificum hort. ex Gentil", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -19764,35 +20220,35 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
+          <t>Plumeria alba</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
           <t>wfo-0000279064</t>
         </is>
       </c>
-      <c r="X157" t="inlineStr">
+      <c r="Y157" t="inlineStr">
         <is>
           <t>Plumeria alba L.</t>
         </is>
       </c>
-      <c r="Y157" t="inlineStr">
+      <c r="Z157" t="inlineStr">
         <is>
           <t>Plumeria alba L.</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr">
+      <c r="AA157" t="inlineStr">
         <is>
           <t>Plumeria revolutifolia Stokes | Plumeria alba var. jacquiniana A.DC. | Plumeria hypoleuca var. angustifolia Gasp.</t>
         </is>
       </c>
-      <c r="AA157" t="n">
+      <c r="AB157" t="n">
         <v>3</v>
       </c>
-      <c r="AB157" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC157" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Plumeria alba L.", "wfo_id": "wfo-0000279064", "full_name_plain": "Plumeria alba L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Plumeria'", "Word is found in index and so is part of name: 'alba'.", "Word is lowercase. Subsequent words must start with lowercase: 'alba'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'alba'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Plumeria alba' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Plumeria alba", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000279064", "full_name_plain": "Plumeria alba L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -19893,35 +20349,35 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
+          <t>Plumeria rubra</t>
+        </is>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
           <t>wfo-0000279184</t>
         </is>
       </c>
-      <c r="X158" t="inlineStr">
+      <c r="Y158" t="inlineStr">
         <is>
           <t>Plumeria rubra L.</t>
         </is>
       </c>
-      <c r="Y158" t="inlineStr">
+      <c r="Z158" t="inlineStr">
         <is>
           <t>Plumeria rubra L.</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
+      <c r="AA158" t="inlineStr">
         <is>
           <t>Plumeria acuminata W.T.Aiton | Plumeria acutifolia Poir. | Plumeria angustifolia A.DC. | Plumeria arborea Noronha | Plumeria arborescens G.Don | Plumeria aurantia Endl. | Plumeria aurantia G.Lodd. | Plumeria aurantiaca Steud. | Plumeria bicolor Ruiz &amp; Pav. | Plumeria blandfordiana G.Lodd. | Plumeria carinata Ruiz &amp; Pav. | Plumeria conspicua hort. ex G.Don | Plumeria gouanii D.Don ex G.Don | Plumeria incarnata Mill. | Plumeria jamesonii Hook. | Plumeria kerrii G.Don | Plumeria kunthiana Kostel. | Plumeria lambertiana Lindl. | Plumeria loranthifolia Müll.Arg. | Plumeria lutea Ruiz &amp; Pav. | Plumeria macrophylla Lodd. | Plumeria megaphylla A.DC. | Plumeria mexicana G.Lodd. | Plumeria milleri G.Don | Plumeria mollis Kunth | Plumeria northiana G.Lodd. | Plumeria purpurea Ruiz &amp; Pav. | Plumeria rubra f. acuminata (W.T.Aiton) Woodson | Plumeria rubra var. acuminata (Ait.) R.S.Rao &amp; Balamani | Plumeria rubra f. acutifolia (Poir.) Woodson | Plumeria rubra f. lutea (Ruiz &amp; Pav.) Woodson | Plumeria rubra f. tricolor (Roem. &amp; Pav.) Woodson | Plumeria tenuifolia G.Lodd. | Plumeria tricolor Ruiz &amp; Pav. | Plumeria mariaelenae J.F.Gut. &amp; J.Linares | Plumeria acutifolia var. gasparrinii A.DC. | Plumeria incarnata var. milleri (G.Don) A.DC. | Plumeria rubra f. rubra | Plumeria rubra var. acutifolia (Poir.) L.H.Bailey | Plumeria rubra f. typica Woodson</t>
         </is>
       </c>
-      <c r="AA158" t="n">
+      <c r="AB158" t="n">
         <v>40</v>
       </c>
-      <c r="AB158" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC158" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Plumeria rubra L.", "wfo_id": "wfo-0000279184", "full_name_plain": "Plumeria rubra L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Plumeria'", "Word is found in index and so is part of name: 'rubra'.", "Word is lowercase. Subsequent words must start with lowercase: 'rubra'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'rubra'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Plumeria rubra' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Plumeria rubra", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000279184", "full_name_plain": "Plumeria rubra L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 40}}</t>
         </is>
       </c>
     </row>
@@ -20022,35 +20478,35 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
+          <t>Polyalthia suberosa</t>
+        </is>
+      </c>
+      <c r="X159" t="inlineStr">
+        <is>
           <t>wfo-0001066143</t>
         </is>
       </c>
-      <c r="X159" t="inlineStr">
+      <c r="Y159" t="inlineStr">
         <is>
           <t>Polyalthia suberosa (Roxb.) Thwaites</t>
         </is>
       </c>
-      <c r="Y159" t="inlineStr">
+      <c r="Z159" t="inlineStr">
         <is>
           <t>Polyalthia suberosa (Roxb.) Thwaites</t>
         </is>
       </c>
-      <c r="Z159" t="inlineStr">
+      <c r="AA159" t="inlineStr">
         <is>
           <t>Phaeanthus malabaricus Náves | Guatteria suberosa Dunal | Uvaria suberosa Roxb. | Polyalthia suberosa var. laevis Boerl.</t>
         </is>
       </c>
-      <c r="AA159" t="n">
+      <c r="AB159" t="n">
         <v>4</v>
       </c>
-      <c r="AB159" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC159" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Polyalthia suberosa (Roxb.) Thwaites", "wfo_id": "wfo-0001066143", "full_name_plain": "Polyalthia suberosa (Roxb.) Thwaites", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Polyalthia'", "Word is found in index and so is part of name: 'suberosa'.", "Word is lowercase. Subsequent words must start with lowercase: 'suberosa'.", "Word contains non alpha chars and so is start of author string: '(Roxb.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'suberosa'", "Authors string looks like this: '(Roxb.) Thwaites'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Polyalthia suberosa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Polyalthia suberosa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001066143", "full_name_plain": "Polyalthia suberosa (Roxb.) Thwaites", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -20143,35 +20599,35 @@
       </c>
       <c r="W160" t="inlineStr">
         <is>
+          <t>Pseudorhipsalis ramulosa</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
           <t>wfo-0000397959</t>
         </is>
       </c>
-      <c r="X160" t="inlineStr">
+      <c r="Y160" t="inlineStr">
         <is>
           <t>Pseudorhipsalis ramulosa (Salm-Dyck) Barthlott</t>
         </is>
       </c>
-      <c r="Y160" t="inlineStr">
+      <c r="Z160" t="inlineStr">
         <is>
           <t>Kimnachia</t>
         </is>
       </c>
-      <c r="Z160" t="inlineStr">
+      <c r="AA160" t="inlineStr">
         <is>
           <t>Kimnachia ramulosa (Salm-Dyck) S.Arias &amp; N.Korotkova</t>
         </is>
       </c>
-      <c r="AA160" t="n">
+      <c r="AB160" t="n">
         <v>1</v>
       </c>
-      <c r="AB160" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC160" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Pseudorhipsalis ramulosa (Salm-Dyck) Barthlott", "wfo_id": "wfo-0000397959", "full_name_plain": "Pseudorhipsalis ramulosa (Salm-Dyck) Barthlott", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Pseudorhipsalis'", "Word is found in index and so is part of name: 'ramulosa'.", "Word is lowercase. Subsequent words must start with lowercase: 'ramulosa'.", "Word contains non alpha chars and so is start of author string: '(Salm-Dyck)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'ramulosa'", "Authors string looks like this: '(Salm-Dyck) Barthlott'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Pseudorhipsalis ramulosa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Pseudorhipsalis ramulosa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000397959", "full_name_plain": "Pseudorhipsalis ramulosa (Salm-Dyck) Barthlott", "attempts_count": 1, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -20272,35 +20728,35 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
+          <t>Pseudospondias microcarpa</t>
+        </is>
+      </c>
+      <c r="X161" t="inlineStr">
+        <is>
           <t>wfo-0000393818</t>
         </is>
       </c>
-      <c r="X161" t="inlineStr">
+      <c r="Y161" t="inlineStr">
         <is>
           <t>Pseudospondias microcarpa Engl.</t>
         </is>
       </c>
-      <c r="Y161" t="inlineStr">
+      <c r="Z161" t="inlineStr">
         <is>
           <t>Pseudospondias microcarpa Engl.</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr">
+      <c r="AA161" t="inlineStr">
         <is>
           <t>Spondias angolensis O.Hoffm. | Sorindeia obliquifoliolata Engl. | Spondias microcarpa A.Rich. | Pseudospondias microcarpa var. microcarpa | Spondias zanzee G.Don | Sorindeia obtusifoliolata var. parvifoliolata Engl.</t>
         </is>
       </c>
-      <c r="AA161" t="n">
+      <c r="AB161" t="n">
         <v>6</v>
       </c>
-      <c r="AB161" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC161" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Pseudospondias microcarpa (A.Rich.) Engl.", "wfo_id": "wfo-0000393818", "full_name_plain": "Pseudospondias microcarpa Engl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Pseudospondias'", "Word is found in index and so is part of name: 'microcarpa'.", "Word is lowercase. Subsequent words must start with lowercase: 'microcarpa'.", "Word contains non alpha chars and so is start of author string: '(A.Rich.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'microcarpa'", "Authors string looks like this: '(A.Rich.) Engl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Pseudospondias microcarpa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Pseudospondias microcarpa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000393818", "full_name_plain": "Pseudospondias microcarpa Engl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -20401,35 +20857,35 @@
       </c>
       <c r="W162" t="inlineStr">
         <is>
+          <t>Psidium cattleianum</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
           <t>wfo-0000284334</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr">
+      <c r="Y162" t="inlineStr">
         <is>
           <t>Psidium cattleianum Sabine</t>
         </is>
       </c>
-      <c r="Y162" t="inlineStr">
+      <c r="Z162" t="inlineStr">
         <is>
           <t>Psidium</t>
         </is>
       </c>
-      <c r="Z162" t="inlineStr">
+      <c r="AA162" t="inlineStr">
         <is>
           <t>Psidium cattleyanum Sabine</t>
         </is>
       </c>
-      <c r="AA162" t="n">
+      <c r="AB162" t="n">
         <v>1</v>
       </c>
-      <c r="AB162" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC162" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium cattleianum Afzel. ex Sabine", "wfo_id": "wfo-0000284334", "full_name_plain": "Psidium cattleianum Sabine", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'cattleianum'.", "Word is lowercase. Subsequent words must start with lowercase: 'cattleianum'.", "Word contains non alpha chars and so is start of author string: 'Afzel.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cattleianum'", "Authors string looks like this: 'Afzel. ex Sabine'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium cattleianum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium cattleianum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284334", "full_name_plain": "Psidium cattleianum Sabine", "attempts_count": 1, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -20530,35 +20986,35 @@
       </c>
       <c r="W163" t="inlineStr">
         <is>
+          <t>Psidium cattleianum</t>
+        </is>
+      </c>
+      <c r="X163" t="inlineStr">
+        <is>
           <t>wfo-0000284334</t>
         </is>
       </c>
-      <c r="X163" t="inlineStr">
+      <c r="Y163" t="inlineStr">
         <is>
           <t>Psidium cattleianum Sabine</t>
         </is>
       </c>
-      <c r="Y163" t="inlineStr">
+      <c r="Z163" t="inlineStr">
         <is>
           <t>Psidium</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr">
+      <c r="AA163" t="inlineStr">
         <is>
           <t>Psidium cattleyanum Sabine</t>
         </is>
       </c>
-      <c r="AA163" t="n">
+      <c r="AB163" t="n">
         <v>1</v>
       </c>
-      <c r="AB163" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC163" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium cattleianum Afzel. ex Sabine", "wfo_id": "wfo-0000284334", "full_name_plain": "Psidium cattleianum Sabine", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'cattleianum'.", "Word is lowercase. Subsequent words must start with lowercase: 'cattleianum'.", "Word contains non alpha chars and so is start of author string: 'Afzel.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cattleianum'", "Authors string looks like this: 'Afzel. ex Sabine'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium cattleianum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium cattleianum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284334", "full_name_plain": "Psidium cattleianum Sabine", "attempts_count": 1, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -20659,35 +21115,35 @@
       </c>
       <c r="W164" t="inlineStr">
         <is>
+          <t>Psidium cattleianum</t>
+        </is>
+      </c>
+      <c r="X164" t="inlineStr">
+        <is>
           <t>wfo-0000284334</t>
         </is>
       </c>
-      <c r="X164" t="inlineStr">
+      <c r="Y164" t="inlineStr">
         <is>
           <t>Psidium cattleianum Sabine</t>
         </is>
       </c>
-      <c r="Y164" t="inlineStr">
+      <c r="Z164" t="inlineStr">
         <is>
           <t>Psidium</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr">
+      <c r="AA164" t="inlineStr">
         <is>
           <t>Psidium cattleyanum Sabine</t>
         </is>
       </c>
-      <c r="AA164" t="n">
+      <c r="AB164" t="n">
         <v>1</v>
       </c>
-      <c r="AB164" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC164" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium cattleianum Afzel. ex Sabine", "wfo_id": "wfo-0000284334", "full_name_plain": "Psidium cattleianum Sabine", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'cattleianum'.", "Word is lowercase. Subsequent words must start with lowercase: 'cattleianum'.", "Word contains non alpha chars and so is start of author string: 'Afzel.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cattleianum'", "Authors string looks like this: 'Afzel. ex Sabine'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium cattleianum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium cattleianum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284334", "full_name_plain": "Psidium cattleianum Sabine", "attempts_count": 1, "parse": {"accepted_found": true, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -20788,35 +21244,35 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
+          <t>Psidium friedrichsthalianum</t>
+        </is>
+      </c>
+      <c r="X165" t="inlineStr">
+        <is>
           <t>wfo-0000284404</t>
         </is>
       </c>
-      <c r="X165" t="inlineStr">
+      <c r="Y165" t="inlineStr">
         <is>
           <t>Psidium friedrichsthalianum (O.Berg) Nied.</t>
         </is>
       </c>
-      <c r="Y165" t="inlineStr">
+      <c r="Z165" t="inlineStr">
         <is>
           <t>Psidium friedrichsthalianum (O.Berg) Nied.</t>
         </is>
       </c>
-      <c r="Z165" t="inlineStr">
+      <c r="AA165" t="inlineStr">
         <is>
           <t>Psidium grandiflorum Ruiz &amp; Pav. | Calyptropsidium friedrichsthalianum O.Berg</t>
         </is>
       </c>
-      <c r="AA165" t="n">
+      <c r="AB165" t="n">
         <v>2</v>
       </c>
-      <c r="AB165" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC165" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium friedrichsthalianum (O.Berg) Nied.", "wfo_id": "wfo-0000284404", "full_name_plain": "Psidium friedrichsthalianum (O.Berg) Nied.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'friedrichsthalianum'.", "Word is lowercase. Subsequent words must start with lowercase: 'friedrichsthalianum'.", "Word contains non alpha chars and so is start of author string: '(O.Berg)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'friedrichsthalianum'", "Authors string looks like this: '(O.Berg) Nied.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium friedrichsthalianum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium friedrichsthalianum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284404", "full_name_plain": "Psidium friedrichsthalianum (O.Berg) Nied.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -20917,35 +21373,35 @@
       </c>
       <c r="W166" t="inlineStr">
         <is>
+          <t>Psidium guajava</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
           <t>wfo-0000284421</t>
         </is>
       </c>
-      <c r="X166" t="inlineStr">
+      <c r="Y166" t="inlineStr">
         <is>
           <t>Psidium guajava L.</t>
         </is>
       </c>
-      <c r="Y166" t="inlineStr">
+      <c r="Z166" t="inlineStr">
         <is>
           <t>Psidium guajava L.</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr">
+      <c r="AA166" t="inlineStr">
         <is>
           <t>Myrtus guajava (L.) Kuntze | Psidium angustifolium Lam. | Psidium aromaticum Blanco | Psidium cujavillus Burm.f. | Psidium cujavus L. | Psidium fragrans Macfad. | Psidium globosum Larrañaga | Psidium guajava var. minor Mattos | Psidium igatemyense Barb.Rodr. | Psidium intermedium Zipp. ex Blume | Psidium longifolium Schumach. | Psidium pomiferum L. | Psidium prostratum O.Berg | Psidium pumilum Vahl | Psidium pyriferum L. | Psidium sapidissimum Jacq. | Psidium vulgare Rich. | Syzygium ellipticum K.Schum. &amp; Lauterb. | Psidium guajava var. cujavillum (Burm.f.) Krug &amp; Urb. | Psidium pumilum var. guadalupense DC. | Psidium pyriferum var. glabrum Benth. | Myrtus guajava var. pyrifera (Kuntze) Kuntze | Guajava pumila (Vahl) Kuntze | Guajava pyrifera Kuntze | Psidium igatemyensis Barb.Rodr. | Psidium guayava Griseb. | Psidium pomiferum var. sapidissimum (Jacq.) DC. | Psidium chodatianum Barb.Rodr. | Psidium ellipticum Barb.Rodr. | Psidium guajava var. guajava | Psidium crispum Barb.Rodr. | Psidium subcrenatum Barb.Rodr. | Psidium pumilum var. intermedium Blume | Psidium pumilum var. rufescens Blume | Psidium guajava f. cujavillus (Burm.f.) O.Deg. &amp; I.Deg.</t>
         </is>
       </c>
-      <c r="AA166" t="n">
+      <c r="AB166" t="n">
         <v>35</v>
       </c>
-      <c r="AB166" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC166" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium guajava L.", "wfo_id": "wfo-0000284421", "full_name_plain": "Psidium guajava L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'guajava'.", "Word is lowercase. Subsequent words must start with lowercase: 'guajava'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'guajava'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium guajava' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium guajava", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284421", "full_name_plain": "Psidium guajava L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 35}}</t>
         </is>
       </c>
     </row>
@@ -21046,35 +21502,35 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
+          <t>Psidium guajava</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
           <t>wfo-0000284421</t>
         </is>
       </c>
-      <c r="X167" t="inlineStr">
+      <c r="Y167" t="inlineStr">
         <is>
           <t>Psidium guajava L.</t>
         </is>
       </c>
-      <c r="Y167" t="inlineStr">
+      <c r="Z167" t="inlineStr">
         <is>
           <t>Psidium guajava L.</t>
         </is>
       </c>
-      <c r="Z167" t="inlineStr">
+      <c r="AA167" t="inlineStr">
         <is>
           <t>Myrtus guajava (L.) Kuntze | Psidium angustifolium Lam. | Psidium aromaticum Blanco | Psidium cujavillus Burm.f. | Psidium cujavus L. | Psidium fragrans Macfad. | Psidium globosum Larrañaga | Psidium guajava var. minor Mattos | Psidium igatemyense Barb.Rodr. | Psidium intermedium Zipp. ex Blume | Psidium longifolium Schumach. | Psidium pomiferum L. | Psidium prostratum O.Berg | Psidium pumilum Vahl | Psidium pyriferum L. | Psidium sapidissimum Jacq. | Psidium vulgare Rich. | Syzygium ellipticum K.Schum. &amp; Lauterb. | Psidium guajava var. cujavillum (Burm.f.) Krug &amp; Urb. | Psidium pumilum var. guadalupense DC. | Psidium pyriferum var. glabrum Benth. | Myrtus guajava var. pyrifera (Kuntze) Kuntze | Guajava pumila (Vahl) Kuntze | Guajava pyrifera Kuntze | Psidium igatemyensis Barb.Rodr. | Psidium guayava Griseb. | Psidium pomiferum var. sapidissimum (Jacq.) DC. | Psidium chodatianum Barb.Rodr. | Psidium ellipticum Barb.Rodr. | Psidium guajava var. guajava | Psidium crispum Barb.Rodr. | Psidium subcrenatum Barb.Rodr. | Psidium pumilum var. intermedium Blume | Psidium pumilum var. rufescens Blume | Psidium guajava f. cujavillus (Burm.f.) O.Deg. &amp; I.Deg.</t>
         </is>
       </c>
-      <c r="AA167" t="n">
+      <c r="AB167" t="n">
         <v>35</v>
       </c>
-      <c r="AB167" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC167" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium guajava L.", "wfo_id": "wfo-0000284421", "full_name_plain": "Psidium guajava L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'guajava'.", "Word is lowercase. Subsequent words must start with lowercase: 'guajava'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'guajava'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium guajava' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium guajava", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284421", "full_name_plain": "Psidium guajava L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 35}}</t>
         </is>
       </c>
     </row>
@@ -21175,35 +21631,35 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
+          <t>Psidium guajava</t>
+        </is>
+      </c>
+      <c r="X168" t="inlineStr">
+        <is>
           <t>wfo-0000284421</t>
         </is>
       </c>
-      <c r="X168" t="inlineStr">
+      <c r="Y168" t="inlineStr">
         <is>
           <t>Psidium guajava L.</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr">
+      <c r="Z168" t="inlineStr">
         <is>
           <t>Psidium guajava L.</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr">
+      <c r="AA168" t="inlineStr">
         <is>
           <t>Myrtus guajava (L.) Kuntze | Psidium angustifolium Lam. | Psidium aromaticum Blanco | Psidium cujavillus Burm.f. | Psidium cujavus L. | Psidium fragrans Macfad. | Psidium globosum Larrañaga | Psidium guajava var. minor Mattos | Psidium igatemyense Barb.Rodr. | Psidium intermedium Zipp. ex Blume | Psidium longifolium Schumach. | Psidium pomiferum L. | Psidium prostratum O.Berg | Psidium pumilum Vahl | Psidium pyriferum L. | Psidium sapidissimum Jacq. | Psidium vulgare Rich. | Syzygium ellipticum K.Schum. &amp; Lauterb. | Psidium guajava var. cujavillum (Burm.f.) Krug &amp; Urb. | Psidium pumilum var. guadalupense DC. | Psidium pyriferum var. glabrum Benth. | Myrtus guajava var. pyrifera (Kuntze) Kuntze | Guajava pumila (Vahl) Kuntze | Guajava pyrifera Kuntze | Psidium igatemyensis Barb.Rodr. | Psidium guayava Griseb. | Psidium pomiferum var. sapidissimum (Jacq.) DC. | Psidium chodatianum Barb.Rodr. | Psidium ellipticum Barb.Rodr. | Psidium guajava var. guajava | Psidium crispum Barb.Rodr. | Psidium subcrenatum Barb.Rodr. | Psidium pumilum var. intermedium Blume | Psidium pumilum var. rufescens Blume | Psidium guajava f. cujavillus (Burm.f.) O.Deg. &amp; I.Deg.</t>
         </is>
       </c>
-      <c r="AA168" t="n">
+      <c r="AB168" t="n">
         <v>35</v>
       </c>
-      <c r="AB168" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC168" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium guajava L.", "wfo_id": "wfo-0000284421", "full_name_plain": "Psidium guajava L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'guajava'.", "Word is lowercase. Subsequent words must start with lowercase: 'guajava'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'guajava'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium guajava' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium guajava", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284421", "full_name_plain": "Psidium guajava L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 35}}</t>
         </is>
       </c>
     </row>
@@ -21304,35 +21760,35 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
+          <t>Psidium guajava</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
           <t>wfo-0000284421</t>
         </is>
       </c>
-      <c r="X169" t="inlineStr">
+      <c r="Y169" t="inlineStr">
         <is>
           <t>Psidium guajava L.</t>
         </is>
       </c>
-      <c r="Y169" t="inlineStr">
+      <c r="Z169" t="inlineStr">
         <is>
           <t>Psidium guajava L.</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr">
+      <c r="AA169" t="inlineStr">
         <is>
           <t>Myrtus guajava (L.) Kuntze | Psidium angustifolium Lam. | Psidium aromaticum Blanco | Psidium cujavillus Burm.f. | Psidium cujavus L. | Psidium fragrans Macfad. | Psidium globosum Larrañaga | Psidium guajava var. minor Mattos | Psidium igatemyense Barb.Rodr. | Psidium intermedium Zipp. ex Blume | Psidium longifolium Schumach. | Psidium pomiferum L. | Psidium prostratum O.Berg | Psidium pumilum Vahl | Psidium pyriferum L. | Psidium sapidissimum Jacq. | Psidium vulgare Rich. | Syzygium ellipticum K.Schum. &amp; Lauterb. | Psidium guajava var. cujavillum (Burm.f.) Krug &amp; Urb. | Psidium pumilum var. guadalupense DC. | Psidium pyriferum var. glabrum Benth. | Myrtus guajava var. pyrifera (Kuntze) Kuntze | Guajava pumila (Vahl) Kuntze | Guajava pyrifera Kuntze | Psidium igatemyensis Barb.Rodr. | Psidium guayava Griseb. | Psidium pomiferum var. sapidissimum (Jacq.) DC. | Psidium chodatianum Barb.Rodr. | Psidium ellipticum Barb.Rodr. | Psidium guajava var. guajava | Psidium crispum Barb.Rodr. | Psidium subcrenatum Barb.Rodr. | Psidium pumilum var. intermedium Blume | Psidium pumilum var. rufescens Blume | Psidium guajava f. cujavillus (Burm.f.) O.Deg. &amp; I.Deg.</t>
         </is>
       </c>
-      <c r="AA169" t="n">
+      <c r="AB169" t="n">
         <v>35</v>
       </c>
-      <c r="AB169" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC169" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium guajava L.", "wfo_id": "wfo-0000284421", "full_name_plain": "Psidium guajava L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'guajava'.", "Word is lowercase. Subsequent words must start with lowercase: 'guajava'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'guajava'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium guajava' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium guajava", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284421", "full_name_plain": "Psidium guajava L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 35}}</t>
         </is>
       </c>
     </row>
@@ -21433,35 +21889,35 @@
       </c>
       <c r="W170" t="inlineStr">
         <is>
+          <t>Psidium guineense</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr">
+        <is>
           <t>wfo-0000284428</t>
         </is>
       </c>
-      <c r="X170" t="inlineStr">
+      <c r="Y170" t="inlineStr">
         <is>
           <t>Psidium guineense Sw.</t>
         </is>
       </c>
-      <c r="Y170" t="inlineStr">
+      <c r="Z170" t="inlineStr">
         <is>
           <t>Psidium guineense Sw.</t>
         </is>
       </c>
-      <c r="Z170" t="inlineStr">
+      <c r="AA170" t="inlineStr">
         <is>
           <t>Mosiera guineensis (Sw.) Bisse | Myrtus guineensis (Sw.) Kuntze | Myrtus hauthalii Kuntze | Psidium albidum Cambess. | Psidium araca Raddi | Psidium benthamianum O.Berg | Psidium costa-ricense O.Berg | Psidium dichotomum Weinm. | Psidium hasslerianum Barb.Rodr. | Psidium hians Mart. ex DC. | Psidium jollyanum A.Chev. | Psidium laurifolium O.Berg | Psidium lehmannii Diels | Psidium minus Mart. ex DC. | Psidium molle Bertol. | Psidium monticola O.Berg | Psidium multiflorum Cambess. | Psidium ooideum O.Berg | Psidium ooideum var. longipedunculatum Rusby | Psidium polycarpon Lamb. | Psidium rotundifolium Standl. | Psidium rufinervum Barb.Rodr. | Psidium schiedeanum O.Berg | Psidium schippii Standl. | Psidium sericiflorum Benth. | Psidium ypanemense O.Berg | Campomanesia multiflora Blume | Campomanesia tomentosa Kunth | Psidium hians var. cuneatum O.Berg | Psidium hians var. truncatum O.Berg | Psidium molle var. gracile O.Berg | Psidium molle var. robustum O.Berg | Psidium monticola var. gracile O.Berg | Psidium monticola var. robustum O.Berg | Psidium ooideum var. grandifolium O.Berg | Psidium ooideum var. intermedium O.Berg | Psidium ooideum var. parvifolium O.Berg | Eugenia hauthalii (Kuntze) K.Schum. | Guajava albida (Cambess.) Kuntze | Guajava benthamiana (O.Berg) Kuntze | Guajava costa-ricensis (O.Berg) Kuntze | Guajava guineensis (Sw.) Kuntze | Guajava hians (Mart. ex DC.) Kuntze | Guajava laurifolia (O.Berg) Kuntze | Guajava mollis (Bertol.) Kuntze | Guajava multiflora (Cambess.) Kuntze | Guajava ooidea (O.Berg) Kuntze | Guajava polycarpa (Lamb.) Kuntze | Guajava schiedeana (O.Berg) Kuntze | Guajava ypanemensis (O.Berg) Kuntze | Psidium atiraense Barb.Rodr. | Psidium cordillerense Barb.Rodr. | Psidium tomasense Barb.Rodr. | Psidium macrophyllum Barb.Rodr. | Eugenia hauthalii (Kuntze) K.Sch. | Psidium glandulosum Barb.Rodr. | Guajava ypanemense (O.Berg) Kuntze | Guajava costaricensis (O.Berg) Kuntze | Psidium laurifolium Barb.Rodr. | Campomanesia multiflora (Cambess.) O.Berg</t>
         </is>
       </c>
-      <c r="AA170" t="n">
+      <c r="AB170" t="n">
         <v>60</v>
       </c>
-      <c r="AB170" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC170" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Psidium guineense Sw.", "wfo_id": "wfo-0000284428", "full_name_plain": "Psidium guineense Sw.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Psidium'", "Word is found in index and so is part of name: 'guineense'.", "Word is lowercase. Subsequent words must start with lowercase: 'guineense'.", "Word contains non alpha chars and so is start of author string: 'Sw.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'guineense'", "Authors string looks like this: 'Sw.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Psidium guineense' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Psidium guineense", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000284428", "full_name_plain": "Psidium guineense Sw.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 60}}</t>
         </is>
       </c>
     </row>
@@ -21562,35 +22018,35 @@
       </c>
       <c r="W171" t="inlineStr">
         <is>
+          <t>Rauvolfia tetraphylla</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
           <t>wfo-0000295195</t>
         </is>
       </c>
-      <c r="X171" t="inlineStr">
+      <c r="Y171" t="inlineStr">
         <is>
           <t>Rauvolfia tetraphylla L.</t>
         </is>
       </c>
-      <c r="Y171" t="inlineStr">
+      <c r="Z171" t="inlineStr">
         <is>
           <t>Rauvolfia tetraphylla L.</t>
         </is>
       </c>
-      <c r="Z171" t="inlineStr">
+      <c r="AA171" t="inlineStr">
         <is>
           <t>Rauvolfia canescens L. | Rauvolfia heterophylla Willd. ex Roem. &amp; Schult. | Rauvolfia hirsuta Jacq. | Rauvolfia nitida Sessé &amp; Moc. | Rauvolfia odontophora Van Heurck &amp; Müll.Arg. | Rauvolfia subpubescens L. | Rauvolfia tomentosa Jacq. | Rauvolfia canescens var. glabra Müll.Arg. | Rauvolfia canescens var. intermedia Markgr. | Rauvolfia canescens var. tomentosa Müll.Arg. | Rauvolfia heterophylla var. puberula A.Gray | Rauvolfia hirsuta var. glabra (Müll.Arg.) Woodson | Rauvolfia latifolia var. minor Müll.Arg. | Rauvolfia canescens var. typica Markgr.</t>
         </is>
       </c>
-      <c r="AA171" t="n">
+      <c r="AB171" t="n">
         <v>14</v>
       </c>
-      <c r="AB171" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC171" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Rauvolfia tetraphylla L.", "wfo_id": "wfo-0000295195", "full_name_plain": "Rauvolfia tetraphylla L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Rauvolfia'", "Word is found in index and so is part of name: 'tetraphylla'.", "Word is lowercase. Subsequent words must start with lowercase: 'tetraphylla'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'tetraphylla'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Rauvolfia tetraphylla' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Rauvolfia tetraphylla", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000295195", "full_name_plain": "Rauvolfia tetraphylla L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 14}}</t>
         </is>
       </c>
     </row>
@@ -21691,35 +22147,35 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
+          <t>Ravenala madagascariensis</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
           <t>wfo-0000509912</t>
         </is>
       </c>
-      <c r="X172" t="inlineStr">
+      <c r="Y172" t="inlineStr">
         <is>
           <t>Ravenala madagascariensis Sonn.</t>
         </is>
       </c>
-      <c r="Y172" t="inlineStr">
+      <c r="Z172" t="inlineStr">
         <is>
           <t>Ravenala madagascariensis Sonn.</t>
         </is>
       </c>
-      <c r="Z172" t="inlineStr">
+      <c r="AA172" t="inlineStr">
         <is>
           <t>Heliconia ravenala P.Willemet | Urania madagascariensis (Sonn.) Schreb. ex Forsyth f. | Urania ravenala (Willemet) A.Rich. | Urania speciosa Willd.</t>
         </is>
       </c>
-      <c r="AA172" t="n">
+      <c r="AB172" t="n">
         <v>4</v>
       </c>
-      <c r="AB172" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC172" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Ravenala madagascariensis Sonn.", "wfo_id": "wfo-0000509912", "full_name_plain": "Ravenala madagascariensis Sonn.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Ravenala'", "Word is found in index and so is part of name: 'madagascariensis'.", "Word is lowercase. Subsequent words must start with lowercase: 'madagascariensis'.", "Word contains non alpha chars and so is start of author string: 'Sonn.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'madagascariensis'", "Authors string looks like this: 'Sonn.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Ravenala madagascariensis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Ravenala madagascariensis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000509912", "full_name_plain": "Ravenala madagascariensis Sonn.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -21820,35 +22276,35 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
+          <t>Rhipsalis baccifera</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
           <t>wfo-0000399853</t>
         </is>
       </c>
-      <c r="X173" t="inlineStr">
+      <c r="Y173" t="inlineStr">
         <is>
           <t>Rhipsalis baccifera (Sol. ex J.S.Muell.) Stearn</t>
         </is>
       </c>
-      <c r="Y173" t="inlineStr">
+      <c r="Z173" t="inlineStr">
         <is>
           <t>Rhipsalis baccifera (Sol. ex J.S.Muell.) Stearn</t>
         </is>
       </c>
-      <c r="Z173" t="inlineStr">
-        <is>
-          <t>Rhipsalis baccifera subsp. baccifera | Rhipsalis baccifera subsp. cleistogama M.Kessler, Ibisch &amp; Barthlott | Rhipsalis baccifera subsp. erythrocarpa (K.Schum.) Barthlott | Rhipsalis baccifera subsp. horrida (Baker) Barthlott | Rhipsalis baccifera subsp. mauritiana (DC.) Barthlott | Rhipsalis pendula Pfeiff. | Rhipsalis pendula (Sw.) Link &amp; Otto | Rhipsalis neocassutha Y.Itô | Rhipsalis cassythopsis Backeb. | Rhipsalis cassytha Gaertn. | Cactus caripensis Kunth | Cactus epidendrum L. | Cactus fasciculatus Willd. | Cactus parasiticus L. | Cactus parasiticus Lam. | Cactus pendulinus Sieber ex DC. | Cactus pendulus Sw. | Cactus quadrangularis Haw. | Cassytha baccifera J.S.Muell. | Cereus bacciferus Hemsl. | Cereus caripensis (Kunth) DC. | Cereus parasiticus Haw. ex Steud. | Hariota fasciculata (Willd.) Kuntze | Hatiora fasciculata (Willd.) Kuntze | Rhipsalis parasiticus Haw. | Rhipsalis fasciculata (Willd.) Haw. | Rhipsalis parasitica (L.) Haw. | Rhipsalis madagascariensis var. dasycerca F.A.C.Weber | Rhipsalis delphinensis Barthlott | Cereus baccifer Hook. | Cactus garipensis Kunth | Rhipsalis caripensis (Kunth) F.A.C.Weber | Cactus pendulinus Sieber ex Baker | Cassytha baccifera Sol. ex J.S.Muell. | Cassytha polysperma Aiton ex Gaertn. | Rhipsalis baccifera subsp. fasciculata (Willd.) Süpplie | Rhipsalis baccifera subsp. rhodocarpa (F.A.C.Weber) Süpplie | Rhipsalis cassutha Gaertn. | Rhipsalis cassytha var. mocinoana DC. | Rhipsalis cassytha var. pendula (Sw.) Salm-Dyck ex Pfeiff. | Rhipsalis cassytha var. rhodocarpa F.A.C.Weber | Rhipsalis cassytha var. swartziana DC. | Rhipsalis parasiticus (Lam.) Haw.</t>
-        </is>
-      </c>
-      <c r="AA173" t="n">
-        <v>43</v>
-      </c>
-      <c r="AB173" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA173" t="inlineStr">
+        <is>
+          <t>Rhipsalis pendula Pfeiff. | Rhipsalis pendula (Sw.) Link &amp; Otto | Rhipsalis neocassutha Y.Itô | Rhipsalis cassythopsis Backeb. | Rhipsalis cassytha Gaertn. | Cactus caripensis Kunth | Cactus epidendrum L. | Cactus fasciculatus Willd. | Cactus parasiticus L. | Cactus parasiticus Lam. | Cactus pendulinus Sieber ex DC. | Cactus pendulus Sw. | Cactus quadrangularis Haw. | Cassytha baccifera J.S.Muell. | Cereus bacciferus Hemsl. | Cereus caripensis (Kunth) DC. | Cereus parasiticus Haw. ex Steud. | Hariota fasciculata (Willd.) Kuntze | Hatiora fasciculata (Willd.) Kuntze | Rhipsalis parasiticus Haw. | Rhipsalis fasciculata (Willd.) Haw. | Rhipsalis parasitica (L.) Haw. | Rhipsalis madagascariensis var. dasycerca F.A.C.Weber | Rhipsalis delphinensis Barthlott | Cereus baccifer Hook. | Cactus garipensis Kunth | Rhipsalis caripensis (Kunth) F.A.C.Weber | Cactus pendulinus Sieber ex Baker | Cassytha baccifera Sol. ex J.S.Muell. | Cassytha polysperma Aiton ex Gaertn. | Rhipsalis baccifera subsp. fasciculata (Willd.) Süpplie | Rhipsalis baccifera subsp. rhodocarpa (F.A.C.Weber) Süpplie | Rhipsalis cassutha Gaertn. | Rhipsalis cassytha var. mocinoana DC. | Rhipsalis cassytha var. pendula (Sw.) Salm-Dyck ex Pfeiff. | Rhipsalis cassytha var. rhodocarpa F.A.C.Weber | Rhipsalis cassytha var. swartziana DC. | Rhipsalis parasiticus (Lam.) Haw.</t>
+        </is>
+      </c>
+      <c r="AB173" t="n">
+        <v>38</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Rhipsalis baccifera (J.S.Muell.) Stearn", "wfo_id": "wfo-0000399853", "full_name_plain": "Rhipsalis baccifera (Sol. ex J.S.Muell.) Stearn", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Rhipsalis'", "Word is found in index and so is part of name: 'baccifera'.", "Word is lowercase. Subsequent words must start with lowercase: 'baccifera'.", "Word contains non alpha chars and so is start of author string: '(J.S.Muell.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'baccifera'", "Authors string looks like this: '(J.S.Muell.) Stearn'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Rhipsalis baccifera' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Rhipsalis baccifera", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000399853", "full_name_plain": "Rhipsalis baccifera (Sol. ex J.S.Muell.) Stearn", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 38}}</t>
         </is>
       </c>
     </row>
@@ -21949,35 +22405,35 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
+          <t>Rhipsalis cereuscula</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
           <t>wfo-0000399868</t>
         </is>
       </c>
-      <c r="X174" t="inlineStr">
+      <c r="Y174" t="inlineStr">
         <is>
           <t>Rhipsalis cereuscula Haw.</t>
         </is>
       </c>
-      <c r="Y174" t="inlineStr">
+      <c r="Z174" t="inlineStr">
         <is>
           <t>Rhipsalis cereuscula Haw.</t>
         </is>
       </c>
-      <c r="Z174" t="inlineStr">
+      <c r="AA174" t="inlineStr">
         <is>
           <t>Rhipsalis penduliflora N.E.Br. | Rhipsalis saglionis (Lem.) Otto ex Walp. | Rhipsalis brachiata Hook. | Erythrorhipsalis cereuscula (Haw.) Volgin | Hariota cereuscula (Haw.) Kuntze | Hariota penduliflora (N.E.Br.) Kuntze | Hariota saglionis Lem. | Rhipsalis simmleri Beauverd | Rhipsalis cereuscula var. rubrodisca (Loefgr.) Castell. | Rhipsalis saglionis var. rubrodisca Loefgr.</t>
         </is>
       </c>
-      <c r="AA174" t="n">
+      <c r="AB174" t="n">
         <v>10</v>
       </c>
-      <c r="AB174" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC174" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Rhipsalis cereuscula Haw.", "wfo_id": "wfo-0000399868", "full_name_plain": "Rhipsalis cereuscula Haw.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Rhipsalis'", "Word is found in index and so is part of name: 'cereuscula'.", "Word is lowercase. Subsequent words must start with lowercase: 'cereuscula'.", "Word contains non alpha chars and so is start of author string: 'Haw.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cereuscula'", "Authors string looks like this: 'Haw.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Rhipsalis cereuscula' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Rhipsalis cereuscula", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000399868", "full_name_plain": "Rhipsalis cereuscula Haw.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 10}}</t>
         </is>
       </c>
     </row>
@@ -22070,35 +22526,35 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
+          <t>Rhipsalis pilocarpa</t>
+        </is>
+      </c>
+      <c r="X175" t="inlineStr">
+        <is>
           <t>wfo-0000399667</t>
         </is>
       </c>
-      <c r="X175" t="inlineStr">
+      <c r="Y175" t="inlineStr">
         <is>
           <t>Rhipsalis pilocarpa Loefgr.</t>
         </is>
       </c>
-      <c r="Y175" t="inlineStr">
+      <c r="Z175" t="inlineStr">
         <is>
           <t>Rhipsalis pilocarpa Loefgr.</t>
         </is>
       </c>
-      <c r="Z175" t="inlineStr">
+      <c r="AA175" t="inlineStr">
         <is>
           <t>Erythrorhipsalis pilocarpa (Loefgr.) A.Berger | Pfeiffera rhipsaloides Loefgr. | Rhipsalis pilocarpa f. minima Süpplie</t>
         </is>
       </c>
-      <c r="AA175" t="n">
+      <c r="AB175" t="n">
         <v>3</v>
       </c>
-      <c r="AB175" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC175" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Rhipsalis pilocarpa Loefgr.", "wfo_id": "wfo-0000399667", "full_name_plain": "Rhipsalis pilocarpa Loefgr.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Rhipsalis'", "Word is found in index and so is part of name: 'pilocarpa'.", "Word is lowercase. Subsequent words must start with lowercase: 'pilocarpa'.", "Word contains non alpha chars and so is start of author string: 'Loefgr.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'pilocarpa'", "Authors string looks like this: 'Loefgr.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Rhipsalis pilocarpa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Rhipsalis pilocarpa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000399667", "full_name_plain": "Rhipsalis pilocarpa Loefgr.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 3}}</t>
         </is>
       </c>
     </row>
@@ -22191,35 +22647,35 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
+          <t>Rosenbergiodendron formosum</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
           <t>wfo-0000298039</t>
         </is>
       </c>
-      <c r="X176" t="inlineStr">
+      <c r="Y176" t="inlineStr">
         <is>
           <t>Rosenbergiodendron formosum (Jacq.) Fagerl.</t>
         </is>
       </c>
-      <c r="Y176" t="inlineStr">
+      <c r="Z176" t="inlineStr">
         <is>
           <t>Rosenbergiodendron formosum (Jacq.) Fagerl.</t>
         </is>
       </c>
-      <c r="Z176" t="inlineStr">
-        <is>
-          <t>Rosenbergiodendron formosum var. formosum | Rosenbergiodendron formosum var. nitidum (K.Schum.) C.Gust. | Mussaenda formosa Jacq. | Randia formosa (Jacq.) K.Schum. | Randia mussaenda (L.f.) DC. | Gardenia mussaenda L.f. | Genipa mussaendae (L.f.) Baill.</t>
-        </is>
-      </c>
-      <c r="AA176" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB176" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>Mussaenda formosa Jacq. | Randia formosa (Jacq.) K.Schum. | Randia mussaenda (L.f.) DC. | Gardenia mussaenda L.f. | Genipa mussaendae (L.f.) Baill.</t>
+        </is>
+      </c>
+      <c r="AB176" t="n">
+        <v>5</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Rosenbergiodendron formosum (Jacq.) Fagerl.", "wfo_id": "wfo-0000298039", "full_name_plain": "Rosenbergiodendron formosum (Jacq.) Fagerl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Rosenbergiodendron'", "Word is found in index and so is part of name: 'formosum'.", "Word is lowercase. Subsequent words must start with lowercase: 'formosum'.", "Word contains non alpha chars and so is start of author string: '(Jacq.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'formosum'", "Authors string looks like this: '(Jacq.) Fagerl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Rosenbergiodendron formosum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Rosenbergiodendron formosum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000298039", "full_name_plain": "Rosenbergiodendron formosum (Jacq.) Fagerl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 5}}</t>
         </is>
       </c>
     </row>
@@ -22320,35 +22776,35 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
+          <t>Saccharum officinarum</t>
+        </is>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
           <t>wfo-0000896660</t>
         </is>
       </c>
-      <c r="X177" t="inlineStr">
+      <c r="Y177" t="inlineStr">
         <is>
           <t>Saccharum officinarum L.</t>
         </is>
       </c>
-      <c r="Y177" t="inlineStr">
+      <c r="Z177" t="inlineStr">
         <is>
           <t>Saccharum officinarum L.</t>
         </is>
       </c>
-      <c r="Z177" t="inlineStr">
+      <c r="AA177" t="inlineStr">
         <is>
           <t>Arundo saccharifera Garsault | Saccharifera officinalis Stokes | Saccharum hybridum R.M.Grey | Saccharum atrorubens Cuzent &amp; Pancher ex Drake | Saccharum fragile Cuzent &amp; Pancher ex Drake | Saccharum glabrum Cuzent &amp; Pancher | Saccharum infirmum Steud. | Saccharum luzonicum Hack. | Saccharum monandrum Rol. | Saccharum occidentale Sw. | Saccharum officinale Salisb. | Saccharum officinarum var. atrorubens Cuzent &amp; Pancher ex Drake | Saccharum officinarum var. brevipedicellatum Hack. | Saccharum officinarum var. fragile Cuzent &amp; Pancher ex Drake | Saccharum officinarum var. giganteum Kunth | Saccharum officinarum var. glabrum Cuzent &amp; Pancher ex Drake | Saccharum officinarum var. jamaicense Sickenb. | Saccharum officinarum var. litteratum Hassk. | Saccharum officinarum var. litteratum-breve Hassk. | Saccharum officinarum var. luridum Hassk. | Saccharum officinarum var. luteum-durum Hassk. | Saccharum officinarum var. luzonicum Cuzent &amp; Pancher ex Drake | Saccharum officinarum var. obscurum Cuzent &amp; Pancher ex Drake | Saccharum officinarum var. otaheitense Roem. &amp; Schult. | Saccharum officinarum var. purpureum Kunth | Saccharum officinarum var. rubicundum Cuzent &amp; Pancher ex Drake | Saccharum officinarum var. rubrum-altum Hassk. | Saccharum officinarum var. rubrum-humile Hassk. | Saccharum officinarum var. tahitense Kunth | Saccharum officinarum var. violaceum Pers. | Saccharum rubicundum Cuzent &amp; Pancher ex Drake | Saccharum spontaneum subsp. luzonicum Hack. | Saccharum violaceum Tussac | Saccharum officinarum var. officinarum | Saccharum obscurum Cuzent &amp; Pancher ex Drake | Saccharum officinarum var. litteratum Hack. | Saccharum bataviense André | Saccharum officinarum var. oceanicum Endl. | Saccharum officinarum var. variegatum André | Saccharum officinarum var. genuinum Hack.</t>
         </is>
       </c>
-      <c r="AA177" t="n">
+      <c r="AB177" t="n">
         <v>40</v>
       </c>
-      <c r="AB177" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC177" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Saccharum officinarum L.", "wfo_id": "wfo-0000896660", "full_name_plain": "Saccharum officinarum L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Saccharum'", "Word is found in index and so is part of name: 'officinarum'.", "Word is lowercase. Subsequent words must start with lowercase: 'officinarum'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'officinarum'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Saccharum officinarum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Saccharum officinarum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000896660", "full_name_plain": "Saccharum officinarum L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 40}}</t>
         </is>
       </c>
     </row>
@@ -22449,35 +22905,35 @@
       </c>
       <c r="W178" t="inlineStr">
         <is>
+          <t>Salacca zalacca</t>
+        </is>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
           <t>wfo-0000300111</t>
         </is>
       </c>
-      <c r="X178" t="inlineStr">
+      <c r="Y178" t="inlineStr">
         <is>
           <t>Salacca zalacca (Gaertn.) Voss</t>
         </is>
       </c>
-      <c r="Y178" t="inlineStr">
+      <c r="Z178" t="inlineStr">
         <is>
           <t>Salacca zalacca (Gaertn.) Voss</t>
         </is>
       </c>
-      <c r="Z178" t="inlineStr">
+      <c r="AA178" t="inlineStr">
         <is>
           <t>Salacca blumeana Mart. | Salacca edulis Reinw. | Salacca edulis var. amboinensis Becc. | Salacca rumphii Wall. | Salacca zalacca var. amboinensis (Becc.) Mogea | Calamus salakka Willd. ex Steud. | Calamus zalacca Gaertn.</t>
         </is>
       </c>
-      <c r="AA178" t="n">
+      <c r="AB178" t="n">
         <v>7</v>
       </c>
-      <c r="AB178" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC178" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Salacca zalacca (Gaertn.) Voss", "wfo_id": "wfo-0000300111", "full_name_plain": "Salacca zalacca (Gaertn.) Voss", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Salacca'", "Word is found in index and so is part of name: 'zalacca'.", "Word is lowercase. Subsequent words must start with lowercase: 'zalacca'.", "Word contains non alpha chars and so is start of author string: '(Gaertn.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'zalacca'", "Authors string looks like this: '(Gaertn.) Voss'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Salacca zalacca' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Salacca zalacca", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000300111", "full_name_plain": "Salacca zalacca (Gaertn.) Voss", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 7}}</t>
         </is>
       </c>
     </row>
@@ -22574,35 +23030,35 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
+          <t>Breynia androgyna</t>
+        </is>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
           <t>wfo-0001424148</t>
         </is>
       </c>
-      <c r="X179" t="inlineStr">
+      <c r="Y179" t="inlineStr">
         <is>
           <t>Breynia androgyna (L.) Chakrab. &amp; N.P.Balakr.</t>
         </is>
       </c>
-      <c r="Y179" t="inlineStr">
+      <c r="Z179" t="inlineStr">
         <is>
           <t>Breynia androgyna (L.) Chakrab. &amp; N.P.Balakr.</t>
         </is>
       </c>
-      <c r="Z179" t="inlineStr">
+      <c r="AA179" t="inlineStr">
         <is>
           <t>Phyllanthus acidissimus Noronha | Phyllanthus speciosus Noronha | Phyllanthus strictus Roxb. | Sauropus albicans Blume | Sauropus albicans var. gardnerianus (Wight) Müll.Arg. | Sauropus albicans var. intermedius Müll.Arg. | Sauropus albicans var. zeylanicus (Wight) Müll.Arg. | Sauropus androgynus (L.) Merr. | Sauropus convexus J.J.Sm. | Sauropus gardnerianus Wight | Sauropus indicus Wight | Sauropus macranthus Fern.-Vill. | Sauropus oblongifolius Hook.f. | Sauropus parviflorus Pax &amp; K.Hoffm. | Sauropus scandens C.B.Rob. | Sauropus sumatranus Miq. | Sauropus zeylanicus Wight | Aalius androgyna (L.) Kuntze | Clutia androgyna L. | Agyneia ovata Poir. | Aalius oblongifolia (Hook.f.) Kuntze | Aalius sumatrana (Miq.) Kuntze | Andrachne ovata Lam. ex Poir. | Phyllanthus androgynus (L.) Chakrab. &amp; N.P.Balakr. | Sauropus albicans var. genuinus Müll.Arg.</t>
         </is>
       </c>
-      <c r="AA179" t="n">
+      <c r="AB179" t="n">
         <v>25</v>
       </c>
-      <c r="AB179" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC179" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Breynia androgyna (L.) Chakrab. &amp; N.P.Balakr.", "wfo_id": "wfo-0001424148", "full_name_plain": "Breynia androgyna (L.) Chakrab. &amp; N.P.Balakr.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Breynia'", "Word is found in index and so is part of name: 'androgyna'.", "Word is lowercase. Subsequent words must start with lowercase: 'androgyna'.", "Word contains non alpha chars and so is start of author string: '(L.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'androgyna'", "Authors string looks like this: '(L.) Chakrab. &amp; N.P.Balakr.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Breynia androgyna' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Breynia androgyna", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001424148", "full_name_plain": "Breynia androgyna (L.) Chakrab. &amp; N.P.Balakr.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 25}}</t>
         </is>
       </c>
     </row>
@@ -22691,35 +23147,35 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
+          <t>Epiphyllum chrysocardium</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
           <t>wfo-0000670160</t>
         </is>
       </c>
-      <c r="X180" t="inlineStr">
+      <c r="Y180" t="inlineStr">
         <is>
           <t>Epiphyllum chrysocardium Alexander</t>
         </is>
       </c>
-      <c r="Y180" t="inlineStr">
+      <c r="Z180" t="inlineStr">
         <is>
           <t>Epiphyllum chrysocardium Alexander</t>
         </is>
       </c>
-      <c r="Z180" t="inlineStr">
+      <c r="AA180" t="inlineStr">
         <is>
           <t>Marniera chrysocardia (Alexander) Backeb. | Chiapasophyllum chrysocardium (Alexander) Doweld | Selenicereus chrysocardium (Alexander) Kimnach | Marniera chrysocardium (Alexander) Backeb.</t>
         </is>
       </c>
-      <c r="AA180" t="n">
+      <c r="AB180" t="n">
         <v>4</v>
       </c>
-      <c r="AB180" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC180" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Epiphyllum chrysocardium Alexander", "wfo_id": "wfo-0000670160", "full_name_plain": "Epiphyllum chrysocardium Alexander", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Epiphyllum'", "Word is found in index and so is part of name: 'chrysocardium'.", "Word is lowercase. Subsequent words must start with lowercase: 'chrysocardium'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Alexander'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'chrysocardium'", "Authors string looks like this: 'Alexander'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Epiphyllum chrysocardium' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Epiphyllum chrysocardium", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000670160", "full_name_plain": "Epiphyllum chrysocardium Alexander", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -22820,35 +23276,35 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
+          <t>Setaria palmifolia</t>
+        </is>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
           <t>wfo-0000899427</t>
         </is>
       </c>
-      <c r="X181" t="inlineStr">
+      <c r="Y181" t="inlineStr">
         <is>
           <t>Setaria palmifolia (J.Koenig) Stapf</t>
         </is>
       </c>
-      <c r="Y181" t="inlineStr">
+      <c r="Z181" t="inlineStr">
         <is>
           <t>Setaria palmifolia (J.Koenig) Stapf</t>
         </is>
       </c>
-      <c r="Z181" t="inlineStr">
+      <c r="AA181" t="inlineStr">
         <is>
           <t>Agrostis plicata Lour. | Chaetochloa effusa (E.Fourn.) Hitchc. | Chaetochloa palmifolia (J.Koenig) Hitchc. &amp; Chase | Chaetochloa sulcata (Aubl.) Hitchc. | Chamaeraphis effusa (E.Fourn.) Kuntze | Chamaeraphis nepalensis (Spreng.) Kuntze | Chamaeraphis neurodes (Schult.) Kuntze | Chamaeraphis palmifolia (J.Koenig) Kuntze | Chamaeraphis paniculifera (Steud.) Kuntze | Chamaeraphis sulcata (Aubl.) Kuntze | Panicum amplissimum Steud. | Panicum kleinianum Nees ex Andersson | Panicum lene Steud. | Panicum mexicanum Scribn. &amp; Merr. | Panicum nepalense Spreng. | Panicum nervosum Roxb. | Panicum neurodes Schult. | Panicum palmatum R.Schleich. | Panicum palmifolia J.Koenig | Panicum palmifolium J.Koenig | Panicum paniculiferum Steud. | Panicum plicatum Willd. | Panicum sulcatum Aubl. | Setaria effusa E.Fourn. | Setaria lenis (Steud.) Miq. | Setaria paniculifera E.Fourn. | Setaria sulcata (Aubl.) Desv. | Panicum plicatum Roxb. | Setaria paniculifera (Steud.) E.Fourn. ex Hemsl. | Setaria palmifolia var. palmifolia | Panicum neurodes var. amplissimum (Steud.) Walp. | Panicum neurodes var. lene (Steud.) Walp. | Panicum plicatum var. haitiense Griseb. | Panicum neurodes var. kleinianum A.Braun | Panicum neurodes var. conjungens A.Braun | Panicum neurodes var. thwaitesii A.Braun | Panicum neurodes var. roxburghianum A.Braun</t>
         </is>
       </c>
-      <c r="AA181" t="n">
+      <c r="AB181" t="n">
         <v>37</v>
       </c>
-      <c r="AB181" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC181" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Setaria palmifolia (J.Koenig) Stapf", "wfo_id": "wfo-0000899427", "full_name_plain": "Setaria palmifolia (J.Koenig) Stapf", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Setaria'", "Word is found in index and so is part of name: 'palmifolia'.", "Word is lowercase. Subsequent words must start with lowercase: 'palmifolia'.", "Word contains non alpha chars and so is start of author string: '(J.Koenig)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'palmifolia'", "Authors string looks like this: '(J.Koenig) Stapf'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Setaria palmifolia' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Setaria palmifolia", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000899427", "full_name_plain": "Setaria palmifolia (J.Koenig) Stapf", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 37}}</t>
         </is>
       </c>
     </row>
@@ -22949,35 +23405,35 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
+          <t>Solandra maxima</t>
+        </is>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
           <t>wfo-0001025619</t>
         </is>
       </c>
-      <c r="X182" t="inlineStr">
+      <c r="Y182" t="inlineStr">
         <is>
           <t>Solandra maxima (Sessé &amp; Moc.) P.S.Green</t>
         </is>
       </c>
-      <c r="Y182" t="inlineStr">
+      <c r="Z182" t="inlineStr">
         <is>
           <t>Solandra maxima (Sessé &amp; Moc.) P.S.Green</t>
         </is>
       </c>
-      <c r="Z182" t="inlineStr">
+      <c r="AA182" t="inlineStr">
         <is>
           <t>Datura maxima Sessé &amp; Moc. ex Dunal | Solandra grandiflora var. nitida (Zucc.) Voss | Solandra hartwegii N.E.Br. | Solandra nitida Zuccagni | Solandra selerae Dammer | Swartzia nitida (Zuccagni) Standl.</t>
         </is>
       </c>
-      <c r="AA182" t="n">
+      <c r="AB182" t="n">
         <v>6</v>
       </c>
-      <c r="AB182" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC182" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Solandra maxima (Moc. &amp; Sessé) P.S.Green", "wfo_id": "wfo-0001025619", "full_name_plain": "Solandra maxima (Sessé &amp; Moc.) P.S.Green", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Solandra'", "Word is found in index and so is part of name: 'maxima'.", "Word is lowercase. Subsequent words must start with lowercase: 'maxima'.", "Word contains non alpha chars and so is start of author string: '(Moc.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'maxima'", "Authors string looks like this: '(Moc. &amp; Sessé) P.S.Green'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Solandra maxima' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Solandra maxima", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0001025619", "full_name_plain": "Solandra maxima (Sessé &amp; Moc.) P.S.Green", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 6}}</t>
         </is>
       </c>
     </row>
@@ -23070,35 +23526,35 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
+          <t>Spathiphyllum cochlearispathum</t>
+        </is>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
           <t>wfo-0000312000</t>
         </is>
       </c>
-      <c r="X183" t="inlineStr">
+      <c r="Y183" t="inlineStr">
         <is>
           <t>Spathiphyllum cochlearispathum (Liebm.) Engl.</t>
         </is>
       </c>
-      <c r="Y183" t="inlineStr">
+      <c r="Z183" t="inlineStr">
         <is>
           <t>Spathiphyllum cochlearispathum (Liebm.) Engl.</t>
         </is>
       </c>
-      <c r="Z183" t="inlineStr">
+      <c r="AA183" t="inlineStr">
         <is>
           <t>Hydnostachyon cochlearispathum Liebm. | Hydnostachyon longirostre Liebm. | Massowia heliconiifolia (Schott) K.Koch | Massowia lanceolata K.Koch | Spathiphyllum heliconiifolium Schott | Spathiphyllum lacustre Lundell | Spathiphyllum lanceolatum (K.Koch) K.Koch | Spathiphyllum liebmannii Schott | Spathiphyllum longirostre Schott | Spathiphyllum cochlearispathum var. longirostre (Liebm.) Engl.</t>
         </is>
       </c>
-      <c r="AA183" t="n">
+      <c r="AB183" t="n">
         <v>10</v>
       </c>
-      <c r="AB183" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC183" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Spathiphyllum cochlearispathum (Liebm.) Engl.", "wfo_id": "wfo-0000312000", "full_name_plain": "Spathiphyllum cochlearispathum (Liebm.) Engl.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Spathiphyllum'", "Word is found in index and so is part of name: 'cochlearispathum'.", "Word is lowercase. Subsequent words must start with lowercase: 'cochlearispathum'.", "Word contains non alpha chars and so is start of author string: '(Liebm.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cochlearispathum'", "Authors string looks like this: '(Liebm.) Engl.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Spathiphyllum cochlearispathum' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Spathiphyllum cochlearispathum", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000312000", "full_name_plain": "Spathiphyllum cochlearispathum (Liebm.) Engl.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 10}}</t>
         </is>
       </c>
     </row>
@@ -23197,21 +23653,37 @@
           <t>Spathodea campanulata Beauverd</t>
         </is>
       </c>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
-      <c r="AA184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB184" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>Spathodea campanulata</t>
+        </is>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>wfo-0000779723</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>Spathodea campanulata P.Beauv.</t>
+        </is>
+      </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>Spathodea campanulata P.Beauv.</t>
+        </is>
+      </c>
+      <c r="AA184" t="inlineStr">
+        <is>
+          <t>Bignonia tulipifera Thonn.</t>
+        </is>
+      </c>
+      <c r="AB184" t="n">
+        <v>1</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Spathodea campanulata Beauverd", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Spathodea'", "Word is found in index and so is part of name: 'campanulata'.", "Word is lowercase. Subsequent words must start with lowercase: 'campanulata'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Beauverd'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'campanulata'", "Authors string looks like this: 'Beauverd'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Spathodea campanulata' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Spathodea campanulata", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000779723", "full_name_plain": "Spathodea campanulata P.Beauv.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 1}}</t>
         </is>
       </c>
     </row>
@@ -23312,35 +23784,35 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
+          <t>Spondias dulcis</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
           <t>wfo-0000435462</t>
         </is>
       </c>
-      <c r="X185" t="inlineStr">
+      <c r="Y185" t="inlineStr">
         <is>
           <t>Spondias dulcis G.Forst.</t>
         </is>
       </c>
-      <c r="Y185" t="inlineStr">
+      <c r="Z185" t="inlineStr">
         <is>
           <t>Spondias dulcis G.Forst.</t>
         </is>
       </c>
-      <c r="Z185" t="inlineStr">
+      <c r="AA185" t="inlineStr">
         <is>
           <t>Poupartia dulcis (Parkinson) Blume | Spondias acida Blume | Spondias longifolia Roxb. | Spondias cytherea Sonn. | Spondias fragrans Pav. ex Engl. | Spondias therebintoides Royen ex Blume | Chrysomelon pomiferum Forst ex A.Gray | Cytheraea dulcis (Parkinson) Wight &amp; Arn. | Evia acida Blume | Evia dulcis (Parkinson) Comm. ex Blume | Evia dulcis (Parkinson) Kosterm. | Spondias dulcis var. mucroniserrata Engl.</t>
         </is>
       </c>
-      <c r="AA185" t="n">
+      <c r="AB185" t="n">
         <v>12</v>
       </c>
-      <c r="AB185" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC185" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Spondias dulcis Parkinson", "wfo_id": "wfo-0000435462", "full_name_plain": "Spondias dulcis G.Forst.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Spondias'", "Word is found in index and so is part of name: 'dulcis'.", "Word is lowercase. Subsequent words must start with lowercase: 'dulcis'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Parkinson'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'dulcis'", "Authors string looks like this: 'Parkinson'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Spondias dulcis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Spondias dulcis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000435462", "full_name_plain": "Spondias dulcis G.Forst.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 12}}</t>
         </is>
       </c>
     </row>
@@ -23441,35 +23913,35 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
+          <t>Spondias mombin</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
           <t>wfo-0000435470</t>
         </is>
       </c>
-      <c r="X186" t="inlineStr">
+      <c r="Y186" t="inlineStr">
         <is>
           <t>Spondias mombin L.</t>
         </is>
       </c>
-      <c r="Y186" t="inlineStr">
+      <c r="Z186" t="inlineStr">
         <is>
           <t>Spondias mombin L.</t>
         </is>
       </c>
-      <c r="Z186" t="inlineStr">
+      <c r="AA186" t="inlineStr">
         <is>
           <t>Mauria juglandifolia Benth. ex Engl. | Spondias brasiliensis Mart. ex Engl. | Spondias cirouella Tussac | Spondias lucida Salisb. | Spondias lutea L. | Spondias maxima Engl. | Spondias glabra Engl. | Spondias lutea var. glabra Engl. | Spondias lutea var. maxima Engl. | Spondias dubia A.Rich. | Spondias pseudomyrobalanus Tussac | Spondias aurantiaca Schumach. &amp; Thonn. | Spondias graveolens Macfad. | Spondias myrobalanus L. | Spondias mombin var. mombin | Spondias cytherea Tussac</t>
         </is>
       </c>
-      <c r="AA186" t="n">
+      <c r="AB186" t="n">
         <v>16</v>
       </c>
-      <c r="AB186" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC186" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Spondias mombin L.", "wfo_id": "wfo-0000435470", "full_name_plain": "Spondias mombin L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Spondias'", "Word is found in index and so is part of name: 'mombin'.", "Word is lowercase. Subsequent words must start with lowercase: 'mombin'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'mombin'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Spondias mombin' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Spondias mombin", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000435470", "full_name_plain": "Spondias mombin L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 16}}</t>
         </is>
       </c>
     </row>
@@ -23562,35 +24034,35 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
+          <t>Strelitzia alba</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
           <t>wfo-0000561814</t>
         </is>
       </c>
-      <c r="X187" t="inlineStr">
+      <c r="Y187" t="inlineStr">
         <is>
           <t>Strelitzia alba (L.f.) Skeels</t>
         </is>
       </c>
-      <c r="Y187" t="inlineStr">
+      <c r="Z187" t="inlineStr">
         <is>
           <t>Strelitzia alba (L.f.) Skeels</t>
         </is>
       </c>
-      <c r="Z187" t="inlineStr">
+      <c r="AA187" t="inlineStr">
         <is>
           <t>Heliconia alba L.f. | Heliconia augusta Salisb. | Strelitzia alba subsp. augusta (Thunb.) Maire &amp; Weiller | Strelitzia angusta D.Dietr. | Strelitzia augusta Thunb.</t>
         </is>
       </c>
-      <c r="AA187" t="n">
+      <c r="AB187" t="n">
         <v>5</v>
       </c>
-      <c r="AB187" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC187" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Strelitzia alba (L.f.) Skeels", "wfo_id": "wfo-0000561814", "full_name_plain": "Strelitzia alba (L.f.) Skeels", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Strelitzia'", "Word is found in index and so is part of name: 'alba'.", "Word is lowercase. Subsequent words must start with lowercase: 'alba'.", "Word contains non alpha chars and so is start of author string: '(L.f.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'alba'", "Authors string looks like this: '(L.f.) Skeels'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Strelitzia alba' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Strelitzia alba", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000561814", "full_name_plain": "Strelitzia alba (L.f.) Skeels", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 5}}</t>
         </is>
       </c>
     </row>
@@ -23689,21 +24161,37 @@
           <t>Strelitzia nicolai Regel &amp; Körn.</t>
         </is>
       </c>
-      <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
-      <c r="AA188" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB188" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>Strelitzia nicolai</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>wfo-0000561967</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>Strelitzia nicolai Regel &amp; Körn.</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>Strelitzia nicolai Regel &amp; Körn.</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>Strelitzia alba subsp. nicolai (Regel &amp; Körn.) Maire &amp; Weiller | Strelitzia quensonii Lem.</t>
+        </is>
+      </c>
+      <c r="AB188" t="n">
+        <v>2</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Strelitzia nicolai Regel &amp; Körn.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Strelitzia'", "Word is found in index and so is part of name: 'nicolai'.", "Word is lowercase. Subsequent words must start with lowercase: 'nicolai'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Regel'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'nicolai'", "Authors string looks like this: 'Regel &amp; Körn.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Strelitzia nicolai' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Strelitzia nicolai", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000561967", "full_name_plain": "Strelitzia nicolai Regel &amp; Körn.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -23802,21 +24290,37 @@
           <t>Strophanthus gratus (Wall. &amp; Hook.) Baill.</t>
         </is>
       </c>
-      <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
-      <c r="AA189" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB189" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>Strophanthus gratus</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>wfo-0000317279</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>Strophanthus gratus (Wall. &amp; Hook. ex Benth.) Baill.</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>Strophanthus gratus (Wall. &amp; Hook. ex Benth.) Baill.</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>Nerium guineense Brongn. ex Perrot &amp; Vogt | Roupalia grata T.Moore &amp; Ayres | Roupellia grata Wall. &amp; Hook. ex Benth. | Strophanthus glaber hort. ex Gentil | Strophanthus gratus Franch. | Strophanthus ouaboio Holmes | Strophanthus perrotii A.Chev. | Strophanthus stanleyanus hort. ex Hook. | Strophanthus chopraie M.R.Almeida</t>
+        </is>
+      </c>
+      <c r="AB189" t="n">
+        <v>9</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Strophanthus gratus (Wall. &amp; Hook.) Baill.", "wfo_id": "", "full_name_plain": "", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Strophanthus'", "Word is found in index and so is part of name: 'gratus'.", "Word is lowercase. Subsequent words must start with lowercase: 'gratus'.", "Word contains non alpha chars and so is start of author string: '(Wall.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'gratus'", "Authors string looks like this: '(Wall. &amp; Hook.) Baill.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Strophanthus gratus' and found 2 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 2 candidates found."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Strophanthus gratus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": false, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": true}, "wfo_id": "wfo-0000317279", "full_name_plain": "Strophanthus gratus (Wall. &amp; Hook. ex Benth.) Baill.", "attempts_count": 2, "parse": {"accepted_found": false, "synonym_count": 9}}</t>
         </is>
       </c>
     </row>
@@ -23909,35 +24413,35 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
+          <t>Strophanthus petersianus</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
           <t>wfo-0000317320</t>
         </is>
       </c>
-      <c r="X190" t="inlineStr">
+      <c r="Y190" t="inlineStr">
         <is>
           <t>Strophanthus petersianus Klotzsch</t>
         </is>
       </c>
-      <c r="Y190" t="inlineStr">
+      <c r="Z190" t="inlineStr">
         <is>
           <t>Strophanthus petersianus Klotzsch</t>
         </is>
       </c>
-      <c r="Z190" t="inlineStr">
+      <c r="AA190" t="inlineStr">
         <is>
           <t>Strophanthus grandiflorus (N.E.Br.) Gilg | Strophanthus petersianus var. grandiflorus N.E.Br. | Strophanthus verrucosus (Pax) Stapf | Strophanthus sarmentosus var. verrucosus Pax</t>
         </is>
       </c>
-      <c r="AA190" t="n">
+      <c r="AB190" t="n">
         <v>4</v>
       </c>
-      <c r="AB190" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC190" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Strophanthus petersianus Klotzsch", "wfo_id": "wfo-0000317320", "full_name_plain": "Strophanthus petersianus Klotzsch", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Strophanthus'", "Word is found in index and so is part of name: 'petersianus'.", "Word is lowercase. Subsequent words must start with lowercase: 'petersianus'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Klotzsch'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'petersianus'", "Authors string looks like this: 'Klotzsch'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Strophanthus petersianus' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Strophanthus petersianus", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000317320", "full_name_plain": "Strophanthus petersianus Klotzsch", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 4}}</t>
         </is>
       </c>
     </row>
@@ -24038,35 +24542,35 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
+          <t>Syagrus romanzoffiana</t>
+        </is>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
           <t>wfo-0000317885</t>
         </is>
       </c>
-      <c r="X191" t="inlineStr">
+      <c r="Y191" t="inlineStr">
         <is>
           <t>Syagrus romanzoffiana (Cham.) Glassman</t>
         </is>
       </c>
-      <c r="Y191" t="inlineStr">
+      <c r="Z191" t="inlineStr">
         <is>
           <t>Syagrus romanzoffiana (Cham.) Glassman</t>
         </is>
       </c>
-      <c r="Z191" t="inlineStr">
+      <c r="AA191" t="inlineStr">
         <is>
           <t>Arecastrum romanzoffianum (Cham.) Becc. | Calappa acrocomioides (Drude) Kuntze | Calappa australis (Mart.) Kuntze | Calappa datil (Drude &amp; Griseb.) Kuntze | Calappa martiana (Drude &amp; Glaz.) Kuntze | Calappa plumosa (Hook.f.) Kuntze | Calappa romanzoffiana (Cham.) Kuntze | Arecastrum romanzoffianum var. australe (Mart.) Becc. | Arecastrum romanzoffianum var. micropindo Becc. | Cocos acrocomioides Drude | Cocos arechavaletana Barb.Rodr. | Cocos australis Drude &amp; Brandt | Cocos australis Mart. | Cocos datil Drude &amp; Griseb. | Cocos geriba Barb.Rodr. | Cocos martiana Drude &amp; Glaz. | Cocos plumosa Hook.f. | Cocos romanzoffiana Cham. | Cocos romanzoffiana var. plumosa (Hook.f.) A.Berger | Arecastrum romanzoffianum subvar. minus Becc. | Arecastrum romanzoffianum var. genuinum Becc. | Syagrus plumosa (Hook.f.) Bosse</t>
         </is>
       </c>
-      <c r="AA191" t="n">
+      <c r="AB191" t="n">
         <v>22</v>
       </c>
-      <c r="AB191" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC191" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Syagrus romanzoffiana (Cham.) Glassman", "wfo_id": "wfo-0000317885", "full_name_plain": "Syagrus romanzoffiana (Cham.) Glassman", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Syagrus'", "Word is found in index and so is part of name: 'romanzoffiana'.", "Word is lowercase. Subsequent words must start with lowercase: 'romanzoffiana'.", "Word contains non alpha chars and so is start of author string: '(Cham.)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'romanzoffiana'", "Authors string looks like this: '(Cham.) Glassman'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Syagrus romanzoffiana' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Syagrus romanzoffiana", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000317885", "full_name_plain": "Syagrus romanzoffiana (Cham.) Glassman", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 22}}</t>
         </is>
       </c>
     </row>
@@ -24167,35 +24671,35 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
+          <t>Tamarindus indica</t>
+        </is>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
           <t>wfo-0000170926</t>
         </is>
       </c>
-      <c r="X192" t="inlineStr">
+      <c r="Y192" t="inlineStr">
         <is>
           <t>Tamarindus indica L.</t>
         </is>
       </c>
-      <c r="Y192" t="inlineStr">
+      <c r="Z192" t="inlineStr">
         <is>
           <t>Tamarindus indica L.</t>
         </is>
       </c>
-      <c r="Z192" t="inlineStr">
+      <c r="AA192" t="inlineStr">
         <is>
           <t>Tamarindus occidentalis Gaertn. | Tamarindus officinalis Hook. | Tamarindus umbrosa Salisb. | Tamarindus erythraeus Mattei | Tamarindus somalensis Mattei | Cavaraea elegans Speg. | Tamarindus indica var. emarginata Chiov.</t>
         </is>
       </c>
-      <c r="AA192" t="n">
+      <c r="AB192" t="n">
         <v>7</v>
       </c>
-      <c r="AB192" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC192" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Tamarindus indica L.", "wfo_id": "wfo-0000170926", "full_name_plain": "Tamarindus indica L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Tamarindus'", "Word is found in index and so is part of name: 'indica'.", "Word is lowercase. Subsequent words must start with lowercase: 'indica'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'indica'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Tamarindus indica' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Tamarindus indica", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000170926", "full_name_plain": "Tamarindus indica L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 7}}</t>
         </is>
       </c>
     </row>
@@ -24296,35 +24800,35 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
+          <t>Terminalia catappa</t>
+        </is>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
           <t>wfo-0000406800</t>
         </is>
       </c>
-      <c r="X193" t="inlineStr">
+      <c r="Y193" t="inlineStr">
         <is>
           <t>Terminalia catappa L.</t>
         </is>
       </c>
-      <c r="Y193" t="inlineStr">
+      <c r="Z193" t="inlineStr">
         <is>
           <t>Terminalia catappa L.</t>
         </is>
       </c>
-      <c r="Z193" t="inlineStr">
+      <c r="AA193" t="inlineStr">
         <is>
           <t>Myrobalanus commersonii Kuntze | Myrobalanus badamia Poir. | Myrobalanus rubrigemmis (Tul.) Kuntze | Terminalia burmanica King ex Prain | Terminalia kydiana Roxb. ex Wall. | Terminalia mauritiana Blanco | Buceras catappa (L.) Hitchc. | Terminalia intermedia Bertero ex Spreng. | Juglans catappa (L.) Lour. | Myrobalanus catappa (L.) Kuntze | Terminalia catappa var. chlorocarpa Hassk. | Terminalia catappa var. macrocarpa Hassk. | Terminalia catappa var. rhodocarpa Hassk. | Terminalia catappa var. subcordata (Humb. &amp; Bonpl. ex Willd.) DC. | Terminalia latifolia Blanco | Terminalia moluccana Lam. | Terminalia ovatifolia Noronha | Terminalia paraensis Mart. | Terminalia subcordata Humb. &amp; Bonpl. ex Willd. | Terminalia rubrigemmis Tul. | Terminalia badamia sensu Tul. | Terminalia catappa var. pubescens Kurz</t>
         </is>
       </c>
-      <c r="AA193" t="n">
+      <c r="AB193" t="n">
         <v>22</v>
       </c>
-      <c r="AB193" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC193" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Terminalia catappa L.", "wfo_id": "wfo-0000406800", "full_name_plain": "Terminalia catappa L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Terminalia'", "Word is found in index and so is part of name: 'catappa'.", "Word is lowercase. Subsequent words must start with lowercase: 'catappa'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'catappa'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Terminalia catappa' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Terminalia catappa", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000406800", "full_name_plain": "Terminalia catappa L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 22}}</t>
         </is>
       </c>
     </row>
@@ -24425,35 +24929,35 @@
       </c>
       <c r="W194" t="inlineStr">
         <is>
+          <t>Theobroma cacao</t>
+        </is>
+      </c>
+      <c r="X194" t="inlineStr">
+        <is>
           <t>wfo-0000458440</t>
         </is>
       </c>
-      <c r="X194" t="inlineStr">
+      <c r="Y194" t="inlineStr">
         <is>
           <t>Theobroma cacao L.</t>
         </is>
       </c>
-      <c r="Y194" t="inlineStr">
+      <c r="Z194" t="inlineStr">
         <is>
           <t>Theobroma cacao L.</t>
         </is>
       </c>
-      <c r="Z194" t="inlineStr">
+      <c r="AA194" t="inlineStr">
         <is>
           <t>Theobroma caribaeum Sweet | Theobroma sphaerocarpum A.Chev. | Theobroma leiocarpum Bernoulli | Theobroma sapidum Pittier | Theobroma salzmanniana Bernoulli | Theobroma cacao f. leiocarpum (Bernoulli) Ducke | Theobroma cacao subsp. leiocarpum (Bernoulli) Cuatrec. | Theobroma cacao var. leiocarpum (Bernoulli) Cif. | Theobroma cacao subsp. sphaerocarpum (A.Chev.) Cuatrec. | Cacao minar Gaertn. | Cacao sativa Aubl. | Cacao theobroma Tussac | Theobroma sativum (Aubl.) Lign. &amp; Bey | Theobroma kalagua De Wild. | Theobroma cacao subsp. cacao | Theobroma pentagonum Bernoulli | Cacao minus Gaertn. | Theobroma integerrimum Stokes | Theobroma saltzmanniana Bernoulli | Theobroma sativa (Aubl.) Lign. &amp; Bey | Theobroma sativa var. leucosperma A.Chev. | Theobroma sativa var. melanosperma A.Chev. | Theobroma cacao subsp. sativa (Aubl.) León | Theobroma cacao subsp. pentagonum (Bernoulli) León | Theobroma cacao f. pentagonum (Bernoulli) Cuatrec. | Theobroma cacao f. lacandonense Cuatrec. | Theobroma minus (Gaertn.) A.Chev. | Theobroma sativum var. leucospermum A.Chev. | Theobroma sativum var. melanospermum A.Chev.</t>
         </is>
       </c>
-      <c r="AA194" t="n">
+      <c r="AB194" t="n">
         <v>29</v>
       </c>
-      <c r="AB194" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC194" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Theobroma cacao L.", "wfo_id": "wfo-0000458440", "full_name_plain": "Theobroma cacao L.", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Theobroma'", "Word is found in index and so is part of name: 'cacao'.", "Word is lowercase. Subsequent words must start with lowercase: 'cacao'.", "Word contains non alpha chars and so is start of author string: 'L.'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'cacao'", "Authors string looks like this: 'L.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Theobroma cacao' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Theobroma cacao", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000458440", "full_name_plain": "Theobroma cacao L.", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 29}}</t>
         </is>
       </c>
     </row>
@@ -24554,35 +25058,35 @@
       </c>
       <c r="W195" t="inlineStr">
         <is>
+          <t>Thunbergia mysorensis</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
           <t>wfo-0000510530</t>
         </is>
       </c>
-      <c r="X195" t="inlineStr">
+      <c r="Y195" t="inlineStr">
         <is>
           <t>Thunbergia mysorensis (Wight) T.Anderson</t>
         </is>
       </c>
-      <c r="Y195" t="inlineStr">
+      <c r="Z195" t="inlineStr">
         <is>
           <t>Thunbergia mysorensis (Wight) T.Anderson</t>
         </is>
       </c>
-      <c r="Z195" t="inlineStr">
+      <c r="AA195" t="inlineStr">
         <is>
           <t>Hexacentris mysorensis Wight | Hexacentris mysorensis unranked lutea John Edwards</t>
         </is>
       </c>
-      <c r="AA195" t="n">
+      <c r="AB195" t="n">
         <v>2</v>
       </c>
-      <c r="AB195" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC195" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Thunbergia mysorensis (Wight) T.Anderson ex Bedd.", "wfo_id": "wfo-0000510530", "full_name_plain": "Thunbergia mysorensis (Wight) T.Anderson", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Thunbergia'", "Word is found in index and so is part of name: 'mysorensis'.", "Word is lowercase. Subsequent words must start with lowercase: 'mysorensis'.", "Word contains non alpha chars and so is start of author string: '(Wight)'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'mysorensis'", "Authors string looks like this: '(Wight) T.Anderson ex Bedd.'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Thunbergia mysorensis' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Thunbergia mysorensis", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000510530", "full_name_plain": "Thunbergia mysorensis (Wight) T.Anderson", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 2}}</t>
         </is>
       </c>
     </row>
@@ -24683,35 +25187,35 @@
       </c>
       <c r="W196" t="inlineStr">
         <is>
+          <t>Vanilla planifolia</t>
+        </is>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
           <t>wfo-0000331533</t>
         </is>
       </c>
-      <c r="X196" t="inlineStr">
+      <c r="Y196" t="inlineStr">
         <is>
           <t>Vanilla planifolia Andrews</t>
         </is>
       </c>
-      <c r="Y196" t="inlineStr">
+      <c r="Z196" t="inlineStr">
         <is>
           <t>Vanilla planifolia Andrews</t>
         </is>
       </c>
-      <c r="Z196" t="inlineStr">
+      <c r="AA196" t="inlineStr">
         <is>
           <t>Myrobroma fragrans Salisb. | Notylia planifolia (Andrews) Conz. | Notylia sativa (Schiede) Conz. | Notylia sylvestris (Schiede) Conz. | Vanilla aromatica Willd. | Vanilla bampsiana Geerinck | Vanilla duckei Huber | Vanilla fragrans Ames | Vanilla rubra (Lam.) Urb. | Vanilla sativa Schiede | Vanilla schwackeana Hoehne | Vanilla sylvestris Schiede | Vanilla viridiflora Blume | Vanilla planifolia var. angusta Costantin &amp; Boiss. ex C.Henry | Epidendrum rubrum Lam. | Vanilla sotoarenasii M.Pignal, Azof.-Bolaños &amp; Grisoni | Vanilla aromatica var. claviculata F.Buyss. | Vanilla aromatica var. bicolor F.Buyss. | Vanilla aromatica var. discolor F.Buyss. | Vanilla aromatica var. planifolia (Andrews) F.Buyss. | Vanilla aromatica var. lutescens F.Buyss. | Vanilla planifolia var. angusta Costantin &amp; Poiss. ex C.Henry</t>
         </is>
       </c>
-      <c r="AA196" t="n">
+      <c r="AB196" t="n">
         <v>22</v>
       </c>
-      <c r="AB196" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC196" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Vanilla planifolia Andrews", "wfo_id": "wfo-0000331533", "full_name_plain": "Vanilla planifolia Andrews", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Vanilla'", "Word is found in index and so is part of name: 'planifolia'.", "Word is lowercase. Subsequent words must start with lowercase: 'planifolia'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Andrews'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'planifolia'", "Authors string looks like this: 'Andrews'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Vanilla planifolia' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Vanilla planifolia", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000331533", "full_name_plain": "Vanilla planifolia Andrews", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 22}}</t>
         </is>
       </c>
     </row>
@@ -24812,35 +25316,35 @@
       </c>
       <c r="W197" t="inlineStr">
         <is>
+          <t>Vanilla pompona</t>
+        </is>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
           <t>wfo-0000331540</t>
         </is>
       </c>
-      <c r="X197" t="inlineStr">
+      <c r="Y197" t="inlineStr">
         <is>
           <t>Vanilla pompona Schiede</t>
         </is>
       </c>
-      <c r="Y197" t="inlineStr">
+      <c r="Z197" t="inlineStr">
         <is>
           <t>Vanilla pompona Schiede</t>
         </is>
       </c>
-      <c r="Z197" t="inlineStr">
+      <c r="AA197" t="inlineStr">
         <is>
           <t>Notylia pompona (Schiede) Conz. | Vanilla grandiflora Lindl. | Vanilla hamata Klotzsch | Vanilla lutescens Moq. ex Dupuis | Vanilla pittieri Schltr. | Vanilla pleei Portères | Vanilla planifolia var. gigantea Hoehne | Vanilla pompona subsp. pittieri (Schltr.) Dressler | Vanilla pompona subsp. grandiflora (Lindl.) Soto Arenas | Vanilla pompona subsp. pompona | Vanilla cochlearilabia Archila, Chiron &amp; Menchaca</t>
         </is>
       </c>
-      <c r="AA197" t="n">
+      <c r="AB197" t="n">
         <v>11</v>
       </c>
-      <c r="AB197" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
-      </c>
       <c r="AC197" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Vanilla pompona Schiede", "wfo_id": "wfo-0000331540", "full_name_plain": "Vanilla pompona Schiede", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Vanilla'", "Word is found in index and so is part of name: 'pompona'.", "Word is lowercase. Subsequent words must start with lowercase: 'pompona'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Schiede'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'pompona'", "Authors string looks like this: 'Schiede'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Vanilla pompona' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Vanilla pompona", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000331540", "full_name_plain": "Vanilla pompona Schiede", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 11}}</t>
         </is>
       </c>
     </row>
@@ -24941,35 +25445,35 @@
       </c>
       <c r="W198" t="inlineStr">
         <is>
+          <t>Zingiber officinale</t>
+        </is>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
           <t>wfo-0000617397</t>
         </is>
       </c>
-      <c r="X198" t="inlineStr">
+      <c r="Y198" t="inlineStr">
         <is>
           <t>Zingiber officinale Roscoe</t>
         </is>
       </c>
-      <c r="Y198" t="inlineStr">
+      <c r="Z198" t="inlineStr">
         <is>
           <t>Zingiber officinale Roscoe</t>
         </is>
       </c>
-      <c r="Z198" t="inlineStr">
-        <is>
-          <t>Zingiber officinale var. cholmondeleyi F.M.Bailey | Zingiber officinale var. macrorhizonum Makino | Zingiber officinale var. officinale | Zingiber officinale var. rubens Makino | Zingiber officinale var. rubrum Theilade | Zingiber officinale var. sichuanense (Z.Y.Zhu, S.L.Zhang &amp; S.X.Chen) Z.Y.Zhu, S.L.Zhang &amp; S.X.Chen | Amomum angustifolium Salisb. | Amomum zingiber L. | Zingiber aromaticum Noronha | Zingiber blancoi Hassk. | Zingiber confine Miq. | Zingiber officinale f. macrorhizonum (Makino) M.Hiroe | Zingiber officinale f. rubens (Makino) M.Hiroe | Zingiber zingiber H.Karst. | Curcuma longifolia Wall. | Zingiber majus Rumph.</t>
-        </is>
-      </c>
-      <c r="AA198" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB198" t="inlineStr">
-        <is>
-          <t>rest+html</t>
-        </is>
+      <c r="AA198" t="inlineStr">
+        <is>
+          <t>Amomum angustifolium Salisb. | Amomum zingiber L. | Zingiber aromaticum Noronha | Zingiber blancoi Hassk. | Zingiber confine Miq. | Zingiber officinale f. macrorhizonum (Makino) M.Hiroe | Zingiber officinale f. rubens (Makino) M.Hiroe | Zingiber zingiber H.Karst. | Curcuma longifolia Wall. | Zingiber majus Rumph.</t>
+        </is>
+      </c>
+      <c r="AB198" t="n">
+        <v>10</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
-          <t>{"mode": "rest+html", "input": "Zingiber officinale Roscoe", "wfo_id": "wfo-0000617397", "full_name_plain": "Zingiber officinale Roscoe", "rest_error": false, "rest_narrative": ["The first word is always a name part word: 'Zingiber'", "Word is found in index and so is part of name: 'officinale'.", "Word is lowercase. Subsequent words must start with lowercase: 'officinale'.", "Word starts with a capital when we have already had a name word starting with a lower case so part of author string: 'Roscoe'.", "There are two name parts. This may be an autonym with species authors included. Checking for second occurrence of 'officinale'", "Authors string looks like this: 'Roscoe'", "Parsed name complete.", "Rank estimated as 'species' from name parts.", "Searched index of 2025-12 for canonical form of name 'Zingiber officinale' and found 1 candidates.", "Check all homonyms is selected so not checking author strings.", "Still no match found.", "But 1 candidates found.", "A single candidate found and acceptSingleCandidate is true so it becomes the match."], "rest_keys": ["candidates", "error", "errorMessage", "inputString", "match", "narrative", "params", "parsedName", "searchString"]}</t>
+          <t>{"mode": "rest+variants", "chosen_query": "Zingiber officinale", "chosen_params": {"check_homonyms": true, "accept_single_candidate": true, "fuzzy_names": 0, "fuzzy_authors": 0, "chosen_from_candidates": false}, "wfo_id": "wfo-0000617397", "full_name_plain": "Zingiber officinale Roscoe", "attempts_count": 1, "parse": {"accepted_found": false, "synonym_count": 10}}</t>
         </is>
       </c>
     </row>

--- a/new_scripts_WFO_main_source/naming/plants_gbif_matched_plus_wfo.xlsx
+++ b/new_scripts_WFO_main_source/naming/plants_gbif_matched_plus_wfo.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>wfo_match_wfo_id</t>
+          <t>wfo_match_id</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
